--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044A5367-4FD1-4241-A0E3-5993EEA6CE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE069A2F-2D5B-41DF-A3CF-15A3BE33F724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="180">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -596,13 +596,16 @@
   </si>
   <si>
     <t>values</t>
+  </si>
+  <si>
+    <t>GUEST_ROOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,12 +649,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -993,7 +990,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="185">
+  <dxfs count="183">
     <dxf>
       <fill>
         <patternFill>
@@ -1257,20 +1254,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2615,9 +2598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2616CE-C113-4173-BA9E-9D8DBBCAB481}">
   <dimension ref="A1:AO76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ61" sqref="AJ61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,47 +3424,47 @@
       <c r="D8" s="12"/>
       <c r="E8" s="29"/>
       <c r="F8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" ref="F8:P8" si="2">"true"</f>
         <v>true</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="2"/>
         <v>true</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="2"/>
         <v>true</v>
       </c>
       <c r="I8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="2"/>
         <v>true</v>
       </c>
       <c r="J8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="2"/>
         <v>true</v>
       </c>
       <c r="K8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="2"/>
         <v>true</v>
       </c>
       <c r="L8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="2"/>
         <v>true</v>
       </c>
       <c r="M8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="2"/>
         <v>true</v>
       </c>
       <c r="N8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="2"/>
         <v>true</v>
       </c>
       <c r="O8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="2"/>
         <v>true</v>
       </c>
       <c r="P8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="2"/>
         <v>true</v>
       </c>
       <c r="Q8" s="6"/>
@@ -3512,15 +3495,15 @@
         <v>true</v>
       </c>
       <c r="AC8" s="6" t="str">
-        <f t="shared" ref="AC8:AE8" si="2">"true"</f>
+        <f t="shared" ref="AC8:AE8" si="3">"true"</f>
         <v>true</v>
       </c>
       <c r="AD8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="AE8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="AF8" s="6"/>
@@ -3530,31 +3513,31 @@
         <v>true</v>
       </c>
       <c r="AI8" s="6" t="str">
-        <f t="shared" ref="AI8:AO8" si="3">"true"</f>
+        <f t="shared" ref="AI8:AO8" si="4">"true"</f>
         <v>true</v>
       </c>
       <c r="AJ8" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>true</v>
       </c>
       <c r="AK8" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>true</v>
       </c>
       <c r="AL8" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>true</v>
       </c>
       <c r="AM8" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>true</v>
       </c>
       <c r="AN8" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>true</v>
       </c>
       <c r="AO8" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>true</v>
       </c>
     </row>
@@ -4840,22 +4823,22 @@
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="35" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="L21" s="27" t="s">
         <v>81</v>
@@ -6118,11 +6101,11 @@
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
       <c r="AN42" s="44" t="str">
-        <f t="shared" ref="AN42:AO42" si="4">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
+        <f t="shared" ref="AN42:AO42" si="5">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
       <c r="AO42" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
@@ -7003,11 +6986,11 @@
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
       <c r="AI63" s="25" t="str">
-        <f t="shared" ref="AI63:AJ63" si="5">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
+        <f t="shared" ref="AI63:AJ63" si="6">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
       <c r="AJ63" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
       <c r="AL63" s="25" t="str">
@@ -7148,727 +7131,727 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A65:E76 A5:E5 A10:E18">
-    <cfRule type="expression" dxfId="184" priority="278">
+    <cfRule type="expression" dxfId="182" priority="278">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="183" priority="253">
+    <cfRule type="expression" dxfId="181" priority="253">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="expression" dxfId="182" priority="252">
+    <cfRule type="expression" dxfId="180" priority="252">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="181" priority="250">
+    <cfRule type="expression" dxfId="179" priority="250">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E9">
-    <cfRule type="expression" dxfId="180" priority="249">
+    <cfRule type="expression" dxfId="178" priority="249">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:E57">
-    <cfRule type="expression" dxfId="179" priority="266">
+    <cfRule type="expression" dxfId="177" priority="266">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="178" priority="265">
+    <cfRule type="expression" dxfId="176" priority="265">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="177" priority="251">
+    <cfRule type="expression" dxfId="175" priority="251">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="176" priority="207">
+    <cfRule type="expression" dxfId="174" priority="207">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B9">
-    <cfRule type="expression" dxfId="175" priority="236">
+    <cfRule type="expression" dxfId="173" priority="236">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E23">
-    <cfRule type="expression" dxfId="174" priority="247">
+    <cfRule type="expression" dxfId="172" priority="247">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="expression" dxfId="173" priority="238">
+    <cfRule type="expression" dxfId="171" priority="238">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:E61">
-    <cfRule type="expression" dxfId="172" priority="199">
+    <cfRule type="expression" dxfId="170" priority="199">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B29 A22:B23">
-    <cfRule type="expression" dxfId="171" priority="237">
+    <cfRule type="expression" dxfId="169" priority="237">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="170" priority="233">
+    <cfRule type="expression" dxfId="168" priority="233">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B33">
-    <cfRule type="expression" dxfId="169" priority="234">
+    <cfRule type="expression" dxfId="167" priority="234">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C23 C28:C36">
-    <cfRule type="expression" dxfId="168" priority="231">
+    <cfRule type="expression" dxfId="166" priority="231">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B57">
-    <cfRule type="expression" dxfId="167" priority="232">
+    <cfRule type="expression" dxfId="165" priority="232">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E25">
-    <cfRule type="expression" dxfId="166" priority="228">
+    <cfRule type="expression" dxfId="164" priority="228">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27">
-    <cfRule type="expression" dxfId="165" priority="227">
+    <cfRule type="expression" dxfId="163" priority="227">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="expression" dxfId="164" priority="226">
+    <cfRule type="expression" dxfId="162" priority="226">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27 A24:B25">
-    <cfRule type="expression" dxfId="163" priority="225">
+    <cfRule type="expression" dxfId="161" priority="225">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="expression" dxfId="162" priority="224">
+    <cfRule type="expression" dxfId="160" priority="224">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C27">
-    <cfRule type="expression" dxfId="161" priority="223">
+    <cfRule type="expression" dxfId="159" priority="223">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D38">
-    <cfRule type="expression" dxfId="160" priority="222">
+    <cfRule type="expression" dxfId="158" priority="222">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="159" priority="186">
+    <cfRule type="expression" dxfId="157" priority="186">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D38">
-    <cfRule type="expression" dxfId="158" priority="221">
+    <cfRule type="expression" dxfId="156" priority="221">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B38">
-    <cfRule type="expression" dxfId="157" priority="219">
+    <cfRule type="expression" dxfId="155" priority="219">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C38">
-    <cfRule type="expression" dxfId="156" priority="217">
+    <cfRule type="expression" dxfId="154" priority="217">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E38">
-    <cfRule type="expression" dxfId="155" priority="216">
+    <cfRule type="expression" dxfId="153" priority="216">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="154" priority="210">
+    <cfRule type="expression" dxfId="152" priority="210">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="153" priority="215">
+    <cfRule type="expression" dxfId="151" priority="215">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D33">
-    <cfRule type="expression" dxfId="152" priority="213">
+    <cfRule type="expression" dxfId="150" priority="213">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D33">
-    <cfRule type="expression" dxfId="151" priority="212">
+    <cfRule type="expression" dxfId="149" priority="212">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="expression" dxfId="150" priority="211">
+    <cfRule type="expression" dxfId="148" priority="211">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E33">
-    <cfRule type="expression" dxfId="149" priority="209">
+    <cfRule type="expression" dxfId="147" priority="209">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="148" priority="197">
+    <cfRule type="expression" dxfId="146" priority="197">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:E58">
-    <cfRule type="expression" dxfId="147" priority="206">
+    <cfRule type="expression" dxfId="145" priority="206">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58">
-    <cfRule type="expression" dxfId="146" priority="205">
+    <cfRule type="expression" dxfId="144" priority="205">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="145" priority="204">
+    <cfRule type="expression" dxfId="143" priority="204">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B60">
-    <cfRule type="expression" dxfId="144" priority="202">
+    <cfRule type="expression" dxfId="142" priority="202">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="143" priority="201">
+    <cfRule type="expression" dxfId="141" priority="201">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="142" priority="200">
+    <cfRule type="expression" dxfId="140" priority="200">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="141" priority="198">
+    <cfRule type="expression" dxfId="139" priority="198">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B63">
-    <cfRule type="expression" dxfId="140" priority="195">
+    <cfRule type="expression" dxfId="138" priority="195">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="139" priority="194">
+    <cfRule type="expression" dxfId="137" priority="194">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="138" priority="193">
+    <cfRule type="expression" dxfId="136" priority="193">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:E64">
-    <cfRule type="expression" dxfId="137" priority="192">
+    <cfRule type="expression" dxfId="135" priority="192">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="expression" dxfId="136" priority="191">
+    <cfRule type="expression" dxfId="134" priority="191">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="135" priority="181">
+    <cfRule type="expression" dxfId="133" priority="181">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="134" priority="180">
+    <cfRule type="expression" dxfId="132" priority="180">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="133" priority="188">
+    <cfRule type="expression" dxfId="131" priority="188">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="132" priority="187">
+    <cfRule type="expression" dxfId="130" priority="187">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="expression" dxfId="131" priority="176">
+    <cfRule type="expression" dxfId="129" priority="176">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="130" priority="185">
+    <cfRule type="expression" dxfId="128" priority="185">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="129" priority="184">
+    <cfRule type="expression" dxfId="127" priority="184">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="128" priority="183">
+    <cfRule type="expression" dxfId="126" priority="183">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="127" priority="182">
+    <cfRule type="expression" dxfId="125" priority="182">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B52">
-    <cfRule type="expression" dxfId="126" priority="115">
+    <cfRule type="expression" dxfId="124" priority="115">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:B54">
-    <cfRule type="expression" dxfId="125" priority="114">
+    <cfRule type="expression" dxfId="123" priority="114">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D36">
-    <cfRule type="expression" dxfId="124" priority="179">
+    <cfRule type="expression" dxfId="122" priority="179">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D36">
-    <cfRule type="expression" dxfId="123" priority="178">
+    <cfRule type="expression" dxfId="121" priority="178">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B35">
-    <cfRule type="expression" dxfId="122" priority="177">
+    <cfRule type="expression" dxfId="120" priority="177">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="121" priority="173">
+    <cfRule type="expression" dxfId="119" priority="173">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E35">
-    <cfRule type="expression" dxfId="120" priority="174">
+    <cfRule type="expression" dxfId="118" priority="174">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="119" priority="172">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:Z18 F21:Z27 F38:Z38 F34:I37 L34:Z37 F30:U33 F29:AA29 W30:AA33 AA21 AB29:AG33 AH29:AM29 AA10:AM18 F57:AM59 AN57:AO63 F64:AO76 F61:AM62 F60:AG60 AK60 F63:AG63 AK63">
-    <cfRule type="expression" dxfId="118" priority="169">
+    <cfRule type="expression" dxfId="117" priority="172">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:Z18 F38:Z38 F34:I37 L34:Z37 F30:U33 F29:AA29 W30:AA33 AA21 AB29:AG33 AH29:AM29 AA10:AM18 F57:AM59 AN57:AO63 F64:AO76 F61:AM62 F60:AG60 AK60 F63:AG63 AK63 F21:Z27">
+    <cfRule type="expression" dxfId="116" priority="169">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C42">
-    <cfRule type="expression" dxfId="117" priority="168">
+    <cfRule type="expression" dxfId="115" priority="168">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:E42">
-    <cfRule type="expression" dxfId="116" priority="167">
+    <cfRule type="expression" dxfId="114" priority="167">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B42">
-    <cfRule type="expression" dxfId="115" priority="166">
+    <cfRule type="expression" dxfId="113" priority="166">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:Z42">
-    <cfRule type="expression" dxfId="114" priority="165">
+    <cfRule type="expression" dxfId="112" priority="165">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:K35">
-    <cfRule type="expression" dxfId="113" priority="164">
+    <cfRule type="expression" dxfId="111" priority="164">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39:AG42">
-    <cfRule type="expression" dxfId="112" priority="160">
+    <cfRule type="expression" dxfId="110" priority="160">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K37">
-    <cfRule type="expression" dxfId="111" priority="162">
+    <cfRule type="expression" dxfId="109" priority="162">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AG38 AA5:AG9 AB21:AG21 AA22:AM27">
-    <cfRule type="expression" dxfId="110" priority="161">
+    <cfRule type="expression" dxfId="108" priority="161">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="expression" dxfId="109" priority="159">
+    <cfRule type="expression" dxfId="107" priority="159">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47 C49">
-    <cfRule type="expression" dxfId="108" priority="158">
+    <cfRule type="expression" dxfId="106" priority="158">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:E20">
-    <cfRule type="expression" dxfId="107" priority="130">
+    <cfRule type="expression" dxfId="105" priority="130">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="106" priority="155">
+    <cfRule type="expression" dxfId="104" priority="155">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:C56">
-    <cfRule type="expression" dxfId="105" priority="126">
+    <cfRule type="expression" dxfId="103" priority="126">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:B56">
-    <cfRule type="expression" dxfId="104" priority="123">
+    <cfRule type="expression" dxfId="102" priority="123">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="103" priority="151">
+    <cfRule type="expression" dxfId="101" priority="151">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="102" priority="150">
+    <cfRule type="expression" dxfId="100" priority="150">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="101" priority="149">
+    <cfRule type="expression" dxfId="99" priority="149">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B47">
-    <cfRule type="expression" dxfId="100" priority="145">
+    <cfRule type="expression" dxfId="98" priority="145">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45 D47">
-    <cfRule type="expression" dxfId="99" priority="148">
+    <cfRule type="expression" dxfId="97" priority="148">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45 D47">
-    <cfRule type="expression" dxfId="98" priority="147">
+    <cfRule type="expression" dxfId="96" priority="147">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="expression" dxfId="97" priority="146">
+    <cfRule type="expression" dxfId="95" priority="146">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="96" priority="143">
+    <cfRule type="expression" dxfId="94" priority="143">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E45">
-    <cfRule type="expression" dxfId="95" priority="144">
+    <cfRule type="expression" dxfId="93" priority="144">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" dxfId="94" priority="142">
+    <cfRule type="expression" dxfId="92" priority="142">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:Z56 F43:U43 W43:Y43 F44:I47 L44:Z47 L49:Z49 F49:I49">
-    <cfRule type="expression" dxfId="93" priority="141">
+    <cfRule type="expression" dxfId="91" priority="141">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:K45">
-    <cfRule type="expression" dxfId="92" priority="136">
+    <cfRule type="expression" dxfId="90" priority="136">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44:AD46 AA47 AC47:AD47">
-    <cfRule type="expression" dxfId="91" priority="131">
+    <cfRule type="expression" dxfId="89" priority="131">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:K47 J49:K49">
-    <cfRule type="expression" dxfId="90" priority="135">
+    <cfRule type="expression" dxfId="88" priority="135">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA56:AG56 AA49:AD49 AF44:AG46 AF49:AG49 AF47">
-    <cfRule type="expression" dxfId="89" priority="134">
+    <cfRule type="expression" dxfId="87" priority="134">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="88" priority="132">
+    <cfRule type="expression" dxfId="86" priority="132">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21">
-    <cfRule type="expression" dxfId="87" priority="59">
+    <cfRule type="expression" dxfId="85" priority="59">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:AM20">
-    <cfRule type="expression" dxfId="86" priority="129">
+    <cfRule type="expression" dxfId="84" priority="129">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB51:AD53 AC54">
-    <cfRule type="expression" dxfId="85" priority="103">
+    <cfRule type="expression" dxfId="83" priority="103">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="84" priority="102">
+    <cfRule type="expression" dxfId="82" priority="102">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B48">
-    <cfRule type="expression" dxfId="83" priority="99">
+    <cfRule type="expression" dxfId="81" priority="99">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D49">
-    <cfRule type="expression" dxfId="82" priority="93">
+    <cfRule type="expression" dxfId="80" priority="93">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D52 D54">
-    <cfRule type="expression" dxfId="81" priority="117">
+    <cfRule type="expression" dxfId="79" priority="117">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D52 D54">
-    <cfRule type="expression" dxfId="80" priority="116">
+    <cfRule type="expression" dxfId="78" priority="116">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="79" priority="112">
+    <cfRule type="expression" dxfId="77" priority="112">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E52">
-    <cfRule type="expression" dxfId="78" priority="113">
+    <cfRule type="expression" dxfId="76" priority="113">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E54">
-    <cfRule type="expression" dxfId="77" priority="111">
+    <cfRule type="expression" dxfId="75" priority="111">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:I55 L51:Z55">
-    <cfRule type="expression" dxfId="76" priority="110">
+    <cfRule type="expression" dxfId="74" priority="110">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:K52">
-    <cfRule type="expression" dxfId="75" priority="109">
+    <cfRule type="expression" dxfId="73" priority="109">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH50:AK50">
-    <cfRule type="expression" dxfId="74" priority="67">
+    <cfRule type="expression" dxfId="72" priority="67">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:K55">
-    <cfRule type="expression" dxfId="73" priority="108">
+    <cfRule type="expression" dxfId="71" priority="108">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55:AF55 AE51:AF54 AG51:AG55">
-    <cfRule type="expression" dxfId="72" priority="107">
+    <cfRule type="expression" dxfId="70" priority="107">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="71" priority="106">
+    <cfRule type="expression" dxfId="69" priority="106">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51:AA54">
-    <cfRule type="expression" dxfId="70" priority="104">
+    <cfRule type="expression" dxfId="68" priority="104">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH31:AM31">
-    <cfRule type="expression" dxfId="69" priority="66">
+    <cfRule type="expression" dxfId="67" priority="66">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:Z48 F48:I48">
-    <cfRule type="expression" dxfId="68" priority="96">
+    <cfRule type="expression" dxfId="66" priority="96">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:K48">
-    <cfRule type="expression" dxfId="67" priority="95">
+    <cfRule type="expression" dxfId="65" priority="95">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA48 AC48:AD48 AF48:AG48">
-    <cfRule type="expression" dxfId="66" priority="94">
+    <cfRule type="expression" dxfId="64" priority="94">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E49">
-    <cfRule type="expression" dxfId="65" priority="92">
+    <cfRule type="expression" dxfId="63" priority="92">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D56">
-    <cfRule type="expression" dxfId="64" priority="91">
+    <cfRule type="expression" dxfId="62" priority="91">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:E56">
-    <cfRule type="expression" dxfId="63" priority="90">
+    <cfRule type="expression" dxfId="61" priority="90">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="62" priority="89">
+    <cfRule type="expression" dxfId="60" priority="89">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="expression" dxfId="61" priority="88">
+    <cfRule type="expression" dxfId="59" priority="88">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50:Z50 F50:I50">
-    <cfRule type="expression" dxfId="60" priority="87">
+    <cfRule type="expression" dxfId="58" priority="87">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:K50">
-    <cfRule type="expression" dxfId="59" priority="86">
+    <cfRule type="expression" dxfId="57" priority="86">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA50:AG50">
-    <cfRule type="expression" dxfId="58" priority="85">
+    <cfRule type="expression" dxfId="56" priority="85">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="57" priority="84">
+    <cfRule type="expression" dxfId="55" priority="84">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="56" priority="83">
+    <cfRule type="expression" dxfId="54" priority="83">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE44:AE47">
-    <cfRule type="expression" dxfId="55" priority="82">
+    <cfRule type="expression" dxfId="53" priority="82">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE49">
-    <cfRule type="expression" dxfId="54" priority="81">
+    <cfRule type="expression" dxfId="52" priority="81">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AM33">
-    <cfRule type="expression" dxfId="53" priority="65">
+    <cfRule type="expression" dxfId="51" priority="65">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB48">
-    <cfRule type="expression" dxfId="52" priority="79">
+    <cfRule type="expression" dxfId="50" priority="79">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB54">
-    <cfRule type="expression" dxfId="51" priority="78">
+    <cfRule type="expression" dxfId="49" priority="78">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD54">
-    <cfRule type="expression" dxfId="50" priority="77">
+    <cfRule type="expression" dxfId="48" priority="77">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE48">
-    <cfRule type="expression" dxfId="49" priority="76">
+    <cfRule type="expression" dxfId="47" priority="76">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH30:AM30">
-    <cfRule type="expression" dxfId="48" priority="75">
+    <cfRule type="expression" dxfId="46" priority="75">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:AG41 AH39:AK40 F43:AK49 AL40:AM40 F42:AJ42">
-    <cfRule type="expression" dxfId="47" priority="73">
+    <cfRule type="expression" dxfId="45" priority="73">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AK9 AH34:AK38">
-    <cfRule type="expression" dxfId="46" priority="74">
+    <cfRule type="expression" dxfId="44" priority="74">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH56:AK56 AH44:AK46 AH49:AK49">
-    <cfRule type="expression" dxfId="45" priority="72">
+    <cfRule type="expression" dxfId="43" priority="72">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH51:AK55">
-    <cfRule type="expression" dxfId="44" priority="69">
+    <cfRule type="expression" dxfId="42" priority="69">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH48:AK48">
-    <cfRule type="expression" dxfId="43" priority="68">
+    <cfRule type="expression" dxfId="41" priority="68">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL63">
-    <cfRule type="expression" dxfId="42" priority="7">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="41" priority="64">
+    <cfRule type="expression" dxfId="39" priority="64">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="39" priority="62">
+    <cfRule type="expression" dxfId="38" priority="62">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE069A2F-2D5B-41DF-A3CF-15A3BE33F724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08E839-64EF-42B1-85BD-944780987580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="181">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -520,9 +520,6 @@
     <t>fenestration_subsurfaces[0]</t>
   </si>
   <si>
-    <t>AMBIENT</t>
-  </si>
-  <si>
     <t>adjacent_to</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
     <t>has_occupancy_control</t>
   </si>
   <si>
-    <t>lighting_schedule_name</t>
-  </si>
-  <si>
     <t>schedules[0]</t>
   </si>
   <si>
@@ -595,10 +589,19 @@
     <t>OFFICE_OPEN_PLAN</t>
   </si>
   <si>
-    <t>values</t>
-  </si>
-  <si>
     <t>GUEST_ROOM</t>
+  </si>
+  <si>
+    <t>building_segment</t>
+  </si>
+  <si>
+    <t>EXTERIOR</t>
+  </si>
+  <si>
+    <t>lighting_multiplier_schedule_name</t>
+  </si>
+  <si>
+    <t>hourly_values</t>
   </si>
 </sst>
 </file>
@@ -2596,11 +2599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2616CE-C113-4173-BA9E-9D8DBBCAB481}">
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AO77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,28 +2994,28 @@
         <v>144</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AN3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3225,28 +3228,28 @@
         <v>143</v>
       </c>
       <c r="AH5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AI5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AK5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AK5" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="AL5" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AM5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AN5" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="AO5" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4045,29 +4048,116 @@
         <v>71</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="3" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>87</v>
+        <v>177</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="W14" s="32" t="s">
-        <v>124</v>
+        <v>177</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -4078,119 +4168,32 @@
         <v>63</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E15" s="29"/>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="32">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W15" s="32" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -4204,116 +4207,116 @@
         <v>72</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="29"/>
-      <c r="F16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="W16" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO16" s="3" t="s">
-        <v>73</v>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="32">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -4324,119 +4327,119 @@
         <v>63</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" s="29"/>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="32">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="3">
-        <v>0</v>
+      <c r="F17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W17" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO17" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -4450,116 +4453,116 @@
         <v>74</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="29"/>
-      <c r="F18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W18" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO18" s="3" t="s">
-        <v>75</v>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="32">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -4570,119 +4573,119 @@
         <v>63</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="W19" s="32" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -4696,116 +4699,116 @@
         <v>64</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W20" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -4819,94 +4822,116 @@
         <v>64</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E21" s="29"/>
-      <c r="F21" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y21" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ21" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK21" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO21" s="27" t="s">
-        <v>177</v>
+      <c r="F21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="W21" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -4920,116 +4945,94 @@
         <v>64</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="29"/>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W22" s="32">
-        <v>1000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AK22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AL22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AM22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AN22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AO22" s="3">
-        <v>1000</v>
+      <c r="F22" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y22" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ22" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK22" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO22" s="27" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -5043,18 +5046,116 @@
         <v>64</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="E23" s="29"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>127</v>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W23" s="32">
+        <v>1000</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -5065,25 +5166,22 @@
         <v>63</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E24" s="29"/>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2</v>
-      </c>
       <c r="W24" s="32"/>
+      <c r="X24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -5096,20 +5194,20 @@
         <v>85</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>137</v>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2</v>
       </c>
       <c r="W25" s="32"/>
     </row>
@@ -5124,53 +5222,22 @@
         <v>85</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="F26" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="27"/>
-      <c r="AM26" s="27"/>
-      <c r="AN26" s="27"/>
-      <c r="AO26" s="27"/>
+      <c r="F26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W26" s="32"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -5183,22 +5250,53 @@
         <v>85</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="29"/>
-      <c r="F27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W27" s="32"/>
+      <c r="F27" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -5208,122 +5306,25 @@
         <v>63</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO28" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W28" s="32"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -5339,115 +5340,115 @@
         <v>86</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="W29" s="32" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AI29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AJ29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AL29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AN29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -5464,67 +5465,115 @@
         <v>86</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="I30" s="33">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="R30" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="S30" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="U30" s="3">
-        <v>0.54</v>
+        <v>67</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="W30" s="32">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="X30" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>1.2</v>
+        <v>125</v>
+      </c>
+      <c r="W30" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO30" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -5541,37 +5590,67 @@
         <v>86</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="W31" s="32"/>
-      <c r="AA31" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="AB31" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="AC31" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="AD31" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="AE31" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="AF31" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="AG31" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
+        <v>82</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I31" s="33">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="W31" s="32">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X31" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -5588,23 +5667,35 @@
         <v>86</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I32" s="33"/>
       <c r="W32" s="32"/>
-      <c r="AH32" s="3" t="str">
+      <c r="AA32" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AB32" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AI32" s="3" t="str">
+      <c r="AC32" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AD32" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AE32" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AJ32" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="AK32" s="3" t="str">
+      <c r="AF32" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AG32" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
@@ -5623,33 +5714,25 @@
         <v>86</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I33" s="33"/>
       <c r="W33" s="32"/>
-      <c r="AH33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO33" s="3" t="s">
-        <v>169</v>
+      <c r="AH33" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+      <c r="AI33" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+      <c r="AJ33" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+      <c r="AK33" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
@@ -5663,40 +5746,36 @@
         <v>64</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="3">
-        <v>2</v>
-      </c>
-      <c r="K34" s="3">
-        <v>2</v>
-      </c>
-      <c r="L34" s="3">
-        <v>2</v>
-      </c>
-      <c r="M34" s="3">
-        <v>2</v>
-      </c>
-      <c r="N34" s="3">
-        <v>2</v>
-      </c>
-      <c r="O34" s="3">
-        <v>2</v>
-      </c>
-      <c r="P34" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>2</v>
-      </c>
-      <c r="R34" s="3">
-        <v>2</v>
-      </c>
-      <c r="S34" s="3">
-        <v>2</v>
+        <v>179</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="W34" s="32"/>
+      <c r="AH34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO34" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -5713,37 +5792,37 @@
         <v>93</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>114</v>
+        <v>65</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2</v>
+      </c>
+      <c r="P35" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>2</v>
+      </c>
+      <c r="S35" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
@@ -5760,37 +5839,37 @@
         <v>93</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="R36" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="S36" s="3">
-        <v>0.32</v>
+        <v>67</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
@@ -5801,25 +5880,43 @@
         <v>63</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3">
-        <v>2</v>
-      </c>
-      <c r="H37" s="3">
-        <v>2</v>
-      </c>
-      <c r="I37" s="3">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="R37" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0.32</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
@@ -5836,22 +5933,22 @@
         <v>86</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>59</v>
       </c>
@@ -5864,315 +5961,279 @@
       <c r="D39" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F40" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G40" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H40" s="25">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I40" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="25"/>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="25"/>
-    </row>
-    <row r="40" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="25"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="25"/>
+      <c r="AM40" s="25"/>
+      <c r="AN40" s="25"/>
+      <c r="AO40" s="25"/>
+    </row>
+    <row r="41" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B41" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="38" t="s">
+      <c r="C41" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="40"/>
-      <c r="AC40" s="40"/>
-      <c r="AD40" s="40"/>
-      <c r="AE40" s="40"/>
-      <c r="AF40" s="40"/>
-      <c r="AG40" s="40"/>
-      <c r="AH40" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI40" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ40" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK40" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL40" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM40" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN40" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO40" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="40"/>
+      <c r="AD41" s="40"/>
+      <c r="AE41" s="40"/>
+      <c r="AF41" s="40"/>
+      <c r="AG41" s="40"/>
+      <c r="AH41" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI41" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ41" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK41" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL41" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM41" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN41" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO41" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="C42" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="25"/>
-      <c r="AG41" s="25"/>
-      <c r="AH41" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI41" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ41" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK41" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL41" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM41" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN41" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO41" s="25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
+      <c r="E42" s="29"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI42" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ42" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK42" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL42" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM42" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN42" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO42" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B43" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="44"/>
-      <c r="AI42" s="44"/>
-      <c r="AJ42" s="44"/>
-      <c r="AK42" s="44" t="str">
+      <c r="C43" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AL42" s="44"/>
-      <c r="AM42" s="44" t="str">
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-      <c r="AN42" s="44" t="str">
-        <f t="shared" ref="AN42:AO42" si="5">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
+      <c r="AN43" s="44" t="str">
+        <f t="shared" ref="AN43:AO43" si="5">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-      <c r="AO42" s="44" t="str">
+      <c r="AO43" s="44" t="str">
         <f t="shared" si="5"/>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB43" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC43" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD43" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE43" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF43" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG43" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="25"/>
-      <c r="AN43" s="25"/>
-      <c r="AO43" s="25"/>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
@@ -6185,7 +6246,7 @@
         <v>148</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="25"/>
@@ -6210,25 +6271,25 @@
       <c r="Y44" s="25"/>
       <c r="Z44" s="25"/>
       <c r="AA44" s="25" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="AB44" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AC44" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AD44" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AE44" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AF44" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AG44" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AH44" s="25"/>
       <c r="AI44" s="25"/>
@@ -6250,7 +6311,7 @@
         <v>148</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="25"/>
@@ -6275,25 +6336,25 @@
       <c r="Y45" s="25"/>
       <c r="Z45" s="25"/>
       <c r="AA45" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AB45" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AC45" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AD45" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE45" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF45" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AG45" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AH45" s="25"/>
       <c r="AI45" s="25"/>
@@ -6314,8 +6375,8 @@
       <c r="C46" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="36" t="s">
-        <v>151</v>
+      <c r="D46" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="25"/>
@@ -6339,26 +6400,26 @@
       <c r="X46" s="25"/>
       <c r="Y46" s="25"/>
       <c r="Z46" s="25"/>
-      <c r="AA46" s="25">
-        <v>90</v>
-      </c>
-      <c r="AB46" s="25">
-        <v>90</v>
-      </c>
-      <c r="AC46" s="25">
-        <v>90</v>
-      </c>
-      <c r="AD46" s="25">
-        <v>90</v>
-      </c>
-      <c r="AE46" s="25">
-        <v>90</v>
-      </c>
-      <c r="AF46" s="25">
-        <v>90</v>
-      </c>
-      <c r="AG46" s="25">
-        <v>90</v>
+      <c r="AA46" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB46" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC46" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD46" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE46" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF46" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG46" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="AH46" s="25"/>
       <c r="AI46" s="25"/>
@@ -6379,8 +6440,8 @@
       <c r="C47" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>155</v>
+      <c r="D47" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="25"/>
@@ -6405,25 +6466,25 @@
       <c r="Y47" s="25"/>
       <c r="Z47" s="25"/>
       <c r="AA47" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="25" t="s">
-        <v>135</v>
+        <v>90</v>
+      </c>
+      <c r="AB47" s="25">
+        <v>90</v>
       </c>
       <c r="AC47" s="25">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AD47" s="25">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="AE47" s="25">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF47" s="25">
-        <v>180</v>
-      </c>
-      <c r="AG47" s="25" t="s">
-        <v>135</v>
+        <v>90</v>
+      </c>
+      <c r="AG47" s="25">
+        <v>90</v>
       </c>
       <c r="AH47" s="25"/>
       <c r="AI47" s="25"/>
@@ -6444,12 +6505,10 @@
       <c r="C48" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="D48" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="12"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -6471,17 +6530,27 @@
       <c r="X48" s="25"/>
       <c r="Y48" s="25"/>
       <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
+      <c r="AA48" s="25">
+        <v>0</v>
+      </c>
       <c r="AB48" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF48" s="25"/>
-      <c r="AG48" s="25"/>
+      <c r="AC48" s="25">
+        <v>180</v>
+      </c>
+      <c r="AD48" s="25">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="25">
+        <v>180</v>
+      </c>
+      <c r="AG48" s="25" t="s">
+        <v>135</v>
+      </c>
       <c r="AH48" s="25"/>
       <c r="AI48" s="25"/>
       <c r="AJ48" s="25"/>
@@ -6505,7 +6574,7 @@
         <v>152</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
@@ -6530,12 +6599,12 @@
       <c r="Z49" s="25"/>
       <c r="AA49" s="25"/>
       <c r="AB49" s="25" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="AC49" s="25"/>
       <c r="AD49" s="25"/>
       <c r="AE49" s="25" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="AF49" s="25"/>
       <c r="AG49" s="25"/>
@@ -6556,27 +6625,54 @@
         <v>63</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="AB50" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC50" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD50" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF50" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG50" s="3">
-        <v>2</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF50" s="25"/>
+      <c r="AG50" s="25"/>
+      <c r="AH50" s="25"/>
+      <c r="AI50" s="25"/>
+      <c r="AJ50" s="25"/>
+      <c r="AK50" s="25"/>
+      <c r="AL50" s="25"/>
+      <c r="AM50" s="25"/>
+      <c r="AN50" s="25"/>
+      <c r="AO50" s="25"/>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
@@ -6586,26 +6682,26 @@
         <v>63</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>67</v>
+        <v>157</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="AB51" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC51" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD51" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF51" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG51" s="3" t="s">
-        <v>159</v>
+      <c r="AB51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
@@ -6616,26 +6712,26 @@
         <v>63</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="E52" s="12"/>
       <c r="AB52" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AC52" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AD52" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG52" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -6646,26 +6742,26 @@
         <v>63</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="E53" s="12"/>
-      <c r="AB53" s="3">
-        <v>90</v>
-      </c>
-      <c r="AC53" s="3">
-        <v>90</v>
-      </c>
-      <c r="AD53" s="3">
-        <v>90</v>
-      </c>
-      <c r="AF53" s="3">
-        <v>90</v>
-      </c>
-      <c r="AG53" s="3">
-        <v>90</v>
+      <c r="AB53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG53" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
@@ -6676,26 +6772,26 @@
         <v>63</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="E54" s="12"/>
-      <c r="AB54" s="3" t="s">
-        <v>135</v>
+      <c r="AB54" s="3">
+        <v>90</v>
       </c>
       <c r="AC54" s="3">
-        <v>180</v>
-      </c>
-      <c r="AD54" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>90</v>
       </c>
       <c r="AF54" s="3">
-        <v>270</v>
-      </c>
-      <c r="AG54" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
@@ -6706,157 +6802,164 @@
         <v>63</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="AB55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>180</v>
+      </c>
+      <c r="AD55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF55" s="3">
+        <v>270</v>
+      </c>
+      <c r="AG55" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E56" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AB55" s="3">
+      <c r="AB56" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
+    <row r="57" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B57" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D56" s="45" t="s">
+      <c r="C57" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E57" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
-      <c r="AM56" s="22"/>
-      <c r="AN56" s="22"/>
-      <c r="AO56" s="22"/>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="22"/>
+      <c r="AI57" s="22"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="22"/>
+      <c r="AM57" s="22"/>
+      <c r="AN57" s="22"/>
+      <c r="AO57" s="22"/>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B59" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="22"/>
-      <c r="AI58" s="22"/>
-      <c r="AJ58" s="22"/>
-      <c r="AK58" s="22"/>
-      <c r="AL58" s="22"/>
-      <c r="AM58" s="22"/>
-      <c r="AN58" s="22"/>
-      <c r="AO58" s="22"/>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="22"/>
+      <c r="AI59" s="22"/>
+      <c r="AJ59" s="22"/>
+      <c r="AK59" s="22"/>
+      <c r="AL59" s="22"/>
+      <c r="AM59" s="22"/>
+      <c r="AN59" s="22"/>
+      <c r="AO59" s="22"/>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
@@ -6866,102 +6969,102 @@
         <v>12</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" s="29"/>
+        <v>64</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="G60" s="6">
+        <v>0.51</v>
+      </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-      <c r="AH60" s="25" t="str">
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="29"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="AH61" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1638/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.187</v>
       </c>
-      <c r="AI60" s="25" t="str">
+      <c r="AI61" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1900/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2169</v>
       </c>
-      <c r="AJ60" s="25" t="str">
+      <c r="AJ61" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AL60" s="25" t="str">
+      <c r="AL61" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
-    <row r="61" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
+    <row r="62" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B62" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="22"/>
-      <c r="AO61" s="22"/>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="22"/>
+      <c r="AF62" s="22"/>
+      <c r="AG62" s="22"/>
+      <c r="AH62" s="22"/>
+      <c r="AI62" s="22"/>
+      <c r="AJ62" s="22"/>
+      <c r="AK62" s="22"/>
+      <c r="AL62" s="22"/>
+      <c r="AM62" s="22"/>
+      <c r="AN62" s="22"/>
+      <c r="AO62" s="22"/>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
@@ -6971,166 +7074,189 @@
         <v>11</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E63" s="29"/>
+        <v>64</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="G63" s="6">
+        <v>0.41</v>
+      </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-      <c r="AH63" s="25" t="str">
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="29"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="AH64" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AI63" s="25" t="str">
-        <f t="shared" ref="AI63:AJ63" si="6">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
+      <c r="AI64" s="25" t="str">
+        <f t="shared" ref="AI64:AJ64" si="6">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AJ63" s="25" t="str">
+      <c r="AJ64" s="25" t="str">
         <f t="shared" si="6"/>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AL63" s="25" t="str">
+      <c r="AL64" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2000/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2283</v>
       </c>
     </row>
-    <row r="64" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
+    <row r="65" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B65" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="22"/>
-      <c r="AJ64" s="22"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="22"/>
-      <c r="AM64" s="22"/>
-      <c r="AN64" s="22"/>
-      <c r="AO64" s="22"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="29"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="22"/>
+      <c r="AD65" s="22"/>
+      <c r="AE65" s="22"/>
+      <c r="AF65" s="22"/>
+      <c r="AG65" s="22"/>
+      <c r="AH65" s="22"/>
+      <c r="AI65" s="22"/>
+      <c r="AJ65" s="22"/>
+      <c r="AK65" s="22"/>
+      <c r="AL65" s="22"/>
+      <c r="AM65" s="22"/>
+      <c r="AN65" s="22"/>
+      <c r="AO65" s="22"/>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="29"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="29"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="29"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="29"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="29"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="29"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="29"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="29"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="29"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="29"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="29"/>
     </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="29"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A65:E76 A5:E5 A10:E18">
+  <conditionalFormatting sqref="A66:E77 A5:E5 A10:E19">
     <cfRule type="expression" dxfId="182" priority="278">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7155,12 +7281,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:E57">
+  <conditionalFormatting sqref="D58:E58">
     <cfRule type="expression" dxfId="177" priority="266">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C58">
     <cfRule type="expression" dxfId="176" priority="265">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7170,7 +7296,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C59">
     <cfRule type="expression" dxfId="174" priority="207">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7180,807 +7306,807 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E23">
+  <conditionalFormatting sqref="D23:E24">
     <cfRule type="expression" dxfId="172" priority="247">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E21">
+  <conditionalFormatting sqref="D22:E22">
     <cfRule type="expression" dxfId="171" priority="238">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:E61">
+  <conditionalFormatting sqref="D62:E62">
     <cfRule type="expression" dxfId="170" priority="199">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B29 A22:B23">
+  <conditionalFormatting sqref="A29:B30 A23:B24">
     <cfRule type="expression" dxfId="169" priority="237">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
+  <conditionalFormatting sqref="A22:B22">
     <cfRule type="expression" dxfId="168" priority="233">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B33">
+  <conditionalFormatting sqref="A31:B34">
     <cfRule type="expression" dxfId="167" priority="234">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C23 C28:C36">
+  <conditionalFormatting sqref="C22:C24 C29:C37">
     <cfRule type="expression" dxfId="166" priority="231">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:B57">
+  <conditionalFormatting sqref="A58:B58">
     <cfRule type="expression" dxfId="165" priority="232">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E25">
+  <conditionalFormatting sqref="D25:E26">
     <cfRule type="expression" dxfId="164" priority="228">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E28">
+    <cfRule type="expression" dxfId="163" priority="227">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27">
-    <cfRule type="expression" dxfId="163" priority="227">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
     <cfRule type="expression" dxfId="162" priority="226">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27 A24:B25">
+  <conditionalFormatting sqref="A28:B28 A25:B26">
     <cfRule type="expression" dxfId="161" priority="225">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B26">
+  <conditionalFormatting sqref="A27:B27">
     <cfRule type="expression" dxfId="160" priority="224">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C27">
+  <conditionalFormatting sqref="C25:C28">
     <cfRule type="expression" dxfId="159" priority="223">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D38">
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="expression" dxfId="158" priority="222">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D60">
     <cfRule type="expression" dxfId="157" priority="186">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D38">
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="expression" dxfId="156" priority="221">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B38">
+  <conditionalFormatting sqref="A38:B39">
     <cfRule type="expression" dxfId="155" priority="219">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C38">
+  <conditionalFormatting sqref="C38:C39">
     <cfRule type="expression" dxfId="154" priority="217">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E38">
+  <conditionalFormatting sqref="E38:E39">
     <cfRule type="expression" dxfId="153" priority="216">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="expression" dxfId="152" priority="210">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="151" priority="215">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="expression" dxfId="150" priority="213">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="expression" dxfId="149" priority="212">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E30">
+    <cfRule type="expression" dxfId="148" priority="211">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E34">
+    <cfRule type="expression" dxfId="147" priority="209">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="146" priority="197">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:E59">
+    <cfRule type="expression" dxfId="145" priority="206">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B59">
+    <cfRule type="expression" dxfId="144" priority="205">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="143" priority="204">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B61">
+    <cfRule type="expression" dxfId="142" priority="202">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="141" priority="201">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="140" priority="200">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="139" priority="198">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B64">
+    <cfRule type="expression" dxfId="138" priority="195">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B64">
+    <cfRule type="expression" dxfId="137" priority="194">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="136" priority="193">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:E65">
+    <cfRule type="expression" dxfId="135" priority="192">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="expression" dxfId="134" priority="191">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="133" priority="181">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="132" priority="180">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="131" priority="188">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="130" priority="187">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="129" priority="176">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="128" priority="185">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="127" priority="184">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="126" priority="183">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="125" priority="182">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:B53">
+    <cfRule type="expression" dxfId="124" priority="115">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B55">
+    <cfRule type="expression" dxfId="123" priority="114">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D37">
+    <cfRule type="expression" dxfId="122" priority="179">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D37">
+    <cfRule type="expression" dxfId="121" priority="178">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:B36">
+    <cfRule type="expression" dxfId="120" priority="177">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="119" priority="173">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E36">
+    <cfRule type="expression" dxfId="118" priority="174">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="151" priority="215">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D33">
-    <cfRule type="expression" dxfId="150" priority="213">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D33">
-    <cfRule type="expression" dxfId="149" priority="212">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="expression" dxfId="148" priority="211">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E33">
-    <cfRule type="expression" dxfId="147" priority="209">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="146" priority="197">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58:E58">
-    <cfRule type="expression" dxfId="145" priority="206">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B58">
-    <cfRule type="expression" dxfId="144" priority="205">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="143" priority="204">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B60">
-    <cfRule type="expression" dxfId="142" priority="202">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="141" priority="201">
+    <cfRule type="expression" dxfId="117" priority="172">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:Z39 F35:I38 L35:Z38 F31:U34 F30:AA30 W31:AA34 AA22 AB30:AG34 AH30:AM30 AA10:AM13 F58:AM60 AN58:AO64 F65:AO77 F62:AM63 F61:AG61 AK61 F64:AG64 AK64 F22:Z28 F5:Z13 F15:AM19 F14:AO14">
+    <cfRule type="expression" dxfId="116" priority="169">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C43">
+    <cfRule type="expression" dxfId="115" priority="168">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:E43">
+    <cfRule type="expression" dxfId="114" priority="167">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:B43">
+    <cfRule type="expression" dxfId="113" priority="166">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:Z43">
+    <cfRule type="expression" dxfId="112" priority="165">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:K36">
+    <cfRule type="expression" dxfId="111" priority="164">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA40:AG43">
+    <cfRule type="expression" dxfId="110" priority="160">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K38">
+    <cfRule type="expression" dxfId="109" priority="162">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA35:AG39 AA5:AG9 AB22:AG22 AA23:AM28">
+    <cfRule type="expression" dxfId="108" priority="161">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:B44">
+    <cfRule type="expression" dxfId="107" priority="159">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:C48 C50">
+    <cfRule type="expression" dxfId="106" priority="158">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:E21">
+    <cfRule type="expression" dxfId="105" priority="130">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:B50">
+    <cfRule type="expression" dxfId="104" priority="155">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C57">
+    <cfRule type="expression" dxfId="103" priority="126">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="102" priority="123">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="101" priority="151">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="100" priority="150">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="99" priority="149">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:B48">
+    <cfRule type="expression" dxfId="98" priority="145">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D46 D48">
+    <cfRule type="expression" dxfId="97" priority="148">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D46 D48">
+    <cfRule type="expression" dxfId="96" priority="147">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:B46">
+    <cfRule type="expression" dxfId="95" priority="146">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="94" priority="143">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E46">
+    <cfRule type="expression" dxfId="93" priority="144">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E48">
+    <cfRule type="expression" dxfId="92" priority="142">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:Z57 F44:U44 W44:Y44 F45:I48 L45:Z48 L50:Z50 F50:I50">
+    <cfRule type="expression" dxfId="91" priority="141">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:K46">
+    <cfRule type="expression" dxfId="90" priority="136">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA45:AD47 AA48 AC48:AD48">
+    <cfRule type="expression" dxfId="89" priority="131">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:K48 J50:K50">
+    <cfRule type="expression" dxfId="88" priority="135">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA57:AG57 AA50:AD50 AF45:AG47 AF50:AG50 AF48">
+    <cfRule type="expression" dxfId="87" priority="134">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="86" priority="132">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22">
+    <cfRule type="expression" dxfId="85" priority="59">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:AM21">
+    <cfRule type="expression" dxfId="84" priority="129">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB52:AD54 AC55">
+    <cfRule type="expression" dxfId="83" priority="103">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="82" priority="102">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:B49">
+    <cfRule type="expression" dxfId="81" priority="99">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="expression" dxfId="80" priority="93">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:D53 D55">
+    <cfRule type="expression" dxfId="79" priority="117">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:D53 D55">
+    <cfRule type="expression" dxfId="78" priority="116">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="77" priority="112">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="expression" dxfId="76" priority="113">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E55">
+    <cfRule type="expression" dxfId="75" priority="111">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:I56 L52:Z56">
+    <cfRule type="expression" dxfId="74" priority="110">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:K53">
+    <cfRule type="expression" dxfId="73" priority="109">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH51:AK51">
+    <cfRule type="expression" dxfId="72" priority="67">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:K56">
+    <cfRule type="expression" dxfId="71" priority="108">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA56:AF56 AE52:AF55 AG52:AG56">
+    <cfRule type="expression" dxfId="70" priority="107">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="69" priority="106">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA52:AA55">
+    <cfRule type="expression" dxfId="68" priority="104">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32:AM32">
+    <cfRule type="expression" dxfId="67" priority="66">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:Z49 F49:I49">
+    <cfRule type="expression" dxfId="66" priority="96">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:K49">
+    <cfRule type="expression" dxfId="65" priority="95">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA49 AC49:AD49 AF49:AG49">
+    <cfRule type="expression" dxfId="64" priority="94">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="expression" dxfId="63" priority="92">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:D57">
+    <cfRule type="expression" dxfId="62" priority="91">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E57">
+    <cfRule type="expression" dxfId="61" priority="90">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="60" priority="89">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:B51">
+    <cfRule type="expression" dxfId="59" priority="88">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:Z51 F51:I51">
+    <cfRule type="expression" dxfId="58" priority="87">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:K51">
+    <cfRule type="expression" dxfId="57" priority="86">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA51:AG51">
+    <cfRule type="expression" dxfId="56" priority="85">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="55" priority="84">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="54" priority="83">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE45:AE48">
+    <cfRule type="expression" dxfId="53" priority="82">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE50">
+    <cfRule type="expression" dxfId="52" priority="81">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33:AM34">
+    <cfRule type="expression" dxfId="51" priority="65">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB49">
+    <cfRule type="expression" dxfId="50" priority="79">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB55">
+    <cfRule type="expression" dxfId="49" priority="78">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD55">
+    <cfRule type="expression" dxfId="48" priority="77">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE49">
+    <cfRule type="expression" dxfId="47" priority="76">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31:AM31">
+    <cfRule type="expression" dxfId="46" priority="75">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:AG42 AH40:AK41 F44:AK50 AL41:AM41 F43:AJ43">
+    <cfRule type="expression" dxfId="45" priority="73">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AK9 AH35:AK39">
+    <cfRule type="expression" dxfId="44" priority="74">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH57:AK57 AH45:AK47 AH50:AK50">
+    <cfRule type="expression" dxfId="43" priority="72">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH52:AK56">
+    <cfRule type="expression" dxfId="42" priority="69">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH49:AK49">
+    <cfRule type="expression" dxfId="41" priority="68">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL64">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="140" priority="200">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="139" priority="198">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B63">
-    <cfRule type="expression" dxfId="138" priority="195">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="137" priority="194">
+    <cfRule type="expression" dxfId="39" priority="64">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="136" priority="193">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64:E64">
-    <cfRule type="expression" dxfId="135" priority="192">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="expression" dxfId="134" priority="191">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="133" priority="181">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="132" priority="180">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="131" priority="188">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="130" priority="187">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:B36">
-    <cfRule type="expression" dxfId="129" priority="176">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="128" priority="185">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="127" priority="184">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="126" priority="183">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="125" priority="182">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B52">
-    <cfRule type="expression" dxfId="124" priority="115">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:B54">
-    <cfRule type="expression" dxfId="123" priority="114">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D36">
-    <cfRule type="expression" dxfId="122" priority="179">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D36">
-    <cfRule type="expression" dxfId="121" priority="178">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:B35">
-    <cfRule type="expression" dxfId="120" priority="177">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="119" priority="173">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E35">
-    <cfRule type="expression" dxfId="118" priority="174">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="117" priority="172">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:Z18 F38:Z38 F34:I37 L34:Z37 F30:U33 F29:AA29 W30:AA33 AA21 AB29:AG33 AH29:AM29 AA10:AM18 F57:AM59 AN57:AO63 F64:AO76 F61:AM62 F60:AG60 AK60 F63:AG63 AK63 F21:Z27">
-    <cfRule type="expression" dxfId="116" priority="169">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C42">
-    <cfRule type="expression" dxfId="115" priority="168">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:E42">
-    <cfRule type="expression" dxfId="114" priority="167">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:B42">
-    <cfRule type="expression" dxfId="113" priority="166">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:Z42">
-    <cfRule type="expression" dxfId="112" priority="165">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:K35">
-    <cfRule type="expression" dxfId="111" priority="164">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA39:AG42">
-    <cfRule type="expression" dxfId="110" priority="160">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:K37">
-    <cfRule type="expression" dxfId="109" priority="162">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA34:AG38 AA5:AG9 AB21:AG21 AA22:AM27">
-    <cfRule type="expression" dxfId="108" priority="161">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:B43">
-    <cfRule type="expression" dxfId="107" priority="159">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C47 C49">
-    <cfRule type="expression" dxfId="106" priority="158">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:E20">
-    <cfRule type="expression" dxfId="105" priority="130">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="104" priority="155">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51:C56">
-    <cfRule type="expression" dxfId="103" priority="126">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:B56">
-    <cfRule type="expression" dxfId="102" priority="123">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="101" priority="151">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="100" priority="150">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="99" priority="149">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B47">
-    <cfRule type="expression" dxfId="98" priority="145">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D45 D47">
-    <cfRule type="expression" dxfId="97" priority="148">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D45 D47">
-    <cfRule type="expression" dxfId="96" priority="147">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:B45">
-    <cfRule type="expression" dxfId="95" priority="146">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="94" priority="143">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E45">
-    <cfRule type="expression" dxfId="93" priority="144">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="expression" dxfId="92" priority="142">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56:Z56 F43:U43 W43:Y43 F44:I47 L44:Z47 L49:Z49 F49:I49">
-    <cfRule type="expression" dxfId="91" priority="141">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:K45">
-    <cfRule type="expression" dxfId="90" priority="136">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA44:AD46 AA47 AC47:AD47">
-    <cfRule type="expression" dxfId="89" priority="131">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46:K47 J49:K49">
-    <cfRule type="expression" dxfId="88" priority="135">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA56:AG56 AA49:AD49 AF44:AG46 AF49:AG49 AF47">
-    <cfRule type="expression" dxfId="87" priority="134">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="86" priority="132">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21">
-    <cfRule type="expression" dxfId="85" priority="59">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:AM20">
-    <cfRule type="expression" dxfId="84" priority="129">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB51:AD53 AC54">
-    <cfRule type="expression" dxfId="83" priority="103">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="82" priority="102">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B48">
-    <cfRule type="expression" dxfId="81" priority="99">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D49">
-    <cfRule type="expression" dxfId="80" priority="93">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52 D54">
-    <cfRule type="expression" dxfId="79" priority="117">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52 D54">
-    <cfRule type="expression" dxfId="78" priority="116">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="77" priority="112">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="expression" dxfId="76" priority="113">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E54">
-    <cfRule type="expression" dxfId="75" priority="111">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51:I55 L51:Z55">
-    <cfRule type="expression" dxfId="74" priority="110">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:K52">
-    <cfRule type="expression" dxfId="73" priority="109">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH50:AK50">
-    <cfRule type="expression" dxfId="72" priority="67">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53:K55">
-    <cfRule type="expression" dxfId="71" priority="108">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AF55 AE51:AF54 AG51:AG55">
-    <cfRule type="expression" dxfId="70" priority="107">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="69" priority="106">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA51:AA54">
-    <cfRule type="expression" dxfId="68" priority="104">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31:AM31">
-    <cfRule type="expression" dxfId="67" priority="66">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48:Z48 F48:I48">
-    <cfRule type="expression" dxfId="66" priority="96">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:K48">
-    <cfRule type="expression" dxfId="65" priority="95">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA48 AC48:AD48 AF48:AG48">
-    <cfRule type="expression" dxfId="64" priority="94">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E49">
-    <cfRule type="expression" dxfId="63" priority="92">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
-    <cfRule type="expression" dxfId="62" priority="91">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E56">
-    <cfRule type="expression" dxfId="61" priority="90">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="60" priority="89">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:B50">
-    <cfRule type="expression" dxfId="59" priority="88">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50:Z50 F50:I50">
-    <cfRule type="expression" dxfId="58" priority="87">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50:K50">
-    <cfRule type="expression" dxfId="57" priority="86">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA50:AG50">
-    <cfRule type="expression" dxfId="56" priority="85">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="55" priority="84">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="54" priority="83">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE44:AE47">
-    <cfRule type="expression" dxfId="53" priority="82">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE49">
-    <cfRule type="expression" dxfId="52" priority="81">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32:AM33">
-    <cfRule type="expression" dxfId="51" priority="65">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB48">
-    <cfRule type="expression" dxfId="50" priority="79">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB54">
-    <cfRule type="expression" dxfId="49" priority="78">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD54">
-    <cfRule type="expression" dxfId="48" priority="77">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE48">
-    <cfRule type="expression" dxfId="47" priority="76">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH30:AM30">
-    <cfRule type="expression" dxfId="46" priority="75">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41:AG41 AH39:AK40 F43:AK49 AL40:AM40 F42:AJ42">
-    <cfRule type="expression" dxfId="45" priority="73">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH5:AK9 AH34:AK38">
-    <cfRule type="expression" dxfId="44" priority="74">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH56:AK56 AH44:AK46 AH49:AK49">
-    <cfRule type="expression" dxfId="43" priority="72">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH51:AK55">
-    <cfRule type="expression" dxfId="42" priority="69">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH48:AK48">
-    <cfRule type="expression" dxfId="41" priority="68">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL63">
-    <cfRule type="expression" dxfId="40" priority="7">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="39" priority="64">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="38" priority="62">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH41:AM41">
+  <conditionalFormatting sqref="AH42:AM42">
     <cfRule type="expression" dxfId="37" priority="60">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI21:AM21">
+  <conditionalFormatting sqref="AI22:AM22">
     <cfRule type="expression" dxfId="36" priority="58">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL50:AM50">
+  <conditionalFormatting sqref="AL51:AM51">
     <cfRule type="expression" dxfId="35" priority="47">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM42:AO42">
+  <conditionalFormatting sqref="AM43:AO43">
     <cfRule type="expression" dxfId="34" priority="10">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK42">
+  <conditionalFormatting sqref="AK43">
     <cfRule type="expression" dxfId="33" priority="9">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL39:AM39 AL43:AM49 AL42">
+  <conditionalFormatting sqref="AL40:AM40 AL44:AM50 AL43">
     <cfRule type="expression" dxfId="32" priority="52">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AM9 AL34:AM38 AM60 AM63">
+  <conditionalFormatting sqref="AL5:AM9 AL35:AM39 AM61 AM64">
     <cfRule type="expression" dxfId="31" priority="53">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL56:AM56 AL44:AM46 AL49:AM49">
+  <conditionalFormatting sqref="AL57:AM57 AL45:AM47 AL50:AM50">
     <cfRule type="expression" dxfId="30" priority="51">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL51:AM55">
+  <conditionalFormatting sqref="AL52:AM56">
     <cfRule type="expression" dxfId="29" priority="49">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL48:AM48">
+  <conditionalFormatting sqref="AL49:AM49">
     <cfRule type="expression" dxfId="28" priority="48">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL60">
+  <conditionalFormatting sqref="AL61">
     <cfRule type="expression" dxfId="27" priority="8">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN29:AO29 AN10:AO18">
+  <conditionalFormatting sqref="AN30:AO30 AN10:AO13 AN15:AO19">
     <cfRule type="expression" dxfId="26" priority="42">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN22:AO27">
+  <conditionalFormatting sqref="AN23:AO28">
     <cfRule type="expression" dxfId="25" priority="41">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN19:AO20">
+  <conditionalFormatting sqref="AN20:AO21">
     <cfRule type="expression" dxfId="24" priority="40">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AN32:AO32">
+    <cfRule type="expression" dxfId="23" priority="37">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN33:AO34">
+    <cfRule type="expression" dxfId="22" priority="36">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AN31:AO31">
-    <cfRule type="expression" dxfId="23" priority="37">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN32:AO33">
-    <cfRule type="expression" dxfId="22" priority="36">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN30:AO30">
     <cfRule type="expression" dxfId="21" priority="39">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN40:AO40">
+  <conditionalFormatting sqref="AN41:AO41">
     <cfRule type="expression" dxfId="20" priority="38">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN41:AO41">
+  <conditionalFormatting sqref="AN42:AO42">
     <cfRule type="expression" dxfId="19" priority="35">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN21:AO21">
+  <conditionalFormatting sqref="AN22:AO22">
     <cfRule type="expression" dxfId="18" priority="34">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN50">
+  <conditionalFormatting sqref="AN51">
     <cfRule type="expression" dxfId="17" priority="27">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN43:AN49 AN39:AO39">
+  <conditionalFormatting sqref="AN44:AN50 AN40:AO40">
     <cfRule type="expression" dxfId="16" priority="32">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AN9 AO8:AO9 AN34:AO38">
+  <conditionalFormatting sqref="AN5:AN9 AO8:AO9 AN35:AO39">
     <cfRule type="expression" dxfId="15" priority="33">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN56 AN44:AN46 AN49">
+  <conditionalFormatting sqref="AN57 AN45:AN47 AN50">
     <cfRule type="expression" dxfId="14" priority="31">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN51:AN55">
+  <conditionalFormatting sqref="AN52:AN56">
     <cfRule type="expression" dxfId="13" priority="29">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN48">
+  <conditionalFormatting sqref="AN49">
     <cfRule type="expression" dxfId="12" priority="28">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7990,57 +8116,57 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO43:AO49">
+  <conditionalFormatting sqref="AO44:AO50">
     <cfRule type="expression" dxfId="10" priority="16">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO56 AO44:AO46 AO49">
+  <conditionalFormatting sqref="AO57 AO45:AO47 AO50">
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO50">
+  <conditionalFormatting sqref="AO51">
     <cfRule type="expression" dxfId="8" priority="11">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO51:AO55">
+  <conditionalFormatting sqref="AO52:AO56">
     <cfRule type="expression" dxfId="7" priority="13">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO48">
+  <conditionalFormatting sqref="AO49">
     <cfRule type="expression" dxfId="6" priority="12">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D61">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH60">
+  <conditionalFormatting sqref="AH61">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH63:AJ63">
+  <conditionalFormatting sqref="AH64:AJ64">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI60">
+  <conditionalFormatting sqref="AI61">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ60">
+  <conditionalFormatting sqref="AJ61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>

--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08E839-64EF-42B1-85BD-944780987580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF776F7-3434-4AB0-A524-DFC6CC002943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
   <sheets>
     <sheet name="TCDs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}</author>
   </authors>
   <commentList>
-    <comment ref="W10" authorId="0" shapeId="0" xr:uid="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
+    <comment ref="U10" authorId="0" shapeId="0" xr:uid="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="170">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -244,12 +244,6 @@
     <t>Section</t>
   </si>
   <si>
-    <t>6j</t>
-  </si>
-  <si>
-    <t>6ja</t>
-  </si>
-  <si>
     <t>json_template</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>Lighting power for all spaces in the P-RMR is the less than the lighting power allowance for the building.</t>
   </si>
   <si>
-    <t>Lighting power for all spaces in the P-RMR exceds the lighting power allowance for the building</t>
-  </si>
-  <si>
     <t>Lighting power for all building segments in the P-RMR is the less than the lighting power allowance for the building.</t>
   </si>
   <si>
@@ -367,24 +358,6 @@
     <t>Proposed lighting power for the "Space ID 1", of "Dormitory-Living Quarters" space type, is not equal to or greater than 0.50 W/ft2 as expected</t>
   </si>
   <si>
-    <t>Proposed LPD for dwelling units space type is equal to or greater than 0.6 W/ft2, as expected.</t>
-  </si>
-  <si>
-    <t>Proposed lighting power for the dwelling unit is not equal to or greater than 0.6 W/ft2, as expected</t>
-  </si>
-  <si>
-    <t>6l</t>
-  </si>
-  <si>
-    <t>DU Lighting 1</t>
-  </si>
-  <si>
-    <t>DU Lighting 2</t>
-  </si>
-  <si>
-    <t>DWELLING_UNIT</t>
-  </si>
-  <si>
     <t>caution</t>
   </si>
   <si>
@@ -397,9 +370,6 @@
     <t>Baseline RMR ILPA is not  determined based on requirments specified in Table G3.7, as expected</t>
   </si>
   <si>
-    <t>6m</t>
-  </si>
-  <si>
     <t>Dining Area Lighting 1</t>
   </si>
   <si>
@@ -409,15 +379,9 @@
     <t>DINING_AREA_FAMILY_DINING</t>
   </si>
   <si>
-    <t>6n</t>
-  </si>
-  <si>
     <t>Lighting power in the proposed RMR is as designed and cannot be verified by RCT.</t>
   </si>
   <si>
-    <t>6o</t>
-  </si>
-  <si>
     <t>Lighting power in the proposed RMR = Table 9.5.1 requirements</t>
   </si>
   <si>
@@ -445,9 +409,6 @@
     <t>NEW</t>
   </si>
   <si>
-    <t>6p</t>
-  </si>
-  <si>
     <t>The baseline LPDr for "Space ID 1" is equal to 1.1 W/ft2 as expected</t>
   </si>
   <si>
@@ -493,9 +454,6 @@
     <t>Baseline building "Space ID" has windows and is modeled with daylighting controls.</t>
   </si>
   <si>
-    <t>6w</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
@@ -544,9 +502,6 @@
     <t>window_1</t>
   </si>
   <si>
-    <t>6z</t>
-  </si>
-  <si>
     <t>Proposed interior lighting EFLH for "Space ID 1" is lower than the EFLH for the the same in the B-RMR. This should be verified.</t>
   </si>
   <si>
@@ -568,24 +523,15 @@
     <t>AUDIENCE_SEATING_AREA_AUDITORIUM</t>
   </si>
   <si>
-    <t>6aa</t>
-  </si>
-  <si>
     <t>Proposed interior EFLH for "Space ID 1" is less than the EFLH for the same in the B-RMR</t>
   </si>
   <si>
     <t>Proposed interior EFLH for "Space ID 1" is equal to the EFLH for the same in the B-RMR</t>
   </si>
   <si>
-    <t>37b</t>
-  </si>
-  <si>
     <t>Proposed EFLHs for "Space ID 1" are lower than that in Baseline RMR and should be manually  verified.</t>
   </si>
   <si>
-    <t>37c</t>
-  </si>
-  <si>
     <t>OFFICE_OPEN_PLAN</t>
   </si>
   <si>
@@ -602,13 +548,34 @@
   </si>
   <si>
     <t>hourly_values</t>
+  </si>
+  <si>
+    <t>Proposed building ILP equals to user building ILP</t>
+  </si>
+  <si>
+    <t>Proposed building ILP does not equal user building ILP</t>
+  </si>
+  <si>
+    <t>Lighting power for all spaces in the P-RMR exceeds the lighting power allowance for the building</t>
+  </si>
+  <si>
+    <t>b-21</t>
+  </si>
+  <si>
+    <t>c-22</t>
+  </si>
+  <si>
+    <t>b-24</t>
+  </si>
+  <si>
+    <t>c-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +616,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -876,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -989,11 +963,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="183">
+  <dxfs count="181">
     <dxf>
       <fill>
         <patternFill>
@@ -1592,6 +1569,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1599,13 +1583,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1634,126 +1611,112 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2591,7 +2554,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="W10" dT="2021-05-25T22:34:37.38" personId="{1A49BB3D-5F6C-4FED-AA5E-1F4F2C8C02C3}" id="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
+  <threadedComment ref="U10" dT="2021-05-25T22:34:37.38" personId="{1A49BB3D-5F6C-4FED-AA5E-1F4F2C8C02C3}" id="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
     <text>Test unclear to me on TCD</text>
   </threadedComment>
 </ThreadedComments>
@@ -2601,9 +2564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2616CE-C113-4173-BA9E-9D8DBBCAB481}">
   <dimension ref="A1:AO77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,14 +2576,14 @@
     <col min="3" max="3" width="29.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="52.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="41" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="55.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="55.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="52.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="41" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -2637,151 +2600,151 @@
         <v>57</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F1" s="5" t="str">
         <f>"rule-"&amp;F2&amp;"-"&amp;F3&amp;"-"&amp;F4</f>
-        <v>rule-181-6ja-a</v>
+        <v>rule-6-1-a</v>
       </c>
       <c r="G1" s="5" t="str">
-        <f t="shared" ref="G1:AL1" si="0">"rule-"&amp;G2&amp;"-"&amp;G3&amp;"-"&amp;G4</f>
-        <v>rule-181-6ja-b</v>
+        <f>"rule-"&amp;G2&amp;"-"&amp;G3&amp;"-"&amp;G4</f>
+        <v>rule-6-1-b</v>
       </c>
       <c r="H1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-181-6ja-c</v>
+        <f>"rule-"&amp;H2&amp;"-"&amp;H3&amp;"-"&amp;H4</f>
+        <v>rule-6-2-a</v>
       </c>
       <c r="I1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-181-6ja-d</v>
+        <f t="shared" ref="I1:AL1" si="0">"rule-"&amp;I2&amp;"-"&amp;I3&amp;"-"&amp;I4</f>
+        <v>rule-6-2-b</v>
       </c>
       <c r="J1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-62-6j-a</v>
+        <v>rule-6-2-c</v>
       </c>
       <c r="K1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-62-6j-b</v>
+        <v>rule-6-2-d</v>
       </c>
       <c r="L1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-62-6j-c</v>
+        <v>rule-6-3-a</v>
       </c>
       <c r="M1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-62-6j-d</v>
+        <v>rule-6-3-b</v>
       </c>
       <c r="N1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-63-6l-a</v>
+        <v>rule-6-3-c</v>
       </c>
       <c r="O1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-63-6l-b</v>
+        <v>rule-6-3-d</v>
       </c>
       <c r="P1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-64-6m-a</v>
+        <v>rule-6-4-a</v>
       </c>
       <c r="Q1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-64-6m-b</v>
+        <f>"rule-"&amp;Q2&amp;"-"&amp;Q3&amp;"-"&amp;Q4</f>
+        <v>rule-6-5-a</v>
       </c>
       <c r="R1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-64-6m-c</v>
+        <f>"rule-"&amp;R2&amp;"-"&amp;R3&amp;"-"&amp;R4</f>
+        <v>rule-6-6-a</v>
       </c>
       <c r="S1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-65-6n-a</v>
+        <f>"rule-"&amp;S2&amp;"-"&amp;S3&amp;"-"&amp;S4</f>
+        <v>rule-6-6-b</v>
       </c>
       <c r="T1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-66-6o-a</v>
+        <f>"rule-"&amp;T2&amp;"-"&amp;T3&amp;"-"&amp;T4</f>
+        <v>rule-6-7-a</v>
       </c>
       <c r="U1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-66-6o-b</v>
+        <f>"rule-"&amp;U2&amp;"-"&amp;U3&amp;"-"&amp;U4</f>
+        <v>rule-6-7-b</v>
       </c>
       <c r="V1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-66-6o-c</v>
+        <v>rule-6-8-a</v>
       </c>
       <c r="W1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-66-6o-d</v>
+        <f>"rule-"&amp;W2&amp;"-"&amp;W3&amp;"-"&amp;W4</f>
+        <v>rule-6-8-b-21</v>
       </c>
       <c r="X1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-67-6p-a</v>
+        <v>rule-6-8-b-24</v>
       </c>
       <c r="Y1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-67-6p-b</v>
+        <f>"rule-"&amp;Y2&amp;"-"&amp;Y3&amp;"-"&amp;Y4</f>
+        <v>rule-6-8-c-22</v>
       </c>
       <c r="Z1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-67-6p-c</v>
+        <v>rule-6-8-c-25</v>
       </c>
       <c r="AA1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-74-6w-a</v>
+        <v>rule-6-12-a</v>
       </c>
       <c r="AB1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-74-6w-b</v>
+        <v>rule-6-12-b</v>
       </c>
       <c r="AC1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-74-6w-c</v>
+        <v>rule-6-12-c</v>
       </c>
       <c r="AD1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-74-6w-d</v>
+        <v>rule-6-12-d</v>
       </c>
       <c r="AE1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-74-6w-e</v>
+        <v>rule-6-12-e</v>
       </c>
       <c r="AF1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-74-6w-f</v>
+        <v>rule-6-12-f</v>
       </c>
       <c r="AG1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-74-6w-g</v>
+        <v>rule-6-12-g</v>
       </c>
       <c r="AH1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-77-6z-a</v>
+        <v>rule-6-13-a</v>
       </c>
       <c r="AI1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-77-6z-b</v>
+        <v>rule-6-13-b</v>
       </c>
       <c r="AJ1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-77-6z-c</v>
+        <v>rule-6-13-c</v>
       </c>
       <c r="AK1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-77-6z-d</v>
+        <v>rule-6-13-d</v>
       </c>
       <c r="AL1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-78-6aa-a</v>
+        <v>rule-6-14-a</v>
       </c>
       <c r="AM1" s="5" t="str">
         <f t="shared" ref="AM1:AO1" si="1">"rule-"&amp;AM2&amp;"-"&amp;AM3&amp;"-"&amp;AM4</f>
-        <v>rule-78-6aa-a</v>
+        <v>rule-6-14-b</v>
       </c>
       <c r="AN1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>rule-179-37b-a</v>
+        <v>rule-6-15-a</v>
       </c>
       <c r="AO1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>rule-180-37c-a</v>
+        <v>rule-6-16-a</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2793,112 +2756,112 @@
       <c r="D2" s="10"/>
       <c r="E2" s="28"/>
       <c r="F2" s="3">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="I2" s="3">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="J2" s="3">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="K2" s="3">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="N2" s="3">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="O2" s="3">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="P2" s="3">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="3">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="R2" s="3">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="S2" s="3">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="T2" s="3">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="U2" s="3">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="V2" s="3">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="W2" s="3">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="X2" s="3">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="Y2" s="3">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="Z2" s="3">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="AA2" s="3">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="AB2" s="3">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="AC2" s="3">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="AD2" s="3">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="AE2" s="3">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="AF2" s="3">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="AG2" s="3">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="AH2" s="3">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="AI2" s="3">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="AJ2" s="3">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="AK2" s="3">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="AL2" s="3">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="AM2" s="3">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="AN2" s="3">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="AO2" s="3">
-        <v>180</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -2909,113 +2872,113 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>174</v>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>5</v>
+      </c>
+      <c r="R3" s="3">
+        <v>6</v>
+      </c>
+      <c r="S3" s="3">
+        <v>6</v>
+      </c>
+      <c r="T3" s="3">
+        <v>7</v>
+      </c>
+      <c r="U3" s="3">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>8</v>
+      </c>
+      <c r="X3" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>13</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>13</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>14</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3032,41 +2995,41 @@
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>79</v>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>8</v>
@@ -3075,19 +3038,19 @@
         <v>19</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>8</v>
@@ -3096,19 +3059,19 @@
         <v>19</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AH4" s="3" t="s">
         <v>8</v>
@@ -3117,16 +3080,16 @@
         <v>19</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AN4" s="3" t="s">
         <v>8</v>
@@ -3144,112 +3107,112 @@
       <c r="D5" s="12"/>
       <c r="E5" s="29"/>
       <c r="F5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="X5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="T5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="X5" s="4" t="s">
+      <c r="AA5" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC5" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Y5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AA5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>162</v>
+      <c r="AH5" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI5" s="46" t="s">
+        <v>147</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3291,16 +3254,16 @@
         <v>20</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>5</v>
@@ -3312,13 +3275,13 @@
         <v>5</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>20</v>
@@ -3333,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>5</v>
@@ -3345,28 +3308,28 @@
         <v>20</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3426,16 +3389,14 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="6" t="str">
-        <f t="shared" ref="F8:P8" si="2">"true"</f>
-        <v>true</v>
-      </c>
-      <c r="G8" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
+      <c r="F8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H8:P8" si="2">"true"</f>
         <v>true</v>
       </c>
       <c r="I8" s="6" t="str">
@@ -3470,20 +3431,20 @@
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="Q8" s="6" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+      <c r="R8" s="6" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
       <c r="S8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="T8" s="6" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="U8" s="6" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -3554,13 +3515,11 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="22" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="G9" s="22" t="str">
-        <f>"true"</f>
-        <v>true</v>
+      <c r="F9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="H9" s="22" t="str">
         <f>"true"</f>
@@ -3570,24 +3529,30 @@
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="J9" s="22" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
       <c r="P9" s="22"/>
-      <c r="Q9" s="22" t="str">
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="R9" s="22" t="str">
+      <c r="U9" s="22" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
       <c r="V9" s="22" t="str">
         <f>"true"</f>
         <v>true</v>
@@ -3614,28 +3579,28 @@
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AH9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AI9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AJ9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AK9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AL9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AM9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AN9" s="22"/>
       <c r="AO9" s="22"/>
@@ -3645,13 +3610,13 @@
         <v>59</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="3">
@@ -3699,13 +3664,13 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="32">
         <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="32">
+      <c r="W10" s="3">
         <v>0</v>
       </c>
       <c r="X10" s="3">
@@ -3768,122 +3733,122 @@
         <v>59</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="U11" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="W11" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -3891,21 +3856,21 @@
         <v>59</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="3" t="str">
+      <c r="U12" s="32"/>
+      <c r="V12" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="Y12" s="3" t="str">
+      <c r="X12" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
@@ -3919,13 +3884,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="3">
@@ -4042,122 +4007,122 @@
         <v>59</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AJ14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -4165,35 +4130,41 @@
         <v>59</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="W15" s="32" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -4201,13 +4172,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="3">
@@ -4255,13 +4226,13 @@
       <c r="T16" s="3">
         <v>0</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="32">
         <v>0</v>
       </c>
       <c r="V16" s="3">
         <v>0</v>
       </c>
-      <c r="W16" s="32">
+      <c r="W16" s="3">
         <v>0</v>
       </c>
       <c r="X16" s="3">
@@ -4324,122 +4295,122 @@
         <v>59</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="U17" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="W17" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -4447,13 +4418,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="3">
@@ -4501,13 +4472,13 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="32">
         <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
-      <c r="W18" s="32">
+      <c r="W18" s="3">
         <v>0</v>
       </c>
       <c r="X18" s="3">
@@ -4570,122 +4541,122 @@
         <v>59</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="U19" s="32" t="s">
+        <v>73</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W19" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AJ19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -4693,122 +4664,122 @@
         <v>59</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="U20" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="W20" s="32" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -4816,122 +4787,122 @@
         <v>59</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="U21" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="W21" s="32" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -4939,69 +4910,69 @@
         <v>59</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="35" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>81</v>
+        <v>158</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="R22" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
       <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="W22" s="27" t="s">
+        <v>105</v>
+      </c>
       <c r="X22" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Y22" s="27" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="Z22" s="27" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AA22" s="27"/>
       <c r="AB22" s="27"/>
@@ -5011,28 +4982,28 @@
       <c r="AF22" s="27"/>
       <c r="AG22" s="27"/>
       <c r="AH22" s="27" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AI22" s="27" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AJ22" s="27" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AK22" s="27" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AL22" s="27" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AM22" s="27" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AN22" s="27" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AO22" s="27" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -5040,13 +5011,13 @@
         <v>59</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="3">
@@ -5094,13 +5065,13 @@
       <c r="T23" s="3">
         <v>1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="32">
         <v>1000</v>
       </c>
       <c r="V23" s="3">
         <v>1000</v>
       </c>
-      <c r="W23" s="32">
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
       <c r="X23" s="3">
@@ -5163,24 +5134,24 @@
         <v>59</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E24" s="29"/>
-      <c r="W24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="X24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -5188,13 +5159,13 @@
         <v>59</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="3">
@@ -5209,64 +5180,80 @@
       <c r="I25" s="3">
         <v>2</v>
       </c>
-      <c r="W25" s="32"/>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2</v>
+      </c>
+      <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="W26" s="32"/>
+        <v>124</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+        <v>74</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>74</v>
+      </c>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -5276,9 +5263,9 @@
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
+      <c r="U27" s="34"/>
       <c r="V27" s="27"/>
-      <c r="W27" s="34"/>
+      <c r="W27" s="27"/>
       <c r="X27" s="27"/>
       <c r="Y27" s="27"/>
       <c r="Z27" s="27"/>
@@ -5303,13 +5290,13 @@
         <v>59</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="3">
@@ -5324,131 +5311,137 @@
       <c r="I28" s="3">
         <v>1000</v>
       </c>
-      <c r="W28" s="32"/>
+      <c r="J28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U28" s="32"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AI29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AJ29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AL29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AN29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -5456,52 +5449,52 @@
         <v>59</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>113</v>
@@ -5510,70 +5503,70 @@
         <v>113</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+      <c r="U30" s="32" t="s">
+        <v>113</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="W30" s="32" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AG30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AI30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AJ30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AK30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AL30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AM30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AN30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -5581,76 +5574,73 @@
         <v>59</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3">
         <v>0.41</v>
       </c>
       <c r="H31" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="J31" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I31" s="33">
+      <c r="K31" s="33">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J31" s="3">
+      <c r="L31" s="3">
         <v>0.3</v>
       </c>
-      <c r="K31" s="3">
+      <c r="M31" s="3">
         <v>0.1</v>
       </c>
-      <c r="L31" s="3">
+      <c r="N31" s="3">
         <v>0.5</v>
       </c>
-      <c r="M31" s="3">
+      <c r="O31" s="3">
         <v>0.5</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0.6</v>
       </c>
       <c r="P31" s="3">
         <v>0.6</v>
       </c>
       <c r="Q31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="U31" s="32">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W31" s="3">
         <v>2.1</v>
       </c>
-      <c r="R31" s="3">
+      <c r="X31" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Y31" s="3">
         <v>2.4</v>
       </c>
-      <c r="S31" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="T31" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="U31" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="W31" s="32">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="X31" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>1.2</v>
-      </c>
       <c r="Z31" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -5658,19 +5648,19 @@
         <v>59</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I32" s="33"/>
-      <c r="W32" s="32"/>
+        <v>142</v>
+      </c>
+      <c r="K32" s="33"/>
+      <c r="U32" s="32"/>
       <c r="AA32" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
@@ -5705,19 +5695,19 @@
         <v>59</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I33" s="33"/>
-      <c r="W33" s="32"/>
+        <v>150</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="U33" s="32"/>
       <c r="AH33" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
@@ -5740,42 +5730,42 @@
         <v>59</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="I34" s="33"/>
-      <c r="W34" s="32"/>
+        <v>161</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="U34" s="32"/>
       <c r="AH34" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AI34" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AL34" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AM34" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AN34" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AO34" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -5783,22 +5773,16 @@
         <v>59</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2</v>
       </c>
       <c r="L35" s="3">
         <v>2</v>
@@ -5818,10 +5802,10 @@
       <c r="Q35" s="3">
         <v>2</v>
       </c>
-      <c r="R35" s="3">
+      <c r="W35" s="3">
         <v>2</v>
       </c>
-      <c r="S35" s="3">
+      <c r="Y35" s="3">
         <v>2</v>
       </c>
     </row>
@@ -5830,46 +5814,40 @@
         <v>59</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
@@ -5877,46 +5855,40 @@
         <v>59</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37" s="3">
+        <v>80</v>
+      </c>
+      <c r="L37" s="3">
         <v>0.35</v>
       </c>
-      <c r="K37" s="3">
+      <c r="M37" s="3">
         <v>0.2</v>
       </c>
-      <c r="L37" s="3">
+      <c r="N37" s="3">
         <v>0.5</v>
       </c>
-      <c r="M37" s="3">
+      <c r="O37" s="3">
         <v>0.4</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0.5</v>
       </c>
       <c r="P37" s="3">
         <v>0.32</v>
       </c>
       <c r="Q37" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="W37" s="3">
         <v>2.1</v>
       </c>
-      <c r="R37" s="3">
+      <c r="Y37" s="3">
         <v>2.1</v>
-      </c>
-      <c r="S37" s="3">
-        <v>0.32</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
@@ -5924,16 +5896,16 @@
         <v>59</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
@@ -5945,6 +5917,12 @@
         <v>2</v>
       </c>
       <c r="I38" s="3">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3">
+        <v>2</v>
+      </c>
+      <c r="K38" s="3">
         <v>2</v>
       </c>
     </row>
@@ -5953,28 +5931,34 @@
         <v>59</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5982,16 +5966,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F40" s="25">
         <v>1.1000000000000001</v>
@@ -6000,13 +5984,17 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H40" s="25">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I40" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="J40" s="25">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K40" s="25">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
@@ -6043,13 +6031,13 @@
         <v>59</v>
       </c>
       <c r="B41" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>65</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -6081,28 +6069,28 @@
       <c r="AF41" s="40"/>
       <c r="AG41" s="40"/>
       <c r="AH41" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AI41" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AJ41" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AK41" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AL41" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AM41" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AN41" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AO41" s="40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -6110,13 +6098,13 @@
         <v>59</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="25"/>
@@ -6148,28 +6136,28 @@
       <c r="AF42" s="25"/>
       <c r="AG42" s="25"/>
       <c r="AH42" s="25" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AI42" s="25" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AJ42" s="25" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AK42" s="25" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AL42" s="25" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AM42" s="25" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AN42" s="25" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AO42" s="25" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -6177,13 +6165,13 @@
         <v>59</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="44"/>
@@ -6240,13 +6228,13 @@
         <v>59</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="25"/>
@@ -6271,25 +6259,25 @@
       <c r="Y44" s="25"/>
       <c r="Z44" s="25"/>
       <c r="AA44" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AB44" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AC44" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AD44" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AE44" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AF44" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AG44" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AH44" s="25"/>
       <c r="AI44" s="25"/>
@@ -6305,13 +6293,13 @@
         <v>59</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="25"/>
@@ -6336,25 +6324,25 @@
       <c r="Y45" s="25"/>
       <c r="Z45" s="25"/>
       <c r="AA45" s="25" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AB45" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AC45" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AD45" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AE45" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AF45" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AG45" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AH45" s="25"/>
       <c r="AI45" s="25"/>
@@ -6370,13 +6358,13 @@
         <v>59</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="25"/>
@@ -6401,25 +6389,25 @@
       <c r="Y46" s="25"/>
       <c r="Z46" s="25"/>
       <c r="AA46" s="25" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AB46" s="25" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AC46" s="25" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AD46" s="25" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AE46" s="25" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AF46" s="25" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AG46" s="25" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AH46" s="25"/>
       <c r="AI46" s="25"/>
@@ -6435,13 +6423,13 @@
         <v>59</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="25"/>
@@ -6500,13 +6488,13 @@
         <v>59</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="25"/>
@@ -6534,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AC48" s="25">
         <v>180</v>
@@ -6549,7 +6537,7 @@
         <v>180</v>
       </c>
       <c r="AG48" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AH48" s="25"/>
       <c r="AI48" s="25"/>
@@ -6565,16 +6553,16 @@
         <v>59</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
@@ -6599,12 +6587,12 @@
       <c r="Z49" s="25"/>
       <c r="AA49" s="25"/>
       <c r="AB49" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AC49" s="25"/>
       <c r="AD49" s="25"/>
       <c r="AE49" s="25" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AF49" s="25"/>
       <c r="AG49" s="25"/>
@@ -6622,16 +6610,16 @@
         <v>59</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
@@ -6656,12 +6644,12 @@
       <c r="Z50" s="25"/>
       <c r="AA50" s="25"/>
       <c r="AB50" s="25" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AC50" s="25"/>
       <c r="AD50" s="25"/>
       <c r="AE50" s="25" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AF50" s="25"/>
       <c r="AG50" s="25"/>
@@ -6679,13 +6667,13 @@
         <v>59</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="36" t="s">
         <v>63</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>65</v>
       </c>
       <c r="E51" s="12"/>
       <c r="AB51" s="3">
@@ -6709,29 +6697,29 @@
         <v>59</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E52" s="12"/>
       <c r="AB52" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AC52" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AD52" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AG52" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -6739,29 +6727,29 @@
         <v>59</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E53" s="12"/>
       <c r="AB53" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AC53" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AD53" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AG53" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
@@ -6769,13 +6757,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E54" s="12"/>
       <c r="AB54" s="3">
@@ -6799,29 +6787,29 @@
         <v>59</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E55" s="12"/>
       <c r="AB55" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AC55" s="3">
         <v>180</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AF55" s="3">
         <v>270</v>
       </c>
       <c r="AG55" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
@@ -6829,16 +6817,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="AB56" s="3">
         <v>2</v>
@@ -6849,16 +6837,16 @@
         <v>59</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
@@ -6883,7 +6871,7 @@
       <c r="Z57" s="22"/>
       <c r="AA57" s="22"/>
       <c r="AB57" s="22" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AC57" s="22"/>
       <c r="AD57" s="22"/>
@@ -6913,6 +6901,8 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
@@ -6969,20 +6959,24 @@
         <v>12</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6">
         <v>0.51</v>
       </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
@@ -6992,16 +6986,18 @@
         <v>12</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E61" s="29"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
       <c r="AH61" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1638/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.187</v>
@@ -7074,20 +7070,24 @@
         <v>11</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6">
         <v>0.41</v>
       </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
@@ -7097,16 +7097,18 @@
         <v>11</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
       <c r="AH64" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
@@ -7257,497 +7259,487 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A66:E77 A5:E5 A10:E19">
-    <cfRule type="expression" dxfId="182" priority="278">
+    <cfRule type="expression" dxfId="180" priority="278">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="181" priority="253">
+    <cfRule type="expression" dxfId="179" priority="253">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="expression" dxfId="180" priority="252">
+    <cfRule type="expression" dxfId="178" priority="252">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="179" priority="250">
+    <cfRule type="expression" dxfId="177" priority="250">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E9">
-    <cfRule type="expression" dxfId="178" priority="249">
+    <cfRule type="expression" dxfId="176" priority="249">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:E58">
-    <cfRule type="expression" dxfId="177" priority="266">
+    <cfRule type="expression" dxfId="175" priority="266">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="176" priority="265">
+    <cfRule type="expression" dxfId="174" priority="265">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="175" priority="251">
+    <cfRule type="expression" dxfId="173" priority="251">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="174" priority="207">
+    <cfRule type="expression" dxfId="172" priority="207">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B9">
-    <cfRule type="expression" dxfId="173" priority="236">
+    <cfRule type="expression" dxfId="171" priority="236">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E24">
-    <cfRule type="expression" dxfId="172" priority="247">
+    <cfRule type="expression" dxfId="170" priority="247">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="expression" dxfId="171" priority="238">
+    <cfRule type="expression" dxfId="169" priority="238">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:E62">
-    <cfRule type="expression" dxfId="170" priority="199">
+    <cfRule type="expression" dxfId="168" priority="199">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B30 A23:B24">
-    <cfRule type="expression" dxfId="169" priority="237">
+    <cfRule type="expression" dxfId="167" priority="237">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="168" priority="233">
+    <cfRule type="expression" dxfId="166" priority="233">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="167" priority="234">
+    <cfRule type="expression" dxfId="165" priority="234">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24 C29:C37">
-    <cfRule type="expression" dxfId="166" priority="231">
+    <cfRule type="expression" dxfId="164" priority="231">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58">
-    <cfRule type="expression" dxfId="165" priority="232">
+    <cfRule type="expression" dxfId="163" priority="232">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E26">
-    <cfRule type="expression" dxfId="164" priority="228">
+    <cfRule type="expression" dxfId="162" priority="228">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="expression" dxfId="163" priority="227">
+    <cfRule type="expression" dxfId="161" priority="227">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27">
-    <cfRule type="expression" dxfId="162" priority="226">
+    <cfRule type="expression" dxfId="160" priority="226">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28 A25:B26">
-    <cfRule type="expression" dxfId="161" priority="225">
+    <cfRule type="expression" dxfId="159" priority="225">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="160" priority="224">
+    <cfRule type="expression" dxfId="158" priority="224">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C28">
-    <cfRule type="expression" dxfId="159" priority="223">
+    <cfRule type="expression" dxfId="157" priority="223">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="158" priority="222">
+    <cfRule type="expression" dxfId="156" priority="222">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="157" priority="186">
+    <cfRule type="expression" dxfId="155" priority="186">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="156" priority="221">
+    <cfRule type="expression" dxfId="154" priority="221">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39">
-    <cfRule type="expression" dxfId="155" priority="219">
+    <cfRule type="expression" dxfId="153" priority="219">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C39">
-    <cfRule type="expression" dxfId="154" priority="217">
+    <cfRule type="expression" dxfId="152" priority="217">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E39">
-    <cfRule type="expression" dxfId="153" priority="216">
+    <cfRule type="expression" dxfId="151" priority="216">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="152" priority="210">
+    <cfRule type="expression" dxfId="150" priority="210">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="151" priority="215">
+    <cfRule type="expression" dxfId="149" priority="215">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="150" priority="213">
+    <cfRule type="expression" dxfId="148" priority="213">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="149" priority="212">
+    <cfRule type="expression" dxfId="147" priority="212">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E30">
-    <cfRule type="expression" dxfId="148" priority="211">
+    <cfRule type="expression" dxfId="146" priority="211">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E34">
-    <cfRule type="expression" dxfId="147" priority="209">
+    <cfRule type="expression" dxfId="145" priority="209">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="146" priority="197">
+    <cfRule type="expression" dxfId="144" priority="197">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:E59">
-    <cfRule type="expression" dxfId="145" priority="206">
+    <cfRule type="expression" dxfId="143" priority="206">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B59">
-    <cfRule type="expression" dxfId="144" priority="205">
+    <cfRule type="expression" dxfId="142" priority="205">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="143" priority="204">
+    <cfRule type="expression" dxfId="141" priority="204">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B61">
-    <cfRule type="expression" dxfId="142" priority="202">
+    <cfRule type="expression" dxfId="140" priority="202">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="141" priority="201">
+    <cfRule type="expression" dxfId="139" priority="201">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="140" priority="200">
+    <cfRule type="expression" dxfId="138" priority="200">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="139" priority="198">
+    <cfRule type="expression" dxfId="137" priority="198">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B64">
-    <cfRule type="expression" dxfId="138" priority="195">
+    <cfRule type="expression" dxfId="136" priority="195">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="expression" dxfId="137" priority="194">
+    <cfRule type="expression" dxfId="135" priority="194">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="136" priority="193">
+    <cfRule type="expression" dxfId="134" priority="193">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:E65">
-    <cfRule type="expression" dxfId="135" priority="192">
+    <cfRule type="expression" dxfId="133" priority="192">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="134" priority="191">
+    <cfRule type="expression" dxfId="132" priority="191">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="133" priority="181">
+    <cfRule type="expression" dxfId="131" priority="181">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="132" priority="180">
+    <cfRule type="expression" dxfId="130" priority="180">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="131" priority="188">
+    <cfRule type="expression" dxfId="129" priority="188">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="130" priority="187">
+    <cfRule type="expression" dxfId="128" priority="187">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="129" priority="176">
+    <cfRule type="expression" dxfId="127" priority="176">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="128" priority="185">
+    <cfRule type="expression" dxfId="126" priority="185">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="127" priority="184">
+    <cfRule type="expression" dxfId="125" priority="184">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="126" priority="183">
+    <cfRule type="expression" dxfId="124" priority="183">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="125" priority="182">
+    <cfRule type="expression" dxfId="123" priority="182">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B53">
-    <cfRule type="expression" dxfId="124" priority="115">
+    <cfRule type="expression" dxfId="122" priority="115">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B55">
-    <cfRule type="expression" dxfId="123" priority="114">
+    <cfRule type="expression" dxfId="121" priority="114">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="122" priority="179">
+    <cfRule type="expression" dxfId="120" priority="179">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="121" priority="178">
+    <cfRule type="expression" dxfId="119" priority="178">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B36">
-    <cfRule type="expression" dxfId="120" priority="177">
+    <cfRule type="expression" dxfId="118" priority="177">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="119" priority="173">
+    <cfRule type="expression" dxfId="117" priority="173">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" dxfId="118" priority="174">
+    <cfRule type="expression" dxfId="116" priority="174">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="117" priority="172">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:Z39 F35:I38 L35:Z38 F31:U34 F30:AA30 W31:AA34 AA22 AB30:AG34 AH30:AM30 AA10:AM13 F58:AM60 AN58:AO64 F65:AO77 F62:AM63 F61:AG61 AK61 F64:AG64 AK64 F22:Z28 F5:Z13 F15:AM19 F14:AO14">
-    <cfRule type="expression" dxfId="116" priority="169">
+    <cfRule type="expression" dxfId="115" priority="172">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:K38 AA22 AH30:AM30 AA10:AM13 AN58:AO64 AK61 AK64 V35:Z43 V58:AM60 V65:AO77 V62:AM63 V61:AG61 V64:AG64 V22:Z28 V5:Z13 V15:AM21 V14:AO14 V51:Z57 V42:AG42 V43:AJ43 V44:AK50 F39:U50 N35:U38 F57:U77 N51:U56 W35:W77 W5:W28 R35:U77 Y35:Y77 F30:AG34 F5:U28 Y5:Y28">
+    <cfRule type="expression" dxfId="114" priority="169">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C43">
-    <cfRule type="expression" dxfId="115" priority="168">
+    <cfRule type="expression" dxfId="113" priority="168">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:E43">
-    <cfRule type="expression" dxfId="114" priority="167">
+    <cfRule type="expression" dxfId="112" priority="167">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B43">
-    <cfRule type="expression" dxfId="113" priority="166">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40:Z43">
-    <cfRule type="expression" dxfId="112" priority="165">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:K36">
-    <cfRule type="expression" dxfId="111" priority="164">
+    <cfRule type="expression" dxfId="111" priority="166">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:M36">
+    <cfRule type="expression" dxfId="110" priority="164">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA40:AG43">
-    <cfRule type="expression" dxfId="110" priority="160">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K38">
-    <cfRule type="expression" dxfId="109" priority="162">
+    <cfRule type="expression" dxfId="109" priority="160">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:M38">
+    <cfRule type="expression" dxfId="108" priority="162">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35:AG39 AA5:AG9 AB22:AG22 AA23:AM28">
-    <cfRule type="expression" dxfId="108" priority="161">
+    <cfRule type="expression" dxfId="107" priority="161">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="expression" dxfId="107" priority="159">
+    <cfRule type="expression" dxfId="106" priority="159">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C48 C50">
-    <cfRule type="expression" dxfId="106" priority="158">
+    <cfRule type="expression" dxfId="105" priority="158">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:E21">
-    <cfRule type="expression" dxfId="105" priority="130">
+    <cfRule type="expression" dxfId="104" priority="130">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="expression" dxfId="104" priority="155">
+    <cfRule type="expression" dxfId="103" priority="155">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C57">
-    <cfRule type="expression" dxfId="103" priority="126">
+    <cfRule type="expression" dxfId="102" priority="126">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="102" priority="123">
+    <cfRule type="expression" dxfId="101" priority="123">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="101" priority="151">
+    <cfRule type="expression" dxfId="100" priority="151">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="100" priority="150">
+    <cfRule type="expression" dxfId="99" priority="150">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="99" priority="149">
+    <cfRule type="expression" dxfId="98" priority="149">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B48">
-    <cfRule type="expression" dxfId="98" priority="145">
+    <cfRule type="expression" dxfId="97" priority="145">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="97" priority="148">
+    <cfRule type="expression" dxfId="96" priority="148">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="96" priority="147">
+    <cfRule type="expression" dxfId="95" priority="147">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B46">
-    <cfRule type="expression" dxfId="95" priority="146">
+    <cfRule type="expression" dxfId="94" priority="146">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="94" priority="143">
+    <cfRule type="expression" dxfId="93" priority="143">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="93" priority="144">
+    <cfRule type="expression" dxfId="92" priority="144">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="92" priority="142">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57:Z57 F44:U44 W44:Y44 F45:I48 L45:Z48 L50:Z50 F50:I50">
-    <cfRule type="expression" dxfId="91" priority="141">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:K46">
-    <cfRule type="expression" dxfId="90" priority="136">
+    <cfRule type="expression" dxfId="91" priority="142">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:K48 F50:K50">
+    <cfRule type="expression" dxfId="90" priority="141">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:M46">
+    <cfRule type="expression" dxfId="89" priority="136">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA45:AD47 AA48 AC48:AD48">
-    <cfRule type="expression" dxfId="89" priority="131">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:K48 J50:K50">
-    <cfRule type="expression" dxfId="88" priority="135">
+    <cfRule type="expression" dxfId="88" priority="131">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:M48 L50:M50">
+    <cfRule type="expression" dxfId="87" priority="135">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA57:AG57 AA50:AD50 AF45:AG47 AF50:AG50 AF48">
-    <cfRule type="expression" dxfId="87" priority="134">
+    <cfRule type="expression" dxfId="86" priority="134">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="86" priority="132">
+    <cfRule type="expression" dxfId="85" priority="132">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH22">
-    <cfRule type="expression" dxfId="85" priority="59">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:AM21">
-    <cfRule type="expression" dxfId="84" priority="129">
+    <cfRule type="expression" dxfId="84" priority="59">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7796,12 +7788,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52:I56 L52:Z56">
+  <conditionalFormatting sqref="F52:K56">
     <cfRule type="expression" dxfId="74" priority="110">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:K53">
+  <conditionalFormatting sqref="L52:M53">
     <cfRule type="expression" dxfId="73" priority="109">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7811,7 +7803,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54:K56">
+  <conditionalFormatting sqref="L54:M56">
     <cfRule type="expression" dxfId="71" priority="108">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7836,12 +7828,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49:Z49 F49:I49">
+  <conditionalFormatting sqref="F49:K49">
     <cfRule type="expression" dxfId="66" priority="96">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:K49">
+  <conditionalFormatting sqref="L49:M49">
     <cfRule type="expression" dxfId="65" priority="95">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7876,12 +7868,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51:Z51 F51:I51">
+  <conditionalFormatting sqref="F51:K51">
     <cfRule type="expression" dxfId="58" priority="87">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:K51">
+  <conditionalFormatting sqref="L51:M51">
     <cfRule type="expression" dxfId="57" priority="86">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7941,7 +7933,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:AG42 AH40:AK41 F44:AK50 AL41:AM41 F43:AJ43">
+  <conditionalFormatting sqref="AH40:AK41 AL41:AM41">
     <cfRule type="expression" dxfId="45" priority="73">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>

--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF776F7-3434-4AB0-A524-DFC6CC002943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B3A744-4FB7-4072-AB49-C37CC84D0246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="170">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -970,7 +970,56 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="181">
+  <dxfs count="188">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2562,11 +2611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2616CE-C113-4173-BA9E-9D8DBBCAB481}">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W5" sqref="W5"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3342,8 +3391,12 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -3515,12 +3568,8 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>68</v>
-      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="22" t="str">
         <f>"true"</f>
         <v>true</v>
@@ -3546,31 +3595,31 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="22" t="str">
-        <f>"true"</f>
+        <f t="shared" ref="T9:Z9" si="5">"true"</f>
         <v>true</v>
       </c>
       <c r="U9" s="22" t="str">
-        <f>"true"</f>
+        <f t="shared" si="5"/>
         <v>true</v>
       </c>
       <c r="V9" s="22" t="str">
-        <f>"true"</f>
+        <f t="shared" si="5"/>
         <v>true</v>
       </c>
       <c r="W9" s="22" t="str">
-        <f>"true"</f>
+        <f t="shared" si="5"/>
         <v>true</v>
       </c>
       <c r="X9" s="22" t="str">
-        <f>"true"</f>
+        <f t="shared" si="5"/>
         <v>true</v>
       </c>
       <c r="Y9" s="22" t="str">
-        <f>"true"</f>
+        <f t="shared" si="5"/>
         <v>true</v>
       </c>
       <c r="Z9" s="22" t="str">
-        <f>"true"</f>
+        <f t="shared" si="5"/>
         <v>true</v>
       </c>
       <c r="AA9" s="22"/>
@@ -6215,11 +6264,11 @@
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
       <c r="AN43" s="44" t="str">
-        <f t="shared" ref="AN43:AO43" si="5">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
+        <f t="shared" ref="AN43:AO43" si="6">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
       <c r="AO43" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
@@ -6894,89 +6943,91 @@
       <c r="B58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="29"/>
+      <c r="C58" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6">
+        <v>0.51</v>
+      </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
-      <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22"/>
-      <c r="AM59" s="22"/>
-      <c r="AN59" s="22"/>
-      <c r="AO59" s="22"/>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="C59" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="29"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="B60" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="22"/>
+      <c r="AJ60" s="22"/>
+      <c r="AK60" s="22"/>
+      <c r="AL60" s="22"/>
+      <c r="AM60" s="22"/>
+      <c r="AN60" s="22"/>
+      <c r="AO60" s="22"/>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
@@ -6986,108 +7037,108 @@
         <v>12</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="G61" s="6">
+        <v>0.41</v>
+      </c>
       <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="I61" s="6">
+        <v>0.51</v>
+      </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="AH61" s="25" t="str">
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="29"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="AH62" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1638/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.187</v>
       </c>
-      <c r="AI61" s="25" t="str">
+      <c r="AI62" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1900/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2169</v>
       </c>
-      <c r="AJ61" s="25" t="str">
+      <c r="AJ62" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AL61" s="25" t="str">
+      <c r="AL62" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
-    <row r="62" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
+    <row r="63" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B63" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="22"/>
-      <c r="AB62" s="22"/>
-      <c r="AC62" s="22"/>
-      <c r="AD62" s="22"/>
-      <c r="AE62" s="22"/>
-      <c r="AF62" s="22"/>
-      <c r="AG62" s="22"/>
-      <c r="AH62" s="22"/>
-      <c r="AI62" s="22"/>
-      <c r="AJ62" s="22"/>
-      <c r="AK62" s="22"/>
-      <c r="AL62" s="22"/>
-      <c r="AM62" s="22"/>
-      <c r="AN62" s="22"/>
-      <c r="AO62" s="22"/>
-    </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="22"/>
+      <c r="AH63" s="22"/>
+      <c r="AI63" s="22"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="22"/>
+      <c r="AL63" s="22"/>
+      <c r="AM63" s="22"/>
+      <c r="AN63" s="22"/>
+      <c r="AO63" s="22"/>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
@@ -7097,88 +7148,106 @@
         <v>11</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="I64" s="6">
+        <v>0.41</v>
+      </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="AH64" s="25" t="str">
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="29"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="AH65" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AI64" s="25" t="str">
-        <f t="shared" ref="AI64:AJ64" si="6">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
+      <c r="AI65" s="25" t="str">
+        <f t="shared" ref="AI65:AJ65" si="7">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AJ64" s="25" t="str">
-        <f t="shared" si="6"/>
+      <c r="AJ65" s="25" t="str">
+        <f t="shared" si="7"/>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AL64" s="25" t="str">
+      <c r="AL65" s="25" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2000/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2283</v>
       </c>
     </row>
-    <row r="65" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
+    <row r="66" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B66" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="22"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="22"/>
-      <c r="AB65" s="22"/>
-      <c r="AC65" s="22"/>
-      <c r="AD65" s="22"/>
-      <c r="AE65" s="22"/>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="22"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="22"/>
-      <c r="AJ65" s="22"/>
-      <c r="AK65" s="22"/>
-      <c r="AL65" s="22"/>
-      <c r="AM65" s="22"/>
-      <c r="AN65" s="22"/>
-      <c r="AO65" s="22"/>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="29"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="22"/>
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="22"/>
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="22"/>
+      <c r="AM66" s="22"/>
+      <c r="AN66" s="22"/>
+      <c r="AO66" s="22"/>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
@@ -7257,908 +7326,940 @@
       <c r="D77" s="12"/>
       <c r="E77" s="29"/>
     </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="29"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A66:E77 A5:E5 A10:E19">
-    <cfRule type="expression" dxfId="180" priority="278">
+  <conditionalFormatting sqref="A67:E78 A5:E5 A10:E19">
+    <cfRule type="expression" dxfId="187" priority="285">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="179" priority="253">
+    <cfRule type="expression" dxfId="186" priority="260">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="expression" dxfId="178" priority="252">
+    <cfRule type="expression" dxfId="185" priority="259">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="177" priority="250">
+    <cfRule type="expression" dxfId="184" priority="257">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E9">
-    <cfRule type="expression" dxfId="176" priority="249">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58:E58">
-    <cfRule type="expression" dxfId="175" priority="266">
+    <cfRule type="expression" dxfId="183" priority="256">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="180" priority="258">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="179" priority="214">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:B9">
+    <cfRule type="expression" dxfId="178" priority="243">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E24">
+    <cfRule type="expression" dxfId="177" priority="254">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="expression" dxfId="176" priority="245">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:E63">
+    <cfRule type="expression" dxfId="175" priority="206">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:B30 A23:B24">
+    <cfRule type="expression" dxfId="174" priority="244">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="173" priority="240">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B34">
+    <cfRule type="expression" dxfId="172" priority="241">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24 C29:C37">
+    <cfRule type="expression" dxfId="171" priority="238">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B59">
+    <cfRule type="expression" dxfId="170" priority="239">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E26">
+    <cfRule type="expression" dxfId="169" priority="235">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E28">
+    <cfRule type="expression" dxfId="168" priority="234">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:E27">
+    <cfRule type="expression" dxfId="167" priority="233">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28 A25:B26">
+    <cfRule type="expression" dxfId="166" priority="232">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:B27">
+    <cfRule type="expression" dxfId="165" priority="231">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C28">
+    <cfRule type="expression" dxfId="164" priority="230">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D39">
+    <cfRule type="expression" dxfId="163" priority="229">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="162" priority="193">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D39">
+    <cfRule type="expression" dxfId="161" priority="228">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39">
+    <cfRule type="expression" dxfId="160" priority="226">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C39">
+    <cfRule type="expression" dxfId="159" priority="224">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
+    <cfRule type="expression" dxfId="158" priority="223">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="157" priority="217">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="156" priority="222">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="expression" dxfId="155" priority="220">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="expression" dxfId="154" priority="219">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E30">
+    <cfRule type="expression" dxfId="153" priority="218">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E34">
+    <cfRule type="expression" dxfId="152" priority="216">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="151" priority="204">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60:E60">
+    <cfRule type="expression" dxfId="150" priority="213">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60">
+    <cfRule type="expression" dxfId="149" priority="212">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="148" priority="211">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B62">
+    <cfRule type="expression" dxfId="147" priority="209">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="146" priority="208">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="145" priority="207">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="144" priority="205">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B65">
+    <cfRule type="expression" dxfId="143" priority="202">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:B65">
+    <cfRule type="expression" dxfId="142" priority="201">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="141" priority="200">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66:E66">
+    <cfRule type="expression" dxfId="140" priority="199">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="expression" dxfId="139" priority="198">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="138" priority="188">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="137" priority="187">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="136" priority="195">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="135" priority="194">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="134" priority="183">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="133" priority="192">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="132" priority="191">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="131" priority="190">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="130" priority="189">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:B53">
+    <cfRule type="expression" dxfId="129" priority="122">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B55">
+    <cfRule type="expression" dxfId="128" priority="121">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D37">
+    <cfRule type="expression" dxfId="127" priority="186">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D37">
+    <cfRule type="expression" dxfId="126" priority="185">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:B36">
+    <cfRule type="expression" dxfId="125" priority="184">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="124" priority="180">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E36">
+    <cfRule type="expression" dxfId="123" priority="181">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="122" priority="179">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:K38 AA22 AH30:AM30 AA10:AM13 AN58:AO65 AK62 AK65 V35:Z43 V58:AM61 V66:AO78 V63:AM64 V62:AG62 V65:AG65 V22:Z28 V5:Z13 V15:AM21 V14:AO14 V51:Z57 V42:AG42 V43:AJ43 V44:AK50 F39:U50 N35:U38 N51:U56 W35:W78 W5:W28 R35:U78 Y35:Y78 F30:AG34 Y5:Y28 F5:U28 F57:U78">
+    <cfRule type="expression" dxfId="121" priority="176">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C43">
+    <cfRule type="expression" dxfId="120" priority="175">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:E43">
+    <cfRule type="expression" dxfId="119" priority="174">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:B43">
+    <cfRule type="expression" dxfId="118" priority="173">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:M36">
+    <cfRule type="expression" dxfId="117" priority="171">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA40:AG43">
+    <cfRule type="expression" dxfId="116" priority="167">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:M38">
+    <cfRule type="expression" dxfId="115" priority="169">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA35:AG39 AA5:AG9 AB22:AG22 AA23:AM28">
+    <cfRule type="expression" dxfId="114" priority="168">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:B44">
+    <cfRule type="expression" dxfId="113" priority="166">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:C48 C50">
+    <cfRule type="expression" dxfId="112" priority="165">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:E21">
+    <cfRule type="expression" dxfId="111" priority="137">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:B50">
+    <cfRule type="expression" dxfId="110" priority="162">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C57">
+    <cfRule type="expression" dxfId="109" priority="133">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="108" priority="130">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="107" priority="158">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="106" priority="157">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="105" priority="156">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:B48">
+    <cfRule type="expression" dxfId="104" priority="152">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D46 D48">
+    <cfRule type="expression" dxfId="103" priority="155">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D46 D48">
+    <cfRule type="expression" dxfId="102" priority="154">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:B46">
+    <cfRule type="expression" dxfId="101" priority="153">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="100" priority="150">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E46">
+    <cfRule type="expression" dxfId="99" priority="151">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E48">
+    <cfRule type="expression" dxfId="98" priority="149">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:K48 F50:K50">
+    <cfRule type="expression" dxfId="97" priority="148">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:M46">
+    <cfRule type="expression" dxfId="96" priority="143">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA45:AD47 AA48 AC48:AD48">
+    <cfRule type="expression" dxfId="95" priority="138">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:M48 L50:M50">
+    <cfRule type="expression" dxfId="94" priority="142">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA57:AG57 AA50:AD50 AF45:AG47 AF50:AG50 AF48">
+    <cfRule type="expression" dxfId="93" priority="141">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="92" priority="139">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22">
+    <cfRule type="expression" dxfId="91" priority="66">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB52:AD54 AC55">
+    <cfRule type="expression" dxfId="90" priority="110">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="89" priority="109">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:B49">
+    <cfRule type="expression" dxfId="88" priority="106">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="expression" dxfId="87" priority="100">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:D53 D55">
+    <cfRule type="expression" dxfId="86" priority="124">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:D53 D55">
+    <cfRule type="expression" dxfId="85" priority="123">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="84" priority="119">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E53">
+    <cfRule type="expression" dxfId="83" priority="120">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E55">
+    <cfRule type="expression" dxfId="82" priority="118">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:K56">
+    <cfRule type="expression" dxfId="81" priority="117">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:M53">
+    <cfRule type="expression" dxfId="80" priority="116">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH51:AK51">
+    <cfRule type="expression" dxfId="79" priority="74">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54:M56">
+    <cfRule type="expression" dxfId="78" priority="115">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA56:AF56 AE52:AF55 AG52:AG56">
+    <cfRule type="expression" dxfId="77" priority="114">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="76" priority="113">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA52:AA55">
+    <cfRule type="expression" dxfId="75" priority="111">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32:AM32">
+    <cfRule type="expression" dxfId="74" priority="73">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:K49">
+    <cfRule type="expression" dxfId="73" priority="103">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:M49">
+    <cfRule type="expression" dxfId="72" priority="102">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA49 AC49:AD49 AF49:AG49">
+    <cfRule type="expression" dxfId="71" priority="101">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="expression" dxfId="70" priority="99">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:D57">
+    <cfRule type="expression" dxfId="69" priority="98">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E57">
+    <cfRule type="expression" dxfId="68" priority="97">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="67" priority="96">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:B51">
+    <cfRule type="expression" dxfId="66" priority="95">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:K51">
+    <cfRule type="expression" dxfId="65" priority="94">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:M51">
+    <cfRule type="expression" dxfId="64" priority="93">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA51:AG51">
+    <cfRule type="expression" dxfId="63" priority="92">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="62" priority="91">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="61" priority="90">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE45:AE48">
+    <cfRule type="expression" dxfId="60" priority="89">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE50">
+    <cfRule type="expression" dxfId="59" priority="88">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33:AM34">
+    <cfRule type="expression" dxfId="58" priority="72">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB49">
+    <cfRule type="expression" dxfId="57" priority="86">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB55">
+    <cfRule type="expression" dxfId="56" priority="85">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD55">
+    <cfRule type="expression" dxfId="55" priority="84">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE49">
+    <cfRule type="expression" dxfId="54" priority="83">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31:AM31">
+    <cfRule type="expression" dxfId="53" priority="82">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH40:AK41 AL41:AM41">
+    <cfRule type="expression" dxfId="52" priority="80">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AK9 AH35:AK39">
+    <cfRule type="expression" dxfId="51" priority="81">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH57:AK57 AH45:AK47 AH50:AK50">
+    <cfRule type="expression" dxfId="50" priority="79">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH52:AK56">
+    <cfRule type="expression" dxfId="49" priority="76">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH49:AK49">
+    <cfRule type="expression" dxfId="48" priority="75">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL65">
+    <cfRule type="expression" dxfId="47" priority="14">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="46" priority="71">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="45" priority="69">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH42:AM42">
+    <cfRule type="expression" dxfId="44" priority="67">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI22:AM22">
+    <cfRule type="expression" dxfId="43" priority="65">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL51:AM51">
+    <cfRule type="expression" dxfId="42" priority="54">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM43:AO43">
+    <cfRule type="expression" dxfId="41" priority="17">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK43">
+    <cfRule type="expression" dxfId="40" priority="16">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL40:AM40 AL44:AM50 AL43">
+    <cfRule type="expression" dxfId="39" priority="59">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL5:AM9 AL35:AM39 AM62 AM65">
+    <cfRule type="expression" dxfId="38" priority="60">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL57:AM57 AL45:AM47 AL50:AM50">
+    <cfRule type="expression" dxfId="37" priority="58">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL52:AM56">
+    <cfRule type="expression" dxfId="36" priority="56">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL49:AM49">
+    <cfRule type="expression" dxfId="35" priority="55">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL62">
+    <cfRule type="expression" dxfId="34" priority="15">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN30:AO30 AN10:AO13 AN15:AO19">
+    <cfRule type="expression" dxfId="33" priority="49">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN23:AO28">
+    <cfRule type="expression" dxfId="32" priority="48">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN20:AO21">
+    <cfRule type="expression" dxfId="31" priority="47">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN32:AO32">
+    <cfRule type="expression" dxfId="30" priority="44">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN33:AO34">
+    <cfRule type="expression" dxfId="29" priority="43">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN31:AO31">
+    <cfRule type="expression" dxfId="28" priority="46">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN41:AO41">
+    <cfRule type="expression" dxfId="27" priority="45">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN42:AO42">
+    <cfRule type="expression" dxfId="26" priority="42">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN22:AO22">
+    <cfRule type="expression" dxfId="25" priority="41">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN51">
+    <cfRule type="expression" dxfId="24" priority="34">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN44:AN50 AN40:AO40">
+    <cfRule type="expression" dxfId="23" priority="39">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN5:AN9 AO8:AO9 AN35:AO39">
+    <cfRule type="expression" dxfId="22" priority="40">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN57 AN45:AN47 AN50">
+    <cfRule type="expression" dxfId="21" priority="38">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN52:AN56">
+    <cfRule type="expression" dxfId="20" priority="36">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN49">
+    <cfRule type="expression" dxfId="19" priority="35">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO5:AO7">
+    <cfRule type="expression" dxfId="18" priority="24">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO44:AO50">
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO57 AO45:AO47 AO50">
+    <cfRule type="expression" dxfId="16" priority="22">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO51">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO52:AO56">
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO49">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH62">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH65:AJ65">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI62">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ62">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="174" priority="265">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="173" priority="251">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="172" priority="207">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B9">
-    <cfRule type="expression" dxfId="171" priority="236">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E24">
-    <cfRule type="expression" dxfId="170" priority="247">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E22">
-    <cfRule type="expression" dxfId="169" priority="238">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:E62">
-    <cfRule type="expression" dxfId="168" priority="199">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B30 A23:B24">
-    <cfRule type="expression" dxfId="167" priority="237">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="166" priority="233">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="165" priority="234">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24 C29:C37">
-    <cfRule type="expression" dxfId="164" priority="231">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B58">
-    <cfRule type="expression" dxfId="163" priority="232">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E26">
-    <cfRule type="expression" dxfId="162" priority="228">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:E28">
-    <cfRule type="expression" dxfId="161" priority="227">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27">
-    <cfRule type="expression" dxfId="160" priority="226">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28 A25:B26">
-    <cfRule type="expression" dxfId="159" priority="225">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="158" priority="224">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C28">
-    <cfRule type="expression" dxfId="157" priority="223">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="156" priority="222">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="155" priority="186">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="154" priority="221">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B39">
-    <cfRule type="expression" dxfId="153" priority="219">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C39">
-    <cfRule type="expression" dxfId="152" priority="217">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
-    <cfRule type="expression" dxfId="151" priority="216">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="150" priority="210">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="149" priority="215">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="148" priority="213">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="147" priority="212">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E30">
-    <cfRule type="expression" dxfId="146" priority="211">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E34">
-    <cfRule type="expression" dxfId="145" priority="209">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="144" priority="197">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59:E59">
-    <cfRule type="expression" dxfId="143" priority="206">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B59">
-    <cfRule type="expression" dxfId="142" priority="205">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="141" priority="204">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B61">
-    <cfRule type="expression" dxfId="140" priority="202">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="139" priority="201">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="138" priority="200">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="137" priority="198">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B64">
-    <cfRule type="expression" dxfId="136" priority="195">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B64">
-    <cfRule type="expression" dxfId="135" priority="194">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="134" priority="193">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:E65">
-    <cfRule type="expression" dxfId="133" priority="192">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="132" priority="191">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="131" priority="181">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="130" priority="180">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="129" priority="188">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="128" priority="187">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="127" priority="176">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="126" priority="185">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="125" priority="184">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="124" priority="183">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="123" priority="182">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:B53">
-    <cfRule type="expression" dxfId="122" priority="115">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B55">
-    <cfRule type="expression" dxfId="121" priority="114">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="120" priority="179">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="119" priority="178">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B36">
-    <cfRule type="expression" dxfId="118" priority="177">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="117" priority="173">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" dxfId="116" priority="174">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="115" priority="172">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:K38 AA22 AH30:AM30 AA10:AM13 AN58:AO64 AK61 AK64 V35:Z43 V58:AM60 V65:AO77 V62:AM63 V61:AG61 V64:AG64 V22:Z28 V5:Z13 V15:AM21 V14:AO14 V51:Z57 V42:AG42 V43:AJ43 V44:AK50 F39:U50 N35:U38 F57:U77 N51:U56 W35:W77 W5:W28 R35:U77 Y35:Y77 F30:AG34 F5:U28 Y5:Y28">
-    <cfRule type="expression" dxfId="114" priority="169">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C43">
-    <cfRule type="expression" dxfId="113" priority="168">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:E43">
-    <cfRule type="expression" dxfId="112" priority="167">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:B43">
-    <cfRule type="expression" dxfId="111" priority="166">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35:M36">
-    <cfRule type="expression" dxfId="110" priority="164">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA40:AG43">
-    <cfRule type="expression" dxfId="109" priority="160">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37:M38">
-    <cfRule type="expression" dxfId="108" priority="162">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA35:AG39 AA5:AG9 AB22:AG22 AA23:AM28">
-    <cfRule type="expression" dxfId="107" priority="161">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:B44">
-    <cfRule type="expression" dxfId="106" priority="159">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44:C48 C50">
-    <cfRule type="expression" dxfId="105" priority="158">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:E21">
-    <cfRule type="expression" dxfId="104" priority="130">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:B50">
-    <cfRule type="expression" dxfId="103" priority="155">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C57">
-    <cfRule type="expression" dxfId="102" priority="126">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="101" priority="123">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="100" priority="151">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="99" priority="150">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="98" priority="149">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:B48">
-    <cfRule type="expression" dxfId="97" priority="145">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="96" priority="148">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="95" priority="147">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B46">
-    <cfRule type="expression" dxfId="94" priority="146">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="93" priority="143">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="92" priority="144">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="91" priority="142">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:K48 F50:K50">
-    <cfRule type="expression" dxfId="90" priority="141">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L45:M46">
-    <cfRule type="expression" dxfId="89" priority="136">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA45:AD47 AA48 AC48:AD48">
-    <cfRule type="expression" dxfId="88" priority="131">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L47:M48 L50:M50">
-    <cfRule type="expression" dxfId="87" priority="135">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA57:AG57 AA50:AD50 AF45:AG47 AF50:AG50 AF48">
-    <cfRule type="expression" dxfId="86" priority="134">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="85" priority="132">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="expression" dxfId="84" priority="59">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB52:AD54 AC55">
-    <cfRule type="expression" dxfId="83" priority="103">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="82" priority="102">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="81" priority="99">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
-    <cfRule type="expression" dxfId="80" priority="93">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="79" priority="117">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="78" priority="116">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="77" priority="112">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" dxfId="76" priority="113">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E55">
-    <cfRule type="expression" dxfId="75" priority="111">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52:K56">
-    <cfRule type="expression" dxfId="74" priority="110">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52:M53">
-    <cfRule type="expression" dxfId="73" priority="109">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH51:AK51">
-    <cfRule type="expression" dxfId="72" priority="67">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54:M56">
-    <cfRule type="expression" dxfId="71" priority="108">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA56:AF56 AE52:AF55 AG52:AG56">
-    <cfRule type="expression" dxfId="70" priority="107">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="69" priority="106">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA52:AA55">
-    <cfRule type="expression" dxfId="68" priority="104">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32:AM32">
-    <cfRule type="expression" dxfId="67" priority="66">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:K49">
-    <cfRule type="expression" dxfId="66" priority="96">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L49:M49">
-    <cfRule type="expression" dxfId="65" priority="95">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA49 AC49:AD49 AF49:AG49">
-    <cfRule type="expression" dxfId="64" priority="94">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="expression" dxfId="63" priority="92">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D57">
-    <cfRule type="expression" dxfId="62" priority="91">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E57">
-    <cfRule type="expression" dxfId="61" priority="90">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="60" priority="89">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="59" priority="88">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51:K51">
-    <cfRule type="expression" dxfId="58" priority="87">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51:M51">
-    <cfRule type="expression" dxfId="57" priority="86">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA51:AG51">
-    <cfRule type="expression" dxfId="56" priority="85">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="55" priority="84">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="54" priority="83">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE45:AE48">
-    <cfRule type="expression" dxfId="53" priority="82">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE50">
-    <cfRule type="expression" dxfId="52" priority="81">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH33:AM34">
-    <cfRule type="expression" dxfId="51" priority="65">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB49">
-    <cfRule type="expression" dxfId="50" priority="79">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB55">
-    <cfRule type="expression" dxfId="49" priority="78">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD55">
-    <cfRule type="expression" dxfId="48" priority="77">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE49">
-    <cfRule type="expression" dxfId="47" priority="76">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31:AM31">
-    <cfRule type="expression" dxfId="46" priority="75">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH40:AK41 AL41:AM41">
-    <cfRule type="expression" dxfId="45" priority="73">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH5:AK9 AH35:AK39">
-    <cfRule type="expression" dxfId="44" priority="74">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH57:AK57 AH45:AK47 AH50:AK50">
-    <cfRule type="expression" dxfId="43" priority="72">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH52:AK56">
-    <cfRule type="expression" dxfId="42" priority="69">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH49:AK49">
-    <cfRule type="expression" dxfId="41" priority="68">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL64">
-    <cfRule type="expression" dxfId="40" priority="7">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="39" priority="64">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="38" priority="62">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH42:AM42">
-    <cfRule type="expression" dxfId="37" priority="60">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI22:AM22">
-    <cfRule type="expression" dxfId="36" priority="58">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL51:AM51">
-    <cfRule type="expression" dxfId="35" priority="47">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM43:AO43">
-    <cfRule type="expression" dxfId="34" priority="10">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK43">
-    <cfRule type="expression" dxfId="33" priority="9">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL40:AM40 AL44:AM50 AL43">
-    <cfRule type="expression" dxfId="32" priority="52">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AM9 AL35:AM39 AM61 AM64">
-    <cfRule type="expression" dxfId="31" priority="53">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL57:AM57 AL45:AM47 AL50:AM50">
-    <cfRule type="expression" dxfId="30" priority="51">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL52:AM56">
-    <cfRule type="expression" dxfId="29" priority="49">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL49:AM49">
-    <cfRule type="expression" dxfId="28" priority="48">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL61">
-    <cfRule type="expression" dxfId="27" priority="8">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN30:AO30 AN10:AO13 AN15:AO19">
-    <cfRule type="expression" dxfId="26" priority="42">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN23:AO28">
-    <cfRule type="expression" dxfId="25" priority="41">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN20:AO21">
-    <cfRule type="expression" dxfId="24" priority="40">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN32:AO32">
-    <cfRule type="expression" dxfId="23" priority="37">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN33:AO34">
-    <cfRule type="expression" dxfId="22" priority="36">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN31:AO31">
-    <cfRule type="expression" dxfId="21" priority="39">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN41:AO41">
-    <cfRule type="expression" dxfId="20" priority="38">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN42:AO42">
-    <cfRule type="expression" dxfId="19" priority="35">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN22:AO22">
-    <cfRule type="expression" dxfId="18" priority="34">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN51">
-    <cfRule type="expression" dxfId="17" priority="27">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN44:AN50 AN40:AO40">
-    <cfRule type="expression" dxfId="16" priority="32">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AN9 AO8:AO9 AN35:AO39">
-    <cfRule type="expression" dxfId="15" priority="33">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN57 AN45:AN47 AN50">
-    <cfRule type="expression" dxfId="14" priority="31">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN52:AN56">
-    <cfRule type="expression" dxfId="13" priority="29">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN49">
-    <cfRule type="expression" dxfId="12" priority="28">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO5:AO7">
-    <cfRule type="expression" dxfId="11" priority="17">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO44:AO50">
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO57 AO45:AO47 AO50">
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO51">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO52:AO56">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO49">
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH61">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH64:AJ64">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI61">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ61">
+  <conditionalFormatting sqref="D59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>

--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B3A744-4FB7-4072-AB49-C37CC84D0246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008F42FB-AC1B-46BA-83D6-ECE3EAC6A672}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
   <sheets>
     <sheet name="TCDs" sheetId="4" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="164">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -457,12 +457,6 @@
     <t>e</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>JSON_PATH: surfaces[0]</t>
   </si>
   <si>
@@ -557,18 +551,6 @@
   </si>
   <si>
     <t>Lighting power for all spaces in the P-RMR exceeds the lighting power allowance for the building</t>
-  </si>
-  <si>
-    <t>b-21</t>
-  </si>
-  <si>
-    <t>c-22</t>
-  </si>
-  <si>
-    <t>b-24</t>
-  </si>
-  <si>
-    <t>c-25</t>
   </si>
 </sst>
 </file>
@@ -970,7 +952,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="188">
+  <dxfs count="183">
     <dxf>
       <fill>
         <patternFill>
@@ -1429,6 +1411,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1436,41 +1453,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1499,6 +1481,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1506,13 +1495,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1541,6 +1523,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1548,62 +1586,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1611,6 +1593,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1618,13 +1607,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1653,6 +1635,118 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1660,118 +1754,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1779,63 +1761,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2615,7 +2562,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G21" sqref="G21"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,47 +2668,47 @@
       </c>
       <c r="W1" s="5" t="str">
         <f>"rule-"&amp;W2&amp;"-"&amp;W3&amp;"-"&amp;W4</f>
-        <v>rule-6-8-b-21</v>
+        <v>rule-6-8-b</v>
       </c>
       <c r="X1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-6-8-b-24</v>
+        <f>"rule-"&amp;X2&amp;"-"&amp;X3&amp;"-"&amp;X4</f>
+        <v>rule-6-8-c</v>
       </c>
       <c r="Y1" s="5" t="str">
         <f>"rule-"&amp;Y2&amp;"-"&amp;Y3&amp;"-"&amp;Y4</f>
-        <v>rule-6-8-c-22</v>
+        <v>rule-6-8-d</v>
       </c>
       <c r="Z1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-6-8-c-25</v>
+        <f>"rule-"&amp;Z2&amp;"-"&amp;Z3&amp;"-"&amp;Z4</f>
+        <v>rule-6-8-e</v>
       </c>
       <c r="AA1" s="5" t="str">
+        <f>"rule-"&amp;AA2&amp;"-"&amp;AA3&amp;"-"&amp;AA4</f>
+        <v>rule-6-11-a</v>
+      </c>
+      <c r="AB1" s="5" t="str">
+        <f>"rule-"&amp;AB2&amp;"-"&amp;AB3&amp;"-"&amp;AB4</f>
+        <v>rule-6-11-b</v>
+      </c>
+      <c r="AC1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-a</v>
       </c>
-      <c r="AB1" s="5" t="str">
+      <c r="AD1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-b</v>
       </c>
-      <c r="AC1" s="5" t="str">
+      <c r="AE1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-c</v>
       </c>
-      <c r="AD1" s="5" t="str">
+      <c r="AF1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-d</v>
       </c>
-      <c r="AE1" s="5" t="str">
+      <c r="AG1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-e</v>
-      </c>
-      <c r="AF1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-6-12-f</v>
-      </c>
-      <c r="AG1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-6-12-g</v>
       </c>
       <c r="AH1" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2985,10 +2932,10 @@
         <v>8</v>
       </c>
       <c r="AA3" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC3" s="3">
         <v>12</v>
@@ -3090,16 +3037,16 @@
         <v>8</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>8</v>
@@ -3108,19 +3055,19 @@
         <v>19</v>
       </c>
       <c r="AC4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="AH4" s="3" t="s">
         <v>8</v>
@@ -3156,16 +3103,16 @@
       <c r="D5" s="12"/>
       <c r="E5" s="29"/>
       <c r="F5" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>93</v>
@@ -3207,61 +3154,61 @@
         <v>116</v>
       </c>
       <c r="W5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="X5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA5" s="46" t="s">
-        <v>125</v>
+      <c r="AA5" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC5" s="46" t="s">
         <v>125</v>
       </c>
       <c r="AD5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE5" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF5" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AF5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="AH5" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI5" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AI5" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="AL5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AM5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="AO5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3327,10 +3274,10 @@
         <v>5</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>20</v>
@@ -3339,22 +3286,22 @@
         <v>5</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AF6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="AH6" s="3" t="s">
         <v>99</v>
@@ -3503,28 +3450,28 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="6" t="str">
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AB8" s="6" t="str">
+      <c r="AD8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AC8" s="6" t="str">
-        <f t="shared" ref="AC8:AE8" si="3">"true"</f>
+      <c r="AE8" s="6" t="str">
+        <f t="shared" ref="AE8:AG8" si="3">"true"</f>
         <v>true</v>
       </c>
-      <c r="AD8" s="6" t="str">
+      <c r="AF8" s="6" t="str">
         <f t="shared" si="3"/>
         <v>true</v>
       </c>
-      <c r="AE8" s="6" t="str">
+      <c r="AG8" s="6" t="str">
         <f t="shared" si="3"/>
         <v>true</v>
       </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
       <c r="AH8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
@@ -3622,17 +3569,17 @@
         <f t="shared" si="5"/>
         <v>true</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
+      <c r="AA9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
-      <c r="AF9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG9" s="22" t="s">
-        <v>68</v>
-      </c>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
       <c r="AH9" s="22" t="s">
         <v>68</v>
       </c>
@@ -3919,11 +3866,11 @@
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="X12" s="3" t="str">
+      <c r="W12" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="Z12" s="3" t="str">
+      <c r="X12" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
@@ -4066,112 +4013,112 @@
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AJ14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -4969,28 +4916,28 @@
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N22" s="27" t="s">
         <v>79</v>
@@ -5012,16 +4959,16 @@
         <v>111</v>
       </c>
       <c r="W22" s="27" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="X22" s="27" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="27" t="s">
         <v>105</v>
       </c>
       <c r="Z22" s="27" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AA22" s="27"/>
       <c r="AB22" s="27"/>
@@ -5037,10 +4984,10 @@
         <v>111</v>
       </c>
       <c r="AJ22" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AK22" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AL22" s="27" t="s">
         <v>111</v>
@@ -5052,7 +4999,7 @@
         <v>111</v>
       </c>
       <c r="AO22" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -5196,10 +5143,10 @@
       <c r="V24" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="W24" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="X24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z24" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5561,61 +5508,61 @@
         <v>113</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Y30" s="3" t="s">
         <v>103</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AG30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AI30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AJ30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AL30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AM30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AN30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AO30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -5680,16 +5627,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W31" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y31" s="3">
         <v>2.1</v>
       </c>
-      <c r="X31" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Y31" s="3">
+      <c r="Z31" s="3">
         <v>2.4</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -5706,7 +5653,7 @@
         <v>84</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K32" s="33"/>
       <c r="U32" s="32"/>
@@ -5723,12 +5670,12 @@
         <v>false</v>
       </c>
       <c r="AD32" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+      <c r="AE32" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
-      </c>
-      <c r="AE32" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
       </c>
       <c r="AF32" s="3" t="str">
         <f>"false"</f>
@@ -5753,7 +5700,7 @@
         <v>84</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K33" s="33"/>
       <c r="U33" s="32"/>
@@ -5788,33 +5735,33 @@
         <v>84</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K34" s="33"/>
       <c r="U34" s="32"/>
       <c r="AH34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AI34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AL34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AM34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AN34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AO34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -5851,10 +5798,10 @@
       <c r="Q35" s="3">
         <v>2</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2</v>
       </c>
     </row>
@@ -5892,10 +5839,10 @@
       <c r="Q36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="W36" s="3" t="s">
+      <c r="Y36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Y36" s="3" t="s">
+      <c r="Z36" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5933,10 +5880,10 @@
       <c r="Q37" s="3">
         <v>0.32</v>
       </c>
-      <c r="W37" s="3">
+      <c r="Y37" s="3">
         <v>2.1</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Z37" s="3">
         <v>2.1</v>
       </c>
     </row>
@@ -6083,7 +6030,7 @@
         <v>61</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>63</v>
@@ -6150,7 +6097,7 @@
         <v>61</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>65</v>
@@ -6185,28 +6132,28 @@
       <c r="AF42" s="25"/>
       <c r="AG42" s="25"/>
       <c r="AH42" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AI42" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ42" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AK42" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AL42" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AM42" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AN42" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AO42" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -6217,10 +6164,10 @@
         <v>61</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="44"/>
@@ -6280,7 +6227,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>63</v>
@@ -6345,7 +6292,7 @@
         <v>61</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>65</v>
@@ -6373,25 +6320,25 @@
       <c r="Y45" s="25"/>
       <c r="Z45" s="25"/>
       <c r="AA45" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AB45" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AC45" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD45" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AE45" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF45" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG45" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AH45" s="25"/>
       <c r="AI45" s="25"/>
@@ -6410,10 +6357,10 @@
         <v>61</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="25"/>
@@ -6438,25 +6385,25 @@
       <c r="Y46" s="25"/>
       <c r="Z46" s="25"/>
       <c r="AA46" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AB46" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC46" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AD46" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AE46" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF46" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG46" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AH46" s="25"/>
       <c r="AI46" s="25"/>
@@ -6475,10 +6422,10 @@
         <v>61</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="25"/>
@@ -6540,10 +6487,10 @@
         <v>61</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="25"/>
@@ -6568,25 +6515,25 @@
       <c r="Y48" s="25"/>
       <c r="Z48" s="25"/>
       <c r="AA48" s="25">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB48" s="25" t="s">
         <v>122</v>
       </c>
       <c r="AC48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE48" s="25">
         <v>180</v>
       </c>
-      <c r="AD48" s="25">
+      <c r="AF48" s="25">
         <v>1</v>
       </c>
-      <c r="AE48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="25">
-        <v>180</v>
-      </c>
-      <c r="AG48" s="25" t="s">
-        <v>122</v>
+      <c r="AG48" s="25">
+        <v>0</v>
       </c>
       <c r="AH48" s="25"/>
       <c r="AI48" s="25"/>
@@ -6605,10 +6552,10 @@
         <v>61</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>63</v>
@@ -6635,16 +6582,16 @@
       <c r="Y49" s="25"/>
       <c r="Z49" s="25"/>
       <c r="AA49" s="25"/>
-      <c r="AB49" s="25" t="s">
-        <v>122</v>
-      </c>
+      <c r="AB49" s="25"/>
       <c r="AC49" s="25"/>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="25" t="s">
-        <v>122</v>
-      </c>
+      <c r="AD49" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE49" s="25"/>
       <c r="AF49" s="25"/>
-      <c r="AG49" s="25"/>
+      <c r="AG49" s="25" t="s">
+        <v>122</v>
+      </c>
       <c r="AH49" s="25"/>
       <c r="AI49" s="25"/>
       <c r="AJ49" s="25"/>
@@ -6662,10 +6609,10 @@
         <v>61</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>65</v>
@@ -6692,16 +6639,16 @@
       <c r="Y50" s="25"/>
       <c r="Z50" s="25"/>
       <c r="AA50" s="25"/>
-      <c r="AB50" s="25" t="s">
-        <v>146</v>
-      </c>
+      <c r="AB50" s="25"/>
       <c r="AC50" s="25"/>
-      <c r="AD50" s="25"/>
-      <c r="AE50" s="25" t="s">
-        <v>146</v>
-      </c>
+      <c r="AD50" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE50" s="25"/>
       <c r="AF50" s="25"/>
-      <c r="AG50" s="25"/>
+      <c r="AG50" s="25" t="s">
+        <v>144</v>
+      </c>
       <c r="AH50" s="25"/>
       <c r="AI50" s="25"/>
       <c r="AJ50" s="25"/>
@@ -6719,25 +6666,25 @@
         <v>61</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>63</v>
       </c>
       <c r="E51" s="12"/>
+      <c r="AA51" s="3">
+        <v>2</v>
+      </c>
       <c r="AB51" s="3">
         <v>2</v>
       </c>
-      <c r="AC51" s="3">
-        <v>2</v>
-      </c>
       <c r="AD51" s="3">
         <v>2</v>
       </c>
+      <c r="AE51" s="3">
+        <v>2</v>
+      </c>
       <c r="AF51" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG51" s="3">
         <v>2</v>
       </c>
     </row>
@@ -6749,26 +6696,26 @@
         <v>61</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E52" s="12"/>
+      <c r="AA52" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="AB52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC52" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD52" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG52" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
@@ -6779,26 +6726,26 @@
         <v>61</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E53" s="12"/>
+      <c r="AA53" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="AB53" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC53" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AD53" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="AE53" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG53" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
@@ -6809,25 +6756,25 @@
         <v>61</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E54" s="12"/>
+      <c r="AA54" s="3">
+        <v>90</v>
+      </c>
       <c r="AB54" s="3">
         <v>90</v>
       </c>
-      <c r="AC54" s="3">
-        <v>90</v>
-      </c>
       <c r="AD54" s="3">
         <v>90</v>
       </c>
+      <c r="AE54" s="3">
+        <v>90</v>
+      </c>
       <c r="AF54" s="3">
-        <v>90</v>
-      </c>
-      <c r="AG54" s="3">
         <v>90</v>
       </c>
     </row>
@@ -6839,25 +6786,25 @@
         <v>61</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E55" s="12"/>
+      <c r="AA55" s="3">
+        <v>270</v>
+      </c>
       <c r="AB55" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AC55" s="3">
+      <c r="AD55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE55" s="3">
         <v>180</v>
       </c>
-      <c r="AD55" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF55" s="3">
-        <v>270</v>
-      </c>
-      <c r="AG55" s="3" t="s">
+      <c r="AF55" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6869,15 +6816,15 @@
         <v>61</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AB56" s="3">
+      <c r="AD56" s="3">
         <v>2</v>
       </c>
     </row>
@@ -6889,10 +6836,10 @@
         <v>61</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>65</v>
@@ -6919,11 +6866,11 @@
       <c r="Y57" s="22"/>
       <c r="Z57" s="22"/>
       <c r="AA57" s="22"/>
-      <c r="AB57" s="22" t="s">
-        <v>145</v>
-      </c>
+      <c r="AB57" s="22"/>
       <c r="AC57" s="22"/>
-      <c r="AD57" s="22"/>
+      <c r="AD57" s="22" t="s">
+        <v>143</v>
+      </c>
       <c r="AE57" s="22"/>
       <c r="AF57" s="22"/>
       <c r="AG57" s="22"/>
@@ -6969,10 +6916,10 @@
         <v>13</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E59" s="29"/>
       <c r="F59" s="6"/>
@@ -7064,10 +7011,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="6"/>
@@ -7173,10 +7120,10 @@
         <v>11</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E65" s="29"/>
       <c r="F65" s="6"/>
@@ -7335,617 +7282,602 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A67:E78 A5:E5 A10:E19">
-    <cfRule type="expression" dxfId="187" priority="285">
+    <cfRule type="expression" dxfId="182" priority="285">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="186" priority="260">
+    <cfRule type="expression" dxfId="181" priority="260">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="expression" dxfId="185" priority="259">
+    <cfRule type="expression" dxfId="180" priority="259">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="184" priority="257">
+    <cfRule type="expression" dxfId="179" priority="257">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E9">
-    <cfRule type="expression" dxfId="183" priority="256">
+    <cfRule type="expression" dxfId="178" priority="256">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="180" priority="258">
+    <cfRule type="expression" dxfId="177" priority="258">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="179" priority="214">
+    <cfRule type="expression" dxfId="176" priority="214">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B9">
-    <cfRule type="expression" dxfId="178" priority="243">
+    <cfRule type="expression" dxfId="175" priority="243">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E24">
-    <cfRule type="expression" dxfId="177" priority="254">
+    <cfRule type="expression" dxfId="174" priority="254">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="expression" dxfId="176" priority="245">
+    <cfRule type="expression" dxfId="173" priority="245">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:E63">
-    <cfRule type="expression" dxfId="175" priority="206">
+    <cfRule type="expression" dxfId="172" priority="206">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B30 A23:B24">
-    <cfRule type="expression" dxfId="174" priority="244">
+    <cfRule type="expression" dxfId="171" priority="244">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="173" priority="240">
+    <cfRule type="expression" dxfId="170" priority="240">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="172" priority="241">
+    <cfRule type="expression" dxfId="169" priority="241">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24 C29:C37">
-    <cfRule type="expression" dxfId="171" priority="238">
+    <cfRule type="expression" dxfId="168" priority="238">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B59">
-    <cfRule type="expression" dxfId="170" priority="239">
+    <cfRule type="expression" dxfId="167" priority="239">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E26">
-    <cfRule type="expression" dxfId="169" priority="235">
+    <cfRule type="expression" dxfId="166" priority="235">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="expression" dxfId="168" priority="234">
+    <cfRule type="expression" dxfId="165" priority="234">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27">
-    <cfRule type="expression" dxfId="167" priority="233">
+    <cfRule type="expression" dxfId="164" priority="233">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28 A25:B26">
-    <cfRule type="expression" dxfId="166" priority="232">
+    <cfRule type="expression" dxfId="163" priority="232">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="165" priority="231">
+    <cfRule type="expression" dxfId="162" priority="231">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C28">
-    <cfRule type="expression" dxfId="164" priority="230">
+    <cfRule type="expression" dxfId="161" priority="230">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="163" priority="229">
+    <cfRule type="expression" dxfId="160" priority="229">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="162" priority="193">
+    <cfRule type="expression" dxfId="159" priority="193">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="161" priority="228">
+    <cfRule type="expression" dxfId="158" priority="228">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39">
-    <cfRule type="expression" dxfId="160" priority="226">
+    <cfRule type="expression" dxfId="157" priority="226">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C39">
-    <cfRule type="expression" dxfId="159" priority="224">
+    <cfRule type="expression" dxfId="156" priority="224">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E39">
-    <cfRule type="expression" dxfId="158" priority="223">
+    <cfRule type="expression" dxfId="155" priority="223">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="157" priority="217">
+    <cfRule type="expression" dxfId="154" priority="217">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="156" priority="222">
+    <cfRule type="expression" dxfId="153" priority="222">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="155" priority="220">
+    <cfRule type="expression" dxfId="152" priority="220">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="154" priority="219">
+    <cfRule type="expression" dxfId="151" priority="219">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E30">
-    <cfRule type="expression" dxfId="153" priority="218">
+    <cfRule type="expression" dxfId="150" priority="218">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E34">
-    <cfRule type="expression" dxfId="152" priority="216">
+    <cfRule type="expression" dxfId="149" priority="216">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="151" priority="204">
+    <cfRule type="expression" dxfId="148" priority="204">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60:E60">
-    <cfRule type="expression" dxfId="150" priority="213">
+    <cfRule type="expression" dxfId="147" priority="213">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="149" priority="212">
+    <cfRule type="expression" dxfId="146" priority="212">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="148" priority="211">
+    <cfRule type="expression" dxfId="145" priority="211">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B62">
-    <cfRule type="expression" dxfId="147" priority="209">
+    <cfRule type="expression" dxfId="144" priority="209">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="146" priority="208">
+    <cfRule type="expression" dxfId="143" priority="208">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="145" priority="207">
+    <cfRule type="expression" dxfId="142" priority="207">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="144" priority="205">
+    <cfRule type="expression" dxfId="141" priority="205">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B65">
-    <cfRule type="expression" dxfId="143" priority="202">
+    <cfRule type="expression" dxfId="140" priority="202">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:B65">
-    <cfRule type="expression" dxfId="142" priority="201">
+    <cfRule type="expression" dxfId="139" priority="201">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="141" priority="200">
+    <cfRule type="expression" dxfId="138" priority="200">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:E66">
-    <cfRule type="expression" dxfId="140" priority="199">
+    <cfRule type="expression" dxfId="137" priority="199">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="expression" dxfId="139" priority="198">
+    <cfRule type="expression" dxfId="136" priority="198">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="138" priority="188">
+    <cfRule type="expression" dxfId="135" priority="188">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="137" priority="187">
+    <cfRule type="expression" dxfId="134" priority="187">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="136" priority="195">
+    <cfRule type="expression" dxfId="133" priority="195">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="135" priority="194">
+    <cfRule type="expression" dxfId="132" priority="194">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="134" priority="183">
+    <cfRule type="expression" dxfId="131" priority="183">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="133" priority="192">
+    <cfRule type="expression" dxfId="130" priority="192">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="132" priority="191">
+    <cfRule type="expression" dxfId="129" priority="191">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="131" priority="190">
+    <cfRule type="expression" dxfId="128" priority="190">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="130" priority="189">
+    <cfRule type="expression" dxfId="127" priority="189">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B53">
-    <cfRule type="expression" dxfId="129" priority="122">
+    <cfRule type="expression" dxfId="126" priority="122">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B55">
-    <cfRule type="expression" dxfId="128" priority="121">
+    <cfRule type="expression" dxfId="125" priority="121">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="127" priority="186">
+    <cfRule type="expression" dxfId="124" priority="186">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="126" priority="185">
+    <cfRule type="expression" dxfId="123" priority="185">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B36">
-    <cfRule type="expression" dxfId="125" priority="184">
+    <cfRule type="expression" dxfId="122" priority="184">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="124" priority="180">
+    <cfRule type="expression" dxfId="121" priority="180">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" dxfId="123" priority="181">
+    <cfRule type="expression" dxfId="120" priority="181">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="122" priority="179">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:K38 AA22 AH30:AM30 AA10:AM13 AN58:AO65 AK62 AK65 V35:Z43 V58:AM61 V66:AO78 V63:AM64 V62:AG62 V65:AG65 V22:Z28 V5:Z13 V15:AM21 V14:AO14 V51:Z57 V42:AG42 V43:AJ43 V44:AK50 F39:U50 N35:U38 N51:U56 W35:W78 W5:W28 R35:U78 Y35:Y78 F30:AG34 Y5:Y28 F5:U28 F57:U78">
-    <cfRule type="expression" dxfId="121" priority="176">
+    <cfRule type="expression" dxfId="119" priority="179">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:K38 AH30:AM30 AN58:AO65 AK62 AK65 F39:U50 N35:U38 N51:U56 F57:U78 AH10:AM13 AH58:AM61 AH66:AO78 AH63:AM64 AH15:AM21 AH14:AO14 AH43:AJ43 AH44:AK50 F30:AB34 AC30:AG50 AC5:AG22 F5:AB28 AA23:AM28 AC56:AG78 AG52:AG55 R35:AB78 AA51:AG51">
+    <cfRule type="expression" dxfId="118" priority="176">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C43">
-    <cfRule type="expression" dxfId="120" priority="175">
+    <cfRule type="expression" dxfId="117" priority="175">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:E43">
-    <cfRule type="expression" dxfId="119" priority="174">
+    <cfRule type="expression" dxfId="116" priority="174">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B43">
-    <cfRule type="expression" dxfId="118" priority="173">
+    <cfRule type="expression" dxfId="115" priority="173">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:M36">
-    <cfRule type="expression" dxfId="117" priority="171">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA40:AG43">
-    <cfRule type="expression" dxfId="116" priority="167">
+    <cfRule type="expression" dxfId="114" priority="171">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:M38">
-    <cfRule type="expression" dxfId="115" priority="169">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA35:AG39 AA5:AG9 AB22:AG22 AA23:AM28">
-    <cfRule type="expression" dxfId="114" priority="168">
+    <cfRule type="expression" dxfId="113" priority="169">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="expression" dxfId="113" priority="166">
+    <cfRule type="expression" dxfId="112" priority="166">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C48 C50">
-    <cfRule type="expression" dxfId="112" priority="165">
+    <cfRule type="expression" dxfId="111" priority="165">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:E21">
-    <cfRule type="expression" dxfId="111" priority="137">
+    <cfRule type="expression" dxfId="110" priority="137">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="expression" dxfId="110" priority="162">
+    <cfRule type="expression" dxfId="109" priority="162">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C57">
-    <cfRule type="expression" dxfId="109" priority="133">
+    <cfRule type="expression" dxfId="108" priority="133">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="108" priority="130">
+    <cfRule type="expression" dxfId="107" priority="130">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="107" priority="158">
+    <cfRule type="expression" dxfId="106" priority="158">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="106" priority="157">
+    <cfRule type="expression" dxfId="105" priority="157">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="105" priority="156">
+    <cfRule type="expression" dxfId="104" priority="156">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B48">
-    <cfRule type="expression" dxfId="104" priority="152">
+    <cfRule type="expression" dxfId="103" priority="152">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="103" priority="155">
+    <cfRule type="expression" dxfId="102" priority="155">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="102" priority="154">
+    <cfRule type="expression" dxfId="101" priority="154">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B46">
-    <cfRule type="expression" dxfId="101" priority="153">
+    <cfRule type="expression" dxfId="100" priority="153">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="100" priority="150">
+    <cfRule type="expression" dxfId="99" priority="150">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="99" priority="151">
+    <cfRule type="expression" dxfId="98" priority="151">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="98" priority="149">
+    <cfRule type="expression" dxfId="97" priority="149">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:K48 F50:K50">
-    <cfRule type="expression" dxfId="97" priority="148">
+    <cfRule type="expression" dxfId="96" priority="148">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:M46">
-    <cfRule type="expression" dxfId="96" priority="143">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA45:AD47 AA48 AC48:AD48">
-    <cfRule type="expression" dxfId="95" priority="138">
+    <cfRule type="expression" dxfId="95" priority="143">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC45:AF47 AC48 AE48:AF48">
+    <cfRule type="expression" dxfId="94" priority="138">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:M48 L50:M50">
-    <cfRule type="expression" dxfId="94" priority="142">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA57:AG57 AA50:AD50 AF45:AG47 AF50:AG50 AF48">
-    <cfRule type="expression" dxfId="93" priority="141">
+    <cfRule type="expression" dxfId="93" priority="142">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA45:AB47 AA50:AF50 AA48">
+    <cfRule type="expression" dxfId="92" priority="141">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="92" priority="139">
+    <cfRule type="expression" dxfId="91" priority="139">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH22">
-    <cfRule type="expression" dxfId="91" priority="66">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB52:AD54 AC55">
-    <cfRule type="expression" dxfId="90" priority="110">
+    <cfRule type="expression" dxfId="90" priority="66">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD52:AF54 AE55">
+    <cfRule type="expression" dxfId="89" priority="110">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="89" priority="109">
+    <cfRule type="expression" dxfId="88" priority="109">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="88" priority="106">
+    <cfRule type="expression" dxfId="87" priority="106">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50">
-    <cfRule type="expression" dxfId="87" priority="100">
+    <cfRule type="expression" dxfId="86" priority="100">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="86" priority="124">
+    <cfRule type="expression" dxfId="85" priority="124">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="85" priority="123">
+    <cfRule type="expression" dxfId="84" priority="123">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="84" priority="119">
+    <cfRule type="expression" dxfId="83" priority="119">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" dxfId="83" priority="120">
+    <cfRule type="expression" dxfId="82" priority="120">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E55">
-    <cfRule type="expression" dxfId="82" priority="118">
+    <cfRule type="expression" dxfId="81" priority="118">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:K56">
-    <cfRule type="expression" dxfId="81" priority="117">
+    <cfRule type="expression" dxfId="80" priority="117">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:M53">
-    <cfRule type="expression" dxfId="80" priority="116">
+    <cfRule type="expression" dxfId="79" priority="116">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH51:AK51">
-    <cfRule type="expression" dxfId="79" priority="74">
+    <cfRule type="expression" dxfId="78" priority="74">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:M56">
-    <cfRule type="expression" dxfId="78" priority="115">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA56:AF56 AE52:AF55 AG52:AG56">
-    <cfRule type="expression" dxfId="77" priority="114">
+    <cfRule type="expression" dxfId="77" priority="115">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB52:AB56">
+    <cfRule type="expression" dxfId="76" priority="114">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="76" priority="113">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA52:AA55">
-    <cfRule type="expression" dxfId="75" priority="111">
+    <cfRule type="expression" dxfId="75" priority="113">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC52:AC55">
+    <cfRule type="expression" dxfId="74" priority="111">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AM32">
-    <cfRule type="expression" dxfId="74" priority="73">
+    <cfRule type="expression" dxfId="73" priority="73">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:K49">
-    <cfRule type="expression" dxfId="73" priority="103">
+    <cfRule type="expression" dxfId="72" priority="103">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:M49">
-    <cfRule type="expression" dxfId="72" priority="102">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA49 AC49:AD49 AF49:AG49">
-    <cfRule type="expression" dxfId="71" priority="101">
+    <cfRule type="expression" dxfId="71" priority="102">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE49:AF49 AA49:AC49">
+    <cfRule type="expression" dxfId="70" priority="101">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="expression" dxfId="70" priority="99">
+    <cfRule type="expression" dxfId="69" priority="99">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:D57">
-    <cfRule type="expression" dxfId="69" priority="98">
+    <cfRule type="expression" dxfId="68" priority="98">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E57">
-    <cfRule type="expression" dxfId="68" priority="97">
+    <cfRule type="expression" dxfId="67" priority="97">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="67" priority="96">
+    <cfRule type="expression" dxfId="66" priority="96">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="66" priority="95">
+    <cfRule type="expression" dxfId="65" priority="95">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:K51">
-    <cfRule type="expression" dxfId="65" priority="94">
+    <cfRule type="expression" dxfId="64" priority="94">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:M51">
-    <cfRule type="expression" dxfId="64" priority="93">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA51:AG51">
-    <cfRule type="expression" dxfId="63" priority="92">
+    <cfRule type="expression" dxfId="63" priority="93">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7959,12 +7891,12 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE45:AE48">
+  <conditionalFormatting sqref="AG45:AG48">
     <cfRule type="expression" dxfId="60" priority="89">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE50">
+  <conditionalFormatting sqref="AG50">
     <cfRule type="expression" dxfId="59" priority="88">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -7974,22 +7906,22 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB49">
+  <conditionalFormatting sqref="AD49">
     <cfRule type="expression" dxfId="57" priority="86">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB55">
+  <conditionalFormatting sqref="AD55">
     <cfRule type="expression" dxfId="56" priority="85">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD55">
+  <conditionalFormatting sqref="AF55">
     <cfRule type="expression" dxfId="55" priority="84">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE49">
+  <conditionalFormatting sqref="AG49">
     <cfRule type="expression" dxfId="54" priority="83">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>

--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008F42FB-AC1B-46BA-83D6-ECE3EAC6A672}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA0DF0-436F-4953-B441-F63D7832876A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
   <sheets>
     <sheet name="TCDs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}</author>
   </authors>
   <commentList>
-    <comment ref="U10" authorId="0" shapeId="0" xr:uid="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
+    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="164">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -340,12 +340,6 @@
     <t>Lighting power for all spaces in the P-RMR is the less than the lighting power allowance for the building.</t>
   </si>
   <si>
-    <t>Lighting power for all building segments in the P-RMR is the less than the lighting power allowance for the building.</t>
-  </si>
-  <si>
-    <t>Lighting power for all building segments in the P-RMR exceds the lighting power allowance for the building</t>
-  </si>
-  <si>
     <t>Proposed lighting power for the "Space ID 1", of "Hotel/Motel" space type, is equal to or greater than 0.41 W/ft2 as expected</t>
   </si>
   <si>
@@ -364,12 +358,6 @@
     <t>Lighting power in the proposed RMR is as exisiting and cannot be verified by RCT.</t>
   </si>
   <si>
-    <t>Baseline RMR ILPA is determined based on requirments specified in Table G3.7, as expected</t>
-  </si>
-  <si>
-    <t>Baseline RMR ILPA is not  determined based on requirments specified in Table G3.7, as expected</t>
-  </si>
-  <si>
     <t>Dining Area Lighting 1</t>
   </si>
   <si>
@@ -412,9 +400,6 @@
     <t>The baseline LPDr for "Space ID 1" is equal to 1.1 W/ft2 as expected</t>
   </si>
   <si>
-    <t>The baseline LPDr for "Space ID 1" is not equal to 1.1 W/ft2 as expected</t>
-  </si>
-  <si>
     <t>Reading Area Lighting</t>
   </si>
   <si>
@@ -551,6 +536,21 @@
   </si>
   <si>
     <t>Lighting power for all spaces in the P-RMR exceeds the lighting power allowance for the building</t>
+  </si>
+  <si>
+    <t>Baseline building  &gt; 5000 ft2 is modeled with automatic shutoff controls</t>
+  </si>
+  <si>
+    <t>Baseline building  &gt; 5000 ft2 is not modeled with automatic shutoff controls, contrary to rule requirement</t>
+  </si>
+  <si>
+    <t>Baseline building  is &lt; 5000 ft2 is not modeled with automatic shutoff controls</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>OpenSchedule1</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -866,9 +866,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,9 +901,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -952,7 +946,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="183">
+  <dxfs count="185">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2550,7 +2558,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="U10" dT="2021-05-25T22:34:37.38" personId="{1A49BB3D-5F6C-4FED-AA5E-1F4F2C8C02C3}" id="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
+  <threadedComment ref="S10" dT="2021-05-25T22:34:37.38" personId="{1A49BB3D-5F6C-4FED-AA5E-1F4F2C8C02C3}" id="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
     <text>Test unclear to me on TCD</text>
   </threadedComment>
 </ThreadedComments>
@@ -2558,11 +2566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2616CE-C113-4173-BA9E-9D8DBBCAB481}">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AM78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="V22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,18 +2581,19 @@
     <col min="2" max="2" width="14" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="25" customWidth="1"/>
     <col min="6" max="7" width="55.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="55.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="52.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="41" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="50.5703125" style="3" customWidth="1"/>
+    <col min="25" max="39" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
@@ -2596,7 +2607,7 @@
         <v>57</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F1" s="5" t="str">
         <f>"rule-"&amp;F2&amp;"-"&amp;F3&amp;"-"&amp;F4</f>
@@ -2611,146 +2622,138 @@
         <v>rule-6-2-a</v>
       </c>
       <c r="I1" s="5" t="str">
-        <f t="shared" ref="I1:AL1" si="0">"rule-"&amp;I2&amp;"-"&amp;I3&amp;"-"&amp;I4</f>
+        <f t="shared" ref="I1:AJ1" si="0">"rule-"&amp;I2&amp;"-"&amp;I3&amp;"-"&amp;I4</f>
         <v>rule-6-2-b</v>
       </c>
       <c r="J1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-2-c</v>
+        <v>rule-6-3-a</v>
       </c>
       <c r="K1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-2-d</v>
+        <v>rule-6-3-b</v>
       </c>
       <c r="L1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-3-a</v>
+        <v>rule-6-3-c</v>
       </c>
       <c r="M1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-3-b</v>
+        <v>rule-6-3-d</v>
       </c>
       <c r="N1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-3-c</v>
+        <v>rule-6-4-a</v>
       </c>
       <c r="O1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-6-3-d</v>
+        <f>"rule-"&amp;O2&amp;"-"&amp;O3&amp;"-"&amp;O4</f>
+        <v>rule-6-5-a</v>
       </c>
       <c r="P1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-6-4-a</v>
+        <f>"rule-"&amp;P2&amp;"-"&amp;P3&amp;"-"&amp;P4</f>
+        <v>rule-6-6-a</v>
       </c>
       <c r="Q1" s="5" t="str">
         <f>"rule-"&amp;Q2&amp;"-"&amp;Q3&amp;"-"&amp;Q4</f>
-        <v>rule-6-5-a</v>
+        <v>rule-6-6-b</v>
       </c>
       <c r="R1" s="5" t="str">
         <f>"rule-"&amp;R2&amp;"-"&amp;R3&amp;"-"&amp;R4</f>
-        <v>rule-6-6-a</v>
+        <v>rule-6-7-a</v>
       </c>
       <c r="S1" s="5" t="str">
         <f>"rule-"&amp;S2&amp;"-"&amp;S3&amp;"-"&amp;S4</f>
-        <v>rule-6-6-b</v>
+        <v>rule-6-7-b</v>
       </c>
       <c r="T1" s="5" t="str">
-        <f>"rule-"&amp;T2&amp;"-"&amp;T3&amp;"-"&amp;T4</f>
-        <v>rule-6-7-a</v>
-      </c>
-      <c r="U1" s="5" t="str">
-        <f>"rule-"&amp;U2&amp;"-"&amp;U3&amp;"-"&amp;U4</f>
-        <v>rule-6-7-b</v>
-      </c>
-      <c r="V1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-8-a</v>
       </c>
+      <c r="U1" s="5" t="str">
+        <f t="shared" ref="U1:Z1" si="1">"rule-"&amp;U2&amp;"-"&amp;U3&amp;"-"&amp;U4</f>
+        <v>rule-6-8-b</v>
+      </c>
+      <c r="V1" s="5" t="str">
+        <f t="shared" ref="V1" si="2">"rule-"&amp;V2&amp;"-"&amp;V3&amp;"-"&amp;V4</f>
+        <v>rule-6-9-a</v>
+      </c>
       <c r="W1" s="5" t="str">
-        <f>"rule-"&amp;W2&amp;"-"&amp;W3&amp;"-"&amp;W4</f>
-        <v>rule-6-8-b</v>
+        <f t="shared" ref="W1" si="3">"rule-"&amp;W2&amp;"-"&amp;W3&amp;"-"&amp;W4</f>
+        <v>rule-6-9-b</v>
       </c>
       <c r="X1" s="5" t="str">
-        <f>"rule-"&amp;X2&amp;"-"&amp;X3&amp;"-"&amp;X4</f>
-        <v>rule-6-8-c</v>
+        <f t="shared" ref="X1" si="4">"rule-"&amp;X2&amp;"-"&amp;X3&amp;"-"&amp;X4</f>
+        <v>rule-6-9-c</v>
       </c>
       <c r="Y1" s="5" t="str">
-        <f>"rule-"&amp;Y2&amp;"-"&amp;Y3&amp;"-"&amp;Y4</f>
-        <v>rule-6-8-d</v>
+        <f t="shared" si="1"/>
+        <v>rule-6-11-a</v>
       </c>
       <c r="Z1" s="5" t="str">
-        <f>"rule-"&amp;Z2&amp;"-"&amp;Z3&amp;"-"&amp;Z4</f>
-        <v>rule-6-8-e</v>
+        <f t="shared" si="1"/>
+        <v>rule-6-11-b</v>
       </c>
       <c r="AA1" s="5" t="str">
-        <f>"rule-"&amp;AA2&amp;"-"&amp;AA3&amp;"-"&amp;AA4</f>
-        <v>rule-6-11-a</v>
+        <f t="shared" si="0"/>
+        <v>rule-6-12-a</v>
       </c>
       <c r="AB1" s="5" t="str">
-        <f>"rule-"&amp;AB2&amp;"-"&amp;AB3&amp;"-"&amp;AB4</f>
-        <v>rule-6-11-b</v>
+        <f t="shared" si="0"/>
+        <v>rule-6-12-b</v>
       </c>
       <c r="AC1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-12-a</v>
+        <v>rule-6-12-c</v>
       </c>
       <c r="AD1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-12-b</v>
+        <v>rule-6-12-d</v>
       </c>
       <c r="AE1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-12-c</v>
+        <v>rule-6-12-e</v>
       </c>
       <c r="AF1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-12-d</v>
+        <v>rule-6-13-a</v>
       </c>
       <c r="AG1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-12-e</v>
+        <v>rule-6-13-b</v>
       </c>
       <c r="AH1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-13-a</v>
+        <v>rule-6-13-c</v>
       </c>
       <c r="AI1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-13-b</v>
+        <v>rule-6-13-d</v>
       </c>
       <c r="AJ1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>rule-6-13-c</v>
+        <v>rule-6-14-a</v>
       </c>
       <c r="AK1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-6-13-d</v>
+        <f t="shared" ref="AK1:AM1" si="5">"rule-"&amp;AK2&amp;"-"&amp;AK3&amp;"-"&amp;AK4</f>
+        <v>rule-6-14-b</v>
       </c>
       <c r="AL1" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>rule-6-14-a</v>
+        <f t="shared" si="5"/>
+        <v>rule-6-15-a</v>
       </c>
       <c r="AM1" s="5" t="str">
-        <f t="shared" ref="AM1:AO1" si="1">"rule-"&amp;AM2&amp;"-"&amp;AM3&amp;"-"&amp;AM4</f>
-        <v>rule-6-14-b</v>
-      </c>
-      <c r="AN1" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>rule-6-15-a</v>
-      </c>
-      <c r="AO1" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>rule-6-16-a</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="28"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="3">
         <v>6</v>
       </c>
@@ -2853,21 +2856,15 @@
       <c r="AM2" s="3">
         <v>6</v>
       </c>
-      <c r="AN2" s="3">
-        <v>6</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="3">
         <v>1</v>
       </c>
@@ -2881,10 +2878,10 @@
         <v>2</v>
       </c>
       <c r="J3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="3">
         <v>3</v>
@@ -2893,49 +2890,49 @@
         <v>3</v>
       </c>
       <c r="N3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P3" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R3" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S3" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T3" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U3" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V3" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W3" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X3" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y3" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB3" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC3" s="3">
         <v>12</v>
@@ -2947,10 +2944,10 @@
         <v>12</v>
       </c>
       <c r="AF3" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG3" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" s="3">
         <v>13</v>
@@ -2959,32 +2956,26 @@
         <v>13</v>
       </c>
       <c r="AJ3" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK3" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL3" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM3" s="3">
-        <v>14</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>15</v>
-      </c>
-      <c r="AO3" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="28"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2997,29 +2988,29 @@
       <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>8</v>
@@ -3043,10 +3034,10 @@
         <v>77</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>8</v>
@@ -3055,64 +3046,58 @@
         <v>19</v>
       </c>
       <c r="AC4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="29"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>93</v>
@@ -3127,98 +3112,92 @@
         <v>96</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="T5" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="AA5" s="44" t="s">
+        <v>120</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC5" s="46" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="AC5" s="44" t="s">
+        <v>120</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE5" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH5" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI5" s="46" t="s">
-        <v>145</v>
+        <v>122</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF5" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG5" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="29"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
@@ -3244,16 +3223,16 @@
         <v>20</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>5</v>
@@ -3265,16 +3244,16 @@
         <v>5</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>5</v>
@@ -3286,49 +3265,43 @@
         <v>5</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AH6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="AJ6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>59</v>
       </c>
@@ -3337,49 +3310,47 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>59</v>
       </c>
@@ -3388,7 +3359,7 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="29"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="6" t="s">
         <v>68</v>
       </c>
@@ -3396,53 +3367,47 @@
         <v>68</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f t="shared" ref="H8:P8" si="2">"true"</f>
+        <f t="shared" ref="H8:N8" si="6">"true"</f>
         <v>true</v>
       </c>
       <c r="I8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="J8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="K8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="L8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="M8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="N8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="O8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>"true"</f>
         <v>true</v>
       </c>
       <c r="P8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>"true"</f>
         <v>true</v>
       </c>
       <c r="Q8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="R8" s="6" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="S8" s="6" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -3450,2213 +3415,2074 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6" t="str">
+      <c r="AA8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AD8" s="6" t="str">
+      <c r="AB8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
+      <c r="AC8" s="6" t="str">
+        <f t="shared" ref="AC8:AE8" si="7">"true"</f>
+        <v>true</v>
+      </c>
+      <c r="AD8" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>true</v>
+      </c>
       <c r="AE8" s="6" t="str">
-        <f t="shared" ref="AE8:AG8" si="3">"true"</f>
+        <f t="shared" si="7"/>
         <v>true</v>
       </c>
       <c r="AF8" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>true</v>
-      </c>
-      <c r="AG8" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>true</v>
-      </c>
-      <c r="AH8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
+      <c r="AG8" s="6" t="str">
+        <f t="shared" ref="AG8:AM8" si="8">"true"</f>
+        <v>true</v>
+      </c>
+      <c r="AH8" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>true</v>
+      </c>
       <c r="AI8" s="6" t="str">
-        <f t="shared" ref="AI8:AO8" si="4">"true"</f>
+        <f t="shared" si="8"/>
         <v>true</v>
       </c>
       <c r="AJ8" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>true</v>
       </c>
       <c r="AK8" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>true</v>
       </c>
       <c r="AL8" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>true</v>
       </c>
       <c r="AM8" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>true</v>
       </c>
-      <c r="AN8" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>true</v>
-      </c>
-      <c r="AO8" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>true</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    </row>
+    <row r="9" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22" t="str">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="I9" s="22" t="str">
+      <c r="I9" s="21" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21" t="str">
+        <f t="shared" ref="R9:X9" si="9">"true"</f>
+        <v>true</v>
+      </c>
+      <c r="S9" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
+      </c>
+      <c r="T9" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
+      </c>
+      <c r="U9" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
+      </c>
+      <c r="V9" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
+      </c>
+      <c r="W9" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
+      </c>
+      <c r="X9" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="31">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="U12" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="V12" s="3" t="str">
+        <f t="shared" ref="V12:X12" si="10">"false"</f>
+        <v>false</v>
+      </c>
+      <c r="W12" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>false</v>
+      </c>
+      <c r="X12" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="31">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="31">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="U22" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH22" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI22" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM22" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="31">
+        <v>1000</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="S25" s="31"/>
+      <c r="V25" s="3">
+        <v>2</v>
+      </c>
+      <c r="W25" s="3">
+        <v>2</v>
+      </c>
+      <c r="X25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="S26" s="31"/>
+      <c r="V26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S28" s="31"/>
+      <c r="V28" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W28" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X28" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM29" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S30" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S31" s="31">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U31" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="S32" s="31"/>
+      <c r="Y32" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="Z32" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22" t="str">
-        <f t="shared" ref="T9:Z9" si="5">"true"</f>
-        <v>true</v>
-      </c>
-      <c r="U9" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>true</v>
-      </c>
-      <c r="V9" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>true</v>
-      </c>
-      <c r="W9" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>true</v>
-      </c>
-      <c r="X9" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>true</v>
-      </c>
-      <c r="Y9" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>true</v>
-      </c>
-      <c r="Z9" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>true</v>
-      </c>
-      <c r="AA9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="32">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="W12" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="X12" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO14" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="32">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U17" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="32">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U19" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO19" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="U20" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO20" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="U21" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO21" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="M22" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="W22" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="X22" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y22" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z22" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI22" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ22" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK22" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL22" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM22" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN22" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO22" s="27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U23" s="32">
-        <v>1000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AO23" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2</v>
-      </c>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3">
-        <v>2</v>
-      </c>
-      <c r="K25" s="3">
-        <v>2</v>
-      </c>
-      <c r="U25" s="32"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="U26" s="32"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="27"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="27"/>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="27"/>
-      <c r="AO27" s="27"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U28" s="32"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO29" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="U30" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO30" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K31" s="33">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="R31" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="S31" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="U31" s="32">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="V31" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W31" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K32" s="33"/>
-      <c r="U32" s="32"/>
       <c r="AA32" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
@@ -5670,40 +5496,39 @@
         <v>false</v>
       </c>
       <c r="AD32" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AE32" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AE32" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="AF32" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="AG32" s="3" t="str">
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="S33" s="31"/>
+      <c r="AF33" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" s="33"/>
-      <c r="U33" s="32"/>
+      <c r="AG33" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
       <c r="AH33" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
@@ -5712,16 +5537,8 @@
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AJ33" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="AK33" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>59</v>
       </c>
@@ -5735,36 +5552,35 @@
         <v>84</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="K34" s="33"/>
-      <c r="U34" s="32"/>
+        <v>154</v>
+      </c>
+      <c r="S34" s="31"/>
+      <c r="AF34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="AH34" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AI34" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AL34" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AM34" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN34" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO34" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
@@ -5780,6 +5596,12 @@
       <c r="E35" s="12" t="s">
         <v>63</v>
       </c>
+      <c r="J35" s="3">
+        <v>2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2</v>
+      </c>
       <c r="L35" s="3">
         <v>2</v>
       </c>
@@ -5792,20 +5614,8 @@
       <c r="O35" s="3">
         <v>2</v>
       </c>
-      <c r="P35" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>59</v>
       </c>
@@ -5821,6 +5631,12 @@
       <c r="E36" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="J36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="L36" s="3" t="s">
         <v>90</v>
       </c>
@@ -5828,25 +5644,13 @@
         <v>90</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z36" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>59</v>
       </c>
@@ -5862,32 +5666,26 @@
       <c r="E37" s="12" t="s">
         <v>80</v>
       </c>
+      <c r="J37" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.2</v>
+      </c>
       <c r="L37" s="3">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="M37" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N37" s="3">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="O37" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="P37" s="3">
         <v>0.32</v>
       </c>
-      <c r="Q37" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
@@ -5915,14 +5713,8 @@
       <c r="I38" s="3">
         <v>2</v>
       </c>
-      <c r="J38" s="3">
-        <v>2</v>
-      </c>
-      <c r="K38" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>59</v>
       </c>
@@ -5950,14 +5742,8 @@
       <c r="I39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>59</v>
       </c>
@@ -5970,126 +5756,124 @@
       <c r="D40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J40" s="25">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K40" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="25"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="25"/>
-      <c r="AN40" s="25"/>
-      <c r="AO40" s="25"/>
-    </row>
-    <row r="41" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="24"/>
+      <c r="AH40" s="24"/>
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="24"/>
+      <c r="AM40" s="24"/>
+    </row>
+    <row r="41" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="38" t="s">
+      <c r="C41" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="40"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="40"/>
-      <c r="AG41" s="40"/>
-      <c r="AH41" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI41" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ41" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK41" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL41" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM41" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN41" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO41" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="W41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="X41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="38"/>
+      <c r="AF41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM41" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>59</v>
       </c>
@@ -6097,129 +5881,131 @@
         <v>61</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI42" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ42" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK42" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL42" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM42" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN42" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO42" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="W42" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="X42" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG42" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH42" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI42" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ42" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK42" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL42" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM42" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
-      <c r="AH43" s="44"/>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
-      <c r="AK43" s="44" t="str">
+      <c r="C43" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="42"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="42"/>
+      <c r="AG43" s="42"/>
+      <c r="AH43" s="42"/>
+      <c r="AI43" s="42" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AL43" s="44"/>
-      <c r="AM43" s="44" t="str">
+      <c r="AJ43" s="42"/>
+      <c r="AK43" s="42" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-      <c r="AN43" s="44" t="str">
-        <f t="shared" ref="AN43:AO43" si="6">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
+      <c r="AL43" s="42" t="str">
+        <f t="shared" ref="AL43:AM43" si="11">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-      <c r="AO43" s="44" t="str">
-        <f t="shared" si="6"/>
+      <c r="AM43" s="42" t="str">
+        <f t="shared" si="11"/>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>59</v>
       </c>
@@ -6227,64 +6013,62 @@
         <v>61</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH44" s="25"/>
-      <c r="AI44" s="25"/>
-      <c r="AJ44" s="25"/>
-      <c r="AK44" s="25"/>
-      <c r="AL44" s="25"/>
-      <c r="AM44" s="25"/>
-      <c r="AN44" s="25"/>
-      <c r="AO44" s="25"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z44" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA44" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB44" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC44" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD44" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE44" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="24"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="24"/>
+      <c r="AK44" s="24"/>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="24"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>59</v>
       </c>
@@ -6292,64 +6076,62 @@
         <v>61</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB45" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC45" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD45" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE45" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF45" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG45" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="25"/>
-      <c r="AJ45" s="25"/>
-      <c r="AK45" s="25"/>
-      <c r="AL45" s="25"/>
-      <c r="AM45" s="25"/>
-      <c r="AN45" s="25"/>
-      <c r="AO45" s="25"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z45" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA45" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB45" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC45" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD45" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE45" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF45" s="24"/>
+      <c r="AG45" s="24"/>
+      <c r="AH45" s="24"/>
+      <c r="AI45" s="24"/>
+      <c r="AJ45" s="24"/>
+      <c r="AK45" s="24"/>
+      <c r="AL45" s="24"/>
+      <c r="AM45" s="24"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>59</v>
       </c>
@@ -6357,64 +6139,62 @@
         <v>61</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB46" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC46" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD46" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE46" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF46" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG46" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="25"/>
-      <c r="AO46" s="25"/>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z46" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA46" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB46" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC46" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD46" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE46" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF46" s="24"/>
+      <c r="AG46" s="24"/>
+      <c r="AH46" s="24"/>
+      <c r="AI46" s="24"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="24"/>
+      <c r="AL46" s="24"/>
+      <c r="AM46" s="24"/>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>59</v>
       </c>
@@ -6422,64 +6202,62 @@
         <v>61</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25">
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24">
         <v>90</v>
       </c>
-      <c r="AB47" s="25">
+      <c r="Z47" s="24">
         <v>90</v>
       </c>
-      <c r="AC47" s="25">
+      <c r="AA47" s="24">
         <v>90</v>
       </c>
-      <c r="AD47" s="25">
+      <c r="AB47" s="24">
         <v>90</v>
       </c>
-      <c r="AE47" s="25">
+      <c r="AC47" s="24">
         <v>90</v>
       </c>
-      <c r="AF47" s="25">
+      <c r="AD47" s="24">
         <v>90</v>
       </c>
-      <c r="AG47" s="25">
+      <c r="AE47" s="24">
         <v>90</v>
       </c>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="25"/>
-      <c r="AJ47" s="25"/>
-      <c r="AK47" s="25"/>
-      <c r="AL47" s="25"/>
-      <c r="AM47" s="25"/>
-      <c r="AN47" s="25"/>
-      <c r="AO47" s="25"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="24"/>
+      <c r="AM47" s="24"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>59</v>
       </c>
@@ -6487,64 +6265,62 @@
         <v>61</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E48" s="12"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25">
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24">
         <v>180</v>
       </c>
-      <c r="AB48" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE48" s="25">
+      <c r="Z48" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC48" s="24">
         <v>180</v>
       </c>
-      <c r="AF48" s="25">
+      <c r="AD48" s="24">
         <v>1</v>
       </c>
-      <c r="AG48" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="25"/>
-      <c r="AN48" s="25"/>
-      <c r="AO48" s="25"/>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="24"/>
+      <c r="AH48" s="24"/>
+      <c r="AI48" s="24"/>
+      <c r="AJ48" s="24"/>
+      <c r="AK48" s="24"/>
+      <c r="AL48" s="24"/>
+      <c r="AM48" s="24"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>59</v>
       </c>
@@ -6552,56 +6328,54 @@
         <v>61</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="25"/>
-      <c r="AG49" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH49" s="25"/>
-      <c r="AI49" s="25"/>
-      <c r="AJ49" s="25"/>
-      <c r="AK49" s="25"/>
-      <c r="AL49" s="25"/>
-      <c r="AM49" s="25"/>
-      <c r="AN49" s="25"/>
-      <c r="AO49" s="25"/>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="24"/>
+      <c r="AH49" s="24"/>
+      <c r="AI49" s="24"/>
+      <c r="AJ49" s="24"/>
+      <c r="AK49" s="24"/>
+      <c r="AL49" s="24"/>
+      <c r="AM49" s="24"/>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>59</v>
       </c>
@@ -6609,56 +6383,54 @@
         <v>61</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="25"/>
-      <c r="AA50" s="25"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="25"/>
-      <c r="AD50" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE50" s="25"/>
-      <c r="AF50" s="25"/>
-      <c r="AG50" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH50" s="25"/>
-      <c r="AI50" s="25"/>
-      <c r="AJ50" s="25"/>
-      <c r="AK50" s="25"/>
-      <c r="AL50" s="25"/>
-      <c r="AM50" s="25"/>
-      <c r="AN50" s="25"/>
-      <c r="AO50" s="25"/>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="24"/>
+      <c r="AH50" s="24"/>
+      <c r="AI50" s="24"/>
+      <c r="AJ50" s="24"/>
+      <c r="AK50" s="24"/>
+      <c r="AL50" s="24"/>
+      <c r="AM50" s="24"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>59</v>
       </c>
@@ -6666,29 +6438,29 @@
         <v>61</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="AA51" s="3">
+      <c r="Y51" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z51" s="3">
         <v>2</v>
       </c>
       <c r="AB51" s="3">
         <v>2</v>
       </c>
+      <c r="AC51" s="3">
+        <v>2</v>
+      </c>
       <c r="AD51" s="3">
         <v>2</v>
       </c>
-      <c r="AE51" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF51" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>59</v>
       </c>
@@ -6696,29 +6468,29 @@
         <v>61</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E52" s="12"/>
-      <c r="AA52" s="3" t="s">
-        <v>142</v>
+      <c r="Y52" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="AB52" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="AD52" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE52" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF52" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>59</v>
       </c>
@@ -6726,29 +6498,29 @@
         <v>61</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E53" s="12"/>
-      <c r="AA53" s="3" t="s">
-        <v>158</v>
+      <c r="Y53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z53" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="AB53" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="AC53" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="AD53" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE53" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF53" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>59</v>
       </c>
@@ -6756,29 +6528,29 @@
         <v>61</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="E54" s="12"/>
-      <c r="AA54" s="3">
+      <c r="Y54" s="3">
+        <v>90</v>
+      </c>
+      <c r="Z54" s="3">
         <v>90</v>
       </c>
       <c r="AB54" s="3">
         <v>90</v>
       </c>
+      <c r="AC54" s="3">
+        <v>90</v>
+      </c>
       <c r="AD54" s="3">
         <v>90</v>
       </c>
-      <c r="AE54" s="3">
-        <v>90</v>
-      </c>
-      <c r="AF54" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>59</v>
       </c>
@@ -6786,29 +6558,29 @@
         <v>61</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="AA55" s="3">
+      <c r="Y55" s="3">
         <v>270</v>
       </c>
+      <c r="Z55" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="AB55" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>180</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE55" s="3">
-        <v>180</v>
-      </c>
-      <c r="AF55" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>59</v>
       </c>
@@ -6816,74 +6588,72 @@
         <v>61</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="36" t="s">
         <v>136</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AD56" s="3">
+      <c r="AB56" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+    <row r="57" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="45" t="s">
+      <c r="C57" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
-      <c r="AC57" s="22"/>
-      <c r="AD57" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE57" s="22"/>
-      <c r="AF57" s="22"/>
-      <c r="AG57" s="22"/>
-      <c r="AH57" s="22"/>
-      <c r="AI57" s="22"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="22"/>
-      <c r="AL57" s="22"/>
-      <c r="AM57" s="22"/>
-      <c r="AN57" s="22"/>
-      <c r="AO57" s="22"/>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="21"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="21"/>
+      <c r="AM57" s="21"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>56</v>
       </c>
@@ -6905,10 +6675,8 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>56</v>
       </c>
@@ -6916,67 +6684,63 @@
         <v>13</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" s="29"/>
+        <v>144</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="28"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="s">
+    </row>
+    <row r="60" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
-      <c r="AE60" s="22"/>
-      <c r="AF60" s="22"/>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="22"/>
-      <c r="AJ60" s="22"/>
-      <c r="AK60" s="22"/>
-      <c r="AL60" s="22"/>
-      <c r="AM60" s="22"/>
-      <c r="AN60" s="22"/>
-      <c r="AO60" s="22"/>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="21"/>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="21"/>
+      <c r="AL60" s="21"/>
+      <c r="AM60" s="21"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>56</v>
       </c>
@@ -7000,10 +6764,8 @@
       <c r="I61" s="6">
         <v>0.51</v>
       </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>56</v>
       </c>
@@ -7011,83 +6773,79 @@
         <v>12</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" s="29"/>
+        <v>144</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="28"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="AH62" s="25" t="str">
+      <c r="AF62" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1638/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.187</v>
       </c>
-      <c r="AI62" s="25" t="str">
+      <c r="AG62" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1900/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2169</v>
       </c>
-      <c r="AJ62" s="25" t="str">
+      <c r="AH62" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AL62" s="25" t="str">
+      <c r="AJ62" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
-    <row r="63" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
+    <row r="63" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
-      <c r="AE63" s="22"/>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="22"/>
-      <c r="AI63" s="22"/>
-      <c r="AJ63" s="22"/>
-      <c r="AK63" s="22"/>
-      <c r="AL63" s="22"/>
-      <c r="AM63" s="22"/>
-      <c r="AN63" s="22"/>
-      <c r="AO63" s="22"/>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="21"/>
+      <c r="AC63" s="21"/>
+      <c r="AD63" s="21"/>
+      <c r="AE63" s="21"/>
+      <c r="AF63" s="21"/>
+      <c r="AG63" s="21"/>
+      <c r="AH63" s="21"/>
+      <c r="AI63" s="21"/>
+      <c r="AJ63" s="21"/>
+      <c r="AK63" s="21"/>
+      <c r="AL63" s="21"/>
+      <c r="AM63" s="21"/>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>56</v>
       </c>
@@ -7109,10 +6867,8 @@
       <c r="I64" s="6">
         <v>0.41</v>
       </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>56</v>
       </c>
@@ -7120,1078 +6876,1084 @@
         <v>11</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="29"/>
+        <v>144</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="28"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="AH65" s="25" t="str">
+      <c r="AF65" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AI65" s="25" t="str">
-        <f t="shared" ref="AI65:AJ65" si="7">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
+      <c r="AG65" s="24" t="str">
+        <f t="shared" ref="AG65:AH65" si="12">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AJ65" s="25" t="str">
-        <f t="shared" si="7"/>
+      <c r="AH65" s="24" t="str">
+        <f t="shared" si="12"/>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AL65" s="25" t="str">
+      <c r="AJ65" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2000/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2283</v>
       </c>
     </row>
-    <row r="66" spans="1:41" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="20" t="s">
+    <row r="66" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22"/>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="22"/>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="22"/>
-      <c r="AM66" s="22"/>
-      <c r="AN66" s="22"/>
-      <c r="AO66" s="22"/>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="21"/>
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="21"/>
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="21"/>
+      <c r="AM66" s="21"/>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
-      <c r="E67" s="29"/>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E67" s="28"/>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="29"/>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="29"/>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E69" s="28"/>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="29"/>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E70" s="28"/>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="29"/>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E71" s="28"/>
+    </row>
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="29"/>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E72" s="28"/>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
-      <c r="E73" s="29"/>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E73" s="28"/>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="29"/>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E74" s="28"/>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
-      <c r="E75" s="29"/>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E75" s="28"/>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
-      <c r="E76" s="29"/>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E76" s="28"/>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
-      <c r="E77" s="29"/>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E77" s="28"/>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="29"/>
+      <c r="E78" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A67:E78 A5:E5 A10:E19">
-    <cfRule type="expression" dxfId="182" priority="285">
+    <cfRule type="expression" dxfId="184" priority="287">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="181" priority="260">
+    <cfRule type="expression" dxfId="183" priority="262">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="expression" dxfId="180" priority="259">
+    <cfRule type="expression" dxfId="182" priority="261">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="179" priority="257">
+    <cfRule type="expression" dxfId="181" priority="259">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E9">
-    <cfRule type="expression" dxfId="178" priority="256">
+    <cfRule type="expression" dxfId="180" priority="258">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="177" priority="258">
+    <cfRule type="expression" dxfId="179" priority="260">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="176" priority="214">
+    <cfRule type="expression" dxfId="178" priority="216">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B9">
-    <cfRule type="expression" dxfId="175" priority="243">
+    <cfRule type="expression" dxfId="177" priority="245">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E24">
-    <cfRule type="expression" dxfId="174" priority="254">
+    <cfRule type="expression" dxfId="176" priority="256">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="expression" dxfId="173" priority="245">
+    <cfRule type="expression" dxfId="175" priority="247">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:E63">
-    <cfRule type="expression" dxfId="172" priority="206">
+    <cfRule type="expression" dxfId="174" priority="208">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B30 A23:B24">
-    <cfRule type="expression" dxfId="171" priority="244">
+    <cfRule type="expression" dxfId="173" priority="246">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="172" priority="242">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B34">
+    <cfRule type="expression" dxfId="171" priority="243">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24 C29:C37">
     <cfRule type="expression" dxfId="170" priority="240">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B34">
+  <conditionalFormatting sqref="A58:B59">
     <cfRule type="expression" dxfId="169" priority="241">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24 C29:C37">
-    <cfRule type="expression" dxfId="168" priority="238">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B59">
-    <cfRule type="expression" dxfId="167" priority="239">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D25:E26">
+    <cfRule type="expression" dxfId="168" priority="237">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E28">
+    <cfRule type="expression" dxfId="167" priority="236">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:E27">
     <cfRule type="expression" dxfId="166" priority="235">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:E28">
+  <conditionalFormatting sqref="A28:B28 A25:B26">
     <cfRule type="expression" dxfId="165" priority="234">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27">
+  <conditionalFormatting sqref="A27:B27">
     <cfRule type="expression" dxfId="164" priority="233">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28 A25:B26">
+  <conditionalFormatting sqref="C25:C28">
     <cfRule type="expression" dxfId="163" priority="232">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="expression" dxfId="162" priority="231">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C28">
-    <cfRule type="expression" dxfId="161" priority="230">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="161" priority="195">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="160" priority="229">
+    <cfRule type="expression" dxfId="160" priority="230">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39">
+    <cfRule type="expression" dxfId="159" priority="228">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C39">
+    <cfRule type="expression" dxfId="158" priority="226">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
+    <cfRule type="expression" dxfId="157" priority="225">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="156" priority="219">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="155" priority="224">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="expression" dxfId="154" priority="222">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="expression" dxfId="153" priority="221">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E30">
+    <cfRule type="expression" dxfId="152" priority="220">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E34">
+    <cfRule type="expression" dxfId="151" priority="218">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="150" priority="206">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60:E60">
+    <cfRule type="expression" dxfId="149" priority="215">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60">
+    <cfRule type="expression" dxfId="148" priority="214">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="147" priority="213">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B62">
+    <cfRule type="expression" dxfId="146" priority="211">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="145" priority="210">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="144" priority="209">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="143" priority="207">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B65">
+    <cfRule type="expression" dxfId="142" priority="204">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:B65">
+    <cfRule type="expression" dxfId="141" priority="203">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="140" priority="202">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66:E66">
+    <cfRule type="expression" dxfId="139" priority="201">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="expression" dxfId="138" priority="200">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="137" priority="190">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="136" priority="189">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="135" priority="197">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="134" priority="196">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="133" priority="185">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="159" priority="193">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="158" priority="228">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B39">
-    <cfRule type="expression" dxfId="157" priority="226">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C39">
-    <cfRule type="expression" dxfId="156" priority="224">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
-    <cfRule type="expression" dxfId="155" priority="223">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="154" priority="217">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="153" priority="222">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="152" priority="220">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="151" priority="219">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E30">
-    <cfRule type="expression" dxfId="150" priority="218">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E34">
-    <cfRule type="expression" dxfId="149" priority="216">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="148" priority="204">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60:E60">
-    <cfRule type="expression" dxfId="147" priority="213">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="146" priority="212">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="145" priority="211">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B62">
-    <cfRule type="expression" dxfId="144" priority="209">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="143" priority="208">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="142" priority="207">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="141" priority="205">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B65">
-    <cfRule type="expression" dxfId="140" priority="202">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B65">
-    <cfRule type="expression" dxfId="139" priority="201">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="138" priority="200">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66:E66">
-    <cfRule type="expression" dxfId="137" priority="199">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="expression" dxfId="136" priority="198">
+    <cfRule type="expression" dxfId="132" priority="194">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="131" priority="193">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="130" priority="192">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="135" priority="188">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="134" priority="187">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="133" priority="195">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="132" priority="194">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="131" priority="183">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="130" priority="192">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
     <cfRule type="expression" dxfId="129" priority="191">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="128" priority="190">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="127" priority="189">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A52:B53">
-    <cfRule type="expression" dxfId="126" priority="122">
+    <cfRule type="expression" dxfId="128" priority="124">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B55">
-    <cfRule type="expression" dxfId="125" priority="121">
+    <cfRule type="expression" dxfId="127" priority="123">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
+    <cfRule type="expression" dxfId="126" priority="188">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D37">
+    <cfRule type="expression" dxfId="125" priority="187">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:B36">
     <cfRule type="expression" dxfId="124" priority="186">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="123" priority="185">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B36">
-    <cfRule type="expression" dxfId="122" priority="184">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="121" priority="180">
+    <cfRule type="expression" dxfId="123" priority="182">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" dxfId="120" priority="181">
+    <cfRule type="expression" dxfId="122" priority="183">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="119" priority="179">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:K38 AH30:AM30 AN58:AO65 AK62 AK65 F39:U50 N35:U38 N51:U56 F57:U78 AH10:AM13 AH58:AM61 AH66:AO78 AH63:AM64 AH15:AM21 AH14:AO14 AH43:AJ43 AH44:AK50 F30:AB34 AC30:AG50 AC5:AG22 F5:AB28 AA23:AM28 AC56:AG78 AG52:AG55 R35:AB78 AA51:AG51">
+    <cfRule type="expression" dxfId="121" priority="181">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:I38 AF30:AK30 AL58:AM65 AI62 AI65 L35:S38 L51:S56 AF10:AK13 AF58:AK61 AF66:AM78 AF63:AK64 AF15:AK21 AF14:AM14 AF43:AH43 AF44:AI50 AA30:AE50 AA5:AE22 Y23:AK28 AA56:AE78 AE52:AE55 Y51:AE51 F39:S50 F57:S78 P35:Z40 F30:Z34 F5:Z28 P43:Z78 P41:U42 Y41:Z42">
+    <cfRule type="expression" dxfId="120" priority="178">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C43">
+    <cfRule type="expression" dxfId="119" priority="177">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:E43">
     <cfRule type="expression" dxfId="118" priority="176">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C43">
+  <conditionalFormatting sqref="A40:B43">
     <cfRule type="expression" dxfId="117" priority="175">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:E43">
-    <cfRule type="expression" dxfId="116" priority="174">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:B43">
-    <cfRule type="expression" dxfId="115" priority="173">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35:M36">
-    <cfRule type="expression" dxfId="114" priority="171">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37:M38">
-    <cfRule type="expression" dxfId="113" priority="169">
+  <conditionalFormatting sqref="J35:K36">
+    <cfRule type="expression" dxfId="116" priority="173">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K38">
+    <cfRule type="expression" dxfId="115" priority="171">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="expression" dxfId="112" priority="166">
+    <cfRule type="expression" dxfId="114" priority="168">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C48 C50">
-    <cfRule type="expression" dxfId="111" priority="165">
+    <cfRule type="expression" dxfId="113" priority="167">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:E21">
-    <cfRule type="expression" dxfId="110" priority="137">
+    <cfRule type="expression" dxfId="112" priority="139">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="expression" dxfId="109" priority="162">
+    <cfRule type="expression" dxfId="111" priority="164">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C57">
-    <cfRule type="expression" dxfId="108" priority="133">
+    <cfRule type="expression" dxfId="110" priority="135">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="107" priority="130">
+    <cfRule type="expression" dxfId="109" priority="132">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="108" priority="160">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="107" priority="159">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
     <cfRule type="expression" dxfId="106" priority="158">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="105" priority="157">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="104" priority="156">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A47:B48">
-    <cfRule type="expression" dxfId="103" priority="152">
+    <cfRule type="expression" dxfId="105" priority="154">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46 D48">
+    <cfRule type="expression" dxfId="104" priority="157">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D46 D48">
+    <cfRule type="expression" dxfId="103" priority="156">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:B46">
     <cfRule type="expression" dxfId="102" priority="155">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="101" priority="154">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B46">
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="101" priority="152">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E46">
     <cfRule type="expression" dxfId="100" priority="153">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="99" priority="150">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="98" priority="151">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="97" priority="149">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:K48 F50:K50">
-    <cfRule type="expression" dxfId="96" priority="148">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L45:M46">
-    <cfRule type="expression" dxfId="95" priority="143">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC45:AF47 AC48 AE48:AF48">
-    <cfRule type="expression" dxfId="94" priority="138">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L47:M48 L50:M50">
-    <cfRule type="expression" dxfId="93" priority="142">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA45:AB47 AA50:AF50 AA48">
-    <cfRule type="expression" dxfId="92" priority="141">
+    <cfRule type="expression" dxfId="99" priority="151">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:I48 F50:I50">
+    <cfRule type="expression" dxfId="98" priority="150">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:K46">
+    <cfRule type="expression" dxfId="97" priority="145">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA45:AD47 AA48 AC48:AD48">
+    <cfRule type="expression" dxfId="96" priority="140">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:K48 J50:K50">
+    <cfRule type="expression" dxfId="95" priority="144">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y45:Z47 Y50:AD50 Y48">
+    <cfRule type="expression" dxfId="94" priority="143">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="91" priority="139">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="expression" dxfId="90" priority="66">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD52:AF54 AE55">
-    <cfRule type="expression" dxfId="89" priority="110">
+    <cfRule type="expression" dxfId="93" priority="141">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22">
+    <cfRule type="expression" dxfId="92" priority="68">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB52:AD54 AC55">
+    <cfRule type="expression" dxfId="91" priority="112">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="88" priority="109">
+    <cfRule type="expression" dxfId="90" priority="111">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="87" priority="106">
+    <cfRule type="expression" dxfId="89" priority="108">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50">
-    <cfRule type="expression" dxfId="86" priority="100">
+    <cfRule type="expression" dxfId="88" priority="102">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="85" priority="124">
+    <cfRule type="expression" dxfId="87" priority="126">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="84" priority="123">
+    <cfRule type="expression" dxfId="86" priority="125">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="83" priority="119">
+    <cfRule type="expression" dxfId="85" priority="121">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" dxfId="82" priority="120">
+    <cfRule type="expression" dxfId="84" priority="122">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E55">
+    <cfRule type="expression" dxfId="83" priority="120">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:I56">
+    <cfRule type="expression" dxfId="82" priority="119">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:K53">
     <cfRule type="expression" dxfId="81" priority="118">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52:K56">
-    <cfRule type="expression" dxfId="80" priority="117">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52:M53">
-    <cfRule type="expression" dxfId="79" priority="116">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH51:AK51">
-    <cfRule type="expression" dxfId="78" priority="74">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54:M56">
+  <conditionalFormatting sqref="AF51:AI51">
+    <cfRule type="expression" dxfId="80" priority="76">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:K56">
+    <cfRule type="expression" dxfId="79" priority="117">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z52:Z56">
+    <cfRule type="expression" dxfId="78" priority="116">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
     <cfRule type="expression" dxfId="77" priority="115">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB52:AB56">
-    <cfRule type="expression" dxfId="76" priority="114">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="75" priority="113">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC52:AC55">
-    <cfRule type="expression" dxfId="74" priority="111">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32:AM32">
-    <cfRule type="expression" dxfId="73" priority="73">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:K49">
+  <conditionalFormatting sqref="AA52:AA55">
+    <cfRule type="expression" dxfId="76" priority="113">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF32:AK32">
+    <cfRule type="expression" dxfId="75" priority="75">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:I49">
+    <cfRule type="expression" dxfId="74" priority="105">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:K49">
+    <cfRule type="expression" dxfId="73" priority="104">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC49:AD49 Y49:AA49">
     <cfRule type="expression" dxfId="72" priority="103">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49:M49">
-    <cfRule type="expression" dxfId="71" priority="102">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE49:AF49 AA49:AC49">
-    <cfRule type="expression" dxfId="70" priority="101">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
+    <cfRule type="expression" dxfId="71" priority="101">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:D57">
+    <cfRule type="expression" dxfId="70" priority="100">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E57">
     <cfRule type="expression" dxfId="69" priority="99">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D57">
+  <conditionalFormatting sqref="C51">
     <cfRule type="expression" dxfId="68" priority="98">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E57">
+  <conditionalFormatting sqref="A51:B51">
     <cfRule type="expression" dxfId="67" priority="97">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="F51:I51">
     <cfRule type="expression" dxfId="66" priority="96">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B51">
+  <conditionalFormatting sqref="J51:K51">
     <cfRule type="expression" dxfId="65" priority="95">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51:K51">
-    <cfRule type="expression" dxfId="64" priority="94">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51:M51">
-    <cfRule type="expression" dxfId="63" priority="93">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="64" priority="93">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="63" priority="92">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE45:AE48">
     <cfRule type="expression" dxfId="62" priority="91">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="AE50">
     <cfRule type="expression" dxfId="61" priority="90">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG45:AG48">
-    <cfRule type="expression" dxfId="60" priority="89">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG50">
+  <conditionalFormatting sqref="AF33:AK34">
+    <cfRule type="expression" dxfId="60" priority="74">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB49">
     <cfRule type="expression" dxfId="59" priority="88">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH33:AM34">
-    <cfRule type="expression" dxfId="58" priority="72">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD49">
+  <conditionalFormatting sqref="AB55">
+    <cfRule type="expression" dxfId="58" priority="87">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD55">
     <cfRule type="expression" dxfId="57" priority="86">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD55">
+  <conditionalFormatting sqref="AE49">
     <cfRule type="expression" dxfId="56" priority="85">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF55">
+  <conditionalFormatting sqref="AF31:AK31">
     <cfRule type="expression" dxfId="55" priority="84">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG49">
-    <cfRule type="expression" dxfId="54" priority="83">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31:AM31">
-    <cfRule type="expression" dxfId="53" priority="82">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH40:AK41 AL41:AM41">
-    <cfRule type="expression" dxfId="52" priority="80">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH5:AK9 AH35:AK39">
-    <cfRule type="expression" dxfId="51" priority="81">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH57:AK57 AH45:AK47 AH50:AK50">
-    <cfRule type="expression" dxfId="50" priority="79">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH52:AK56">
-    <cfRule type="expression" dxfId="49" priority="76">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH49:AK49">
-    <cfRule type="expression" dxfId="48" priority="75">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL65">
-    <cfRule type="expression" dxfId="47" priority="14">
+  <conditionalFormatting sqref="AF40:AI41 AJ41:AK41">
+    <cfRule type="expression" dxfId="54" priority="82">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF5:AI9 AF35:AI39">
+    <cfRule type="expression" dxfId="53" priority="83">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF57:AI57 AF45:AI47 AF50:AI50">
+    <cfRule type="expression" dxfId="52" priority="81">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF52:AI56">
+    <cfRule type="expression" dxfId="51" priority="78">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF49:AI49">
+    <cfRule type="expression" dxfId="50" priority="77">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ65">
+    <cfRule type="expression" dxfId="49" priority="16">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="46" priority="71">
+    <cfRule type="expression" dxfId="48" priority="73">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="45" priority="69">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH42:AM42">
-    <cfRule type="expression" dxfId="44" priority="67">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI22:AM22">
-    <cfRule type="expression" dxfId="43" priority="65">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL51:AM51">
-    <cfRule type="expression" dxfId="42" priority="54">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM43:AO43">
-    <cfRule type="expression" dxfId="41" priority="17">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK43">
-    <cfRule type="expression" dxfId="40" priority="16">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL40:AM40 AL44:AM50 AL43">
-    <cfRule type="expression" dxfId="39" priority="59">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AM9 AL35:AM39 AM62 AM65">
-    <cfRule type="expression" dxfId="38" priority="60">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL57:AM57 AL45:AM47 AL50:AM50">
-    <cfRule type="expression" dxfId="37" priority="58">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL52:AM56">
-    <cfRule type="expression" dxfId="36" priority="56">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL49:AM49">
-    <cfRule type="expression" dxfId="35" priority="55">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL62">
-    <cfRule type="expression" dxfId="34" priority="15">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN30:AO30 AN10:AO13 AN15:AO19">
+    <cfRule type="expression" dxfId="47" priority="71">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF42:AK42">
+    <cfRule type="expression" dxfId="46" priority="69">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22:AK22">
+    <cfRule type="expression" dxfId="45" priority="67">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ51:AK51">
+    <cfRule type="expression" dxfId="44" priority="56">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK43:AM43">
+    <cfRule type="expression" dxfId="43" priority="19">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI43">
+    <cfRule type="expression" dxfId="42" priority="18">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ40:AK40 AJ44:AK50 AJ43">
+    <cfRule type="expression" dxfId="41" priority="61">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ5:AK9 AJ35:AK39 AK62 AK65">
+    <cfRule type="expression" dxfId="40" priority="62">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ57:AK57 AJ45:AK47 AJ50:AK50">
+    <cfRule type="expression" dxfId="39" priority="60">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ52:AK56">
+    <cfRule type="expression" dxfId="38" priority="58">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ49:AK49">
+    <cfRule type="expression" dxfId="37" priority="57">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ62">
+    <cfRule type="expression" dxfId="36" priority="17">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL30:AM30 AL10:AM13 AL15:AM19">
+    <cfRule type="expression" dxfId="35" priority="51">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL23:AM28">
+    <cfRule type="expression" dxfId="34" priority="50">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL20:AM21">
     <cfRule type="expression" dxfId="33" priority="49">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN23:AO28">
-    <cfRule type="expression" dxfId="32" priority="48">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN20:AO21">
-    <cfRule type="expression" dxfId="31" priority="47">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN32:AO32">
-    <cfRule type="expression" dxfId="30" priority="44">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN33:AO34">
-    <cfRule type="expression" dxfId="29" priority="43">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN31:AO31">
-    <cfRule type="expression" dxfId="28" priority="46">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN41:AO41">
-    <cfRule type="expression" dxfId="27" priority="45">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN42:AO42">
-    <cfRule type="expression" dxfId="26" priority="42">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN22:AO22">
+  <conditionalFormatting sqref="AL32:AM32">
+    <cfRule type="expression" dxfId="32" priority="46">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL33:AM34">
+    <cfRule type="expression" dxfId="31" priority="45">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL31:AM31">
+    <cfRule type="expression" dxfId="30" priority="48">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL41:AM41">
+    <cfRule type="expression" dxfId="29" priority="47">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL42:AM42">
+    <cfRule type="expression" dxfId="28" priority="44">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22:AM22">
+    <cfRule type="expression" dxfId="27" priority="43">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL51">
+    <cfRule type="expression" dxfId="26" priority="36">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL44:AL50 AL40:AM40">
     <cfRule type="expression" dxfId="25" priority="41">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN51">
-    <cfRule type="expression" dxfId="24" priority="34">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN44:AN50 AN40:AO40">
-    <cfRule type="expression" dxfId="23" priority="39">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AN9 AO8:AO9 AN35:AO39">
-    <cfRule type="expression" dxfId="22" priority="40">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN57 AN45:AN47 AN50">
-    <cfRule type="expression" dxfId="21" priority="38">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN52:AN56">
-    <cfRule type="expression" dxfId="20" priority="36">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN49">
-    <cfRule type="expression" dxfId="19" priority="35">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO5:AO7">
+  <conditionalFormatting sqref="AL5:AL9 AM8:AM9 AL35:AM39">
+    <cfRule type="expression" dxfId="24" priority="42">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL57 AL45:AL47 AL50">
+    <cfRule type="expression" dxfId="23" priority="40">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL52:AL56">
+    <cfRule type="expression" dxfId="22" priority="38">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL49">
+    <cfRule type="expression" dxfId="21" priority="37">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM5:AM7">
+    <cfRule type="expression" dxfId="20" priority="26">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM44:AM50">
+    <cfRule type="expression" dxfId="19" priority="25">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM57 AM45:AM47 AM50">
     <cfRule type="expression" dxfId="18" priority="24">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO44:AO50">
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO57 AO45:AO47 AO50">
+  <conditionalFormatting sqref="AM51">
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM52:AM56">
     <cfRule type="expression" dxfId="16" priority="22">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO51">
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO52:AO56">
-    <cfRule type="expression" dxfId="14" priority="20">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO49">
-    <cfRule type="expression" dxfId="13" priority="19">
+  <conditionalFormatting sqref="AM49">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF62">
     <cfRule type="expression" dxfId="12" priority="13">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="AF65:AH65">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AG62">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AH62">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH65:AJ65">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI62">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ62">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="V41:X41">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="V42:X42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>

--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA0DF0-436F-4953-B441-F63D7832876A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC0B0C-A34E-4464-8622-FB86E9A23008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="166">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -550,7 +550,13 @@
     <t>NA</t>
   </si>
   <si>
-    <t>OpenSchedule1</t>
+    <t>SCHEDULE:LIBRARY-Office_Occupancy</t>
+  </si>
+  <si>
+    <t>Always On Schedule</t>
+  </si>
+  <si>
+    <t>Office Schedule</t>
   </si>
 </sst>
 </file>
@@ -610,7 +616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +650,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -942,11 +954,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="185">
+  <dxfs count="189">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2569,10 +2612,10 @@
   <dimension ref="A1:AM78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="V22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V42" sqref="V42"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,13 +2845,13 @@
       <c r="U2" s="3">
         <v>6</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="45">
         <v>6</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="45">
         <v>6</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="45">
         <v>6</v>
       </c>
       <c r="Y2" s="3">
@@ -2913,13 +2956,13 @@
       <c r="U3" s="3">
         <v>8</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="45">
         <v>9</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="45">
         <v>9</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="45">
         <v>9</v>
       </c>
       <c r="Y3" s="3">
@@ -3024,13 +3067,13 @@
       <c r="U4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="45" t="s">
         <v>77</v>
       </c>
       <c r="Y4" s="3" t="s">
@@ -5904,13 +5947,13 @@
       <c r="T42" s="24"/>
       <c r="U42" s="24"/>
       <c r="V42" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W42" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X42" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y42" s="24"/>
       <c r="Z42" s="24"/>
@@ -5974,9 +6017,17 @@
       <c r="S43" s="42"/>
       <c r="T43" s="42"/>
       <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
+      <c r="V43" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="W43" s="42" t="str">
+        <f>"SCHEDULE:CONSTANT-1"</f>
+        <v>SCHEDULE:CONSTANT-1</v>
+      </c>
+      <c r="X43" s="42" t="str">
+        <f>"SCHEDULE:CONSTANT-1"</f>
+        <v>SCHEDULE:CONSTANT-1</v>
+      </c>
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
       <c r="AA43" s="42"/>
@@ -7034,926 +7085,946 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A67:E78 A5:E5 A10:E19">
-    <cfRule type="expression" dxfId="184" priority="287">
+    <cfRule type="expression" dxfId="188" priority="291">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="183" priority="262">
+    <cfRule type="expression" dxfId="187" priority="266">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="expression" dxfId="182" priority="261">
+    <cfRule type="expression" dxfId="186" priority="265">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="181" priority="259">
+    <cfRule type="expression" dxfId="185" priority="263">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E9">
-    <cfRule type="expression" dxfId="180" priority="258">
+    <cfRule type="expression" dxfId="184" priority="262">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="179" priority="260">
+    <cfRule type="expression" dxfId="183" priority="264">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="178" priority="216">
+    <cfRule type="expression" dxfId="182" priority="220">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B9">
-    <cfRule type="expression" dxfId="177" priority="245">
+    <cfRule type="expression" dxfId="181" priority="249">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E24">
-    <cfRule type="expression" dxfId="176" priority="256">
+    <cfRule type="expression" dxfId="180" priority="260">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
+    <cfRule type="expression" dxfId="179" priority="251">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:E63">
+    <cfRule type="expression" dxfId="178" priority="212">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:B30 A23:B24">
+    <cfRule type="expression" dxfId="177" priority="250">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B22">
+    <cfRule type="expression" dxfId="176" priority="246">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B34">
     <cfRule type="expression" dxfId="175" priority="247">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:E63">
-    <cfRule type="expression" dxfId="174" priority="208">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B30 A23:B24">
-    <cfRule type="expression" dxfId="173" priority="246">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="172" priority="242">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="171" priority="243">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24 C29:C37">
-    <cfRule type="expression" dxfId="170" priority="240">
+    <cfRule type="expression" dxfId="174" priority="244">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B59">
-    <cfRule type="expression" dxfId="169" priority="241">
+    <cfRule type="expression" dxfId="173" priority="245">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E26">
+    <cfRule type="expression" dxfId="172" priority="241">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E28">
+    <cfRule type="expression" dxfId="171" priority="240">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:E27">
+    <cfRule type="expression" dxfId="170" priority="239">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28 A25:B26">
+    <cfRule type="expression" dxfId="169" priority="238">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:B27">
     <cfRule type="expression" dxfId="168" priority="237">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:E28">
+  <conditionalFormatting sqref="C25:C28">
     <cfRule type="expression" dxfId="167" priority="236">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27">
+  <conditionalFormatting sqref="D38:D39">
     <cfRule type="expression" dxfId="166" priority="235">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28 A25:B26">
-    <cfRule type="expression" dxfId="165" priority="234">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="164" priority="233">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C28">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="165" priority="199">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D39">
+    <cfRule type="expression" dxfId="164" priority="234">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39">
     <cfRule type="expression" dxfId="163" priority="232">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="162" priority="231">
+  <conditionalFormatting sqref="C38:C39">
+    <cfRule type="expression" dxfId="162" priority="230">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
+    <cfRule type="expression" dxfId="161" priority="229">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="160" priority="223">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="159" priority="228">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="expression" dxfId="158" priority="226">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="expression" dxfId="157" priority="225">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E30">
+    <cfRule type="expression" dxfId="156" priority="224">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E34">
+    <cfRule type="expression" dxfId="155" priority="222">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="154" priority="210">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60:E60">
+    <cfRule type="expression" dxfId="153" priority="219">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60">
+    <cfRule type="expression" dxfId="152" priority="218">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="151" priority="217">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B62">
+    <cfRule type="expression" dxfId="150" priority="215">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="149" priority="214">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="148" priority="213">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="147" priority="211">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B65">
+    <cfRule type="expression" dxfId="146" priority="208">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:B65">
+    <cfRule type="expression" dxfId="145" priority="207">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="144" priority="206">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66:E66">
+    <cfRule type="expression" dxfId="143" priority="205">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="expression" dxfId="142" priority="204">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="141" priority="194">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="140" priority="193">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="139" priority="201">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="138" priority="200">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="137" priority="189">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="161" priority="195">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="160" priority="230">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B39">
-    <cfRule type="expression" dxfId="159" priority="228">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C39">
-    <cfRule type="expression" dxfId="158" priority="226">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
-    <cfRule type="expression" dxfId="157" priority="225">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="156" priority="219">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="155" priority="224">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="154" priority="222">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="153" priority="221">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E30">
-    <cfRule type="expression" dxfId="152" priority="220">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E34">
-    <cfRule type="expression" dxfId="151" priority="218">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="150" priority="206">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60:E60">
-    <cfRule type="expression" dxfId="149" priority="215">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="148" priority="214">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="147" priority="213">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B62">
-    <cfRule type="expression" dxfId="146" priority="211">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="145" priority="210">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="144" priority="209">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="143" priority="207">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B65">
-    <cfRule type="expression" dxfId="142" priority="204">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B65">
-    <cfRule type="expression" dxfId="141" priority="203">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="140" priority="202">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66:E66">
-    <cfRule type="expression" dxfId="139" priority="201">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="expression" dxfId="138" priority="200">
+    <cfRule type="expression" dxfId="136" priority="198">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="135" priority="197">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="134" priority="196">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="137" priority="190">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="136" priority="189">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="135" priority="197">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="134" priority="196">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="133" priority="185">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="132" priority="194">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="131" priority="193">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="133" priority="195">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:B53">
+    <cfRule type="expression" dxfId="132" priority="128">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B55">
+    <cfRule type="expression" dxfId="131" priority="127">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D37">
     <cfRule type="expression" dxfId="130" priority="192">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D35:D37">
     <cfRule type="expression" dxfId="129" priority="191">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:B53">
-    <cfRule type="expression" dxfId="128" priority="124">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B55">
-    <cfRule type="expression" dxfId="127" priority="123">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="126" priority="188">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="125" priority="187">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A35:B36">
-    <cfRule type="expression" dxfId="124" priority="186">
+    <cfRule type="expression" dxfId="128" priority="190">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="123" priority="182">
+    <cfRule type="expression" dxfId="127" priority="186">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" dxfId="122" priority="183">
+    <cfRule type="expression" dxfId="126" priority="187">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="121" priority="181">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:I38 AF30:AK30 AL58:AM65 AI62 AI65 L35:S38 L51:S56 AF10:AK13 AF58:AK61 AF66:AM78 AF63:AK64 AF15:AK21 AF14:AM14 AF43:AH43 AF44:AI50 AA30:AE50 AA5:AE22 Y23:AK28 AA56:AE78 AE52:AE55 Y51:AE51 F39:S50 F57:S78 P35:Z40 F30:Z34 F5:Z28 P43:Z78 P41:U42 Y41:Z42">
-    <cfRule type="expression" dxfId="120" priority="178">
+    <cfRule type="expression" dxfId="125" priority="185">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:I38 AF30:AK30 AL58:AM65 AI62 AI65 L35:S38 L51:S56 AF10:AK13 AF58:AK61 AF66:AM78 AF63:AK64 AF15:AK21 AF14:AM14 AF43:AH43 AF44:AI50 AA30:AE50 AA5:AE22 Y23:AK28 AA56:AE78 AE52:AE55 Y51:AE51 F39:S50 F57:S78 P35:Z40 F30:Z34 F5:Z28 P44:Z78 P41:U43 Y41:Z43">
+    <cfRule type="expression" dxfId="124" priority="182">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C43">
-    <cfRule type="expression" dxfId="119" priority="177">
+    <cfRule type="expression" dxfId="123" priority="181">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:E43">
-    <cfRule type="expression" dxfId="118" priority="176">
+    <cfRule type="expression" dxfId="122" priority="180">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B43">
-    <cfRule type="expression" dxfId="117" priority="175">
+    <cfRule type="expression" dxfId="121" priority="179">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K36">
-    <cfRule type="expression" dxfId="116" priority="173">
+    <cfRule type="expression" dxfId="120" priority="177">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:K38">
-    <cfRule type="expression" dxfId="115" priority="171">
+    <cfRule type="expression" dxfId="119" priority="175">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="expression" dxfId="114" priority="168">
+    <cfRule type="expression" dxfId="118" priority="172">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C48 C50">
-    <cfRule type="expression" dxfId="113" priority="167">
+    <cfRule type="expression" dxfId="117" priority="171">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:E21">
-    <cfRule type="expression" dxfId="112" priority="139">
+    <cfRule type="expression" dxfId="116" priority="143">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="expression" dxfId="111" priority="164">
+    <cfRule type="expression" dxfId="115" priority="168">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C57">
-    <cfRule type="expression" dxfId="110" priority="135">
+    <cfRule type="expression" dxfId="114" priority="139">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="109" priority="132">
+    <cfRule type="expression" dxfId="113" priority="136">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="108" priority="160">
+    <cfRule type="expression" dxfId="112" priority="164">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="107" priority="159">
+    <cfRule type="expression" dxfId="111" priority="163">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="106" priority="158">
+    <cfRule type="expression" dxfId="110" priority="162">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B48">
-    <cfRule type="expression" dxfId="105" priority="154">
+    <cfRule type="expression" dxfId="109" priority="158">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46 D48">
+    <cfRule type="expression" dxfId="108" priority="161">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D46 D48">
+    <cfRule type="expression" dxfId="107" priority="160">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:B46">
+    <cfRule type="expression" dxfId="106" priority="159">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="105" priority="156">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E46">
     <cfRule type="expression" dxfId="104" priority="157">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="103" priority="156">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B46">
-    <cfRule type="expression" dxfId="102" priority="155">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="101" priority="152">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="100" priority="153">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="99" priority="151">
+    <cfRule type="expression" dxfId="103" priority="155">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:I48 F50:I50">
-    <cfRule type="expression" dxfId="98" priority="150">
+    <cfRule type="expression" dxfId="102" priority="154">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:K46">
+    <cfRule type="expression" dxfId="101" priority="149">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA45:AD47 AA48 AC48:AD48">
+    <cfRule type="expression" dxfId="100" priority="144">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:K48 J50:K50">
+    <cfRule type="expression" dxfId="99" priority="148">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y45:Z47 Y50:AD50 Y48">
+    <cfRule type="expression" dxfId="98" priority="147">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
     <cfRule type="expression" dxfId="97" priority="145">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA45:AD47 AA48 AC48:AD48">
-    <cfRule type="expression" dxfId="96" priority="140">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:K48 J50:K50">
-    <cfRule type="expression" dxfId="95" priority="144">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y45:Z47 Y50:AD50 Y48">
-    <cfRule type="expression" dxfId="94" priority="143">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="93" priority="141">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AF22">
-    <cfRule type="expression" dxfId="92" priority="68">
+    <cfRule type="expression" dxfId="96" priority="72">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB52:AD54 AC55">
-    <cfRule type="expression" dxfId="91" priority="112">
+    <cfRule type="expression" dxfId="95" priority="116">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="90" priority="111">
+    <cfRule type="expression" dxfId="94" priority="115">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="89" priority="108">
+    <cfRule type="expression" dxfId="93" priority="112">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50">
-    <cfRule type="expression" dxfId="88" priority="102">
+    <cfRule type="expression" dxfId="92" priority="106">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="87" priority="126">
+    <cfRule type="expression" dxfId="91" priority="130">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="86" priority="125">
+    <cfRule type="expression" dxfId="90" priority="129">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="85" priority="121">
+    <cfRule type="expression" dxfId="89" priority="125">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" dxfId="84" priority="122">
+    <cfRule type="expression" dxfId="88" priority="126">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E55">
-    <cfRule type="expression" dxfId="83" priority="120">
+    <cfRule type="expression" dxfId="87" priority="124">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:I56">
-    <cfRule type="expression" dxfId="82" priority="119">
+    <cfRule type="expression" dxfId="86" priority="123">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:K53">
-    <cfRule type="expression" dxfId="81" priority="118">
+    <cfRule type="expression" dxfId="85" priority="122">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF51:AI51">
-    <cfRule type="expression" dxfId="80" priority="76">
+    <cfRule type="expression" dxfId="84" priority="80">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:K56">
-    <cfRule type="expression" dxfId="79" priority="117">
+    <cfRule type="expression" dxfId="83" priority="121">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z52:Z56">
-    <cfRule type="expression" dxfId="78" priority="116">
+    <cfRule type="expression" dxfId="82" priority="120">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="77" priority="115">
+    <cfRule type="expression" dxfId="81" priority="119">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA52:AA55">
-    <cfRule type="expression" dxfId="76" priority="113">
+    <cfRule type="expression" dxfId="80" priority="117">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF32:AK32">
-    <cfRule type="expression" dxfId="75" priority="75">
+    <cfRule type="expression" dxfId="79" priority="79">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:I49">
-    <cfRule type="expression" dxfId="74" priority="105">
+    <cfRule type="expression" dxfId="78" priority="109">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:K49">
-    <cfRule type="expression" dxfId="73" priority="104">
+    <cfRule type="expression" dxfId="77" priority="108">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC49:AD49 Y49:AA49">
-    <cfRule type="expression" dxfId="72" priority="103">
+    <cfRule type="expression" dxfId="76" priority="107">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
+    <cfRule type="expression" dxfId="75" priority="105">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:D57">
+    <cfRule type="expression" dxfId="74" priority="104">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E57">
+    <cfRule type="expression" dxfId="73" priority="103">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="72" priority="102">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:B51">
     <cfRule type="expression" dxfId="71" priority="101">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D57">
+  <conditionalFormatting sqref="F51:I51">
     <cfRule type="expression" dxfId="70" priority="100">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E57">
+  <conditionalFormatting sqref="J51:K51">
     <cfRule type="expression" dxfId="69" priority="99">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="68" priority="98">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="67" priority="97">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51:I51">
-    <cfRule type="expression" dxfId="66" priority="96">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:K51">
-    <cfRule type="expression" dxfId="65" priority="95">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="64" priority="93">
+    <cfRule type="expression" dxfId="68" priority="97">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="67" priority="96">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE45:AE48">
+    <cfRule type="expression" dxfId="66" priority="95">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE50">
+    <cfRule type="expression" dxfId="65" priority="94">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33:AK34">
+    <cfRule type="expression" dxfId="64" priority="78">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB49">
     <cfRule type="expression" dxfId="63" priority="92">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE45:AE48">
+  <conditionalFormatting sqref="AB55">
     <cfRule type="expression" dxfId="62" priority="91">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE50">
+  <conditionalFormatting sqref="AD55">
     <cfRule type="expression" dxfId="61" priority="90">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF33:AK34">
-    <cfRule type="expression" dxfId="60" priority="74">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB49">
+  <conditionalFormatting sqref="AE49">
+    <cfRule type="expression" dxfId="60" priority="89">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31:AK31">
     <cfRule type="expression" dxfId="59" priority="88">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB55">
-    <cfRule type="expression" dxfId="58" priority="87">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD55">
-    <cfRule type="expression" dxfId="57" priority="86">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE49">
+  <conditionalFormatting sqref="AF40:AI41 AJ41:AK41">
+    <cfRule type="expression" dxfId="58" priority="86">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF5:AI9 AF35:AI39">
+    <cfRule type="expression" dxfId="57" priority="87">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF57:AI57 AF45:AI47 AF50:AI50">
     <cfRule type="expression" dxfId="56" priority="85">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF31:AK31">
-    <cfRule type="expression" dxfId="55" priority="84">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF40:AI41 AJ41:AK41">
-    <cfRule type="expression" dxfId="54" priority="82">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF5:AI9 AF35:AI39">
-    <cfRule type="expression" dxfId="53" priority="83">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF57:AI57 AF45:AI47 AF50:AI50">
-    <cfRule type="expression" dxfId="52" priority="81">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AF52:AI56">
-    <cfRule type="expression" dxfId="51" priority="78">
+    <cfRule type="expression" dxfId="55" priority="82">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF49:AI49">
-    <cfRule type="expression" dxfId="50" priority="77">
+    <cfRule type="expression" dxfId="54" priority="81">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ65">
-    <cfRule type="expression" dxfId="49" priority="16">
+    <cfRule type="expression" dxfId="53" priority="20">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="48" priority="73">
+    <cfRule type="expression" dxfId="52" priority="77">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="47" priority="71">
+    <cfRule type="expression" dxfId="51" priority="75">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF42:AK42">
-    <cfRule type="expression" dxfId="46" priority="69">
+    <cfRule type="expression" dxfId="50" priority="73">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG22:AK22">
-    <cfRule type="expression" dxfId="45" priority="67">
+    <cfRule type="expression" dxfId="49" priority="71">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ51:AK51">
-    <cfRule type="expression" dxfId="44" priority="56">
+    <cfRule type="expression" dxfId="48" priority="60">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK43:AM43">
-    <cfRule type="expression" dxfId="43" priority="19">
+    <cfRule type="expression" dxfId="47" priority="23">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI43">
-    <cfRule type="expression" dxfId="42" priority="18">
+    <cfRule type="expression" dxfId="46" priority="22">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ40:AK40 AJ44:AK50 AJ43">
+    <cfRule type="expression" dxfId="45" priority="65">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ5:AK9 AJ35:AK39 AK62 AK65">
+    <cfRule type="expression" dxfId="44" priority="66">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ57:AK57 AJ45:AK47 AJ50:AK50">
+    <cfRule type="expression" dxfId="43" priority="64">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ52:AK56">
+    <cfRule type="expression" dxfId="42" priority="62">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ49:AK49">
     <cfRule type="expression" dxfId="41" priority="61">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ5:AK9 AJ35:AK39 AK62 AK65">
-    <cfRule type="expression" dxfId="40" priority="62">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ57:AK57 AJ45:AK47 AJ50:AK50">
-    <cfRule type="expression" dxfId="39" priority="60">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ52:AK56">
-    <cfRule type="expression" dxfId="38" priority="58">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ49:AK49">
-    <cfRule type="expression" dxfId="37" priority="57">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AJ62">
-    <cfRule type="expression" dxfId="36" priority="17">
+    <cfRule type="expression" dxfId="40" priority="21">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL30:AM30 AL10:AM13 AL15:AM19">
-    <cfRule type="expression" dxfId="35" priority="51">
+    <cfRule type="expression" dxfId="39" priority="55">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL23:AM28">
-    <cfRule type="expression" dxfId="34" priority="50">
+    <cfRule type="expression" dxfId="38" priority="54">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL20:AM21">
-    <cfRule type="expression" dxfId="33" priority="49">
+    <cfRule type="expression" dxfId="37" priority="53">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL32:AM32">
-    <cfRule type="expression" dxfId="32" priority="46">
+    <cfRule type="expression" dxfId="36" priority="50">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL33:AM34">
-    <cfRule type="expression" dxfId="31" priority="45">
+    <cfRule type="expression" dxfId="35" priority="49">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL31:AM31">
-    <cfRule type="expression" dxfId="30" priority="48">
+    <cfRule type="expression" dxfId="34" priority="52">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL41:AM41">
-    <cfRule type="expression" dxfId="29" priority="47">
+    <cfRule type="expression" dxfId="33" priority="51">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL42:AM42">
-    <cfRule type="expression" dxfId="28" priority="44">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL22:AM22">
-    <cfRule type="expression" dxfId="27" priority="43">
+    <cfRule type="expression" dxfId="31" priority="47">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL51">
-    <cfRule type="expression" dxfId="26" priority="36">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL44:AL50 AL40:AM40">
+    <cfRule type="expression" dxfId="29" priority="45">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL5:AL9 AM8:AM9 AL35:AM39">
+    <cfRule type="expression" dxfId="28" priority="46">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL57 AL45:AL47 AL50">
+    <cfRule type="expression" dxfId="27" priority="44">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL52:AL56">
+    <cfRule type="expression" dxfId="26" priority="42">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL49">
     <cfRule type="expression" dxfId="25" priority="41">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AL9 AM8:AM9 AL35:AM39">
-    <cfRule type="expression" dxfId="24" priority="42">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL57 AL45:AL47 AL50">
-    <cfRule type="expression" dxfId="23" priority="40">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL52:AL56">
-    <cfRule type="expression" dxfId="22" priority="38">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL49">
-    <cfRule type="expression" dxfId="21" priority="37">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AM5:AM7">
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM44:AM50">
+    <cfRule type="expression" dxfId="23" priority="29">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM57 AM45:AM47 AM50">
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM51">
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM52:AM56">
     <cfRule type="expression" dxfId="20" priority="26">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM44:AM50">
+  <conditionalFormatting sqref="AM49">
     <cfRule type="expression" dxfId="19" priority="25">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM57 AM45:AM47 AM50">
-    <cfRule type="expression" dxfId="18" priority="24">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM51">
-    <cfRule type="expression" dxfId="17" priority="20">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM52:AM56">
-    <cfRule type="expression" dxfId="16" priority="22">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM49">
-    <cfRule type="expression" dxfId="15" priority="21">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF62">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF65:AH65">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG62">
     <cfRule type="expression" dxfId="14" priority="15">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="AH62">
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF62">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF65:AH65">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG62">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH62">
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="12" priority="11">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V41:X41">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+  <conditionalFormatting sqref="V42:W42">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="V43">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="W43">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V41:X41">
+  <conditionalFormatting sqref="X42">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V42:X42">
+  <conditionalFormatting sqref="X43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>

--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC0B0C-A34E-4464-8622-FB86E9A23008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202CB4B0-5CB6-4E7E-BE60-971EE6A59131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="166">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -2612,10 +2612,10 @@
   <dimension ref="A1:AM78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,6 +4438,15 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -4544,6 +4553,15 @@
         <v>73</v>
       </c>
       <c r="U19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Y19" s="3" t="s">
@@ -7404,7 +7422,7 @@
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:I38 AF30:AK30 AL58:AM65 AI62 AI65 L35:S38 L51:S56 AF10:AK13 AF58:AK61 AF66:AM78 AF63:AK64 AF15:AK21 AF14:AM14 AF43:AH43 AF44:AI50 AA30:AE50 AA5:AE22 Y23:AK28 AA56:AE78 AE52:AE55 Y51:AE51 F39:S50 F57:S78 P35:Z40 F30:Z34 F5:Z28 P44:Z78 P41:U43 Y41:Z43">
+  <conditionalFormatting sqref="F35:I38 AF30:AK30 AL58:AM65 AI62 AI65 L35:S38 L51:S56 AF10:AK13 AF58:AK61 AF66:AM78 AF63:AK64 AF15:AK21 AF14:AM14 AF43:AH43 AF44:AI50 AA30:AE50 AA5:AE22 Y23:AK28 AA56:AE78 AE52:AE55 Y51:AE51 F39:S50 F57:S78 P35:Z40 F30:Z34 P44:Z78 P41:U43 Y41:Z43 F5:Z28">
     <cfRule type="expression" dxfId="124" priority="182">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>

--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202CB4B0-5CB6-4E7E-BE60-971EE6A59131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607630D-21B3-4716-9A5E-F83947DF2C3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <author>tc={535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}</author>
   </authors>
   <commentList>
-    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
+    <comment ref="T10" authorId="0" shapeId="0" xr:uid="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="169">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -557,13 +557,22 @@
   </si>
   <si>
     <t>Office Schedule</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>W/ft2</t>
+  </si>
+  <si>
+    <t>ft2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,13 +598,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -649,18 +651,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -840,11 +842,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -912,13 +938,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,17 +974,4555 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="189">
+  <dxfs count="836">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2601,7 +7162,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="S10" dT="2021-05-25T22:34:37.38" personId="{1A49BB3D-5F6C-4FED-AA5E-1F4F2C8C02C3}" id="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
+  <threadedComment ref="T10" dT="2021-05-25T22:34:37.38" personId="{1A49BB3D-5F6C-4FED-AA5E-1F4F2C8C02C3}" id="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
     <text>Test unclear to me on TCD</text>
   </threadedComment>
 </ThreadedComments>
@@ -2609,13 +7170,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2616CE-C113-4173-BA9E-9D8DBBCAB481}">
-  <dimension ref="A1:AM78"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,18 +7186,19 @@
     <col min="3" max="3" width="29.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="25" customWidth="1"/>
-    <col min="6" max="7" width="55.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="55.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="50.5703125" style="3" customWidth="1"/>
-    <col min="25" max="39" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="55.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="55.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="50.5703125" style="3" customWidth="1"/>
+    <col min="26" max="40" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
@@ -2652,144 +7214,147 @@
       <c r="E1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="5" t="str">
-        <f>"rule-"&amp;F2&amp;"-"&amp;F3&amp;"-"&amp;F4</f>
-        <v>rule-6-1-a</v>
+      <c r="F1" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="G1" s="5" t="str">
         <f>"rule-"&amp;G2&amp;"-"&amp;G3&amp;"-"&amp;G4</f>
-        <v>rule-6-1-b</v>
+        <v>rule-6-1-a</v>
       </c>
       <c r="H1" s="5" t="str">
         <f>"rule-"&amp;H2&amp;"-"&amp;H3&amp;"-"&amp;H4</f>
+        <v>rule-6-1-b</v>
+      </c>
+      <c r="I1" s="5" t="str">
+        <f>"rule-"&amp;I2&amp;"-"&amp;I3&amp;"-"&amp;I4</f>
         <v>rule-6-2-a</v>
       </c>
-      <c r="I1" s="5" t="str">
-        <f t="shared" ref="I1:AJ1" si="0">"rule-"&amp;I2&amp;"-"&amp;I3&amp;"-"&amp;I4</f>
+      <c r="J1" s="5" t="str">
+        <f t="shared" ref="J1:AK1" si="0">"rule-"&amp;J2&amp;"-"&amp;J3&amp;"-"&amp;J4</f>
         <v>rule-6-2-b</v>
       </c>
-      <c r="J1" s="5" t="str">
+      <c r="K1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-3-a</v>
       </c>
-      <c r="K1" s="5" t="str">
+      <c r="L1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-3-b</v>
       </c>
-      <c r="L1" s="5" t="str">
+      <c r="M1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-3-c</v>
       </c>
-      <c r="M1" s="5" t="str">
+      <c r="N1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-3-d</v>
       </c>
-      <c r="N1" s="5" t="str">
+      <c r="O1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-4-a</v>
       </c>
-      <c r="O1" s="5" t="str">
-        <f>"rule-"&amp;O2&amp;"-"&amp;O3&amp;"-"&amp;O4</f>
-        <v>rule-6-5-a</v>
-      </c>
       <c r="P1" s="5" t="str">
         <f>"rule-"&amp;P2&amp;"-"&amp;P3&amp;"-"&amp;P4</f>
-        <v>rule-6-6-a</v>
+        <v>rule-6-5-a</v>
       </c>
       <c r="Q1" s="5" t="str">
         <f>"rule-"&amp;Q2&amp;"-"&amp;Q3&amp;"-"&amp;Q4</f>
-        <v>rule-6-6-b</v>
+        <v>rule-6-6-a</v>
       </c>
       <c r="R1" s="5" t="str">
         <f>"rule-"&amp;R2&amp;"-"&amp;R3&amp;"-"&amp;R4</f>
-        <v>rule-6-7-a</v>
+        <v>rule-6-6-b</v>
       </c>
       <c r="S1" s="5" t="str">
         <f>"rule-"&amp;S2&amp;"-"&amp;S3&amp;"-"&amp;S4</f>
+        <v>rule-6-7-a</v>
+      </c>
+      <c r="T1" s="5" t="str">
+        <f>"rule-"&amp;T2&amp;"-"&amp;T3&amp;"-"&amp;T4</f>
         <v>rule-6-7-b</v>
       </c>
-      <c r="T1" s="5" t="str">
+      <c r="U1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-8-a</v>
       </c>
-      <c r="U1" s="5" t="str">
-        <f t="shared" ref="U1:Z1" si="1">"rule-"&amp;U2&amp;"-"&amp;U3&amp;"-"&amp;U4</f>
+      <c r="V1" s="5" t="str">
+        <f t="shared" ref="V1:AA1" si="1">"rule-"&amp;V2&amp;"-"&amp;V3&amp;"-"&amp;V4</f>
         <v>rule-6-8-b</v>
       </c>
-      <c r="V1" s="5" t="str">
-        <f t="shared" ref="V1" si="2">"rule-"&amp;V2&amp;"-"&amp;V3&amp;"-"&amp;V4</f>
+      <c r="W1" s="5" t="str">
+        <f t="shared" ref="W1" si="2">"rule-"&amp;W2&amp;"-"&amp;W3&amp;"-"&amp;W4</f>
         <v>rule-6-9-a</v>
       </c>
-      <c r="W1" s="5" t="str">
-        <f t="shared" ref="W1" si="3">"rule-"&amp;W2&amp;"-"&amp;W3&amp;"-"&amp;W4</f>
+      <c r="X1" s="5" t="str">
+        <f t="shared" ref="X1" si="3">"rule-"&amp;X2&amp;"-"&amp;X3&amp;"-"&amp;X4</f>
         <v>rule-6-9-b</v>
       </c>
-      <c r="X1" s="5" t="str">
-        <f t="shared" ref="X1" si="4">"rule-"&amp;X2&amp;"-"&amp;X3&amp;"-"&amp;X4</f>
+      <c r="Y1" s="5" t="str">
+        <f t="shared" ref="Y1" si="4">"rule-"&amp;Y2&amp;"-"&amp;Y3&amp;"-"&amp;Y4</f>
         <v>rule-6-9-c</v>
       </c>
-      <c r="Y1" s="5" t="str">
+      <c r="Z1" s="5" t="str">
         <f t="shared" si="1"/>
         <v>rule-6-11-a</v>
       </c>
-      <c r="Z1" s="5" t="str">
+      <c r="AA1" s="5" t="str">
         <f t="shared" si="1"/>
         <v>rule-6-11-b</v>
       </c>
-      <c r="AA1" s="5" t="str">
+      <c r="AB1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-a</v>
       </c>
-      <c r="AB1" s="5" t="str">
+      <c r="AC1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-b</v>
       </c>
-      <c r="AC1" s="5" t="str">
+      <c r="AD1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-c</v>
       </c>
-      <c r="AD1" s="5" t="str">
+      <c r="AE1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-d</v>
       </c>
-      <c r="AE1" s="5" t="str">
+      <c r="AF1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-e</v>
       </c>
-      <c r="AF1" s="5" t="str">
+      <c r="AG1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-13-a</v>
       </c>
-      <c r="AG1" s="5" t="str">
+      <c r="AH1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-13-b</v>
       </c>
-      <c r="AH1" s="5" t="str">
+      <c r="AI1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-13-c</v>
       </c>
-      <c r="AI1" s="5" t="str">
+      <c r="AJ1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-13-d</v>
       </c>
-      <c r="AJ1" s="5" t="str">
+      <c r="AK1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-14-a</v>
       </c>
-      <c r="AK1" s="5" t="str">
-        <f t="shared" ref="AK1:AM1" si="5">"rule-"&amp;AK2&amp;"-"&amp;AK3&amp;"-"&amp;AK4</f>
+      <c r="AL1" s="5" t="str">
+        <f t="shared" ref="AL1:AN1" si="5">"rule-"&amp;AL2&amp;"-"&amp;AL3&amp;"-"&amp;AL4</f>
         <v>rule-6-14-b</v>
       </c>
-      <c r="AL1" s="5" t="str">
+      <c r="AM1" s="5" t="str">
         <f t="shared" si="5"/>
         <v>rule-6-15-a</v>
       </c>
-      <c r="AM1" s="5" t="str">
+      <c r="AN1" s="5" t="str">
         <f t="shared" si="5"/>
         <v>rule-6-16-a</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -2797,9 +7362,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="3">
-        <v>6</v>
-      </c>
+      <c r="F2" s="47"/>
       <c r="G2" s="3">
         <v>6</v>
       </c>
@@ -2845,16 +7408,16 @@
       <c r="U2" s="3">
         <v>6</v>
       </c>
-      <c r="V2" s="45">
+      <c r="V2" s="3">
         <v>6</v>
       </c>
-      <c r="W2" s="45">
+      <c r="W2" s="44">
         <v>6</v>
       </c>
-      <c r="X2" s="45">
+      <c r="X2" s="44">
         <v>6</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="44">
         <v>6</v>
       </c>
       <c r="Z2" s="3">
@@ -2899,8 +7462,11 @@
       <c r="AM2" s="3">
         <v>6</v>
       </c>
+      <c r="AN2" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -2908,20 +7474,18 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
+      <c r="F3" s="47"/>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
       <c r="J3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="3">
         <v>3</v>
@@ -2933,46 +7497,46 @@
         <v>3</v>
       </c>
       <c r="N3" s="3">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
         <v>4</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>5</v>
-      </c>
-      <c r="P3" s="3">
-        <v>6</v>
       </c>
       <c r="Q3" s="3">
         <v>6</v>
       </c>
       <c r="R3" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S3" s="3">
         <v>7</v>
       </c>
       <c r="T3" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U3" s="3">
         <v>8</v>
       </c>
-      <c r="V3" s="45">
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="44">
         <v>9</v>
       </c>
-      <c r="W3" s="45">
+      <c r="X3" s="44">
         <v>9</v>
       </c>
-      <c r="X3" s="45">
+      <c r="Y3" s="44">
         <v>9</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>11</v>
       </c>
       <c r="Z3" s="3">
         <v>11</v>
       </c>
       <c r="AA3" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="3">
         <v>12</v>
@@ -2987,7 +7551,7 @@
         <v>12</v>
       </c>
       <c r="AF3" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG3" s="3">
         <v>13</v>
@@ -2999,19 +7563,22 @@
         <v>13</v>
       </c>
       <c r="AJ3" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK3" s="3">
         <v>14</v>
       </c>
       <c r="AL3" s="3">
+        <v>14</v>
+      </c>
+      <c r="AM3" s="3">
         <v>15</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AN3" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -3019,32 +7586,30 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>8</v>
@@ -3053,76 +7618,79 @@
         <v>8</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="45" t="s">
+      <c r="W4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="45" t="s">
+      <c r="X4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="45" t="s">
+      <c r="Y4" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="AN4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
@@ -3130,110 +7698,111 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="28"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>112</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AA5" s="44" t="s">
+      <c r="AB5" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AC5" s="44" t="s">
+      <c r="AD5" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AE5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AF5" s="44" t="s">
+      <c r="AG5" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="AG5" s="44" t="s">
+      <c r="AH5" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AK5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AL5" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="AM5" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="AN5" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>58</v>
       </c>
@@ -3241,50 +7810,48 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="P6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>5</v>
@@ -3293,19 +7860,19 @@
         <v>5</v>
       </c>
       <c r="W6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>5</v>
@@ -3314,13 +7881,13 @@
         <v>5</v>
       </c>
       <c r="AD6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>97</v>
@@ -3329,22 +7896,25 @@
         <v>97</v>
       </c>
       <c r="AI6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="AN6" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>59</v>
       </c>
@@ -3354,13 +7924,13 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="17" t="s">
-        <v>68</v>
-      </c>
+      <c r="F7" s="48"/>
       <c r="G7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -3392,8 +7962,9 @@
       <c r="AK7" s="17"/>
       <c r="AL7" s="17"/>
       <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>59</v>
       </c>
@@ -3403,18 +7974,15 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="F8" s="48"/>
       <c r="G8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="6" t="str">
-        <f t="shared" ref="H8:N8" si="6">"true"</f>
-        <v>true</v>
+      <c r="H8" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="I8" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I8:O8" si="6">"true"</f>
         <v>true</v>
       </c>
       <c r="J8" s="6" t="str">
@@ -3438,7 +8006,7 @@
         <v>true</v>
       </c>
       <c r="O8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="P8" s="6" t="str">
@@ -3449,7 +8017,10 @@
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -3458,20 +8029,17 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="6" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
+      <c r="AA8" s="6"/>
       <c r="AB8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
       <c r="AC8" s="6" t="str">
-        <f t="shared" ref="AC8:AE8" si="7">"true"</f>
+        <f>"true"</f>
         <v>true</v>
       </c>
       <c r="AD8" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AD8:AF8" si="7">"true"</f>
         <v>true</v>
       </c>
       <c r="AE8" s="6" t="str">
@@ -3479,15 +8047,15 @@
         <v>true</v>
       </c>
       <c r="AF8" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>true</v>
+      </c>
+      <c r="AG8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AG8" s="6" t="str">
-        <f t="shared" ref="AG8:AM8" si="8">"true"</f>
-        <v>true</v>
-      </c>
       <c r="AH8" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AH8:AN8" si="8">"true"</f>
         <v>true</v>
       </c>
       <c r="AI8" s="6" t="str">
@@ -3510,8 +8078,12 @@
         <f t="shared" si="8"/>
         <v>true</v>
       </c>
+      <c r="AN8" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>true</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>59</v>
       </c>
@@ -3521,30 +8093,27 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="21" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
+      <c r="H9" s="21"/>
       <c r="I9" s="21" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="21" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
-      <c r="N9" s="21"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="21" t="str">
-        <f t="shared" ref="R9:X9" si="9">"true"</f>
-        <v>true</v>
-      </c>
+      <c r="R9" s="21"/>
       <c r="S9" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="S9:Y9" si="9">"true"</f>
         <v>true</v>
       </c>
       <c r="T9" s="21" t="str">
@@ -3567,20 +8136,21 @@
         <f t="shared" si="9"/>
         <v>true</v>
       </c>
-      <c r="Y9" s="21" t="s">
-        <v>68</v>
+      <c r="Y9" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
       </c>
       <c r="Z9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="21"/>
+      <c r="AA9" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="21"/>
       <c r="AE9" s="21"/>
-      <c r="AF9" s="21" t="s">
-        <v>68</v>
-      </c>
+      <c r="AF9" s="21"/>
       <c r="AG9" s="21" t="s">
         <v>68</v>
       </c>
@@ -3596,10 +8166,13 @@
       <c r="AK9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AL9" s="21"/>
+      <c r="AL9" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
@@ -3613,9 +8186,7 @@
         <v>63</v>
       </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
+      <c r="F10" s="48"/>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -3652,10 +8223,10 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="31">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="31">
         <v>0</v>
       </c>
       <c r="U10" s="3">
@@ -3715,8 +8286,11 @@
       <c r="AM10" s="3">
         <v>0</v>
       </c>
+      <c r="AN10" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
@@ -3730,9 +8304,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="28"/>
-      <c r="F11" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="F11" s="48"/>
       <c r="G11" s="3" t="s">
         <v>66</v>
       </c>
@@ -3769,10 +8341,10 @@
       <c r="R11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="3" t="s">
@@ -3832,8 +8404,11 @@
       <c r="AM11" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="AN11" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>59</v>
       </c>
@@ -3847,29 +8422,30 @@
         <v>67</v>
       </c>
       <c r="E12" s="28"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="3" t="str">
+      <c r="F12" s="48"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="U12" s="3" t="str">
+      <c r="V12" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="V12" s="3" t="str">
-        <f t="shared" ref="V12:X12" si="10">"false"</f>
-        <v>false</v>
-      </c>
       <c r="W12" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="W12:Y12" si="10">"false"</f>
         <v>false</v>
       </c>
       <c r="X12" s="3" t="str">
         <f t="shared" si="10"/>
         <v>false</v>
       </c>
+      <c r="Y12" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>false</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>59</v>
       </c>
@@ -3883,9 +8459,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="28"/>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
+      <c r="F13" s="48"/>
       <c r="G13" s="3">
         <v>0</v>
       </c>
@@ -3985,8 +8559,11 @@
       <c r="AM13" s="3">
         <v>0</v>
       </c>
+      <c r="AN13" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
@@ -4000,9 +8577,7 @@
         <v>65</v>
       </c>
       <c r="E14" s="28"/>
-      <c r="F14" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="F14" s="48"/>
       <c r="G14" s="3" t="s">
         <v>152</v>
       </c>
@@ -4102,8 +8677,11 @@
       <c r="AM14" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="AN14" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>59</v>
       </c>
@@ -4117,9 +8695,7 @@
         <v>86</v>
       </c>
       <c r="E15" s="28"/>
-      <c r="F15" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="F15" s="48"/>
       <c r="G15" s="3" t="s">
         <v>85</v>
       </c>
@@ -4129,8 +8705,8 @@
       <c r="I15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>108</v>
+      <c r="J15" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>108</v>
@@ -4138,11 +8714,14 @@
       <c r="R15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="S15" s="31" t="s">
+      <c r="S15" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="T15" s="31" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
@@ -4156,9 +8735,7 @@
         <v>63</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
+      <c r="F16" s="48"/>
       <c r="G16" s="3">
         <v>0</v>
       </c>
@@ -4195,10 +8772,10 @@
       <c r="R16" s="3">
         <v>0</v>
       </c>
-      <c r="S16" s="31">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="31">
         <v>0</v>
       </c>
       <c r="U16" s="3">
@@ -4258,8 +8835,11 @@
       <c r="AM16" s="3">
         <v>0</v>
       </c>
+      <c r="AN16" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>59</v>
       </c>
@@ -4273,9 +8853,7 @@
         <v>65</v>
       </c>
       <c r="E17" s="28"/>
-      <c r="F17" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="F17" s="48"/>
       <c r="G17" s="3" t="s">
         <v>87</v>
       </c>
@@ -4286,7 +8864,7 @@
         <v>87</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>71</v>
@@ -4312,10 +8890,10 @@
       <c r="R17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S17" s="31" t="s">
+      <c r="S17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="T17" s="31" t="s">
         <v>71</v>
       </c>
       <c r="U17" s="3" t="s">
@@ -4375,8 +8953,11 @@
       <c r="AM17" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="AN17" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>59</v>
       </c>
@@ -4390,9 +8971,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
+      <c r="F18" s="48"/>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -4429,10 +9008,10 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="31">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="31">
         <v>0</v>
       </c>
       <c r="U18" s="3">
@@ -4492,8 +9071,11 @@
       <c r="AM18" s="3">
         <v>0</v>
       </c>
+      <c r="AN18" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>59</v>
       </c>
@@ -4507,9 +9089,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="28"/>
-      <c r="F19" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="F19" s="48"/>
       <c r="G19" s="3" t="s">
         <v>88</v>
       </c>
@@ -4520,7 +9100,7 @@
         <v>88</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>73</v>
@@ -4546,10 +9126,10 @@
       <c r="R19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="S19" s="31" t="s">
+      <c r="S19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="31" t="s">
         <v>73</v>
       </c>
       <c r="U19" s="3" t="s">
@@ -4609,8 +9189,11 @@
       <c r="AM19" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="AN19" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>59</v>
       </c>
@@ -4624,9 +9207,7 @@
         <v>63</v>
       </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="F20" s="48"/>
       <c r="G20" s="3" t="s">
         <v>117</v>
       </c>
@@ -4663,17 +9244,17 @@
       <c r="R20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S20" s="31" t="s">
+      <c r="S20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="31" t="s">
         <v>117</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="V20" s="3">
-        <v>1</v>
+      <c r="V20" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="W20" s="3">
         <v>1</v>
@@ -4681,8 +9262,8 @@
       <c r="X20" s="3">
         <v>1</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>117</v>
+      <c r="Y20" s="3">
+        <v>1</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>117</v>
@@ -4726,8 +9307,11 @@
       <c r="AM20" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="AN20" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
@@ -4741,9 +9325,7 @@
         <v>65</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="F21" s="48"/>
       <c r="G21" s="3" t="s">
         <v>118</v>
       </c>
@@ -4780,10 +9362,10 @@
       <c r="R21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="31" t="s">
+      <c r="S21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="31" t="s">
         <v>118</v>
       </c>
       <c r="U21" s="3" t="s">
@@ -4843,8 +9425,11 @@
       <c r="AM21" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="AN21" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>59</v>
       </c>
@@ -4858,47 +9443,46 @@
         <v>75</v>
       </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="48"/>
+      <c r="G22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="H22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="I22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="J22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="K22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="L22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="M22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="N22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="O22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="P22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
       <c r="R22" s="26"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="26" t="s">
+      <c r="S22" s="26"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="U22" s="26" t="s">
+      <c r="V22" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="V22" s="26"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
@@ -4908,20 +9492,18 @@
       <c r="AC22" s="26"/>
       <c r="AD22" s="26"/>
       <c r="AE22" s="26"/>
-      <c r="AF22" s="26" t="s">
-        <v>107</v>
-      </c>
+      <c r="AF22" s="26"/>
       <c r="AG22" s="26" t="s">
         <v>107</v>
       </c>
       <c r="AH22" s="26" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AI22" s="26" t="s">
         <v>146</v>
       </c>
       <c r="AJ22" s="26" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK22" s="26" t="s">
         <v>107</v>
@@ -4930,10 +9512,13 @@
         <v>107</v>
       </c>
       <c r="AM22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN22" s="26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>59</v>
       </c>
@@ -4947,8 +9532,8 @@
         <v>76</v>
       </c>
       <c r="E23" s="28"/>
-      <c r="F23" s="3">
-        <v>100</v>
+      <c r="F23" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
@@ -4972,7 +9557,7 @@
         <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>1000</v>
@@ -4986,17 +9571,17 @@
       <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="31">
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="31">
         <v>1000</v>
       </c>
       <c r="U23" s="3">
         <v>1000</v>
       </c>
       <c r="V23" s="3">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="W23" s="3">
         <v>2300</v>
@@ -5005,7 +9590,7 @@
         <v>2300</v>
       </c>
       <c r="Y23" s="3">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="Z23" s="3">
         <v>1000</v>
@@ -5049,8 +9634,11 @@
       <c r="AM23" s="3">
         <v>1000</v>
       </c>
+      <c r="AN23" s="3">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>59</v>
       </c>
@@ -5064,15 +9652,16 @@
         <v>110</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="3" t="s">
+      <c r="F24" s="48"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>59</v>
       </c>
@@ -5086,9 +9675,7 @@
         <v>63</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
+      <c r="F25" s="48"/>
       <c r="G25" s="3">
         <v>2</v>
       </c>
@@ -5098,18 +9685,21 @@
       <c r="I25" s="3">
         <v>2</v>
       </c>
-      <c r="S25" s="31"/>
-      <c r="V25" s="3">
+      <c r="J25" s="3">
         <v>2</v>
       </c>
+      <c r="T25" s="31"/>
       <c r="W25" s="3">
         <v>2</v>
       </c>
       <c r="X25" s="3">
         <v>2</v>
       </c>
+      <c r="Y25" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>59</v>
       </c>
@@ -5123,9 +9713,7 @@
         <v>65</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="F26" s="48"/>
       <c r="G26" s="3" t="s">
         <v>119</v>
       </c>
@@ -5135,18 +9723,21 @@
       <c r="I26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="S26" s="31"/>
-      <c r="V26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="T26" s="31"/>
       <c r="W26" s="3" t="s">
         <v>119</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="Y26" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>59</v>
       </c>
@@ -5160,9 +9751,7 @@
         <v>75</v>
       </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="26" t="s">
-        <v>74</v>
-      </c>
+      <c r="F27" s="48"/>
       <c r="G27" s="26" t="s">
         <v>74</v>
       </c>
@@ -5172,7 +9761,9 @@
       <c r="I27" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="26"/>
+      <c r="J27" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
@@ -5181,8 +9772,8 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="26"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="32"/>
       <c r="U27" s="26"/>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
@@ -5202,8 +9793,9 @@
       <c r="AK27" s="26"/>
       <c r="AL27" s="26"/>
       <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>59</v>
       </c>
@@ -5217,8 +9809,8 @@
         <v>76</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="3">
-        <v>1000</v>
+      <c r="F28" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="G28" s="3">
         <v>1000</v>
@@ -5229,18 +9821,21 @@
       <c r="I28" s="3">
         <v>1000</v>
       </c>
-      <c r="S28" s="31"/>
-      <c r="V28" s="3">
-        <v>2900</v>
-      </c>
+      <c r="J28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T28" s="31"/>
       <c r="W28" s="3">
         <v>2900</v>
       </c>
       <c r="X28" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y28" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>59</v>
       </c>
@@ -5256,9 +9851,7 @@
       <c r="E29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="F29" s="48"/>
       <c r="G29" s="3" t="s">
         <v>117</v>
       </c>
@@ -5304,7 +9897,7 @@
       <c r="U29" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>117</v>
       </c>
       <c r="Z29" s="3" t="s">
@@ -5349,8 +9942,11 @@
       <c r="AM29" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="AN29" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
@@ -5366,9 +9962,7 @@
       <c r="E30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="F30" s="48"/>
       <c r="G30" s="3" t="s">
         <v>81</v>
       </c>
@@ -5379,7 +9973,7 @@
         <v>81</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>89</v>
@@ -5391,13 +9985,13 @@
         <v>89</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>99</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>109</v>
@@ -5405,17 +9999,17 @@
       <c r="R30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="S30" s="31" t="s">
+      <c r="S30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="T30" s="31" t="s">
         <v>109</v>
       </c>
       <c r="U30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V30" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="Z30" s="3" t="s">
         <v>134</v>
@@ -5459,8 +10053,11 @@
       <c r="AM30" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="AN30" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>59</v>
       </c>
@@ -5476,50 +10073,53 @@
       <c r="E31" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="3">
         <v>0.41</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>0.41</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>0.3</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>0.1</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.5</v>
       </c>
       <c r="M31" s="3">
         <v>0.5</v>
       </c>
       <c r="N31" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O31" s="3">
         <v>0.6</v>
       </c>
       <c r="P31" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q31" s="3">
         <v>0.64</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="R31" s="3">
         <v>0.54</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S31" s="31">
+      <c r="T31" s="31">
         <v>1.1399999999999999</v>
       </c>
-      <c r="T31" s="3">
+      <c r="U31" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U31" s="3">
+      <c r="V31" s="3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>59</v>
       </c>
@@ -5535,37 +10135,38 @@
       <c r="E32" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="S32" s="31"/>
-      <c r="Y32" s="3" t="str">
+      <c r="F32" s="48"/>
+      <c r="T32" s="31"/>
+      <c r="Z32" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="Z32" s="3" t="str">
+      <c r="AA32" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AA32" s="3" t="str">
+      <c r="AB32" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="AB32" s="3" t="str">
+      <c r="AC32" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
-      </c>
-      <c r="AC32" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
       </c>
       <c r="AD32" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
       <c r="AE32" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AF32" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>59</v>
       </c>
@@ -5581,11 +10182,8 @@
       <c r="E33" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="S33" s="31"/>
-      <c r="AF33" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
+      <c r="F33" s="48"/>
+      <c r="T33" s="31"/>
       <c r="AG33" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
@@ -5598,8 +10196,12 @@
         <f>"true"</f>
         <v>true</v>
       </c>
+      <c r="AJ33" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>59</v>
       </c>
@@ -5615,10 +10217,8 @@
       <c r="E34" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="S34" s="31"/>
-      <c r="AF34" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="F34" s="48"/>
+      <c r="T34" s="31"/>
       <c r="AG34" s="3" t="s">
         <v>145</v>
       </c>
@@ -5640,8 +10240,11 @@
       <c r="AM34" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="AN34" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
@@ -5657,9 +10260,7 @@
       <c r="E35" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="3">
-        <v>2</v>
-      </c>
+      <c r="F35" s="48"/>
       <c r="K35" s="3">
         <v>2</v>
       </c>
@@ -5675,8 +10276,11 @@
       <c r="O35" s="3">
         <v>2</v>
       </c>
+      <c r="P35" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>59</v>
       </c>
@@ -5692,9 +10296,7 @@
       <c r="E36" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="F36" s="48"/>
       <c r="K36" s="3" t="s">
         <v>90</v>
       </c>
@@ -5705,13 +10307,16 @@
         <v>90</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="P36" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>59</v>
       </c>
@@ -5727,26 +10332,29 @@
       <c r="E37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J37" s="3">
+      <c r="F37" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="3">
         <v>0.35</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <v>0.2</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="3">
         <v>0.5</v>
       </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
         <v>0.4</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0.32</v>
       </c>
       <c r="O37" s="3">
         <v>0.32</v>
       </c>
+      <c r="P37" s="3">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
@@ -5762,9 +10370,7 @@
       <c r="E38" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
+      <c r="F38" s="48"/>
       <c r="G38" s="3">
         <v>2</v>
       </c>
@@ -5774,8 +10380,11 @@
       <c r="I38" s="3">
         <v>2</v>
       </c>
+      <c r="J38" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>59</v>
       </c>
@@ -5791,9 +10400,7 @@
       <c r="E39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="F39" s="48"/>
       <c r="G39" s="3" t="s">
         <v>82</v>
       </c>
@@ -5803,8 +10410,11 @@
       <c r="I39" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="J39" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="40" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>59</v>
       </c>
@@ -5820,8 +10430,8 @@
       <c r="E40" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="24">
-        <v>1.1000000000000001</v>
+      <c r="F40" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="G40" s="24">
         <v>1.1000000000000001</v>
@@ -5832,7 +10442,9 @@
       <c r="I40" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J40" s="24"/>
+      <c r="J40" s="24">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -5862,79 +10474,81 @@
       <c r="AK40" s="24"/>
       <c r="AL40" s="24"/>
       <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
     </row>
-    <row r="41" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+    <row r="41" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38" t="s">
+      <c r="E41" s="36"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="W41" s="38" t="s">
+      <c r="X41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="X41" s="38" t="s">
+      <c r="Y41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="38"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="38"/>
-      <c r="AF41" s="38" t="s">
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AG41" s="38" t="s">
+      <c r="AH41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AH41" s="38" t="s">
+      <c r="AI41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AI41" s="38" t="s">
+      <c r="AJ41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AJ41" s="38" t="s">
+      <c r="AK41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AK41" s="38" t="s">
+      <c r="AL41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AL41" s="38" t="s">
+      <c r="AM41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="AM41" s="38" t="s">
+      <c r="AN41" s="37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>59</v>
       </c>
@@ -5948,7 +10562,7 @@
         <v>65</v>
       </c>
       <c r="E42" s="28"/>
-      <c r="F42" s="24"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
@@ -5964,25 +10578,23 @@
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
       <c r="U42" s="24"/>
-      <c r="V42" s="24" t="s">
+      <c r="V42" s="24"/>
+      <c r="W42" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="W42" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="X42" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="Y42" s="24"/>
+      <c r="Y42" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="Z42" s="24"/>
       <c r="AA42" s="24"/>
       <c r="AB42" s="24"/>
       <c r="AC42" s="24"/>
       <c r="AD42" s="24"/>
       <c r="AE42" s="24"/>
-      <c r="AF42" s="24" t="s">
-        <v>145</v>
-      </c>
+      <c r="AF42" s="24"/>
       <c r="AG42" s="24" t="s">
         <v>145</v>
       </c>
@@ -6004,77 +10616,81 @@
       <c r="AM42" s="24" t="s">
         <v>145</v>
       </c>
+      <c r="AN42" s="24" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="43" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+    <row r="43" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42" t="s">
+      <c r="E43" s="40"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="W43" s="42" t="str">
+      <c r="X43" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-1"</f>
         <v>SCHEDULE:CONSTANT-1</v>
       </c>
-      <c r="X43" s="42" t="str">
+      <c r="Y43" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-1"</f>
         <v>SCHEDULE:CONSTANT-1</v>
       </c>
-      <c r="Y43" s="42"/>
-      <c r="Z43" s="42"/>
-      <c r="AA43" s="42"/>
-      <c r="AB43" s="42"/>
-      <c r="AC43" s="42"/>
-      <c r="AD43" s="42"/>
-      <c r="AE43" s="42"/>
-      <c r="AF43" s="42"/>
-      <c r="AG43" s="42"/>
-      <c r="AH43" s="42"/>
-      <c r="AI43" s="42" t="str">
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="41"/>
+      <c r="AG43" s="41"/>
+      <c r="AH43" s="41"/>
+      <c r="AI43" s="41"/>
+      <c r="AJ43" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AJ43" s="42"/>
-      <c r="AK43" s="42" t="str">
+      <c r="AK43" s="41"/>
+      <c r="AL43" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-      <c r="AL43" s="42" t="str">
-        <f t="shared" ref="AL43:AM43" si="11">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
+      <c r="AM43" s="41" t="str">
+        <f t="shared" ref="AM43:AN43" si="11">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-      <c r="AM43" s="42" t="str">
+      <c r="AN43" s="41" t="str">
         <f t="shared" si="11"/>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>59</v>
       </c>
@@ -6088,7 +10704,7 @@
         <v>63</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="24"/>
+      <c r="F44" s="48"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
@@ -6107,9 +10723,7 @@
       <c r="V44" s="24"/>
       <c r="W44" s="24"/>
       <c r="X44" s="24"/>
-      <c r="Y44" s="24" t="s">
-        <v>117</v>
-      </c>
+      <c r="Y44" s="24"/>
       <c r="Z44" s="24" t="s">
         <v>117</v>
       </c>
@@ -6128,7 +10742,9 @@
       <c r="AE44" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AF44" s="24"/>
+      <c r="AF44" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="AG44" s="24"/>
       <c r="AH44" s="24"/>
       <c r="AI44" s="24"/>
@@ -6136,8 +10752,9 @@
       <c r="AK44" s="24"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
+      <c r="AN44" s="24"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>59</v>
       </c>
@@ -6151,7 +10768,7 @@
         <v>65</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="24"/>
+      <c r="F45" s="48"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
@@ -6170,17 +10787,15 @@
       <c r="V45" s="24"/>
       <c r="W45" s="24"/>
       <c r="X45" s="24"/>
-      <c r="Y45" s="24" t="s">
-        <v>128</v>
-      </c>
+      <c r="Y45" s="24"/>
       <c r="Z45" s="24" t="s">
         <v>128</v>
       </c>
       <c r="AA45" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB45" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AB45" s="24" t="s">
-        <v>128</v>
       </c>
       <c r="AC45" s="24" t="s">
         <v>128</v>
@@ -6191,7 +10806,9 @@
       <c r="AE45" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="AF45" s="24"/>
+      <c r="AF45" s="24" t="s">
+        <v>128</v>
+      </c>
       <c r="AG45" s="24"/>
       <c r="AH45" s="24"/>
       <c r="AI45" s="24"/>
@@ -6199,8 +10816,9 @@
       <c r="AK45" s="24"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
+      <c r="AN45" s="24"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>59</v>
       </c>
@@ -6214,7 +10832,7 @@
         <v>132</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="24"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
@@ -6233,9 +10851,7 @@
       <c r="V46" s="24"/>
       <c r="W46" s="24"/>
       <c r="X46" s="24"/>
-      <c r="Y46" s="24" t="s">
-        <v>153</v>
-      </c>
+      <c r="Y46" s="24"/>
       <c r="Z46" s="24" t="s">
         <v>153</v>
       </c>
@@ -6254,7 +10870,9 @@
       <c r="AE46" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="AF46" s="24"/>
+      <c r="AF46" s="24" t="s">
+        <v>153</v>
+      </c>
       <c r="AG46" s="24"/>
       <c r="AH46" s="24"/>
       <c r="AI46" s="24"/>
@@ -6262,8 +10880,9 @@
       <c r="AK46" s="24"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>59</v>
       </c>
@@ -6273,11 +10892,11 @@
       <c r="C47" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="33" t="s">
         <v>130</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="24"/>
+      <c r="F47" s="48"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
@@ -6296,9 +10915,7 @@
       <c r="V47" s="24"/>
       <c r="W47" s="24"/>
       <c r="X47" s="24"/>
-      <c r="Y47" s="24">
-        <v>90</v>
-      </c>
+      <c r="Y47" s="24"/>
       <c r="Z47" s="24">
         <v>90</v>
       </c>
@@ -6317,7 +10934,9 @@
       <c r="AE47" s="24">
         <v>90</v>
       </c>
-      <c r="AF47" s="24"/>
+      <c r="AF47" s="24">
+        <v>90</v>
+      </c>
       <c r="AG47" s="24"/>
       <c r="AH47" s="24"/>
       <c r="AI47" s="24"/>
@@ -6325,8 +10944,9 @@
       <c r="AK47" s="24"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>59</v>
       </c>
@@ -6340,7 +10960,7 @@
         <v>133</v>
       </c>
       <c r="E48" s="12"/>
-      <c r="F48" s="24"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
@@ -6359,28 +10979,28 @@
       <c r="V48" s="24"/>
       <c r="W48" s="24"/>
       <c r="X48" s="24"/>
-      <c r="Y48" s="24">
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24">
         <v>180</v>
       </c>
-      <c r="Z48" s="24" t="s">
+      <c r="AA48" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AA48" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="24" t="s">
+      <c r="AB48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AC48" s="24">
+      <c r="AD48" s="24">
         <v>180</v>
       </c>
-      <c r="AD48" s="24">
+      <c r="AE48" s="24">
         <v>1</v>
       </c>
-      <c r="AE48" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="24"/>
+      <c r="AF48" s="24">
+        <v>0</v>
+      </c>
       <c r="AG48" s="24"/>
       <c r="AH48" s="24"/>
       <c r="AI48" s="24"/>
@@ -6388,8 +11008,9 @@
       <c r="AK48" s="24"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
+      <c r="AN48" s="24"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>59</v>
       </c>
@@ -6399,13 +11020,13 @@
       <c r="C49" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="33" t="s">
         <v>131</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="24"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
@@ -6427,15 +11048,15 @@
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
       <c r="AA49" s="24"/>
-      <c r="AB49" s="24" t="s">
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AC49" s="24"/>
       <c r="AD49" s="24"/>
-      <c r="AE49" s="24" t="s">
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AF49" s="24"/>
       <c r="AG49" s="24"/>
       <c r="AH49" s="24"/>
       <c r="AI49" s="24"/>
@@ -6443,8 +11064,9 @@
       <c r="AK49" s="24"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
+      <c r="AN49" s="24"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>59</v>
       </c>
@@ -6454,13 +11076,13 @@
       <c r="C50" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="33" t="s">
         <v>131</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="24"/>
+      <c r="F50" s="48"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -6482,15 +11104,15 @@
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
       <c r="AA50" s="24"/>
-      <c r="AB50" s="24" t="s">
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="AC50" s="24"/>
       <c r="AD50" s="24"/>
-      <c r="AE50" s="24" t="s">
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="AF50" s="24"/>
       <c r="AG50" s="24"/>
       <c r="AH50" s="24"/>
       <c r="AI50" s="24"/>
@@ -6498,8 +11120,9 @@
       <c r="AK50" s="24"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
+      <c r="AN50" s="24"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>59</v>
       </c>
@@ -6509,17 +11132,15 @@
       <c r="C51" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="33" t="s">
         <v>63</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="Y51" s="3">
-        <v>2</v>
-      </c>
+      <c r="F51" s="48"/>
       <c r="Z51" s="3">
         <v>2</v>
       </c>
-      <c r="AB51" s="3">
+      <c r="AA51" s="3">
         <v>2</v>
       </c>
       <c r="AC51" s="3">
@@ -6528,8 +11149,11 @@
       <c r="AD51" s="3">
         <v>2</v>
       </c>
+      <c r="AE51" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>59</v>
       </c>
@@ -6543,13 +11167,11 @@
         <v>65</v>
       </c>
       <c r="E52" s="12"/>
-      <c r="Y52" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="F52" s="48"/>
       <c r="Z52" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AB52" s="3" t="s">
+      <c r="AA52" s="3" t="s">
         <v>137</v>
       </c>
       <c r="AC52" s="3" t="s">
@@ -6558,8 +11180,11 @@
       <c r="AD52" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="AE52" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>59</v>
       </c>
@@ -6573,13 +11198,11 @@
         <v>132</v>
       </c>
       <c r="E53" s="12"/>
-      <c r="Y53" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="F53" s="48"/>
       <c r="Z53" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AB53" s="3" t="s">
+      <c r="AA53" s="3" t="s">
         <v>153</v>
       </c>
       <c r="AC53" s="3" t="s">
@@ -6588,8 +11211,11 @@
       <c r="AD53" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="AE53" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>59</v>
       </c>
@@ -6599,17 +11225,15 @@
       <c r="C54" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="33" t="s">
         <v>130</v>
       </c>
       <c r="E54" s="12"/>
-      <c r="Y54" s="3">
-        <v>90</v>
-      </c>
+      <c r="F54" s="48"/>
       <c r="Z54" s="3">
         <v>90</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AA54" s="3">
         <v>90</v>
       </c>
       <c r="AC54" s="3">
@@ -6618,8 +11242,11 @@
       <c r="AD54" s="3">
         <v>90</v>
       </c>
+      <c r="AE54" s="3">
+        <v>90</v>
+      </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>59</v>
       </c>
@@ -6633,23 +11260,24 @@
         <v>133</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="Y55" s="3">
+      <c r="F55" s="48"/>
+      <c r="Z55" s="3">
         <v>270</v>
       </c>
-      <c r="Z55" s="3" t="s">
+      <c r="AA55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AB55" s="3" t="s">
+      <c r="AC55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AC55" s="3">
+      <c r="AD55" s="3">
         <v>180</v>
       </c>
-      <c r="AD55" s="3" t="s">
+      <c r="AE55" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>59</v>
       </c>
@@ -6659,17 +11287,18 @@
       <c r="C56" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="33" t="s">
         <v>131</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AB56" s="3">
+      <c r="F56" s="48"/>
+      <c r="AC56" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>59</v>
       </c>
@@ -6679,13 +11308,13 @@
       <c r="C57" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="42" t="s">
         <v>131</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="21"/>
+      <c r="F57" s="49"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
@@ -6707,10 +11336,10 @@
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
       <c r="AA57" s="21"/>
-      <c r="AB57" s="21" t="s">
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AC57" s="21"/>
       <c r="AD57" s="21"/>
       <c r="AE57" s="21"/>
       <c r="AF57" s="21"/>
@@ -6721,8 +11350,9 @@
       <c r="AK57" s="21"/>
       <c r="AL57" s="21"/>
       <c r="AM57" s="21"/>
+      <c r="AN57" s="21"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>56</v>
       </c>
@@ -6738,14 +11368,17 @@
       <c r="E58" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6">
+      <c r="F58" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6">
         <v>0.51</v>
       </c>
-      <c r="H58" s="6"/>
       <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>56</v>
       </c>
@@ -6755,16 +11388,17 @@
       <c r="C59" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="39" t="s">
         <v>155</v>
       </c>
       <c r="E59" s="28"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="48"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>56</v>
       </c>
@@ -6774,7 +11408,7 @@
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="30"/>
-      <c r="F60" s="21"/>
+      <c r="F60" s="49"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -6808,8 +11442,9 @@
       <c r="AK60" s="21"/>
       <c r="AL60" s="21"/>
       <c r="AM60" s="21"/>
+      <c r="AN60" s="21"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>56</v>
       </c>
@@ -6825,16 +11460,19 @@
       <c r="E61" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6">
+      <c r="F61" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6">
         <v>0.41</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6">
+      <c r="I61" s="6"/>
+      <c r="J61" s="6">
         <v>0.51</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>56</v>
       </c>
@@ -6844,32 +11482,33 @@
       <c r="C62" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="39" t="s">
         <v>155</v>
       </c>
       <c r="E62" s="28"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="48"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="AF62" s="24" t="str">
+      <c r="J62" s="6"/>
+      <c r="AG62" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1638/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.187</v>
       </c>
-      <c r="AG62" s="24" t="str">
+      <c r="AH62" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1900/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2169</v>
       </c>
-      <c r="AH62" s="24" t="str">
+      <c r="AI62" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AJ62" s="24" t="str">
+      <c r="AK62" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
-    <row r="63" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>56</v>
       </c>
@@ -6879,7 +11518,7 @@
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="30"/>
-      <c r="F63" s="21"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -6913,8 +11552,9 @@
       <c r="AK63" s="21"/>
       <c r="AL63" s="21"/>
       <c r="AM63" s="21"/>
+      <c r="AN63" s="21"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>56</v>
       </c>
@@ -6930,14 +11570,17 @@
       <c r="E64" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="6"/>
+      <c r="F64" s="48" t="s">
+        <v>167</v>
+      </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="6">
+      <c r="I64" s="6"/>
+      <c r="J64" s="6">
         <v>0.41</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>56</v>
       </c>
@@ -6947,32 +11590,33 @@
       <c r="C65" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="39" t="s">
         <v>155</v>
       </c>
       <c r="E65" s="28"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="48"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="AF65" s="24" t="str">
+      <c r="J65" s="6"/>
+      <c r="AG65" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AG65" s="24" t="str">
-        <f t="shared" ref="AG65:AH65" si="12">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
+      <c r="AH65" s="24" t="str">
+        <f t="shared" ref="AH65:AI65" si="12">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AH65" s="24" t="str">
+      <c r="AI65" s="24" t="str">
         <f t="shared" si="12"/>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AJ65" s="24" t="str">
+      <c r="AK65" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2000/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2283</v>
       </c>
     </row>
-    <row r="66" spans="1:39" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>56</v>
       </c>
@@ -6982,7 +11626,7 @@
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="30"/>
-      <c r="F66" s="21"/>
+      <c r="F66" s="49"/>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
@@ -7016,1033 +11660,1056 @@
       <c r="AK66" s="21"/>
       <c r="AL66" s="21"/>
       <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="28"/>
+      <c r="F67" s="48"/>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="28"/>
+      <c r="F68" s="48"/>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="28"/>
+      <c r="F69" s="48"/>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="28"/>
+      <c r="F70" s="48"/>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="28"/>
+      <c r="F71" s="48"/>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="28"/>
+      <c r="F72" s="48"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="28"/>
+      <c r="F73" s="48"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="28"/>
+      <c r="F74" s="48"/>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="28"/>
+      <c r="F75" s="48"/>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="28"/>
+      <c r="F76" s="48"/>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="28"/>
+      <c r="F77" s="48"/>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="28"/>
+      <c r="F78" s="48"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A67:E78 A5:E5 A10:E19">
-    <cfRule type="expression" dxfId="188" priority="291">
+  <conditionalFormatting sqref="A67:F78 A5:F5 A10:F19">
+    <cfRule type="expression" dxfId="190" priority="331">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="187" priority="266">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E6">
-    <cfRule type="expression" dxfId="186" priority="265">
+    <cfRule type="expression" dxfId="189" priority="306">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="expression" dxfId="188" priority="305">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="185" priority="263">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:E9">
-    <cfRule type="expression" dxfId="184" priority="262">
+    <cfRule type="expression" dxfId="187" priority="303">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F9">
+    <cfRule type="expression" dxfId="186" priority="302">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="183" priority="264">
+    <cfRule type="expression" dxfId="185" priority="304">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="182" priority="220">
+    <cfRule type="expression" dxfId="184" priority="260">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B9">
-    <cfRule type="expression" dxfId="181" priority="249">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E24">
-    <cfRule type="expression" dxfId="180" priority="260">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E22">
-    <cfRule type="expression" dxfId="179" priority="251">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:E63">
-    <cfRule type="expression" dxfId="178" priority="212">
+    <cfRule type="expression" dxfId="183" priority="289">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:F24">
+    <cfRule type="expression" dxfId="182" priority="300">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:F22">
+    <cfRule type="expression" dxfId="181" priority="291">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:F63">
+    <cfRule type="expression" dxfId="180" priority="252">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B30 A23:B24">
-    <cfRule type="expression" dxfId="177" priority="250">
+    <cfRule type="expression" dxfId="179" priority="290">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="176" priority="246">
+    <cfRule type="expression" dxfId="178" priority="286">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="175" priority="247">
+    <cfRule type="expression" dxfId="177" priority="287">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24 C29:C37">
-    <cfRule type="expression" dxfId="174" priority="244">
+    <cfRule type="expression" dxfId="176" priority="284">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B59">
-    <cfRule type="expression" dxfId="173" priority="245">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E26">
-    <cfRule type="expression" dxfId="172" priority="241">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:E28">
-    <cfRule type="expression" dxfId="171" priority="240">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27">
-    <cfRule type="expression" dxfId="170" priority="239">
+    <cfRule type="expression" dxfId="175" priority="285">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:F26">
+    <cfRule type="expression" dxfId="174" priority="281">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="expression" dxfId="173" priority="280">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F27">
+    <cfRule type="expression" dxfId="172" priority="279">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28 A25:B26">
-    <cfRule type="expression" dxfId="169" priority="238">
+    <cfRule type="expression" dxfId="171" priority="278">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="168" priority="237">
+    <cfRule type="expression" dxfId="170" priority="277">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C28">
-    <cfRule type="expression" dxfId="167" priority="236">
+    <cfRule type="expression" dxfId="169" priority="276">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="166" priority="235">
+    <cfRule type="expression" dxfId="168" priority="275">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="165" priority="199">
+    <cfRule type="expression" dxfId="167" priority="239">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="164" priority="234">
+    <cfRule type="expression" dxfId="166" priority="274">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39">
-    <cfRule type="expression" dxfId="163" priority="232">
+    <cfRule type="expression" dxfId="165" priority="272">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C39">
-    <cfRule type="expression" dxfId="162" priority="230">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
-    <cfRule type="expression" dxfId="161" priority="229">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="160" priority="223">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="159" priority="228">
+    <cfRule type="expression" dxfId="164" priority="270">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:F39">
+    <cfRule type="expression" dxfId="163" priority="269">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:F29">
+    <cfRule type="expression" dxfId="162" priority="263">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:F38">
+    <cfRule type="expression" dxfId="161" priority="268">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="158" priority="226">
+    <cfRule type="expression" dxfId="160" priority="266">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="157" priority="225">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E30">
-    <cfRule type="expression" dxfId="156" priority="224">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E34">
-    <cfRule type="expression" dxfId="155" priority="222">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="154" priority="210">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60:E60">
-    <cfRule type="expression" dxfId="153" priority="219">
+    <cfRule type="expression" dxfId="159" priority="265">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:F30">
+    <cfRule type="expression" dxfId="158" priority="264">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:F34">
+    <cfRule type="expression" dxfId="157" priority="262">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:F65">
+    <cfRule type="expression" dxfId="156" priority="250">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60:F60">
+    <cfRule type="expression" dxfId="155" priority="259">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="152" priority="218">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="151" priority="217">
+    <cfRule type="expression" dxfId="154" priority="258">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:F62">
+    <cfRule type="expression" dxfId="153" priority="257">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B62">
-    <cfRule type="expression" dxfId="150" priority="215">
+    <cfRule type="expression" dxfId="152" priority="255">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="149" priority="214">
+    <cfRule type="expression" dxfId="151" priority="254">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="148" priority="213">
+    <cfRule type="expression" dxfId="150" priority="253">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="147" priority="211">
+    <cfRule type="expression" dxfId="149" priority="251">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B65">
-    <cfRule type="expression" dxfId="146" priority="208">
+    <cfRule type="expression" dxfId="148" priority="248">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:B65">
-    <cfRule type="expression" dxfId="145" priority="207">
+    <cfRule type="expression" dxfId="147" priority="247">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="144" priority="206">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66:E66">
-    <cfRule type="expression" dxfId="143" priority="205">
+    <cfRule type="expression" dxfId="146" priority="246">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66:F66">
+    <cfRule type="expression" dxfId="145" priority="245">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="expression" dxfId="142" priority="204">
+    <cfRule type="expression" dxfId="144" priority="244">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="141" priority="194">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="140" priority="193">
+    <cfRule type="expression" dxfId="143" priority="234">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:F64">
+    <cfRule type="expression" dxfId="142" priority="233">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="139" priority="201">
+    <cfRule type="expression" dxfId="141" priority="241">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="138" priority="200">
+    <cfRule type="expression" dxfId="140" priority="240">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="137" priority="189">
+    <cfRule type="expression" dxfId="139" priority="229">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="136" priority="198">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="135" priority="197">
+    <cfRule type="expression" dxfId="138" priority="238">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:F61">
+    <cfRule type="expression" dxfId="137" priority="237">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="134" priority="196">
+    <cfRule type="expression" dxfId="136" priority="236">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="133" priority="195">
+    <cfRule type="expression" dxfId="135" priority="235">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B53">
-    <cfRule type="expression" dxfId="132" priority="128">
+    <cfRule type="expression" dxfId="134" priority="168">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B55">
-    <cfRule type="expression" dxfId="131" priority="127">
+    <cfRule type="expression" dxfId="133" priority="167">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="130" priority="192">
+    <cfRule type="expression" dxfId="132" priority="232">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="129" priority="191">
+    <cfRule type="expression" dxfId="131" priority="231">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B36">
-    <cfRule type="expression" dxfId="128" priority="190">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="127" priority="186">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" dxfId="126" priority="187">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="125" priority="185">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:I38 AF30:AK30 AL58:AM65 AI62 AI65 L35:S38 L51:S56 AF10:AK13 AF58:AK61 AF66:AM78 AF63:AK64 AF15:AK21 AF14:AM14 AF43:AH43 AF44:AI50 AA30:AE50 AA5:AE22 Y23:AK28 AA56:AE78 AE52:AE55 Y51:AE51 F39:S50 F57:S78 P35:Z40 F30:Z34 P44:Z78 P41:U43 Y41:Z43 F5:Z28">
-    <cfRule type="expression" dxfId="124" priority="182">
+    <cfRule type="expression" dxfId="130" priority="230">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:F35">
+    <cfRule type="expression" dxfId="129" priority="226">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:F36">
+    <cfRule type="expression" dxfId="128" priority="227">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:F37">
+    <cfRule type="expression" dxfId="127" priority="225">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:J38 AG30:AL30 AM58:AN65 AJ62 AJ65 M35:T38 M51:T56 AG10:AL13 AG58:AL61 AG66:AN78 AG63:AL64 AG15:AL21 AG14:AN14 AG43:AI43 AG44:AJ50 AB30:AF50 AB5:AF22 Z23:AL28 AB56:AF78 AF52:AF55 Z51:AF51 G39:T50 G57:T78 G30:U34 Q35:U78 Z41:AA43 V41:V43 V44:AA78 V30:AA40 G5:AA28">
+    <cfRule type="expression" dxfId="126" priority="222">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C43">
-    <cfRule type="expression" dxfId="123" priority="181">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:E43">
-    <cfRule type="expression" dxfId="122" priority="180">
+    <cfRule type="expression" dxfId="125" priority="221">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:F43">
+    <cfRule type="expression" dxfId="124" priority="220">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B43">
-    <cfRule type="expression" dxfId="121" priority="179">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:K36">
-    <cfRule type="expression" dxfId="120" priority="177">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K38">
-    <cfRule type="expression" dxfId="119" priority="175">
+    <cfRule type="expression" dxfId="123" priority="219">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:L36">
+    <cfRule type="expression" dxfId="122" priority="217">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:L38">
+    <cfRule type="expression" dxfId="121" priority="215">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="expression" dxfId="118" priority="172">
+    <cfRule type="expression" dxfId="120" priority="212">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C48 C50">
-    <cfRule type="expression" dxfId="117" priority="171">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:E21">
-    <cfRule type="expression" dxfId="116" priority="143">
+    <cfRule type="expression" dxfId="119" priority="211">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:F21">
+    <cfRule type="expression" dxfId="118" priority="183">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="expression" dxfId="115" priority="168">
+    <cfRule type="expression" dxfId="117" priority="208">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C57">
-    <cfRule type="expression" dxfId="114" priority="139">
+    <cfRule type="expression" dxfId="116" priority="179">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="113" priority="136">
+    <cfRule type="expression" dxfId="115" priority="176">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="112" priority="164">
+    <cfRule type="expression" dxfId="114" priority="204">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="111" priority="163">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="110" priority="162">
+    <cfRule type="expression" dxfId="113" priority="203">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:F44">
+    <cfRule type="expression" dxfId="112" priority="202">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B48">
-    <cfRule type="expression" dxfId="109" priority="158">
+    <cfRule type="expression" dxfId="111" priority="198">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="108" priority="161">
+    <cfRule type="expression" dxfId="110" priority="201">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="107" priority="160">
+    <cfRule type="expression" dxfId="109" priority="200">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B46">
-    <cfRule type="expression" dxfId="106" priority="159">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="105" priority="156">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="104" priority="157">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="103" priority="155">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:I48 F50:I50">
-    <cfRule type="expression" dxfId="102" priority="154">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:K46">
-    <cfRule type="expression" dxfId="101" priority="149">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA45:AD47 AA48 AC48:AD48">
-    <cfRule type="expression" dxfId="100" priority="144">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:K48 J50:K50">
-    <cfRule type="expression" dxfId="99" priority="148">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y45:Z47 Y50:AD50 Y48">
-    <cfRule type="expression" dxfId="98" priority="147">
+    <cfRule type="expression" dxfId="108" priority="199">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F45">
+    <cfRule type="expression" dxfId="107" priority="196">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F46">
+    <cfRule type="expression" dxfId="106" priority="197">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:F48">
+    <cfRule type="expression" dxfId="105" priority="195">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:J48 G50:J50">
+    <cfRule type="expression" dxfId="104" priority="194">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:L46">
+    <cfRule type="expression" dxfId="103" priority="189">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB45:AE47 AB48 AD48:AE48">
+    <cfRule type="expression" dxfId="102" priority="184">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:L48 K50:L50">
+    <cfRule type="expression" dxfId="101" priority="188">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z45:AA47 Z50:AE50 Z48">
+    <cfRule type="expression" dxfId="100" priority="187">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="97" priority="145">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF22">
-    <cfRule type="expression" dxfId="96" priority="72">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB52:AD54 AC55">
-    <cfRule type="expression" dxfId="95" priority="116">
+    <cfRule type="expression" dxfId="99" priority="185">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="expression" dxfId="98" priority="112">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC52:AE54 AD55">
+    <cfRule type="expression" dxfId="97" priority="156">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="94" priority="115">
+    <cfRule type="expression" dxfId="96" priority="155">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="93" priority="112">
+    <cfRule type="expression" dxfId="95" priority="152">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50">
-    <cfRule type="expression" dxfId="92" priority="106">
+    <cfRule type="expression" dxfId="94" priority="146">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="91" priority="130">
+    <cfRule type="expression" dxfId="93" priority="170">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="90" priority="129">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="89" priority="125">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E53">
-    <cfRule type="expression" dxfId="88" priority="126">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E55">
-    <cfRule type="expression" dxfId="87" priority="124">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52:I56">
-    <cfRule type="expression" dxfId="86" priority="123">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:K53">
-    <cfRule type="expression" dxfId="85" priority="122">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF51:AI51">
-    <cfRule type="expression" dxfId="84" priority="80">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54:K56">
-    <cfRule type="expression" dxfId="83" priority="121">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z52:Z56">
-    <cfRule type="expression" dxfId="82" priority="120">
+    <cfRule type="expression" dxfId="92" priority="169">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:F52">
+    <cfRule type="expression" dxfId="91" priority="165">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:F53">
+    <cfRule type="expression" dxfId="90" priority="166">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:F55">
+    <cfRule type="expression" dxfId="89" priority="164">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:J56">
+    <cfRule type="expression" dxfId="88" priority="163">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:L53">
+    <cfRule type="expression" dxfId="87" priority="162">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG51:AJ51">
+    <cfRule type="expression" dxfId="86" priority="120">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:L56">
+    <cfRule type="expression" dxfId="85" priority="161">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA52:AA56">
+    <cfRule type="expression" dxfId="84" priority="160">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="83" priority="159">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB52:AB55">
+    <cfRule type="expression" dxfId="82" priority="157">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32:AL32">
     <cfRule type="expression" dxfId="81" priority="119">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA52:AA55">
-    <cfRule type="expression" dxfId="80" priority="117">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF32:AK32">
-    <cfRule type="expression" dxfId="79" priority="79">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:I49">
-    <cfRule type="expression" dxfId="78" priority="109">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:K49">
-    <cfRule type="expression" dxfId="77" priority="108">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC49:AD49 Y49:AA49">
-    <cfRule type="expression" dxfId="76" priority="107">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="expression" dxfId="75" priority="105">
+  <conditionalFormatting sqref="G49:J49">
+    <cfRule type="expression" dxfId="80" priority="149">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:L49">
+    <cfRule type="expression" dxfId="79" priority="148">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD49:AE49 Z49:AB49">
+    <cfRule type="expression" dxfId="78" priority="147">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:F50">
+    <cfRule type="expression" dxfId="77" priority="145">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:D57">
-    <cfRule type="expression" dxfId="74" priority="104">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E57">
-    <cfRule type="expression" dxfId="73" priority="103">
+    <cfRule type="expression" dxfId="76" priority="144">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:F57">
+    <cfRule type="expression" dxfId="75" priority="143">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="72" priority="102">
+    <cfRule type="expression" dxfId="74" priority="142">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="71" priority="101">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51:I51">
-    <cfRule type="expression" dxfId="70" priority="100">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:K51">
-    <cfRule type="expression" dxfId="69" priority="99">
+    <cfRule type="expression" dxfId="73" priority="141">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:J51">
+    <cfRule type="expression" dxfId="72" priority="140">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:L51">
+    <cfRule type="expression" dxfId="71" priority="139">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="68" priority="97">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="67" priority="96">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE45:AE48">
-    <cfRule type="expression" dxfId="66" priority="95">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE50">
-    <cfRule type="expression" dxfId="65" priority="94">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF33:AK34">
-    <cfRule type="expression" dxfId="64" priority="78">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB49">
-    <cfRule type="expression" dxfId="63" priority="92">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB55">
-    <cfRule type="expression" dxfId="62" priority="91">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD55">
-    <cfRule type="expression" dxfId="61" priority="90">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE49">
-    <cfRule type="expression" dxfId="60" priority="89">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31:AK31">
-    <cfRule type="expression" dxfId="59" priority="88">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF40:AI41 AJ41:AK41">
-    <cfRule type="expression" dxfId="58" priority="86">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF5:AI9 AF35:AI39">
-    <cfRule type="expression" dxfId="57" priority="87">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF57:AI57 AF45:AI47 AF50:AI50">
-    <cfRule type="expression" dxfId="56" priority="85">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF52:AI56">
-    <cfRule type="expression" dxfId="55" priority="82">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF49:AI49">
-    <cfRule type="expression" dxfId="54" priority="81">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ65">
-    <cfRule type="expression" dxfId="53" priority="20">
+    <cfRule type="expression" dxfId="70" priority="137">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:F51">
+    <cfRule type="expression" dxfId="69" priority="136">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF45:AF48">
+    <cfRule type="expression" dxfId="68" priority="135">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF50">
+    <cfRule type="expression" dxfId="67" priority="134">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33:AL34">
+    <cfRule type="expression" dxfId="66" priority="118">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC49">
+    <cfRule type="expression" dxfId="65" priority="132">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC55">
+    <cfRule type="expression" dxfId="64" priority="131">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE55">
+    <cfRule type="expression" dxfId="63" priority="130">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF49">
+    <cfRule type="expression" dxfId="62" priority="129">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31:AL31">
+    <cfRule type="expression" dxfId="61" priority="128">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG40:AJ41 AK41:AL41">
+    <cfRule type="expression" dxfId="60" priority="126">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5:AJ9 AG35:AJ39">
+    <cfRule type="expression" dxfId="59" priority="127">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG57:AJ57 AG45:AJ47 AG50:AJ50">
+    <cfRule type="expression" dxfId="58" priority="125">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG52:AJ56">
+    <cfRule type="expression" dxfId="57" priority="122">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG49:AJ49">
+    <cfRule type="expression" dxfId="56" priority="121">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK65">
+    <cfRule type="expression" dxfId="55" priority="60">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="52" priority="77">
+    <cfRule type="expression" dxfId="54" priority="117">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="51" priority="75">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF42:AK42">
-    <cfRule type="expression" dxfId="50" priority="73">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22:AK22">
-    <cfRule type="expression" dxfId="49" priority="71">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ51:AK51">
-    <cfRule type="expression" dxfId="48" priority="60">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK43:AM43">
-    <cfRule type="expression" dxfId="47" priority="23">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI43">
-    <cfRule type="expression" dxfId="46" priority="22">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ40:AK40 AJ44:AK50 AJ43">
-    <cfRule type="expression" dxfId="45" priority="65">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ5:AK9 AJ35:AK39 AK62 AK65">
-    <cfRule type="expression" dxfId="44" priority="66">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ57:AK57 AJ45:AK47 AJ50:AK50">
-    <cfRule type="expression" dxfId="43" priority="64">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ52:AK56">
-    <cfRule type="expression" dxfId="42" priority="62">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ49:AK49">
-    <cfRule type="expression" dxfId="41" priority="61">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ62">
-    <cfRule type="expression" dxfId="40" priority="21">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL30:AM30 AL10:AM13 AL15:AM19">
-    <cfRule type="expression" dxfId="39" priority="55">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL23:AM28">
-    <cfRule type="expression" dxfId="38" priority="54">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL20:AM21">
-    <cfRule type="expression" dxfId="37" priority="53">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL32:AM32">
-    <cfRule type="expression" dxfId="36" priority="50">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL33:AM34">
-    <cfRule type="expression" dxfId="35" priority="49">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL31:AM31">
-    <cfRule type="expression" dxfId="34" priority="52">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL41:AM41">
-    <cfRule type="expression" dxfId="33" priority="51">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL42:AM42">
-    <cfRule type="expression" dxfId="32" priority="48">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL22:AM22">
-    <cfRule type="expression" dxfId="31" priority="47">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL51">
-    <cfRule type="expression" dxfId="30" priority="40">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL44:AL50 AL40:AM40">
-    <cfRule type="expression" dxfId="29" priority="45">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AL9 AM8:AM9 AL35:AM39">
-    <cfRule type="expression" dxfId="28" priority="46">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL57 AL45:AL47 AL50">
-    <cfRule type="expression" dxfId="27" priority="44">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL52:AL56">
-    <cfRule type="expression" dxfId="26" priority="42">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL49">
-    <cfRule type="expression" dxfId="25" priority="41">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM5:AM7">
-    <cfRule type="expression" dxfId="24" priority="30">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM44:AM50">
-    <cfRule type="expression" dxfId="23" priority="29">
+    <cfRule type="expression" dxfId="53" priority="115">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG42:AL42">
+    <cfRule type="expression" dxfId="52" priority="113">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22:AL22">
+    <cfRule type="expression" dxfId="51" priority="111">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK51:AL51">
+    <cfRule type="expression" dxfId="50" priority="100">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL43:AN43">
+    <cfRule type="expression" dxfId="49" priority="63">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ43">
+    <cfRule type="expression" dxfId="48" priority="62">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK40:AL40 AK44:AL50 AK43">
+    <cfRule type="expression" dxfId="47" priority="105">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK5:AL9 AK35:AL39 AL62 AL65">
+    <cfRule type="expression" dxfId="46" priority="106">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK57:AL57 AK45:AL47 AK50:AL50">
+    <cfRule type="expression" dxfId="45" priority="104">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK52:AL56">
+    <cfRule type="expression" dxfId="44" priority="102">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK49:AL49">
+    <cfRule type="expression" dxfId="43" priority="101">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK62">
+    <cfRule type="expression" dxfId="42" priority="61">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM30:AN30 AM10:AN13 AM15:AN19">
+    <cfRule type="expression" dxfId="41" priority="95">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM23:AN28">
+    <cfRule type="expression" dxfId="40" priority="94">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM20:AN21">
+    <cfRule type="expression" dxfId="39" priority="93">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM32:AN32">
+    <cfRule type="expression" dxfId="38" priority="90">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM33:AN34">
+    <cfRule type="expression" dxfId="37" priority="89">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM31:AN31">
+    <cfRule type="expression" dxfId="36" priority="92">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM41:AN41">
+    <cfRule type="expression" dxfId="35" priority="91">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM42:AN42">
+    <cfRule type="expression" dxfId="34" priority="88">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22:AN22">
+    <cfRule type="expression" dxfId="33" priority="87">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM51">
+    <cfRule type="expression" dxfId="32" priority="80">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM44:AM50 AM40:AN40">
+    <cfRule type="expression" dxfId="31" priority="85">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM5:AM9 AN8:AN9 AM35:AN39">
+    <cfRule type="expression" dxfId="30" priority="86">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM57 AM45:AM47 AM50">
-    <cfRule type="expression" dxfId="22" priority="28">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM51">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="29" priority="84">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM52:AM56">
-    <cfRule type="expression" dxfId="20" priority="26">
+    <cfRule type="expression" dxfId="28" priority="82">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM49">
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="27" priority="81">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN5:AN7">
+    <cfRule type="expression" dxfId="26" priority="70">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN44:AN50">
+    <cfRule type="expression" dxfId="25" priority="69">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN57 AN45:AN47 AN50">
+    <cfRule type="expression" dxfId="24" priority="68">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN51">
+    <cfRule type="expression" dxfId="23" priority="64">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN52:AN56">
+    <cfRule type="expression" dxfId="22" priority="66">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN49">
+    <cfRule type="expression" dxfId="21" priority="65">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="20" priority="59">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF62">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF65:AH65">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="19" priority="58">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG62">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="18" priority="57">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG65:AI65">
+    <cfRule type="expression" dxfId="17" priority="56">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH62">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="16" priority="55">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI62">
+    <cfRule type="expression" dxfId="15" priority="54">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="14" priority="51">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:F59">
+    <cfRule type="expression" dxfId="13" priority="53">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="12" priority="52">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="50">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:F58">
+    <cfRule type="expression" dxfId="10" priority="49">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="48">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V41:X41">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V42:W42">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V43">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="8" priority="47">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W41:Y41">
+    <cfRule type="expression" dxfId="7" priority="46">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W42:X42">
+    <cfRule type="expression" dxfId="6" priority="45">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X42">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="44">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X43">
+    <cfRule type="expression" dxfId="4" priority="43">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y42">
+    <cfRule type="expression" dxfId="3" priority="42">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y43">
+    <cfRule type="expression" dxfId="2" priority="41">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F78">
+    <cfRule type="expression" dxfId="1" priority="40">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>

--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607630D-21B3-4716-9A5E-F83947DF2C3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5295D64E-5F5E-454E-A524-2D516D239012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
   <sheets>
     <sheet name="TCDs" sheetId="4" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="171">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>ft2</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>ft3</t>
   </si>
 </sst>
 </file>
@@ -993,7 +999,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="836">
+  <dxfs count="382">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2334,3192 +2347,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7170,13 +3998,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2616CE-C113-4173-BA9E-9D8DBBCAB481}">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9201,115 +6029,22 @@
         <v>61</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="T20" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN20" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="F20" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -9322,111 +6057,111 @@
         <v>62</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="48"/>
       <c r="G21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T21" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1</v>
+      </c>
+      <c r="X21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
@@ -9440,82 +6175,111 @@
         <v>62</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="48"/>
       <c r="G22" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="V22" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH22" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI22" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ22" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK22" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL22" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM22" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN22" s="26" t="s">
-        <v>150</v>
+        <v>118</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T22" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
@@ -9529,113 +6293,82 @@
         <v>62</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="28"/>
-      <c r="F23" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T23" s="31">
-        <v>1000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W23" s="3">
-        <v>2300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>2300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>2300</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>1000</v>
+      <c r="F23" s="48"/>
+      <c r="G23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="V23" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI23" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ23" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN23" s="26" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -9649,16 +6382,113 @@
         <v>62</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="F24" s="48"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>115</v>
+      <c r="F24" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T24" s="31">
+        <v>1000</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -9669,34 +6499,19 @@
         <v>61</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="48"/>
-      <c r="G25" s="3">
-        <v>2</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2</v>
-      </c>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3">
-        <v>2</v>
-      </c>
       <c r="T25" s="31"/>
-      <c r="W25" s="3">
-        <v>2</v>
-      </c>
-      <c r="X25" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>2</v>
+      <c r="U25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
@@ -9710,31 +6525,31 @@
         <v>83</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="48"/>
-      <c r="G26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>119</v>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
       </c>
       <c r="T26" s="31"/>
-      <c r="W26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>119</v>
+      <c r="W26" s="3">
+        <v>2</v>
+      </c>
+      <c r="X26" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
@@ -9748,52 +6563,32 @@
         <v>83</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="26"/>
-      <c r="AN27" s="26"/>
+      <c r="G27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="T27" s="31"/>
+      <c r="W27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -9806,34 +6601,52 @@
         <v>83</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T28" s="31"/>
-      <c r="W28" s="3">
-        <v>2900</v>
-      </c>
-      <c r="X28" s="3">
-        <v>2900</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>2100</v>
-      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -9843,107 +6656,36 @@
         <v>61</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN29" s="3" t="s">
-        <v>117</v>
+        <v>76</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T29" s="31"/>
+      <c r="W29" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X29" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>2100</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
@@ -9960,101 +6702,101 @@
         <v>84</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="48"/>
       <c r="G30" s="3" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T30" s="31" t="s">
-        <v>109</v>
+        <v>117</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AG30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AI30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AJ30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AK30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AL30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AM30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AN30" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
@@ -10071,52 +6813,101 @@
         <v>84</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="R31" s="3">
-        <v>0.54</v>
+        <v>65</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="T31" s="31">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="U31" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V31" s="3">
-        <v>1.2</v>
+        <v>109</v>
+      </c>
+      <c r="T31" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
@@ -10133,37 +6924,52 @@
         <v>84</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="48"/>
-      <c r="T32" s="31"/>
-      <c r="Z32" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="AA32" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="AB32" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="AC32" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="AD32" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="AE32" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
-      </c>
-      <c r="AF32" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
+        <v>80</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="T32" s="31">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1.2</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
@@ -10180,23 +6986,35 @@
         <v>84</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F33" s="48"/>
       <c r="T33" s="31"/>
-      <c r="AG33" s="3" t="str">
+      <c r="Z33" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AA33" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AH33" s="3" t="str">
+      <c r="AB33" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AC33" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AI33" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
-      <c r="AJ33" s="3" t="str">
+      <c r="AD33" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AE33" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AF33" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
@@ -10215,33 +7033,25 @@
         <v>84</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F34" s="48"/>
       <c r="T34" s="31"/>
-      <c r="AG34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN34" s="3" t="s">
-        <v>145</v>
+      <c r="AG34" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+      <c r="AH34" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+      <c r="AI34" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+      <c r="AJ34" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
@@ -10255,29 +7065,36 @@
         <v>62</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="F35" s="48"/>
-      <c r="K35" s="3">
-        <v>2</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2</v>
-      </c>
-      <c r="M35" s="3">
-        <v>2</v>
-      </c>
-      <c r="N35" s="3">
-        <v>2</v>
-      </c>
-      <c r="O35" s="3">
-        <v>2</v>
-      </c>
-      <c r="P35" s="3">
-        <v>2</v>
+      <c r="T35" s="31"/>
+      <c r="AG35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN35" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
@@ -10294,26 +7111,26 @@
         <v>91</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36" s="48"/>
-      <c r="K36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>100</v>
+      <c r="K36" s="3">
+        <v>2</v>
+      </c>
+      <c r="L36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3">
+        <v>2</v>
+      </c>
+      <c r="N36" s="3">
+        <v>2</v>
+      </c>
+      <c r="O36" s="3">
+        <v>2</v>
+      </c>
+      <c r="P36" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
@@ -10330,28 +7147,26 @@
         <v>91</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0.32</v>
+        <v>65</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="K37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
@@ -10362,26 +7177,34 @@
         <v>61</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="3">
-        <v>2</v>
-      </c>
-      <c r="H38" s="3">
-        <v>2</v>
-      </c>
-      <c r="I38" s="3">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0.32</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
@@ -10398,23 +7221,23 @@
         <v>84</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F39" s="48"/>
-      <c r="G39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>82</v>
+      <c r="G39" s="3">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>59</v>
       </c>
@@ -10427,332 +7250,298 @@
       <c r="D40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="48"/>
+      <c r="G40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F41" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G41" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H41" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I41" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J41" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="24"/>
-      <c r="AL40" s="24"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-    </row>
-    <row r="41" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="X41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN41" s="37" t="s">
-        <v>117</v>
-      </c>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="24"/>
+      <c r="AH41" s="24"/>
+      <c r="AI41" s="24"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="24"/>
+      <c r="AL41" s="24"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
     </row>
     <row r="42" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="28"/>
+      <c r="D42" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="36"/>
       <c r="F42" s="48"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="X42" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y42" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN42" s="24" t="s">
-        <v>145</v>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="X42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN42" s="37" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="X43" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y43" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH43" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI43" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ43" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK43" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL43" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM43" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN43" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41" t="s">
+      <c r="E44" s="40"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="X43" s="41" t="str">
+      <c r="X44" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-1"</f>
         <v>SCHEDULE:CONSTANT-1</v>
       </c>
-      <c r="Y43" s="41" t="str">
+      <c r="Y44" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-1"</f>
         <v>SCHEDULE:CONSTANT-1</v>
       </c>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
-      <c r="AB43" s="41"/>
-      <c r="AC43" s="41"/>
-      <c r="AD43" s="41"/>
-      <c r="AE43" s="41"/>
-      <c r="AF43" s="41"/>
-      <c r="AG43" s="41"/>
-      <c r="AH43" s="41"/>
-      <c r="AI43" s="41"/>
-      <c r="AJ43" s="41" t="str">
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="41"/>
+      <c r="AB44" s="41"/>
+      <c r="AC44" s="41"/>
+      <c r="AD44" s="41"/>
+      <c r="AE44" s="41"/>
+      <c r="AF44" s="41"/>
+      <c r="AG44" s="41"/>
+      <c r="AH44" s="41"/>
+      <c r="AI44" s="41"/>
+      <c r="AJ44" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AK43" s="41"/>
-      <c r="AL43" s="41" t="str">
+      <c r="AK44" s="41"/>
+      <c r="AL44" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-      <c r="AM43" s="41" t="str">
-        <f t="shared" ref="AM43:AN43" si="11">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
+      <c r="AM44" s="41" t="str">
+        <f t="shared" ref="AM44:AN44" si="11">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-      <c r="AN43" s="41" t="str">
+      <c r="AN44" s="41" t="str">
         <f t="shared" si="11"/>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA44" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB44" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC44" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD44" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE44" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF44" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG44" s="24"/>
-      <c r="AH44" s="24"/>
-      <c r="AI44" s="24"/>
-      <c r="AJ44" s="24"/>
-      <c r="AK44" s="24"/>
-      <c r="AL44" s="24"/>
-      <c r="AM44" s="24"/>
-      <c r="AN44" s="24"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -10765,7 +7554,7 @@
         <v>127</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="48"/>
@@ -10789,25 +7578,25 @@
       <c r="X45" s="24"/>
       <c r="Y45" s="24"/>
       <c r="Z45" s="24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AA45" s="24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AB45" s="24" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AC45" s="24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AD45" s="24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AE45" s="24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AF45" s="24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AG45" s="24"/>
       <c r="AH45" s="24"/>
@@ -10829,7 +7618,7 @@
         <v>127</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="48"/>
@@ -10853,25 +7642,25 @@
       <c r="X46" s="24"/>
       <c r="Y46" s="24"/>
       <c r="Z46" s="24" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AA46" s="24" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AB46" s="24" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="AC46" s="24" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AD46" s="24" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AE46" s="24" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AF46" s="24" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AG46" s="24"/>
       <c r="AH46" s="24"/>
@@ -10892,8 +7681,8 @@
       <c r="C47" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="33" t="s">
-        <v>130</v>
+      <c r="D47" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="48"/>
@@ -10916,26 +7705,26 @@
       <c r="W47" s="24"/>
       <c r="X47" s="24"/>
       <c r="Y47" s="24"/>
-      <c r="Z47" s="24">
-        <v>90</v>
-      </c>
-      <c r="AA47" s="24">
-        <v>90</v>
-      </c>
-      <c r="AB47" s="24">
-        <v>90</v>
-      </c>
-      <c r="AC47" s="24">
-        <v>90</v>
-      </c>
-      <c r="AD47" s="24">
-        <v>90</v>
-      </c>
-      <c r="AE47" s="24">
-        <v>90</v>
-      </c>
-      <c r="AF47" s="24">
-        <v>90</v>
+      <c r="Z47" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA47" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB47" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC47" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD47" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE47" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF47" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="AG47" s="24"/>
       <c r="AH47" s="24"/>
@@ -10956,8 +7745,8 @@
       <c r="C48" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>133</v>
+      <c r="D48" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="48"/>
@@ -10981,25 +7770,25 @@
       <c r="X48" s="24"/>
       <c r="Y48" s="24"/>
       <c r="Z48" s="24">
-        <v>180</v>
-      </c>
-      <c r="AA48" s="24" t="s">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="AA48" s="24">
+        <v>90</v>
       </c>
       <c r="AB48" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="24" t="s">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="AC48" s="24">
+        <v>90</v>
       </c>
       <c r="AD48" s="24">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AE48" s="24">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="AF48" s="24">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AG48" s="24"/>
       <c r="AH48" s="24"/>
@@ -11020,12 +7809,10 @@
       <c r="C49" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="D49" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="12"/>
       <c r="F49" s="48"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
@@ -11046,16 +7833,26 @@
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
       <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
+      <c r="Z49" s="24">
+        <v>180</v>
+      </c>
+      <c r="AA49" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB49" s="24">
+        <v>0</v>
+      </c>
       <c r="AC49" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="24" t="s">
-        <v>117</v>
+      <c r="AD49" s="24">
+        <v>180</v>
+      </c>
+      <c r="AE49" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="24">
+        <v>0</v>
       </c>
       <c r="AG49" s="24"/>
       <c r="AH49" s="24"/>
@@ -11080,7 +7877,7 @@
         <v>131</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="48"/>
       <c r="G50" s="24"/>
@@ -11106,12 +7903,12 @@
       <c r="AA50" s="24"/>
       <c r="AB50" s="24"/>
       <c r="AC50" s="24" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AD50" s="24"/>
       <c r="AE50" s="24"/>
       <c r="AF50" s="24" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AG50" s="24"/>
       <c r="AH50" s="24"/>
@@ -11130,28 +7927,53 @@
         <v>61</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="F51" s="48"/>
-      <c r="Z51" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC51" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD51" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE51" s="3">
-        <v>2</v>
-      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="24"/>
+      <c r="AB51" s="24"/>
+      <c r="AC51" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD51" s="24"/>
+      <c r="AE51" s="24"/>
+      <c r="AF51" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG51" s="24"/>
+      <c r="AH51" s="24"/>
+      <c r="AI51" s="24"/>
+      <c r="AJ51" s="24"/>
+      <c r="AK51" s="24"/>
+      <c r="AL51" s="24"/>
+      <c r="AM51" s="24"/>
+      <c r="AN51" s="24"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
@@ -11163,25 +7985,25 @@
       <c r="C52" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>65</v>
+      <c r="D52" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="48"/>
-      <c r="Z52" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC52" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD52" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE52" s="3" t="s">
-        <v>137</v>
+      <c r="Z52" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
@@ -11195,24 +8017,24 @@
         <v>136</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="48"/>
       <c r="Z53" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AA53" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AC53" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AD53" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AE53" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
@@ -11225,25 +8047,25 @@
       <c r="C54" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>130</v>
+      <c r="D54" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="48"/>
-      <c r="Z54" s="3">
-        <v>90</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>90</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>90</v>
-      </c>
-      <c r="AD54" s="3">
-        <v>90</v>
-      </c>
-      <c r="AE54" s="3">
-        <v>90</v>
+      <c r="Z54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE54" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
@@ -11256,25 +8078,25 @@
       <c r="C55" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>133</v>
+      <c r="D55" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="48"/>
       <c r="Z55" s="3">
-        <v>270</v>
-      </c>
-      <c r="AA55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC55" s="3" t="s">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>90</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>90</v>
       </c>
       <c r="AD55" s="3">
-        <v>180</v>
-      </c>
-      <c r="AE55" s="3" t="s">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
@@ -11287,96 +8109,101 @@
       <c r="C56" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="48"/>
+      <c r="Z56" s="3">
+        <v>270</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>180</v>
+      </c>
+      <c r="AE56" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E57" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="48"/>
-      <c r="AC56" s="3">
+      <c r="F57" s="48"/>
+      <c r="AC57" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+    <row r="58" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B58" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D58" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E58" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="21"/>
-      <c r="AB57" s="21"/>
-      <c r="AC57" s="21" t="s">
+      <c r="F58" s="49"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AD57" s="21"/>
-      <c r="AE57" s="21"/>
-      <c r="AF57" s="21"/>
-      <c r="AG57" s="21"/>
-      <c r="AH57" s="21"/>
-      <c r="AI57" s="21"/>
-      <c r="AJ57" s="21"/>
-      <c r="AK57" s="21"/>
-      <c r="AL57" s="21"/>
-      <c r="AM57" s="21"/>
-      <c r="AN57" s="21"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="AD58" s="21"/>
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="21"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="21"/>
+      <c r="AJ58" s="21"/>
+      <c r="AK58" s="21"/>
+      <c r="AL58" s="21"/>
+      <c r="AM58" s="21"/>
+      <c r="AN58" s="21"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
@@ -11386,91 +8213,89 @@
         <v>13</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="48"/>
+        <v>62</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>167</v>
+      </c>
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="H59" s="6">
+        <v>0.51</v>
+      </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="21"/>
-      <c r="AG60" s="21"/>
-      <c r="AH60" s="21"/>
-      <c r="AI60" s="21"/>
-      <c r="AJ60" s="21"/>
-      <c r="AK60" s="21"/>
-      <c r="AL60" s="21"/>
-      <c r="AM60" s="21"/>
-      <c r="AN60" s="21"/>
+      <c r="C60" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="28"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6">
-        <v>0.51</v>
-      </c>
+      <c r="B61" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
@@ -11480,105 +8305,107 @@
         <v>12</v>
       </c>
       <c r="C62" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D63" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="AG62" s="24" t="str">
+      <c r="E63" s="28"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="AG63" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1638/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.187</v>
       </c>
-      <c r="AH62" s="24" t="str">
+      <c r="AH63" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1900/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2169</v>
       </c>
-      <c r="AI62" s="24" t="str">
+      <c r="AI63" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AK62" s="24" t="str">
+      <c r="AK63" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
-    <row r="63" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
+    <row r="64" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B64" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="21"/>
-      <c r="AA63" s="21"/>
-      <c r="AB63" s="21"/>
-      <c r="AC63" s="21"/>
-      <c r="AD63" s="21"/>
-      <c r="AE63" s="21"/>
-      <c r="AF63" s="21"/>
-      <c r="AG63" s="21"/>
-      <c r="AH63" s="21"/>
-      <c r="AI63" s="21"/>
-      <c r="AJ63" s="21"/>
-      <c r="AK63" s="21"/>
-      <c r="AL63" s="21"/>
-      <c r="AM63" s="21"/>
-      <c r="AN63" s="21"/>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F64" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6">
-        <v>0.41</v>
-      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="21"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="21"/>
+      <c r="AH64" s="21"/>
+      <c r="AI64" s="21"/>
+      <c r="AJ64" s="21"/>
+      <c r="AK64" s="21"/>
+      <c r="AL64" s="21"/>
+      <c r="AM64" s="21"/>
+      <c r="AN64" s="21"/>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
@@ -11588,87 +8415,105 @@
         <v>11</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E65" s="28"/>
-      <c r="F65" s="48"/>
+        <v>62</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>167</v>
+      </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="AG65" s="24" t="str">
+      <c r="J65" s="6">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="28"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="AG66" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AH65" s="24" t="str">
-        <f t="shared" ref="AH65:AI65" si="12">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
+      <c r="AH66" s="24" t="str">
+        <f t="shared" ref="AH66:AI66" si="12">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AI65" s="24" t="str">
+      <c r="AI66" s="24" t="str">
         <f t="shared" si="12"/>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AK65" s="24" t="str">
+      <c r="AK66" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2000/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2283</v>
       </c>
     </row>
-    <row r="66" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+    <row r="67" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B67" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
-      <c r="AD66" s="21"/>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="21"/>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="21"/>
-      <c r="AL66" s="21"/>
-      <c r="AM66" s="21"/>
-      <c r="AN66" s="21"/>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="48"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="21"/>
+      <c r="AC67" s="21"/>
+      <c r="AD67" s="21"/>
+      <c r="AE67" s="21"/>
+      <c r="AF67" s="21"/>
+      <c r="AG67" s="21"/>
+      <c r="AH67" s="21"/>
+      <c r="AI67" s="21"/>
+      <c r="AJ67" s="21"/>
+      <c r="AK67" s="21"/>
+      <c r="AL67" s="21"/>
+      <c r="AM67" s="21"/>
+      <c r="AN67" s="21"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
@@ -11758,959 +8603,962 @@
       <c r="E78" s="28"/>
       <c r="F78" s="48"/>
     </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="48"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A67:F78 A5:F5 A10:F19">
-    <cfRule type="expression" dxfId="190" priority="331">
+  <conditionalFormatting sqref="A68:F79 A5:F5 A10:F20">
+    <cfRule type="expression" dxfId="381" priority="331">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="189" priority="306">
+    <cfRule type="expression" dxfId="380" priority="306">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="expression" dxfId="188" priority="305">
+    <cfRule type="expression" dxfId="379" priority="305">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="187" priority="303">
+    <cfRule type="expression" dxfId="378" priority="303">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:F9">
-    <cfRule type="expression" dxfId="186" priority="302">
+    <cfRule type="expression" dxfId="377" priority="302">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="185" priority="304">
+    <cfRule type="expression" dxfId="376" priority="304">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="375" priority="260">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:B9">
+    <cfRule type="expression" dxfId="374" priority="289">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:F25">
+    <cfRule type="expression" dxfId="373" priority="300">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:F23">
+    <cfRule type="expression" dxfId="372" priority="291">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64:F64">
+    <cfRule type="expression" dxfId="371" priority="252">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B31 A24:B25">
+    <cfRule type="expression" dxfId="370" priority="290">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23">
+    <cfRule type="expression" dxfId="369" priority="286">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:B35">
+    <cfRule type="expression" dxfId="368" priority="287">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C25 C30:C38">
+    <cfRule type="expression" dxfId="367" priority="284">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B60">
+    <cfRule type="expression" dxfId="366" priority="285">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:F27">
+    <cfRule type="expression" dxfId="365" priority="281">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:F29">
+    <cfRule type="expression" dxfId="364" priority="280">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="expression" dxfId="363" priority="279">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:B29 A26:B27">
+    <cfRule type="expression" dxfId="362" priority="278">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B28">
+    <cfRule type="expression" dxfId="361" priority="277">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C29">
+    <cfRule type="expression" dxfId="360" priority="276">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D40">
+    <cfRule type="expression" dxfId="359" priority="275">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="358" priority="239">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D40">
+    <cfRule type="expression" dxfId="357" priority="274">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B40">
+    <cfRule type="expression" dxfId="356" priority="272">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:C40">
+    <cfRule type="expression" dxfId="355" priority="270">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:F40">
+    <cfRule type="expression" dxfId="354" priority="269">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F30">
+    <cfRule type="expression" dxfId="353" priority="263">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:F39">
+    <cfRule type="expression" dxfId="352" priority="268">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D35">
+    <cfRule type="expression" dxfId="351" priority="266">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D35">
+    <cfRule type="expression" dxfId="350" priority="265">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F31">
+    <cfRule type="expression" dxfId="349" priority="264">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:F35">
+    <cfRule type="expression" dxfId="348" priority="262">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:F66">
+    <cfRule type="expression" dxfId="347" priority="250">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:F61">
+    <cfRule type="expression" dxfId="346" priority="259">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="345" priority="258">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:F63">
+    <cfRule type="expression" dxfId="344" priority="257">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B63">
+    <cfRule type="expression" dxfId="343" priority="255">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="342" priority="254">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="341" priority="253">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:B64">
+    <cfRule type="expression" dxfId="340" priority="251">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:B66">
+    <cfRule type="expression" dxfId="339" priority="248">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:B66">
+    <cfRule type="expression" dxfId="338" priority="247">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="337" priority="246">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67:F67">
+    <cfRule type="expression" dxfId="336" priority="245">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="expression" dxfId="335" priority="244">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="334" priority="234">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:F65">
+    <cfRule type="expression" dxfId="333" priority="233">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="332" priority="241">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="331" priority="240">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B38">
+    <cfRule type="expression" dxfId="330" priority="229">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="329" priority="238">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:F62">
+    <cfRule type="expression" dxfId="328" priority="237">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="expression" dxfId="327" priority="236">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="326" priority="235">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:B54">
+    <cfRule type="expression" dxfId="325" priority="168">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:B56">
+    <cfRule type="expression" dxfId="324" priority="167">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:D38">
+    <cfRule type="expression" dxfId="323" priority="232">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:D38">
+    <cfRule type="expression" dxfId="322" priority="231">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:B37">
+    <cfRule type="expression" dxfId="321" priority="230">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:F36">
+    <cfRule type="expression" dxfId="320" priority="226">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:F37">
+    <cfRule type="expression" dxfId="319" priority="227">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:F38">
+    <cfRule type="expression" dxfId="318" priority="225">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:J39 AG31:AL31 AM59:AN66 AJ63 AJ66 M36:T39 M52:T57 AG10:AL13 AG59:AL62 AG67:AN79 AG64:AL65 AG15:AL22 AG14:AN14 AG44:AI44 AG45:AJ51 AB31:AF51 AB5:AF23 Z24:AL29 AB57:AF79 AF53:AF56 Z52:AF52 G40:T51 G58:T79 G31:U35 Q36:U79 Z42:AA44 V42:V44 V45:AA79 V31:AA41 G5:AA29">
+    <cfRule type="expression" dxfId="317" priority="222">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C44">
+    <cfRule type="expression" dxfId="316" priority="221">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:F44">
+    <cfRule type="expression" dxfId="315" priority="220">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B44">
+    <cfRule type="expression" dxfId="314" priority="219">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:L37">
+    <cfRule type="expression" dxfId="313" priority="217">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:L39">
+    <cfRule type="expression" dxfId="312" priority="215">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:B45">
+    <cfRule type="expression" dxfId="311" priority="212">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:C49 C51">
+    <cfRule type="expression" dxfId="310" priority="211">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:F22">
+    <cfRule type="expression" dxfId="309" priority="183">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:B51">
+    <cfRule type="expression" dxfId="308" priority="208">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:C58">
+    <cfRule type="expression" dxfId="307" priority="179">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:B58">
+    <cfRule type="expression" dxfId="306" priority="176">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="305" priority="204">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="304" priority="203">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F45">
+    <cfRule type="expression" dxfId="303" priority="202">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B49">
+    <cfRule type="expression" dxfId="302" priority="198">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47 D49">
+    <cfRule type="expression" dxfId="301" priority="201">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47 D49">
+    <cfRule type="expression" dxfId="300" priority="200">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:B47">
+    <cfRule type="expression" dxfId="299" priority="199">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:F46">
+    <cfRule type="expression" dxfId="298" priority="196">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:F47">
+    <cfRule type="expression" dxfId="297" priority="197">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:F49">
+    <cfRule type="expression" dxfId="296" priority="195">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:J49 G51:J51">
+    <cfRule type="expression" dxfId="295" priority="194">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:L47">
+    <cfRule type="expression" dxfId="294" priority="189">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB46:AE48 AB49 AD49:AE49">
+    <cfRule type="expression" dxfId="293" priority="184">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:L49 K51:L51">
+    <cfRule type="expression" dxfId="292" priority="188">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z46:AA48 Z51:AE51 Z49">
+    <cfRule type="expression" dxfId="291" priority="187">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="290" priority="185">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="expression" dxfId="289" priority="112">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC53:AE55 AD56">
+    <cfRule type="expression" dxfId="288" priority="156">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="287" priority="155">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:B50">
+    <cfRule type="expression" dxfId="286" priority="152">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D51">
+    <cfRule type="expression" dxfId="285" priority="146">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:D54 D56">
+    <cfRule type="expression" dxfId="284" priority="170">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:D54 D56">
+    <cfRule type="expression" dxfId="283" priority="169">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:F53">
+    <cfRule type="expression" dxfId="282" priority="165">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:F54">
+    <cfRule type="expression" dxfId="281" priority="166">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:F56">
+    <cfRule type="expression" dxfId="280" priority="164">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:J57">
+    <cfRule type="expression" dxfId="279" priority="163">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:L54">
+    <cfRule type="expression" dxfId="278" priority="162">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG52:AJ52">
+    <cfRule type="expression" dxfId="277" priority="120">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:L57">
+    <cfRule type="expression" dxfId="276" priority="161">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA53:AA57">
+    <cfRule type="expression" dxfId="275" priority="160">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="274" priority="159">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB53:AB56">
+    <cfRule type="expression" dxfId="273" priority="157">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33:AL33">
+    <cfRule type="expression" dxfId="272" priority="119">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:J50">
+    <cfRule type="expression" dxfId="271" priority="149">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:L50">
+    <cfRule type="expression" dxfId="270" priority="148">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD50:AE50 Z50:AB50">
+    <cfRule type="expression" dxfId="269" priority="147">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:F51">
+    <cfRule type="expression" dxfId="268" priority="145">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:D58">
+    <cfRule type="expression" dxfId="267" priority="144">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:F58">
+    <cfRule type="expression" dxfId="266" priority="143">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="265" priority="142">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:B52">
+    <cfRule type="expression" dxfId="264" priority="141">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:J52">
+    <cfRule type="expression" dxfId="263" priority="140">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:L52">
+    <cfRule type="expression" dxfId="262" priority="139">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="261" priority="137">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:F52">
+    <cfRule type="expression" dxfId="260" priority="136">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF46:AF49">
+    <cfRule type="expression" dxfId="259" priority="135">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF51">
+    <cfRule type="expression" dxfId="258" priority="134">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34:AL35">
+    <cfRule type="expression" dxfId="257" priority="118">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC50">
+    <cfRule type="expression" dxfId="256" priority="132">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC56">
+    <cfRule type="expression" dxfId="255" priority="131">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE56">
+    <cfRule type="expression" dxfId="254" priority="130">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF50">
+    <cfRule type="expression" dxfId="253" priority="129">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32:AL32">
+    <cfRule type="expression" dxfId="252" priority="128">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG41:AJ42 AK42:AL42">
+    <cfRule type="expression" dxfId="251" priority="126">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5:AJ9 AG36:AJ40">
+    <cfRule type="expression" dxfId="250" priority="127">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG58:AJ58 AG46:AJ48 AG51:AJ51">
+    <cfRule type="expression" dxfId="249" priority="125">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG53:AJ57">
+    <cfRule type="expression" dxfId="248" priority="122">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG50:AJ50">
+    <cfRule type="expression" dxfId="247" priority="121">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK66">
+    <cfRule type="expression" dxfId="246" priority="60">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="245" priority="117">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="244" priority="115">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG43:AL43">
+    <cfRule type="expression" dxfId="243" priority="113">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23:AL23">
+    <cfRule type="expression" dxfId="242" priority="111">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK52:AL52">
+    <cfRule type="expression" dxfId="241" priority="100">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL44:AN44">
+    <cfRule type="expression" dxfId="240" priority="63">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ44">
+    <cfRule type="expression" dxfId="239" priority="62">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK41:AL41 AK45:AL51 AK44">
+    <cfRule type="expression" dxfId="238" priority="105">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK5:AL9 AK36:AL40 AL63 AL66">
+    <cfRule type="expression" dxfId="237" priority="106">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK58:AL58 AK46:AL48 AK51:AL51">
+    <cfRule type="expression" dxfId="236" priority="104">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK53:AL57">
+    <cfRule type="expression" dxfId="235" priority="102">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK50:AL50">
+    <cfRule type="expression" dxfId="234" priority="101">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK63">
+    <cfRule type="expression" dxfId="233" priority="61">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM31:AN31 AM10:AN13 AM15:AN20">
+    <cfRule type="expression" dxfId="232" priority="95">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM24:AN29">
+    <cfRule type="expression" dxfId="231" priority="94">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM21:AN22">
+    <cfRule type="expression" dxfId="230" priority="93">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM33:AN33">
+    <cfRule type="expression" dxfId="229" priority="90">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM34:AN35">
+    <cfRule type="expression" dxfId="228" priority="89">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM32:AN32">
+    <cfRule type="expression" dxfId="227" priority="92">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM42:AN42">
+    <cfRule type="expression" dxfId="226" priority="91">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM43:AN43">
+    <cfRule type="expression" dxfId="225" priority="88">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM23:AN23">
+    <cfRule type="expression" dxfId="224" priority="87">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM52">
+    <cfRule type="expression" dxfId="223" priority="80">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM45:AM51 AM41:AN41">
+    <cfRule type="expression" dxfId="222" priority="85">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM5:AM9 AN8:AN9 AM36:AN40">
+    <cfRule type="expression" dxfId="221" priority="86">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM58 AM46:AM48 AM51">
+    <cfRule type="expression" dxfId="220" priority="84">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM53:AM57">
+    <cfRule type="expression" dxfId="219" priority="82">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM50">
+    <cfRule type="expression" dxfId="218" priority="81">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN5:AN7">
+    <cfRule type="expression" dxfId="217" priority="70">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN45:AN51">
+    <cfRule type="expression" dxfId="216" priority="69">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN58 AN46:AN48 AN51">
+    <cfRule type="expression" dxfId="215" priority="68">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN52">
+    <cfRule type="expression" dxfId="214" priority="64">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN53:AN57">
+    <cfRule type="expression" dxfId="213" priority="66">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN50">
+    <cfRule type="expression" dxfId="212" priority="65">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="211" priority="59">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="expression" dxfId="210" priority="58">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG63">
+    <cfRule type="expression" dxfId="209" priority="57">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG66:AI66">
+    <cfRule type="expression" dxfId="208" priority="56">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH63">
+    <cfRule type="expression" dxfId="207" priority="55">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI63">
+    <cfRule type="expression" dxfId="206" priority="54">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="205" priority="51">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:F60">
+    <cfRule type="expression" dxfId="204" priority="53">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="203" priority="52">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="202" priority="50">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:F59">
+    <cfRule type="expression" dxfId="201" priority="49">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="184" priority="260">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B9">
-    <cfRule type="expression" dxfId="183" priority="289">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:F24">
-    <cfRule type="expression" dxfId="182" priority="300">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:F22">
-    <cfRule type="expression" dxfId="181" priority="291">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:F63">
-    <cfRule type="expression" dxfId="180" priority="252">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B30 A23:B24">
-    <cfRule type="expression" dxfId="179" priority="290">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="178" priority="286">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B34">
-    <cfRule type="expression" dxfId="177" priority="287">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24 C29:C37">
-    <cfRule type="expression" dxfId="176" priority="284">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B59">
-    <cfRule type="expression" dxfId="175" priority="285">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:F26">
-    <cfRule type="expression" dxfId="174" priority="281">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="expression" dxfId="173" priority="280">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F27">
-    <cfRule type="expression" dxfId="172" priority="279">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B28 A25:B26">
-    <cfRule type="expression" dxfId="171" priority="278">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B27">
-    <cfRule type="expression" dxfId="170" priority="277">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C28">
-    <cfRule type="expression" dxfId="169" priority="276">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="168" priority="275">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="167" priority="239">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="166" priority="274">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B39">
-    <cfRule type="expression" dxfId="165" priority="272">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C39">
-    <cfRule type="expression" dxfId="164" priority="270">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F39">
-    <cfRule type="expression" dxfId="163" priority="269">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="162" priority="263">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F38">
-    <cfRule type="expression" dxfId="161" priority="268">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="160" priority="266">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
-    <cfRule type="expression" dxfId="159" priority="265">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F30">
-    <cfRule type="expression" dxfId="158" priority="264">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F34">
-    <cfRule type="expression" dxfId="157" priority="262">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65:F65">
-    <cfRule type="expression" dxfId="156" priority="250">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60:F60">
-    <cfRule type="expression" dxfId="155" priority="259">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60">
-    <cfRule type="expression" dxfId="154" priority="258">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:F62">
-    <cfRule type="expression" dxfId="153" priority="257">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B62">
-    <cfRule type="expression" dxfId="152" priority="255">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="151" priority="254">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="150" priority="253">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="149" priority="251">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B65">
-    <cfRule type="expression" dxfId="148" priority="248">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:B65">
-    <cfRule type="expression" dxfId="147" priority="247">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="146" priority="246">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66:F66">
-    <cfRule type="expression" dxfId="145" priority="245">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="expression" dxfId="144" priority="244">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="143" priority="234">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:F64">
-    <cfRule type="expression" dxfId="142" priority="233">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="141" priority="241">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="140" priority="240">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="139" priority="229">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="138" priority="238">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:F61">
-    <cfRule type="expression" dxfId="137" priority="237">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="136" priority="236">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="135" priority="235">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:B53">
-    <cfRule type="expression" dxfId="134" priority="168">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B55">
-    <cfRule type="expression" dxfId="133" priority="167">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="132" priority="232">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D37">
-    <cfRule type="expression" dxfId="131" priority="231">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:B36">
-    <cfRule type="expression" dxfId="130" priority="230">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:F35">
-    <cfRule type="expression" dxfId="129" priority="226">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:F36">
-    <cfRule type="expression" dxfId="128" priority="227">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:F37">
-    <cfRule type="expression" dxfId="127" priority="225">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:J38 AG30:AL30 AM58:AN65 AJ62 AJ65 M35:T38 M51:T56 AG10:AL13 AG58:AL61 AG66:AN78 AG63:AL64 AG15:AL21 AG14:AN14 AG43:AI43 AG44:AJ50 AB30:AF50 AB5:AF22 Z23:AL28 AB56:AF78 AF52:AF55 Z51:AF51 G39:T50 G57:T78 G30:U34 Q35:U78 Z41:AA43 V41:V43 V44:AA78 V30:AA40 G5:AA28">
-    <cfRule type="expression" dxfId="126" priority="222">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C43">
-    <cfRule type="expression" dxfId="125" priority="221">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:F43">
-    <cfRule type="expression" dxfId="124" priority="220">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:B43">
-    <cfRule type="expression" dxfId="123" priority="219">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:L36">
-    <cfRule type="expression" dxfId="122" priority="217">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37:L38">
-    <cfRule type="expression" dxfId="121" priority="215">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:B44">
-    <cfRule type="expression" dxfId="120" priority="212">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44:C48 C50">
-    <cfRule type="expression" dxfId="119" priority="211">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:F21">
-    <cfRule type="expression" dxfId="118" priority="183">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:B50">
-    <cfRule type="expression" dxfId="117" priority="208">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C57">
-    <cfRule type="expression" dxfId="116" priority="179">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="115" priority="176">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="114" priority="204">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="113" priority="203">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:F44">
-    <cfRule type="expression" dxfId="112" priority="202">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:B48">
-    <cfRule type="expression" dxfId="111" priority="198">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="110" priority="201">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46 D48">
-    <cfRule type="expression" dxfId="109" priority="200">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B46">
-    <cfRule type="expression" dxfId="108" priority="199">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45">
-    <cfRule type="expression" dxfId="107" priority="196">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F46">
-    <cfRule type="expression" dxfId="106" priority="197">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:F48">
-    <cfRule type="expression" dxfId="105" priority="195">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45:J48 G50:J50">
-    <cfRule type="expression" dxfId="104" priority="194">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:L46">
-    <cfRule type="expression" dxfId="103" priority="189">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB45:AE47 AB48 AD48:AE48">
-    <cfRule type="expression" dxfId="102" priority="184">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47:L48 K50:L50">
-    <cfRule type="expression" dxfId="101" priority="188">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z45:AA47 Z50:AE50 Z48">
-    <cfRule type="expression" dxfId="100" priority="187">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="99" priority="185">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22">
-    <cfRule type="expression" dxfId="98" priority="112">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC52:AE54 AD55">
-    <cfRule type="expression" dxfId="97" priority="156">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="96" priority="155">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="95" priority="152">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
-    <cfRule type="expression" dxfId="94" priority="146">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="93" priority="170">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D53 D55">
-    <cfRule type="expression" dxfId="92" priority="169">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
-    <cfRule type="expression" dxfId="91" priority="165">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F53">
-    <cfRule type="expression" dxfId="90" priority="166">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:F55">
-    <cfRule type="expression" dxfId="89" priority="164">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52:J56">
-    <cfRule type="expression" dxfId="88" priority="163">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:L53">
-    <cfRule type="expression" dxfId="87" priority="162">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG51:AJ51">
-    <cfRule type="expression" dxfId="86" priority="120">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:L56">
-    <cfRule type="expression" dxfId="85" priority="161">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA52:AA56">
-    <cfRule type="expression" dxfId="84" priority="160">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="83" priority="159">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB52:AB55">
-    <cfRule type="expression" dxfId="82" priority="157">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG32:AL32">
-    <cfRule type="expression" dxfId="81" priority="119">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49:J49">
-    <cfRule type="expression" dxfId="80" priority="149">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:L49">
-    <cfRule type="expression" dxfId="79" priority="148">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD49:AE49 Z49:AB49">
-    <cfRule type="expression" dxfId="78" priority="147">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F50">
-    <cfRule type="expression" dxfId="77" priority="145">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D57">
-    <cfRule type="expression" dxfId="76" priority="144">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F57">
-    <cfRule type="expression" dxfId="75" priority="143">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="74" priority="142">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="73" priority="141">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:J51">
-    <cfRule type="expression" dxfId="72" priority="140">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:L51">
-    <cfRule type="expression" dxfId="71" priority="139">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="70" priority="137">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:F51">
-    <cfRule type="expression" dxfId="69" priority="136">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF45:AF48">
-    <cfRule type="expression" dxfId="68" priority="135">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF50">
-    <cfRule type="expression" dxfId="67" priority="134">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG33:AL34">
-    <cfRule type="expression" dxfId="66" priority="118">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC49">
-    <cfRule type="expression" dxfId="65" priority="132">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC55">
-    <cfRule type="expression" dxfId="64" priority="131">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE55">
-    <cfRule type="expression" dxfId="63" priority="130">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF49">
-    <cfRule type="expression" dxfId="62" priority="129">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31:AL31">
-    <cfRule type="expression" dxfId="61" priority="128">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG40:AJ41 AK41:AL41">
-    <cfRule type="expression" dxfId="60" priority="126">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG5:AJ9 AG35:AJ39">
-    <cfRule type="expression" dxfId="59" priority="127">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG57:AJ57 AG45:AJ47 AG50:AJ50">
-    <cfRule type="expression" dxfId="58" priority="125">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG52:AJ56">
-    <cfRule type="expression" dxfId="57" priority="122">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG49:AJ49">
-    <cfRule type="expression" dxfId="56" priority="121">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK65">
-    <cfRule type="expression" dxfId="55" priority="60">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="54" priority="117">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="53" priority="115">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG42:AL42">
-    <cfRule type="expression" dxfId="52" priority="113">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22:AL22">
-    <cfRule type="expression" dxfId="51" priority="111">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK51:AL51">
-    <cfRule type="expression" dxfId="50" priority="100">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL43:AN43">
-    <cfRule type="expression" dxfId="49" priority="63">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ43">
-    <cfRule type="expression" dxfId="48" priority="62">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK40:AL40 AK44:AL50 AK43">
-    <cfRule type="expression" dxfId="47" priority="105">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AL9 AK35:AL39 AL62 AL65">
-    <cfRule type="expression" dxfId="46" priority="106">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK57:AL57 AK45:AL47 AK50:AL50">
-    <cfRule type="expression" dxfId="45" priority="104">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK52:AL56">
-    <cfRule type="expression" dxfId="44" priority="102">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK49:AL49">
-    <cfRule type="expression" dxfId="43" priority="101">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK62">
-    <cfRule type="expression" dxfId="42" priority="61">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM30:AN30 AM10:AN13 AM15:AN19">
-    <cfRule type="expression" dxfId="41" priority="95">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM23:AN28">
-    <cfRule type="expression" dxfId="40" priority="94">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM20:AN21">
-    <cfRule type="expression" dxfId="39" priority="93">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM32:AN32">
-    <cfRule type="expression" dxfId="38" priority="90">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM33:AN34">
-    <cfRule type="expression" dxfId="37" priority="89">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM31:AN31">
-    <cfRule type="expression" dxfId="36" priority="92">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM41:AN41">
-    <cfRule type="expression" dxfId="35" priority="91">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM42:AN42">
-    <cfRule type="expression" dxfId="34" priority="88">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM22:AN22">
-    <cfRule type="expression" dxfId="33" priority="87">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM51">
-    <cfRule type="expression" dxfId="32" priority="80">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM44:AM50 AM40:AN40">
-    <cfRule type="expression" dxfId="31" priority="85">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM5:AM9 AN8:AN9 AM35:AN39">
-    <cfRule type="expression" dxfId="30" priority="86">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM57 AM45:AM47 AM50">
-    <cfRule type="expression" dxfId="29" priority="84">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM52:AM56">
-    <cfRule type="expression" dxfId="28" priority="82">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM49">
-    <cfRule type="expression" dxfId="27" priority="81">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AN7">
-    <cfRule type="expression" dxfId="26" priority="70">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN44:AN50">
-    <cfRule type="expression" dxfId="25" priority="69">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN57 AN45:AN47 AN50">
-    <cfRule type="expression" dxfId="24" priority="68">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN51">
-    <cfRule type="expression" dxfId="23" priority="64">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN52:AN56">
-    <cfRule type="expression" dxfId="22" priority="66">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN49">
-    <cfRule type="expression" dxfId="21" priority="65">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="20" priority="59">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="19" priority="58">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG62">
-    <cfRule type="expression" dxfId="18" priority="57">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG65:AI65">
-    <cfRule type="expression" dxfId="17" priority="56">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH62">
-    <cfRule type="expression" dxfId="16" priority="55">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI62">
-    <cfRule type="expression" dxfId="15" priority="54">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="14" priority="51">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:F59">
-    <cfRule type="expression" dxfId="13" priority="53">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="12" priority="52">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="11" priority="50">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:F58">
-    <cfRule type="expression" dxfId="10" priority="49">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="9" priority="48">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="8" priority="47">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W41:Y41">
-    <cfRule type="expression" dxfId="7" priority="46">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W42:X42">
-    <cfRule type="expression" dxfId="6" priority="45">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W43">
-    <cfRule type="expression" dxfId="5" priority="44">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X43">
-    <cfRule type="expression" dxfId="4" priority="43">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y42">
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="200" priority="48">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="199" priority="47">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W42:Y42">
+    <cfRule type="expression" dxfId="198" priority="46">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43:X43">
+    <cfRule type="expression" dxfId="197" priority="45">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44">
+    <cfRule type="expression" dxfId="196" priority="44">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X44">
+    <cfRule type="expression" dxfId="195" priority="43">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y43">
-    <cfRule type="expression" dxfId="2" priority="41">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F78">
-    <cfRule type="expression" dxfId="1" priority="40">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="194" priority="42">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44">
+    <cfRule type="expression" dxfId="193" priority="41">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F79">
+    <cfRule type="expression" dxfId="192" priority="40">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
+++ b/rct229/ruletest_engine/ruletest_jsons/ruletest_spreadsheets/lighting_test_draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ruleset-checking-tool\rct229\ruletest_engine\ruletest_jsons\ruletest_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5295D64E-5F5E-454E-A524-2D516D239012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC8A93-F7C2-4FF3-9BE9-680FA587B4AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6D4BDC1E-634D-4FA4-9728-A76C548BE460}"/>
   </bookViews>
   <sheets>
     <sheet name="TCDs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}</author>
   </authors>
   <commentList>
-    <comment ref="T10" authorId="0" shapeId="0" xr:uid="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
+    <comment ref="U10" authorId="0" shapeId="0" xr:uid="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="174">
   <si>
     <t>appendix_g_section_id</t>
   </si>
@@ -572,6 +572,15 @@
   </si>
   <si>
     <t>ft3</t>
+  </si>
+  <si>
+    <t>unit_type</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>power_density</t>
   </si>
 </sst>
 </file>
@@ -999,11 +1008,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="382">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+  <dxfs count="230">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1018,1070 +1027,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3990,7 +2935,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="T10" dT="2021-05-25T22:34:37.38" personId="{1A49BB3D-5F6C-4FED-AA5E-1F4F2C8C02C3}" id="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
+  <threadedComment ref="U10" dT="2021-05-25T22:34:37.38" personId="{1A49BB3D-5F6C-4FED-AA5E-1F4F2C8C02C3}" id="{535CFA6F-0ABF-4274-85F7-9874B9AC2DE8}">
     <text>Test unclear to me on TCD</text>
   </threadedComment>
 </ThreadedComments>
@@ -3998,13 +2943,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2616CE-C113-4173-BA9E-9D8DBBCAB481}">
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AO79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,19 +2959,20 @@
     <col min="3" max="3" width="29.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="55.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="55.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="50.5703125" style="3" customWidth="1"/>
-    <col min="26" max="40" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="55.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="55.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="50.5703125" style="3" customWidth="1"/>
+    <col min="27" max="41" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
@@ -4043,146 +2989,149 @@
         <v>116</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>166</v>
-      </c>
-      <c r="G1" s="5" t="str">
-        <f>"rule-"&amp;G2&amp;"-"&amp;G3&amp;"-"&amp;G4</f>
-        <v>rule-6-1-a</v>
       </c>
       <c r="H1" s="5" t="str">
         <f>"rule-"&amp;H2&amp;"-"&amp;H3&amp;"-"&amp;H4</f>
-        <v>rule-6-1-b</v>
+        <v>rule-6-1-a</v>
       </c>
       <c r="I1" s="5" t="str">
         <f>"rule-"&amp;I2&amp;"-"&amp;I3&amp;"-"&amp;I4</f>
+        <v>rule-6-1-b</v>
+      </c>
+      <c r="J1" s="5" t="str">
+        <f>"rule-"&amp;J2&amp;"-"&amp;J3&amp;"-"&amp;J4</f>
         <v>rule-6-2-a</v>
       </c>
-      <c r="J1" s="5" t="str">
-        <f t="shared" ref="J1:AK1" si="0">"rule-"&amp;J2&amp;"-"&amp;J3&amp;"-"&amp;J4</f>
+      <c r="K1" s="5" t="str">
+        <f t="shared" ref="K1:AL1" si="0">"rule-"&amp;K2&amp;"-"&amp;K3&amp;"-"&amp;K4</f>
         <v>rule-6-2-b</v>
       </c>
-      <c r="K1" s="5" t="str">
+      <c r="L1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-3-a</v>
       </c>
-      <c r="L1" s="5" t="str">
+      <c r="M1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-3-b</v>
       </c>
-      <c r="M1" s="5" t="str">
+      <c r="N1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-3-c</v>
       </c>
-      <c r="N1" s="5" t="str">
+      <c r="O1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-3-d</v>
       </c>
-      <c r="O1" s="5" t="str">
+      <c r="P1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-4-a</v>
       </c>
-      <c r="P1" s="5" t="str">
-        <f>"rule-"&amp;P2&amp;"-"&amp;P3&amp;"-"&amp;P4</f>
-        <v>rule-6-5-a</v>
-      </c>
       <c r="Q1" s="5" t="str">
         <f>"rule-"&amp;Q2&amp;"-"&amp;Q3&amp;"-"&amp;Q4</f>
-        <v>rule-6-6-a</v>
+        <v>rule-6-5-a</v>
       </c>
       <c r="R1" s="5" t="str">
         <f>"rule-"&amp;R2&amp;"-"&amp;R3&amp;"-"&amp;R4</f>
-        <v>rule-6-6-b</v>
+        <v>rule-6-6-a</v>
       </c>
       <c r="S1" s="5" t="str">
         <f>"rule-"&amp;S2&amp;"-"&amp;S3&amp;"-"&amp;S4</f>
-        <v>rule-6-7-a</v>
+        <v>rule-6-6-b</v>
       </c>
       <c r="T1" s="5" t="str">
         <f>"rule-"&amp;T2&amp;"-"&amp;T3&amp;"-"&amp;T4</f>
+        <v>rule-6-7-a</v>
+      </c>
+      <c r="U1" s="5" t="str">
+        <f>"rule-"&amp;U2&amp;"-"&amp;U3&amp;"-"&amp;U4</f>
         <v>rule-6-7-b</v>
       </c>
-      <c r="U1" s="5" t="str">
+      <c r="V1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-8-a</v>
       </c>
-      <c r="V1" s="5" t="str">
-        <f t="shared" ref="V1:AA1" si="1">"rule-"&amp;V2&amp;"-"&amp;V3&amp;"-"&amp;V4</f>
+      <c r="W1" s="5" t="str">
+        <f t="shared" ref="W1:AB1" si="1">"rule-"&amp;W2&amp;"-"&amp;W3&amp;"-"&amp;W4</f>
         <v>rule-6-8-b</v>
       </c>
-      <c r="W1" s="5" t="str">
-        <f t="shared" ref="W1" si="2">"rule-"&amp;W2&amp;"-"&amp;W3&amp;"-"&amp;W4</f>
+      <c r="X1" s="5" t="str">
+        <f t="shared" ref="X1" si="2">"rule-"&amp;X2&amp;"-"&amp;X3&amp;"-"&amp;X4</f>
         <v>rule-6-9-a</v>
       </c>
-      <c r="X1" s="5" t="str">
-        <f t="shared" ref="X1" si="3">"rule-"&amp;X2&amp;"-"&amp;X3&amp;"-"&amp;X4</f>
+      <c r="Y1" s="5" t="str">
+        <f t="shared" ref="Y1" si="3">"rule-"&amp;Y2&amp;"-"&amp;Y3&amp;"-"&amp;Y4</f>
         <v>rule-6-9-b</v>
       </c>
-      <c r="Y1" s="5" t="str">
-        <f t="shared" ref="Y1" si="4">"rule-"&amp;Y2&amp;"-"&amp;Y3&amp;"-"&amp;Y4</f>
+      <c r="Z1" s="5" t="str">
+        <f t="shared" ref="Z1" si="4">"rule-"&amp;Z2&amp;"-"&amp;Z3&amp;"-"&amp;Z4</f>
         <v>rule-6-9-c</v>
       </c>
-      <c r="Z1" s="5" t="str">
+      <c r="AA1" s="5" t="str">
         <f t="shared" si="1"/>
         <v>rule-6-11-a</v>
       </c>
-      <c r="AA1" s="5" t="str">
+      <c r="AB1" s="5" t="str">
         <f t="shared" si="1"/>
         <v>rule-6-11-b</v>
       </c>
-      <c r="AB1" s="5" t="str">
+      <c r="AC1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-a</v>
       </c>
-      <c r="AC1" s="5" t="str">
+      <c r="AD1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-b</v>
       </c>
-      <c r="AD1" s="5" t="str">
+      <c r="AE1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-c</v>
       </c>
-      <c r="AE1" s="5" t="str">
+      <c r="AF1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-d</v>
       </c>
-      <c r="AF1" s="5" t="str">
+      <c r="AG1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-12-e</v>
       </c>
-      <c r="AG1" s="5" t="str">
+      <c r="AH1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-13-a</v>
       </c>
-      <c r="AH1" s="5" t="str">
+      <c r="AI1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-13-b</v>
       </c>
-      <c r="AI1" s="5" t="str">
+      <c r="AJ1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-13-c</v>
       </c>
-      <c r="AJ1" s="5" t="str">
+      <c r="AK1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-13-d</v>
       </c>
-      <c r="AK1" s="5" t="str">
+      <c r="AL1" s="5" t="str">
         <f t="shared" si="0"/>
         <v>rule-6-14-a</v>
       </c>
-      <c r="AL1" s="5" t="str">
-        <f t="shared" ref="AL1:AN1" si="5">"rule-"&amp;AL2&amp;"-"&amp;AL3&amp;"-"&amp;AL4</f>
+      <c r="AM1" s="5" t="str">
+        <f t="shared" ref="AM1:AO1" si="5">"rule-"&amp;AM2&amp;"-"&amp;AM3&amp;"-"&amp;AM4</f>
         <v>rule-6-14-b</v>
       </c>
-      <c r="AM1" s="5" t="str">
+      <c r="AN1" s="5" t="str">
         <f t="shared" si="5"/>
         <v>rule-6-15-a</v>
       </c>
-      <c r="AN1" s="5" t="str">
+      <c r="AO1" s="5" t="str">
         <f t="shared" si="5"/>
         <v>rule-6-16-a</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -4191,9 +3140,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="27"/>
       <c r="F2" s="47"/>
-      <c r="G2" s="3">
-        <v>6</v>
-      </c>
+      <c r="G2" s="47"/>
       <c r="H2" s="3">
         <v>6</v>
       </c>
@@ -4239,7 +3186,7 @@
       <c r="V2" s="3">
         <v>6</v>
       </c>
-      <c r="W2" s="44">
+      <c r="W2" s="3">
         <v>6</v>
       </c>
       <c r="X2" s="44">
@@ -4248,7 +3195,7 @@
       <c r="Y2" s="44">
         <v>6</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="44">
         <v>6</v>
       </c>
       <c r="AA2" s="3">
@@ -4293,8 +3240,11 @@
       <c r="AN2" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -4303,20 +3253,18 @@
       <c r="D3" s="10"/>
       <c r="E3" s="27"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
+      <c r="G3" s="47"/>
       <c r="H3" s="3">
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
       </c>
       <c r="K3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="3">
         <v>3</v>
@@ -4328,31 +3276,31 @@
         <v>3</v>
       </c>
       <c r="O3" s="3">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3">
         <v>4</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>5</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>6</v>
       </c>
       <c r="R3" s="3">
         <v>6</v>
       </c>
       <c r="S3" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T3" s="3">
         <v>7</v>
       </c>
       <c r="U3" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V3" s="3">
         <v>8</v>
       </c>
-      <c r="W3" s="44">
-        <v>9</v>
+      <c r="W3" s="3">
+        <v>8</v>
       </c>
       <c r="X3" s="44">
         <v>9</v>
@@ -4360,14 +3308,14 @@
       <c r="Y3" s="44">
         <v>9</v>
       </c>
-      <c r="Z3" s="3">
-        <v>11</v>
+      <c r="Z3" s="44">
+        <v>9</v>
       </c>
       <c r="AA3" s="3">
         <v>11</v>
       </c>
       <c r="AB3" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC3" s="3">
         <v>12</v>
@@ -4382,7 +3330,7 @@
         <v>12</v>
       </c>
       <c r="AG3" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" s="3">
         <v>13</v>
@@ -4394,19 +3342,22 @@
         <v>13</v>
       </c>
       <c r="AK3" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL3" s="3">
         <v>14</v>
       </c>
       <c r="AM3" s="3">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="3">
         <v>15</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AO3" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
@@ -4415,32 +3366,30 @@
       <c r="D4" s="10"/>
       <c r="E4" s="27"/>
       <c r="F4" s="47"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>8</v>
@@ -4449,76 +3398,79 @@
         <v>8</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="X4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="44" t="s">
+      <c r="Y4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="44" t="s">
+      <c r="Z4" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AN4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+      <c r="AO4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
@@ -4527,110 +3479,111 @@
       <c r="D5" s="12"/>
       <c r="E5" s="28"/>
       <c r="F5" s="48"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>112</v>
       </c>
       <c r="W5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AB5" s="43" t="s">
+      <c r="AC5" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AD5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AD5" s="43" t="s">
+      <c r="AE5" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="AG5" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="AH5" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AI5" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AK5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AL5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AM5" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="AN5" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO5" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>58</v>
       </c>
@@ -4639,50 +3592,48 @@
       <c r="D6" s="12"/>
       <c r="E6" s="28"/>
       <c r="F6" s="49"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>5</v>
@@ -4691,19 +3642,19 @@
         <v>5</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>5</v>
@@ -4712,13 +3663,13 @@
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="AH6" s="3" t="s">
         <v>97</v>
@@ -4727,22 +3678,25 @@
         <v>97</v>
       </c>
       <c r="AJ6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="AN6" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO6" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>59</v>
       </c>
@@ -4753,13 +3707,13 @@
       <c r="D7" s="14"/>
       <c r="E7" s="29"/>
       <c r="F7" s="48"/>
-      <c r="G7" s="17" t="s">
-        <v>68</v>
-      </c>
+      <c r="G7" s="48"/>
       <c r="H7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -4791,8 +3745,9 @@
       <c r="AL7" s="17"/>
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO7" s="17"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>59</v>
       </c>
@@ -4803,18 +3758,15 @@
       <c r="D8" s="12"/>
       <c r="E8" s="28"/>
       <c r="F8" s="48"/>
-      <c r="G8" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="G8" s="48"/>
       <c r="H8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="6" t="str">
-        <f t="shared" ref="I8:O8" si="6">"true"</f>
-        <v>true</v>
+      <c r="I8" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="J8" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J8:P8" si="6">"true"</f>
         <v>true</v>
       </c>
       <c r="K8" s="6" t="str">
@@ -4838,7 +3790,7 @@
         <v>true</v>
       </c>
       <c r="P8" s="6" t="str">
-        <f>"true"</f>
+        <f t="shared" si="6"/>
         <v>true</v>
       </c>
       <c r="Q8" s="6" t="str">
@@ -4849,7 +3801,10 @@
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="6" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -4858,20 +3813,17 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="6" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
+      <c r="AB8" s="6"/>
       <c r="AC8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
       <c r="AD8" s="6" t="str">
-        <f t="shared" ref="AD8:AF8" si="7">"true"</f>
+        <f>"true"</f>
         <v>true</v>
       </c>
       <c r="AE8" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AE8:AG8" si="7">"true"</f>
         <v>true</v>
       </c>
       <c r="AF8" s="6" t="str">
@@ -4879,15 +3831,15 @@
         <v>true</v>
       </c>
       <c r="AG8" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>true</v>
+      </c>
+      <c r="AH8" s="6" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AH8" s="6" t="str">
-        <f t="shared" ref="AH8:AN8" si="8">"true"</f>
-        <v>true</v>
-      </c>
       <c r="AI8" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AI8:AO8" si="8">"true"</f>
         <v>true</v>
       </c>
       <c r="AJ8" s="6" t="str">
@@ -4910,8 +3862,12 @@
         <f t="shared" si="8"/>
         <v>true</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO8" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>59</v>
       </c>
@@ -4922,30 +3878,27 @@
       <c r="D9" s="20"/>
       <c r="E9" s="30"/>
       <c r="F9" s="49"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="21" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
+      <c r="I9" s="21"/>
       <c r="J9" s="21" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="21" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="21"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="21" t="str">
-        <f t="shared" ref="S9:Y9" si="9">"true"</f>
-        <v>true</v>
-      </c>
+      <c r="S9" s="21"/>
       <c r="T9" s="21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="T9:Z9" si="9">"true"</f>
         <v>true</v>
       </c>
       <c r="U9" s="21" t="str">
@@ -4968,20 +3921,21 @@
         <f t="shared" si="9"/>
         <v>true</v>
       </c>
-      <c r="Z9" s="21" t="s">
-        <v>68</v>
+      <c r="Z9" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
       </c>
       <c r="AA9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AB9" s="21"/>
+      <c r="AB9" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="AC9" s="21"/>
       <c r="AD9" s="21"/>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
-      <c r="AG9" s="21" t="s">
-        <v>68</v>
-      </c>
+      <c r="AG9" s="21"/>
       <c r="AH9" s="21" t="s">
         <v>68</v>
       </c>
@@ -4997,10 +3951,13 @@
       <c r="AL9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AM9" s="21"/>
+      <c r="AM9" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="AN9" s="21"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO9" s="21"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
@@ -5015,9 +3972,7 @@
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="48"/>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
+      <c r="G10" s="48"/>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -5054,10 +4009,10 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="31">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="31">
         <v>0</v>
       </c>
       <c r="V10" s="3">
@@ -5117,8 +4072,11 @@
       <c r="AN10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
@@ -5133,9 +4091,7 @@
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="48"/>
-      <c r="G11" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="G11" s="48"/>
       <c r="H11" s="3" t="s">
         <v>66</v>
       </c>
@@ -5172,10 +4128,10 @@
       <c r="S11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="31" t="s">
         <v>66</v>
       </c>
       <c r="V11" s="3" t="s">
@@ -5235,8 +4191,11 @@
       <c r="AN11" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>59</v>
       </c>
@@ -5251,29 +4210,30 @@
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="48"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="3" t="str">
+      <c r="G12" s="48"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="V12" s="3" t="str">
+      <c r="W12" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="W12" s="3" t="str">
-        <f t="shared" ref="W12:Y12" si="10">"false"</f>
-        <v>false</v>
-      </c>
       <c r="X12" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="X12:Z12" si="10">"false"</f>
         <v>false</v>
       </c>
       <c r="Y12" s="3" t="str">
         <f t="shared" si="10"/>
         <v>false</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Z12" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>59</v>
       </c>
@@ -5288,9 +4248,7 @@
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
+      <c r="G13" s="48"/>
       <c r="H13" s="3">
         <v>0</v>
       </c>
@@ -5390,8 +4348,11 @@
       <c r="AN13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
@@ -5406,9 +4367,7 @@
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="48"/>
-      <c r="G14" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="G14" s="48"/>
       <c r="H14" s="3" t="s">
         <v>152</v>
       </c>
@@ -5508,8 +4467,11 @@
       <c r="AN14" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO14" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>59</v>
       </c>
@@ -5524,9 +4486,7 @@
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="48"/>
-      <c r="G15" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="G15" s="48"/>
       <c r="H15" s="3" t="s">
         <v>85</v>
       </c>
@@ -5536,8 +4496,8 @@
       <c r="J15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>108</v>
+      <c r="K15" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>108</v>
@@ -5545,11 +4505,14 @@
       <c r="S15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T15" s="31" t="s">
+      <c r="T15" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="U15" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
@@ -5564,9 +4527,7 @@
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="48"/>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
+      <c r="G16" s="48"/>
       <c r="H16" s="3">
         <v>0</v>
       </c>
@@ -5603,10 +4564,10 @@
       <c r="S16" s="3">
         <v>0</v>
       </c>
-      <c r="T16" s="31">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="31">
         <v>0</v>
       </c>
       <c r="V16" s="3">
@@ -5666,8 +4627,11 @@
       <c r="AN16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>59</v>
       </c>
@@ -5682,9 +4646,7 @@
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="48"/>
-      <c r="G17" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="G17" s="48"/>
       <c r="H17" s="3" t="s">
         <v>87</v>
       </c>
@@ -5695,7 +4657,7 @@
         <v>87</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>71</v>
@@ -5721,10 +4683,10 @@
       <c r="S17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="31" t="s">
+      <c r="T17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="31" t="s">
         <v>71</v>
       </c>
       <c r="V17" s="3" t="s">
@@ -5784,8 +4746,11 @@
       <c r="AN17" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO17" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>59</v>
       </c>
@@ -5800,9 +4765,7 @@
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="48"/>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
+      <c r="G18" s="48"/>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -5839,10 +4802,10 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-      <c r="T18" s="31">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="31">
         <v>0</v>
       </c>
       <c r="V18" s="3">
@@ -5902,8 +4865,11 @@
       <c r="AN18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>59</v>
       </c>
@@ -5918,9 +4884,7 @@
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="48"/>
-      <c r="G19" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="G19" s="48"/>
       <c r="H19" s="3" t="s">
         <v>88</v>
       </c>
@@ -5931,7 +4895,7 @@
         <v>88</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>73</v>
@@ -5957,10 +4921,10 @@
       <c r="S19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T19" s="31" t="s">
+      <c r="T19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="31" t="s">
         <v>73</v>
       </c>
       <c r="V19" s="3" t="s">
@@ -6020,8 +4984,11 @@
       <c r="AN19" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO19" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>59</v>
       </c>
@@ -6036,17 +5003,20 @@
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="48" t="s">
         <v>170</v>
-      </c>
-      <c r="I20" s="3">
-        <v>11000</v>
       </c>
       <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="T20" s="31"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="K20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="U20" s="31"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
@@ -6061,9 +5031,7 @@
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="48"/>
-      <c r="G21" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="G21" s="48"/>
       <c r="H21" s="3" t="s">
         <v>117</v>
       </c>
@@ -6100,17 +5068,17 @@
       <c r="S21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="T21" s="31" t="s">
+      <c r="T21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="U21" s="31" t="s">
         <v>117</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="W21" s="3">
-        <v>1</v>
+      <c r="W21" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="X21" s="3">
         <v>1</v>
@@ -6118,8 +5086,8 @@
       <c r="Y21" s="3">
         <v>1</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>117</v>
+      <c r="Z21" s="3">
+        <v>1</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>117</v>
@@ -6163,8 +5131,11 @@
       <c r="AN21" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO21" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>59</v>
       </c>
@@ -6179,9 +5150,7 @@
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="48"/>
-      <c r="G22" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="G22" s="48"/>
       <c r="H22" s="3" t="s">
         <v>118</v>
       </c>
@@ -6218,10 +5187,10 @@
       <c r="S22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="T22" s="31" t="s">
+      <c r="T22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="31" t="s">
         <v>118</v>
       </c>
       <c r="V22" s="3" t="s">
@@ -6281,8 +5250,11 @@
       <c r="AN22" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO22" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>59</v>
       </c>
@@ -6297,9 +5269,7 @@
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="G23" s="48"/>
       <c r="H23" s="3" t="s">
         <v>151</v>
       </c>
@@ -6316,27 +5286,29 @@
         <v>151</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>79</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R23" s="26"/>
+      <c r="Q23" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="S23" s="26"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="26" t="s">
+      <c r="T23" s="26"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="V23" s="26" t="s">
+      <c r="W23" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
@@ -6346,20 +5318,18 @@
       <c r="AD23" s="26"/>
       <c r="AE23" s="26"/>
       <c r="AF23" s="26"/>
-      <c r="AG23" s="26" t="s">
-        <v>107</v>
-      </c>
+      <c r="AG23" s="26"/>
       <c r="AH23" s="26" t="s">
         <v>107</v>
       </c>
       <c r="AI23" s="26" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AJ23" s="26" t="s">
         <v>146</v>
       </c>
       <c r="AK23" s="26" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AL23" s="26" t="s">
         <v>107</v>
@@ -6368,10 +5338,13 @@
         <v>107</v>
       </c>
       <c r="AN23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO23" s="26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>59</v>
       </c>
@@ -6386,10 +5359,10 @@
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="48" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -6413,7 +5386,7 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>1000</v>
@@ -6427,17 +5400,17 @@
       <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="31">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="31">
         <v>1000</v>
       </c>
       <c r="V24" s="3">
         <v>1000</v>
       </c>
       <c r="W24" s="3">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X24" s="3">
         <v>2300</v>
@@ -6446,7 +5419,7 @@
         <v>2300</v>
       </c>
       <c r="Z24" s="3">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="AA24" s="3">
         <v>1000</v>
@@ -6490,8 +5463,11 @@
       <c r="AN24" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO24" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>59</v>
       </c>
@@ -6506,15 +5482,16 @@
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="48"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="3" t="s">
+      <c r="G25" s="48"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>59</v>
       </c>
@@ -6529,9 +5506,7 @@
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="48"/>
-      <c r="G26" s="3">
-        <v>2</v>
-      </c>
+      <c r="G26" s="48"/>
       <c r="H26" s="3">
         <v>2</v>
       </c>
@@ -6541,18 +5516,21 @@
       <c r="J26" s="3">
         <v>2</v>
       </c>
-      <c r="T26" s="31"/>
-      <c r="W26" s="3">
+      <c r="K26" s="3">
         <v>2</v>
       </c>
+      <c r="U26" s="31"/>
       <c r="X26" s="3">
         <v>2</v>
       </c>
       <c r="Y26" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Z26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>59</v>
       </c>
@@ -6567,9 +5545,7 @@
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="G27" s="48"/>
       <c r="H27" s="3" t="s">
         <v>119</v>
       </c>
@@ -6579,18 +5555,21 @@
       <c r="J27" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="T27" s="31"/>
-      <c r="W27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="U27" s="31"/>
       <c r="X27" s="3" t="s">
         <v>119</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Z27" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>59</v>
       </c>
@@ -6605,9 +5584,7 @@
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="48"/>
-      <c r="G28" s="26" t="s">
-        <v>74</v>
-      </c>
+      <c r="G28" s="48"/>
       <c r="H28" s="26" t="s">
         <v>74</v>
       </c>
@@ -6617,7 +5594,9 @@
       <c r="J28" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="26"/>
+      <c r="K28" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
@@ -6626,8 +5605,8 @@
       <c r="Q28" s="26"/>
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="32"/>
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
@@ -6647,8 +5626,9 @@
       <c r="AL28" s="26"/>
       <c r="AM28" s="26"/>
       <c r="AN28" s="26"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO28" s="26"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>59</v>
       </c>
@@ -6663,10 +5643,10 @@
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="48" t="s">
         <v>168</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1000</v>
       </c>
       <c r="H29" s="3">
         <v>1000</v>
@@ -6677,18 +5657,21 @@
       <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="T29" s="31"/>
-      <c r="W29" s="3">
-        <v>2900</v>
-      </c>
+      <c r="K29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U29" s="31"/>
       <c r="X29" s="3">
         <v>2900</v>
       </c>
       <c r="Y29" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z29" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
@@ -6705,9 +5688,7 @@
         <v>63</v>
       </c>
       <c r="F30" s="48"/>
-      <c r="G30" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="G30" s="48"/>
       <c r="H30" s="3" t="s">
         <v>117</v>
       </c>
@@ -6753,7 +5734,7 @@
       <c r="V30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Z30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>117</v>
       </c>
       <c r="AA30" s="3" t="s">
@@ -6798,8 +5779,11 @@
       <c r="AN30" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO30" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>59</v>
       </c>
@@ -6816,9 +5800,7 @@
         <v>65</v>
       </c>
       <c r="F31" s="48"/>
-      <c r="G31" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="G31" s="48"/>
       <c r="H31" s="3" t="s">
         <v>81</v>
       </c>
@@ -6829,7 +5811,7 @@
         <v>81</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>89</v>
@@ -6841,13 +5823,13 @@
         <v>89</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>99</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>109</v>
@@ -6855,17 +5837,17 @@
       <c r="S31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="T31" s="31" t="s">
+      <c r="T31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="U31" s="31" t="s">
         <v>109</v>
       </c>
       <c r="V31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W31" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="AA31" s="3" t="s">
         <v>134</v>
@@ -6909,8 +5891,11 @@
       <c r="AN31" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO31" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>59</v>
       </c>
@@ -6927,52 +5912,55 @@
         <v>80</v>
       </c>
       <c r="F32" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>0.41</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>0.41</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>0.3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>0.1</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0.5</v>
       </c>
       <c r="N32" s="3">
         <v>0.5</v>
       </c>
       <c r="O32" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P32" s="3">
         <v>0.6</v>
       </c>
       <c r="Q32" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="R32" s="3">
         <v>0.64</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>0.54</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="T32" s="31">
+      <c r="U32" s="31">
         <v>1.1399999999999999</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>59</v>
       </c>
@@ -6989,37 +5977,38 @@
         <v>135</v>
       </c>
       <c r="F33" s="48"/>
-      <c r="T33" s="31"/>
-      <c r="Z33" s="3" t="str">
+      <c r="G33" s="48"/>
+      <c r="U33" s="31"/>
+      <c r="AA33" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="AA33" s="3" t="str">
+      <c r="AB33" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
-      <c r="AB33" s="3" t="str">
+      <c r="AC33" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
-      <c r="AC33" s="3" t="str">
+      <c r="AD33" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
-      </c>
-      <c r="AD33" s="3" t="str">
-        <f>"false"</f>
-        <v>false</v>
       </c>
       <c r="AE33" s="3" t="str">
         <f>"false"</f>
         <v>false</v>
       </c>
       <c r="AF33" s="3" t="str">
+        <f>"false"</f>
+        <v>false</v>
+      </c>
+      <c r="AG33" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>59</v>
       </c>
@@ -7036,11 +6025,8 @@
         <v>143</v>
       </c>
       <c r="F34" s="48"/>
-      <c r="T34" s="31"/>
-      <c r="AG34" s="3" t="str">
-        <f>"true"</f>
-        <v>true</v>
-      </c>
+      <c r="G34" s="48"/>
+      <c r="U34" s="31"/>
       <c r="AH34" s="3" t="str">
         <f>"true"</f>
         <v>true</v>
@@ -7053,8 +6039,12 @@
         <f>"true"</f>
         <v>true</v>
       </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK34" s="3" t="str">
+        <f>"true"</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>59</v>
       </c>
@@ -7071,10 +6061,8 @@
         <v>154</v>
       </c>
       <c r="F35" s="48"/>
-      <c r="T35" s="31"/>
-      <c r="AG35" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="G35" s="48"/>
+      <c r="U35" s="31"/>
       <c r="AH35" s="3" t="s">
         <v>145</v>
       </c>
@@ -7096,8 +6084,11 @@
       <c r="AN35" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO35" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>59</v>
       </c>
@@ -7114,9 +6105,7 @@
         <v>63</v>
       </c>
       <c r="F36" s="48"/>
-      <c r="K36" s="3">
-        <v>2</v>
-      </c>
+      <c r="G36" s="48"/>
       <c r="L36" s="3">
         <v>2</v>
       </c>
@@ -7132,8 +6121,11 @@
       <c r="P36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>59</v>
       </c>
@@ -7150,9 +6142,7 @@
         <v>65</v>
       </c>
       <c r="F37" s="48"/>
-      <c r="K37" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="G37" s="48"/>
       <c r="L37" s="3" t="s">
         <v>90</v>
       </c>
@@ -7163,13 +6153,16 @@
         <v>90</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q37" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
@@ -7186,28 +6179,31 @@
         <v>80</v>
       </c>
       <c r="F38" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
         <v>0.35</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M38" s="3">
         <v>0.2</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N38" s="3">
         <v>0.5</v>
       </c>
-      <c r="N38" s="3">
+      <c r="O38" s="3">
         <v>0.4</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0.32</v>
       </c>
       <c r="P38" s="3">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q38" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>59</v>
       </c>
@@ -7224,9 +6220,7 @@
         <v>63</v>
       </c>
       <c r="F39" s="48"/>
-      <c r="G39" s="3">
-        <v>2</v>
-      </c>
+      <c r="G39" s="48"/>
       <c r="H39" s="3">
         <v>2</v>
       </c>
@@ -7236,8 +6230,11 @@
       <c r="J39" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="K39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>59</v>
       </c>
@@ -7254,9 +6251,7 @@
         <v>65</v>
       </c>
       <c r="F40" s="48"/>
-      <c r="G40" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="G40" s="48"/>
       <c r="H40" s="3" t="s">
         <v>82</v>
       </c>
@@ -7266,8 +6261,11 @@
       <c r="J40" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>59</v>
       </c>
@@ -7284,10 +6282,10 @@
         <v>80</v>
       </c>
       <c r="F41" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="48" t="s">
         <v>167</v>
-      </c>
-      <c r="G41" s="24">
-        <v>1.1000000000000001</v>
       </c>
       <c r="H41" s="24">
         <v>1.1000000000000001</v>
@@ -7298,7 +6296,9 @@
       <c r="J41" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K41" s="24"/>
+      <c r="K41" s="24">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
@@ -7328,8 +6328,9 @@
       <c r="AL41" s="24"/>
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
-    </row>
-    <row r="42" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO41" s="24"/>
+    </row>
+    <row r="42" spans="1:41" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
         <v>59</v>
       </c>
@@ -7344,7 +6345,7 @@
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="48"/>
-      <c r="G42" s="37"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
@@ -7360,25 +6361,23 @@
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
-      <c r="W42" s="37" t="s">
-        <v>117</v>
-      </c>
+      <c r="W42" s="37"/>
       <c r="X42" s="37" t="s">
         <v>117</v>
       </c>
       <c r="Y42" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="Z42" s="37"/>
+      <c r="Z42" s="37" t="s">
+        <v>117</v>
+      </c>
       <c r="AA42" s="37"/>
       <c r="AB42" s="37"/>
       <c r="AC42" s="37"/>
       <c r="AD42" s="37"/>
       <c r="AE42" s="37"/>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="37" t="s">
-        <v>117</v>
-      </c>
+      <c r="AG42" s="37"/>
       <c r="AH42" s="37" t="s">
         <v>117</v>
       </c>
@@ -7400,8 +6399,11 @@
       <c r="AN42" s="37" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO42" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>59</v>
       </c>
@@ -7416,7 +6418,7 @@
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="48"/>
-      <c r="G43" s="24"/>
+      <c r="G43" s="48"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -7432,25 +6434,23 @@
       <c r="T43" s="24"/>
       <c r="U43" s="24"/>
       <c r="V43" s="24"/>
-      <c r="W43" s="24" t="s">
+      <c r="W43" s="24"/>
+      <c r="X43" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="X43" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="Y43" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="Z43" s="24"/>
+      <c r="Z43" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="AA43" s="24"/>
       <c r="AB43" s="24"/>
       <c r="AC43" s="24"/>
       <c r="AD43" s="24"/>
       <c r="AE43" s="24"/>
       <c r="AF43" s="24"/>
-      <c r="AG43" s="24" t="s">
-        <v>145</v>
-      </c>
+      <c r="AG43" s="24"/>
       <c r="AH43" s="24" t="s">
         <v>145</v>
       </c>
@@ -7472,8 +6472,11 @@
       <c r="AN43" s="24" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="44" spans="1:40" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO43" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>59</v>
       </c>
@@ -7488,7 +6491,7 @@
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="48"/>
-      <c r="G44" s="41"/>
+      <c r="G44" s="48"/>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
@@ -7504,18 +6507,18 @@
       <c r="T44" s="41"/>
       <c r="U44" s="41"/>
       <c r="V44" s="41"/>
-      <c r="W44" s="41" t="s">
+      <c r="W44" s="41"/>
+      <c r="X44" s="41" t="s">
         <v>163</v>
-      </c>
-      <c r="X44" s="41" t="str">
-        <f>"SCHEDULE:CONSTANT-1"</f>
-        <v>SCHEDULE:CONSTANT-1</v>
       </c>
       <c r="Y44" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-1"</f>
         <v>SCHEDULE:CONSTANT-1</v>
       </c>
-      <c r="Z44" s="41"/>
+      <c r="Z44" s="41" t="str">
+        <f>"SCHEDULE:CONSTANT-1"</f>
+        <v>SCHEDULE:CONSTANT-1</v>
+      </c>
       <c r="AA44" s="41"/>
       <c r="AB44" s="41"/>
       <c r="AC44" s="41"/>
@@ -7525,25 +6528,26 @@
       <c r="AG44" s="41"/>
       <c r="AH44" s="41"/>
       <c r="AI44" s="41"/>
-      <c r="AJ44" s="41" t="str">
+      <c r="AJ44" s="41"/>
+      <c r="AK44" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AK44" s="41"/>
-      <c r="AL44" s="41" t="str">
+      <c r="AL44" s="41"/>
+      <c r="AM44" s="41" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-      <c r="AM44" s="41" t="str">
-        <f t="shared" ref="AM44:AN44" si="11">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
+      <c r="AN44" s="41" t="str">
+        <f t="shared" ref="AN44:AO44" si="11">"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
-      <c r="AN44" s="41" t="str">
+      <c r="AO44" s="41" t="str">
         <f t="shared" si="11"/>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>59</v>
       </c>
@@ -7558,7 +6562,7 @@
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="48"/>
-      <c r="G45" s="24"/>
+      <c r="G45" s="48"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -7577,9 +6581,7 @@
       <c r="W45" s="24"/>
       <c r="X45" s="24"/>
       <c r="Y45" s="24"/>
-      <c r="Z45" s="24" t="s">
-        <v>117</v>
-      </c>
+      <c r="Z45" s="24"/>
       <c r="AA45" s="24" t="s">
         <v>117</v>
       </c>
@@ -7598,7 +6600,9 @@
       <c r="AF45" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AG45" s="24"/>
+      <c r="AG45" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="AH45" s="24"/>
       <c r="AI45" s="24"/>
       <c r="AJ45" s="24"/>
@@ -7606,8 +6610,9 @@
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO45" s="24"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>59</v>
       </c>
@@ -7622,7 +6627,7 @@
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="48"/>
-      <c r="G46" s="24"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -7641,17 +6646,15 @@
       <c r="W46" s="24"/>
       <c r="X46" s="24"/>
       <c r="Y46" s="24"/>
-      <c r="Z46" s="24" t="s">
-        <v>128</v>
-      </c>
+      <c r="Z46" s="24"/>
       <c r="AA46" s="24" t="s">
         <v>128</v>
       </c>
       <c r="AB46" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC46" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="AC46" s="24" t="s">
-        <v>128</v>
       </c>
       <c r="AD46" s="24" t="s">
         <v>128</v>
@@ -7662,7 +6665,9 @@
       <c r="AF46" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="AG46" s="24"/>
+      <c r="AG46" s="24" t="s">
+        <v>128</v>
+      </c>
       <c r="AH46" s="24"/>
       <c r="AI46" s="24"/>
       <c r="AJ46" s="24"/>
@@ -7670,8 +6675,9 @@
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO46" s="24"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>59</v>
       </c>
@@ -7686,7 +6692,7 @@
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="48"/>
-      <c r="G47" s="24"/>
+      <c r="G47" s="48"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
@@ -7705,9 +6711,7 @@
       <c r="W47" s="24"/>
       <c r="X47" s="24"/>
       <c r="Y47" s="24"/>
-      <c r="Z47" s="24" t="s">
-        <v>153</v>
-      </c>
+      <c r="Z47" s="24"/>
       <c r="AA47" s="24" t="s">
         <v>153</v>
       </c>
@@ -7726,7 +6730,9 @@
       <c r="AF47" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="AG47" s="24"/>
+      <c r="AG47" s="24" t="s">
+        <v>153</v>
+      </c>
       <c r="AH47" s="24"/>
       <c r="AI47" s="24"/>
       <c r="AJ47" s="24"/>
@@ -7734,8 +6740,9 @@
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO47" s="24"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>59</v>
       </c>
@@ -7750,7 +6757,7 @@
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="48"/>
-      <c r="G48" s="24"/>
+      <c r="G48" s="48"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
@@ -7769,9 +6776,7 @@
       <c r="W48" s="24"/>
       <c r="X48" s="24"/>
       <c r="Y48" s="24"/>
-      <c r="Z48" s="24">
-        <v>90</v>
-      </c>
+      <c r="Z48" s="24"/>
       <c r="AA48" s="24">
         <v>90</v>
       </c>
@@ -7790,7 +6795,9 @@
       <c r="AF48" s="24">
         <v>90</v>
       </c>
-      <c r="AG48" s="24"/>
+      <c r="AG48" s="24">
+        <v>90</v>
+      </c>
       <c r="AH48" s="24"/>
       <c r="AI48" s="24"/>
       <c r="AJ48" s="24"/>
@@ -7798,8 +6805,9 @@
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO48" s="24"/>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>59</v>
       </c>
@@ -7814,7 +6822,7 @@
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="48"/>
-      <c r="G49" s="24"/>
+      <c r="G49" s="48"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -7833,28 +6841,28 @@
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
       <c r="Y49" s="24"/>
-      <c r="Z49" s="24">
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24">
         <v>180</v>
       </c>
-      <c r="AA49" s="24" t="s">
+      <c r="AB49" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AB49" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="24" t="s">
+      <c r="AC49" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AD49" s="24">
+      <c r="AE49" s="24">
         <v>180</v>
       </c>
-      <c r="AE49" s="24">
+      <c r="AF49" s="24">
         <v>1</v>
       </c>
-      <c r="AF49" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="24"/>
+      <c r="AG49" s="24">
+        <v>0</v>
+      </c>
       <c r="AH49" s="24"/>
       <c r="AI49" s="24"/>
       <c r="AJ49" s="24"/>
@@ -7862,8 +6870,9 @@
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO49" s="24"/>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>59</v>
       </c>
@@ -7880,7 +6889,7 @@
         <v>63</v>
       </c>
       <c r="F50" s="48"/>
-      <c r="G50" s="24"/>
+      <c r="G50" s="48"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -7902,15 +6911,15 @@
       <c r="Z50" s="24"/>
       <c r="AA50" s="24"/>
       <c r="AB50" s="24"/>
-      <c r="AC50" s="24" t="s">
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AD50" s="24"/>
       <c r="AE50" s="24"/>
-      <c r="AF50" s="24" t="s">
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AG50" s="24"/>
       <c r="AH50" s="24"/>
       <c r="AI50" s="24"/>
       <c r="AJ50" s="24"/>
@@ -7918,8 +6927,9 @@
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO50" s="24"/>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>59</v>
       </c>
@@ -7936,7 +6946,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="48"/>
-      <c r="G51" s="24"/>
+      <c r="G51" s="48"/>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -7958,15 +6968,15 @@
       <c r="Z51" s="24"/>
       <c r="AA51" s="24"/>
       <c r="AB51" s="24"/>
-      <c r="AC51" s="24" t="s">
+      <c r="AC51" s="24"/>
+      <c r="AD51" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="AD51" s="24"/>
       <c r="AE51" s="24"/>
-      <c r="AF51" s="24" t="s">
+      <c r="AF51" s="24"/>
+      <c r="AG51" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="AG51" s="24"/>
       <c r="AH51" s="24"/>
       <c r="AI51" s="24"/>
       <c r="AJ51" s="24"/>
@@ -7974,8 +6984,9 @@
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO51" s="24"/>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>59</v>
       </c>
@@ -7990,13 +7001,11 @@
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="48"/>
-      <c r="Z52" s="3">
-        <v>2</v>
-      </c>
+      <c r="G52" s="48"/>
       <c r="AA52" s="3">
         <v>2</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AB52" s="3">
         <v>2</v>
       </c>
       <c r="AD52" s="3">
@@ -8005,8 +7014,11 @@
       <c r="AE52" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AF52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>59</v>
       </c>
@@ -8021,13 +7033,11 @@
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="48"/>
-      <c r="Z53" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="G53" s="48"/>
       <c r="AA53" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AC53" s="3" t="s">
+      <c r="AB53" s="3" t="s">
         <v>137</v>
       </c>
       <c r="AD53" s="3" t="s">
@@ -8036,8 +7046,11 @@
       <c r="AE53" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AF53" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>59</v>
       </c>
@@ -8052,13 +7065,11 @@
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="48"/>
-      <c r="Z54" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G54" s="48"/>
       <c r="AA54" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AC54" s="3" t="s">
+      <c r="AB54" s="3" t="s">
         <v>153</v>
       </c>
       <c r="AD54" s="3" t="s">
@@ -8067,8 +7078,11 @@
       <c r="AE54" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AF54" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>59</v>
       </c>
@@ -8083,13 +7097,11 @@
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="48"/>
-      <c r="Z55" s="3">
-        <v>90</v>
-      </c>
+      <c r="G55" s="48"/>
       <c r="AA55" s="3">
         <v>90</v>
       </c>
-      <c r="AC55" s="3">
+      <c r="AB55" s="3">
         <v>90</v>
       </c>
       <c r="AD55" s="3">
@@ -8098,8 +7110,11 @@
       <c r="AE55" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AF55" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>59</v>
       </c>
@@ -8114,23 +7129,24 @@
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="48"/>
-      <c r="Z56" s="3">
+      <c r="G56" s="48"/>
+      <c r="AA56" s="3">
         <v>270</v>
       </c>
-      <c r="AA56" s="3" t="s">
+      <c r="AB56" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AC56" s="3" t="s">
+      <c r="AD56" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AD56" s="3">
+      <c r="AE56" s="3">
         <v>180</v>
       </c>
-      <c r="AE56" s="3" t="s">
+      <c r="AF56" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>59</v>
       </c>
@@ -8147,11 +7163,12 @@
         <v>63</v>
       </c>
       <c r="F57" s="48"/>
-      <c r="AC57" s="3">
+      <c r="G57" s="48"/>
+      <c r="AD57" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>59</v>
       </c>
@@ -8168,7 +7185,7 @@
         <v>65</v>
       </c>
       <c r="F58" s="49"/>
-      <c r="G58" s="21"/>
+      <c r="G58" s="49"/>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
@@ -8190,10 +7207,10 @@
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
       <c r="AB58" s="21"/>
-      <c r="AC58" s="21" t="s">
+      <c r="AC58" s="21"/>
+      <c r="AD58" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AD58" s="21"/>
       <c r="AE58" s="21"/>
       <c r="AF58" s="21"/>
       <c r="AG58" s="21"/>
@@ -8204,8 +7221,9 @@
       <c r="AL58" s="21"/>
       <c r="AM58" s="21"/>
       <c r="AN58" s="21"/>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO58" s="21"/>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>56</v>
       </c>
@@ -8222,16 +7240,19 @@
         <v>80</v>
       </c>
       <c r="F59" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6">
+      <c r="H59" s="6"/>
+      <c r="I59" s="6">
         <v>0.51</v>
       </c>
-      <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>56</v>
       </c>
@@ -8246,12 +7267,13 @@
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="48"/>
-      <c r="G60" s="6"/>
+      <c r="G60" s="48"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:41" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>56</v>
       </c>
@@ -8262,7 +7284,7 @@
       <c r="D61" s="20"/>
       <c r="E61" s="30"/>
       <c r="F61" s="49"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="49"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
@@ -8296,8 +7318,9 @@
       <c r="AL61" s="21"/>
       <c r="AM61" s="21"/>
       <c r="AN61" s="21"/>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO61" s="21"/>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>56</v>
       </c>
@@ -8314,18 +7337,21 @@
         <v>80</v>
       </c>
       <c r="F62" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6">
+      <c r="H62" s="6"/>
+      <c r="I62" s="6">
         <v>0.41</v>
       </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6">
+      <c r="J62" s="6"/>
+      <c r="K62" s="6">
         <v>0.51</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>56</v>
       </c>
@@ -8340,28 +7366,29 @@
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="48"/>
-      <c r="G63" s="6"/>
+      <c r="G63" s="48"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="AG63" s="24" t="str">
+      <c r="K63" s="6"/>
+      <c r="AH63" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1638/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.187</v>
       </c>
-      <c r="AH63" s="24" t="str">
+      <c r="AI63" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1900/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2169</v>
       </c>
-      <c r="AI63" s="24" t="str">
+      <c r="AJ63" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2400/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.274</v>
       </c>
-      <c r="AK63" s="24" t="str">
+      <c r="AL63" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(1800/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2055</v>
       </c>
     </row>
-    <row r="64" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>56</v>
       </c>
@@ -8372,7 +7399,7 @@
       <c r="D64" s="20"/>
       <c r="E64" s="30"/>
       <c r="F64" s="49"/>
-      <c r="G64" s="21"/>
+      <c r="G64" s="49"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
@@ -8406,8 +7433,9 @@
       <c r="AL64" s="21"/>
       <c r="AM64" s="21"/>
       <c r="AN64" s="21"/>
-    </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO64" s="21"/>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>56</v>
       </c>
@@ -8424,16 +7452,19 @@
         <v>80</v>
       </c>
       <c r="F65" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="6">
+      <c r="J65" s="6"/>
+      <c r="K65" s="6">
         <v>0.41</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>56</v>
       </c>
@@ -8448,28 +7479,29 @@
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="48"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="48"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="AG66" s="24" t="str">
+      <c r="K66" s="6"/>
+      <c r="AH66" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AH66" s="24" t="str">
-        <f t="shared" ref="AH66:AI66" si="12">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
+      <c r="AI66" s="24" t="str">
+        <f t="shared" ref="AI66:AJ66" si="12">"SCHEDULE:CONSTANT-"&amp;ROUND(2340/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AI66" s="24" t="str">
+      <c r="AJ66" s="24" t="str">
         <f t="shared" si="12"/>
         <v>SCHEDULE:CONSTANT-0.2671</v>
       </c>
-      <c r="AK66" s="24" t="str">
+      <c r="AL66" s="24" t="str">
         <f>"SCHEDULE:CONSTANT-"&amp;ROUND(2000/8760,4)</f>
         <v>SCHEDULE:CONSTANT-0.2283</v>
       </c>
     </row>
-    <row r="67" spans="1:40" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:41" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>56</v>
       </c>
@@ -8480,7 +7512,7 @@
       <c r="D67" s="20"/>
       <c r="E67" s="30"/>
       <c r="F67" s="49"/>
-      <c r="G67" s="21"/>
+      <c r="G67" s="49"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
@@ -8514,1051 +7546,1259 @@
       <c r="AL67" s="21"/>
       <c r="AM67" s="21"/>
       <c r="AN67" s="21"/>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO67" s="21"/>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="28"/>
       <c r="F68" s="48"/>
-    </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G68" s="48"/>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="28"/>
       <c r="F69" s="48"/>
-    </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G69" s="48"/>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="28"/>
       <c r="F70" s="48"/>
-    </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G70" s="48"/>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="28"/>
       <c r="F71" s="48"/>
-    </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G71" s="48"/>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="28"/>
       <c r="F72" s="48"/>
-    </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G72" s="48"/>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="28"/>
       <c r="F73" s="48"/>
-    </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G73" s="48"/>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="28"/>
       <c r="F74" s="48"/>
-    </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G74" s="48"/>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="28"/>
       <c r="F75" s="48"/>
-    </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G75" s="48"/>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="28"/>
       <c r="F76" s="48"/>
-    </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G76" s="48"/>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="28"/>
       <c r="F77" s="48"/>
-    </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G77" s="48"/>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="28"/>
       <c r="F78" s="48"/>
-    </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G78" s="48"/>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="28"/>
       <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A68:F79 A5:F5 A10:F20">
-    <cfRule type="expression" dxfId="381" priority="331">
+  <conditionalFormatting sqref="A68:E79 A5:E5 A10:E20 G10:G20 G5 G68:G79">
+    <cfRule type="expression" dxfId="229" priority="370">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="380" priority="306">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="expression" dxfId="379" priority="305">
+    <cfRule type="expression" dxfId="228" priority="345">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:E6 G6">
+    <cfRule type="expression" dxfId="227" priority="344">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="378" priority="303">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F9">
-    <cfRule type="expression" dxfId="377" priority="302">
+    <cfRule type="expression" dxfId="226" priority="342">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:E9 G7:G9">
+    <cfRule type="expression" dxfId="225" priority="341">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="376" priority="304">
+    <cfRule type="expression" dxfId="224" priority="343">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="375" priority="260">
+    <cfRule type="expression" dxfId="223" priority="299">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B9">
-    <cfRule type="expression" dxfId="374" priority="289">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:F25">
-    <cfRule type="expression" dxfId="373" priority="300">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:F23">
-    <cfRule type="expression" dxfId="372" priority="291">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64:F64">
-    <cfRule type="expression" dxfId="371" priority="252">
+    <cfRule type="expression" dxfId="222" priority="328">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E25 G24:G25">
+    <cfRule type="expression" dxfId="221" priority="339">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23 G23">
+    <cfRule type="expression" dxfId="220" priority="330">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64:E64 G64">
+    <cfRule type="expression" dxfId="219" priority="291">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B31 A24:B25">
-    <cfRule type="expression" dxfId="370" priority="290">
+    <cfRule type="expression" dxfId="218" priority="329">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23">
-    <cfRule type="expression" dxfId="369" priority="286">
+    <cfRule type="expression" dxfId="217" priority="325">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B35">
-    <cfRule type="expression" dxfId="368" priority="287">
+    <cfRule type="expression" dxfId="216" priority="326">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C25 C30:C38">
-    <cfRule type="expression" dxfId="367" priority="284">
+    <cfRule type="expression" dxfId="215" priority="323">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B60">
-    <cfRule type="expression" dxfId="366" priority="285">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:F27">
-    <cfRule type="expression" dxfId="365" priority="281">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:F29">
-    <cfRule type="expression" dxfId="364" priority="280">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="expression" dxfId="363" priority="279">
+    <cfRule type="expression" dxfId="214" priority="324">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E27 G26:G27">
+    <cfRule type="expression" dxfId="213" priority="320">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:E29 G29">
+    <cfRule type="expression" dxfId="212" priority="319">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E28 G28">
+    <cfRule type="expression" dxfId="211" priority="318">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29 A26:B27">
-    <cfRule type="expression" dxfId="362" priority="278">
+    <cfRule type="expression" dxfId="210" priority="317">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="361" priority="277">
+    <cfRule type="expression" dxfId="209" priority="316">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29">
-    <cfRule type="expression" dxfId="360" priority="276">
+    <cfRule type="expression" dxfId="208" priority="315">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:D40">
-    <cfRule type="expression" dxfId="359" priority="275">
+    <cfRule type="expression" dxfId="207" priority="314">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="358" priority="239">
+    <cfRule type="expression" dxfId="206" priority="278">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:D40">
-    <cfRule type="expression" dxfId="357" priority="274">
+    <cfRule type="expression" dxfId="205" priority="313">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B40">
-    <cfRule type="expression" dxfId="356" priority="272">
+    <cfRule type="expression" dxfId="204" priority="311">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C40">
-    <cfRule type="expression" dxfId="355" priority="270">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:F40">
-    <cfRule type="expression" dxfId="354" priority="269">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F30">
-    <cfRule type="expression" dxfId="353" priority="263">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:F39">
-    <cfRule type="expression" dxfId="352" priority="268">
+    <cfRule type="expression" dxfId="203" priority="309">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E40 G39:G40">
+    <cfRule type="expression" dxfId="202" priority="308">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30 G30">
+    <cfRule type="expression" dxfId="201" priority="302">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39 G39">
+    <cfRule type="expression" dxfId="200" priority="307">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D35">
-    <cfRule type="expression" dxfId="351" priority="266">
+    <cfRule type="expression" dxfId="199" priority="305">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D35">
-    <cfRule type="expression" dxfId="350" priority="265">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F31">
-    <cfRule type="expression" dxfId="349" priority="264">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:F35">
-    <cfRule type="expression" dxfId="348" priority="262">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:F66">
-    <cfRule type="expression" dxfId="347" priority="250">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:F61">
-    <cfRule type="expression" dxfId="346" priority="259">
+    <cfRule type="expression" dxfId="198" priority="304">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E31 G30:G31">
+    <cfRule type="expression" dxfId="197" priority="303">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35 G32:G35">
+    <cfRule type="expression" dxfId="196" priority="301">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66 G66">
+    <cfRule type="expression" dxfId="195" priority="289">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:E61 G61">
+    <cfRule type="expression" dxfId="194" priority="298">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="345" priority="258">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:F63">
-    <cfRule type="expression" dxfId="344" priority="257">
+    <cfRule type="expression" dxfId="193" priority="297">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63 G63">
+    <cfRule type="expression" dxfId="192" priority="296">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B63">
-    <cfRule type="expression" dxfId="343" priority="255">
+    <cfRule type="expression" dxfId="191" priority="294">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="342" priority="254">
+    <cfRule type="expression" dxfId="190" priority="293">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="341" priority="253">
+    <cfRule type="expression" dxfId="189" priority="292">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="expression" dxfId="340" priority="251">
+    <cfRule type="expression" dxfId="188" priority="290">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:B66">
-    <cfRule type="expression" dxfId="339" priority="248">
+    <cfRule type="expression" dxfId="187" priority="287">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:B66">
-    <cfRule type="expression" dxfId="338" priority="247">
+    <cfRule type="expression" dxfId="186" priority="286">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="337" priority="246">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:F67">
-    <cfRule type="expression" dxfId="336" priority="245">
+    <cfRule type="expression" dxfId="185" priority="285">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67:E67 G67">
+    <cfRule type="expression" dxfId="184" priority="284">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="335" priority="244">
+    <cfRule type="expression" dxfId="183" priority="283">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="334" priority="234">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65:F65">
-    <cfRule type="expression" dxfId="333" priority="233">
+    <cfRule type="expression" dxfId="182" priority="273">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65 G65">
+    <cfRule type="expression" dxfId="181" priority="272">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="332" priority="241">
+    <cfRule type="expression" dxfId="180" priority="280">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="331" priority="240">
+    <cfRule type="expression" dxfId="179" priority="279">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="expression" dxfId="330" priority="229">
+    <cfRule type="expression" dxfId="178" priority="268">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="329" priority="238">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:F62">
-    <cfRule type="expression" dxfId="328" priority="237">
+    <cfRule type="expression" dxfId="177" priority="277">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62 G62">
+    <cfRule type="expression" dxfId="176" priority="276">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="327" priority="236">
+    <cfRule type="expression" dxfId="175" priority="275">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="326" priority="235">
+    <cfRule type="expression" dxfId="174" priority="274">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:B54">
-    <cfRule type="expression" dxfId="325" priority="168">
+    <cfRule type="expression" dxfId="173" priority="207">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:B56">
-    <cfRule type="expression" dxfId="324" priority="167">
+    <cfRule type="expression" dxfId="172" priority="206">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D38">
-    <cfRule type="expression" dxfId="323" priority="232">
+    <cfRule type="expression" dxfId="171" priority="271">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D38">
-    <cfRule type="expression" dxfId="322" priority="231">
+    <cfRule type="expression" dxfId="170" priority="270">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B37">
-    <cfRule type="expression" dxfId="321" priority="230">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:F36">
-    <cfRule type="expression" dxfId="320" priority="226">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:F37">
-    <cfRule type="expression" dxfId="319" priority="227">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F38">
-    <cfRule type="expression" dxfId="318" priority="225">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:J39 AG31:AL31 AM59:AN66 AJ63 AJ66 M36:T39 M52:T57 AG10:AL13 AG59:AL62 AG67:AN79 AG64:AL65 AG15:AL22 AG14:AN14 AG44:AI44 AG45:AJ51 AB31:AF51 AB5:AF23 Z24:AL29 AB57:AF79 AF53:AF56 Z52:AF52 G40:T51 G58:T79 G31:U35 Q36:U79 Z42:AA44 V42:V44 V45:AA79 V31:AA41 G5:AA29">
-    <cfRule type="expression" dxfId="317" priority="222">
+    <cfRule type="expression" dxfId="169" priority="269">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36 G36">
+    <cfRule type="expression" dxfId="168" priority="265">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E37 G36:G37">
+    <cfRule type="expression" dxfId="167" priority="266">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38 G38">
+    <cfRule type="expression" dxfId="166" priority="264">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:K39 AH31:AM31 AN59:AO66 AK63 AK66 N36:U39 N52:U57 AH10:AM13 AH59:AM62 AH67:AO79 AH64:AM65 AH15:AM22 AH14:AO14 AH44:AJ44 AH45:AK51 AC31:AG51 AC5:AG23 AA24:AM29 AC57:AG79 AG53:AG56 AA52:AG52 H40:U51 H58:U79 H31:V35 R36:V79 AA42:AB44 W42:W44 W45:AB79 W31:AB41 H5:AB29">
+    <cfRule type="expression" dxfId="165" priority="261">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C44">
-    <cfRule type="expression" dxfId="316" priority="221">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:F44">
-    <cfRule type="expression" dxfId="315" priority="220">
+    <cfRule type="expression" dxfId="164" priority="260">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E44 G41:G44">
+    <cfRule type="expression" dxfId="163" priority="259">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B44">
-    <cfRule type="expression" dxfId="314" priority="219">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:L37">
-    <cfRule type="expression" dxfId="313" priority="217">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:L39">
-    <cfRule type="expression" dxfId="312" priority="215">
+    <cfRule type="expression" dxfId="162" priority="258">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:M37">
+    <cfRule type="expression" dxfId="161" priority="256">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38:M39">
+    <cfRule type="expression" dxfId="160" priority="254">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B45">
-    <cfRule type="expression" dxfId="311" priority="212">
+    <cfRule type="expression" dxfId="159" priority="251">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C49 C51">
-    <cfRule type="expression" dxfId="310" priority="211">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:F22">
-    <cfRule type="expression" dxfId="309" priority="183">
+    <cfRule type="expression" dxfId="158" priority="250">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:E22 G21:G22">
+    <cfRule type="expression" dxfId="157" priority="222">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51">
-    <cfRule type="expression" dxfId="308" priority="208">
+    <cfRule type="expression" dxfId="156" priority="247">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C58">
-    <cfRule type="expression" dxfId="307" priority="179">
+    <cfRule type="expression" dxfId="155" priority="218">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B58">
-    <cfRule type="expression" dxfId="306" priority="176">
+    <cfRule type="expression" dxfId="154" priority="215">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="305" priority="204">
+    <cfRule type="expression" dxfId="153" priority="243">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="304" priority="203">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45">
-    <cfRule type="expression" dxfId="303" priority="202">
+    <cfRule type="expression" dxfId="152" priority="242">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45 G45">
+    <cfRule type="expression" dxfId="151" priority="241">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B49">
-    <cfRule type="expression" dxfId="302" priority="198">
+    <cfRule type="expression" dxfId="150" priority="237">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D47 D49">
-    <cfRule type="expression" dxfId="301" priority="201">
+    <cfRule type="expression" dxfId="149" priority="240">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D47 D49">
-    <cfRule type="expression" dxfId="300" priority="200">
+    <cfRule type="expression" dxfId="148" priority="239">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B47">
-    <cfRule type="expression" dxfId="299" priority="199">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
-    <cfRule type="expression" dxfId="298" priority="196">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F47">
-    <cfRule type="expression" dxfId="297" priority="197">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F49">
-    <cfRule type="expression" dxfId="296" priority="195">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46:J49 G51:J51">
-    <cfRule type="expression" dxfId="295" priority="194">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:L47">
-    <cfRule type="expression" dxfId="294" priority="189">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB46:AE48 AB49 AD49:AE49">
-    <cfRule type="expression" dxfId="293" priority="184">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48:L49 K51:L51">
-    <cfRule type="expression" dxfId="292" priority="188">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z46:AA48 Z51:AE51 Z49">
-    <cfRule type="expression" dxfId="291" priority="187">
+    <cfRule type="expression" dxfId="147" priority="238">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46 G46">
+    <cfRule type="expression" dxfId="146" priority="235">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47 G46:G47">
+    <cfRule type="expression" dxfId="145" priority="236">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:E49 G48:G49">
+    <cfRule type="expression" dxfId="144" priority="234">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:K49 H51:K51">
+    <cfRule type="expression" dxfId="143" priority="233">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:M47">
+    <cfRule type="expression" dxfId="142" priority="228">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC46:AF48 AC49 AE49:AF49">
+    <cfRule type="expression" dxfId="141" priority="223">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:M49 L51:M51">
+    <cfRule type="expression" dxfId="140" priority="227">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA46:AB48 AA51:AF51 AA49">
+    <cfRule type="expression" dxfId="139" priority="226">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="290" priority="185">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
-    <cfRule type="expression" dxfId="289" priority="112">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC53:AE55 AD56">
-    <cfRule type="expression" dxfId="288" priority="156">
+    <cfRule type="expression" dxfId="138" priority="224">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="expression" dxfId="137" priority="151">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD53:AF55 AE56">
+    <cfRule type="expression" dxfId="136" priority="195">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="287" priority="155">
+    <cfRule type="expression" dxfId="135" priority="194">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="expression" dxfId="286" priority="152">
+    <cfRule type="expression" dxfId="134" priority="191">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D51">
-    <cfRule type="expression" dxfId="285" priority="146">
+    <cfRule type="expression" dxfId="133" priority="185">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:D54 D56">
-    <cfRule type="expression" dxfId="284" priority="170">
+    <cfRule type="expression" dxfId="132" priority="209">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:D54 D56">
-    <cfRule type="expression" dxfId="283" priority="169">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:F53">
-    <cfRule type="expression" dxfId="282" priority="165">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:F54">
-    <cfRule type="expression" dxfId="281" priority="166">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F56">
-    <cfRule type="expression" dxfId="280" priority="164">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53:J57">
-    <cfRule type="expression" dxfId="279" priority="163">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:L54">
-    <cfRule type="expression" dxfId="278" priority="162">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG52:AJ52">
-    <cfRule type="expression" dxfId="277" priority="120">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:L57">
-    <cfRule type="expression" dxfId="276" priority="161">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA53:AA57">
-    <cfRule type="expression" dxfId="275" priority="160">
+    <cfRule type="expression" dxfId="131" priority="208">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53 G53">
+    <cfRule type="expression" dxfId="130" priority="204">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:E54 G53:G54">
+    <cfRule type="expression" dxfId="129" priority="205">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:E56 G55:G56">
+    <cfRule type="expression" dxfId="128" priority="203">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:K57">
+    <cfRule type="expression" dxfId="127" priority="202">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53:M54">
+    <cfRule type="expression" dxfId="126" priority="201">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH52:AK52">
+    <cfRule type="expression" dxfId="125" priority="159">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:M57">
+    <cfRule type="expression" dxfId="124" priority="200">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB53:AB57">
+    <cfRule type="expression" dxfId="123" priority="199">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="274" priority="159">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB53:AB56">
-    <cfRule type="expression" dxfId="273" priority="157">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG33:AL33">
-    <cfRule type="expression" dxfId="272" priority="119">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50:J50">
-    <cfRule type="expression" dxfId="271" priority="149">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:L50">
-    <cfRule type="expression" dxfId="270" priority="148">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD50:AE50 Z50:AB50">
-    <cfRule type="expression" dxfId="269" priority="147">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F51">
-    <cfRule type="expression" dxfId="268" priority="145">
+    <cfRule type="expression" dxfId="122" priority="198">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC53:AC56">
+    <cfRule type="expression" dxfId="121" priority="196">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33:AM33">
+    <cfRule type="expression" dxfId="120" priority="158">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:K50">
+    <cfRule type="expression" dxfId="119" priority="188">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50:M50">
+    <cfRule type="expression" dxfId="118" priority="187">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE50:AF50 AA50:AC50">
+    <cfRule type="expression" dxfId="117" priority="186">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E51 G50:G51">
+    <cfRule type="expression" dxfId="116" priority="184">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:D58">
-    <cfRule type="expression" dxfId="267" priority="144">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:F58">
-    <cfRule type="expression" dxfId="266" priority="143">
+    <cfRule type="expression" dxfId="115" priority="183">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58 G57:G58">
+    <cfRule type="expression" dxfId="114" priority="182">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="265" priority="142">
+    <cfRule type="expression" dxfId="113" priority="181">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B52">
-    <cfRule type="expression" dxfId="264" priority="141">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52:J52">
-    <cfRule type="expression" dxfId="263" priority="140">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:L52">
-    <cfRule type="expression" dxfId="262" priority="139">
+    <cfRule type="expression" dxfId="112" priority="180">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:K52">
+    <cfRule type="expression" dxfId="111" priority="179">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:M52">
+    <cfRule type="expression" dxfId="110" priority="178">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="261" priority="137">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
-    <cfRule type="expression" dxfId="260" priority="136">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF46:AF49">
-    <cfRule type="expression" dxfId="259" priority="135">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF51">
-    <cfRule type="expression" dxfId="258" priority="134">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG34:AL35">
-    <cfRule type="expression" dxfId="257" priority="118">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC50">
-    <cfRule type="expression" dxfId="256" priority="132">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC56">
-    <cfRule type="expression" dxfId="255" priority="131">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE56">
-    <cfRule type="expression" dxfId="254" priority="130">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF50">
-    <cfRule type="expression" dxfId="253" priority="129">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG32:AL32">
-    <cfRule type="expression" dxfId="252" priority="128">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG41:AJ42 AK42:AL42">
-    <cfRule type="expression" dxfId="251" priority="126">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG5:AJ9 AG36:AJ40">
-    <cfRule type="expression" dxfId="250" priority="127">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG58:AJ58 AG46:AJ48 AG51:AJ51">
-    <cfRule type="expression" dxfId="249" priority="125">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG53:AJ57">
-    <cfRule type="expression" dxfId="248" priority="122">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG50:AJ50">
-    <cfRule type="expression" dxfId="247" priority="121">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK66">
-    <cfRule type="expression" dxfId="246" priority="60">
+    <cfRule type="expression" dxfId="109" priority="176">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52 G52">
+    <cfRule type="expression" dxfId="108" priority="175">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG46:AG49">
+    <cfRule type="expression" dxfId="107" priority="174">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG51">
+    <cfRule type="expression" dxfId="106" priority="173">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34:AM35">
+    <cfRule type="expression" dxfId="105" priority="157">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD50">
+    <cfRule type="expression" dxfId="104" priority="171">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD56">
+    <cfRule type="expression" dxfId="103" priority="170">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF56">
+    <cfRule type="expression" dxfId="102" priority="169">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG50">
+    <cfRule type="expression" dxfId="101" priority="168">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32:AM32">
+    <cfRule type="expression" dxfId="100" priority="167">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH41:AK42 AL42:AM42">
+    <cfRule type="expression" dxfId="99" priority="165">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AK9 AH36:AK40">
+    <cfRule type="expression" dxfId="98" priority="166">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH58:AK58 AH46:AK48 AH51:AK51">
+    <cfRule type="expression" dxfId="97" priority="164">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH53:AK57">
+    <cfRule type="expression" dxfId="96" priority="161">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH50:AK50">
+    <cfRule type="expression" dxfId="95" priority="160">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL66">
+    <cfRule type="expression" dxfId="94" priority="99">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="245" priority="117">
+    <cfRule type="expression" dxfId="93" priority="156">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="244" priority="115">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG43:AL43">
-    <cfRule type="expression" dxfId="243" priority="113">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH23:AL23">
-    <cfRule type="expression" dxfId="242" priority="111">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK52:AL52">
-    <cfRule type="expression" dxfId="241" priority="100">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL44:AN44">
-    <cfRule type="expression" dxfId="240" priority="63">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ44">
-    <cfRule type="expression" dxfId="239" priority="62">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK41:AL41 AK45:AL51 AK44">
-    <cfRule type="expression" dxfId="238" priority="105">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AL9 AK36:AL40 AL63 AL66">
-    <cfRule type="expression" dxfId="237" priority="106">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK58:AL58 AK46:AL48 AK51:AL51">
-    <cfRule type="expression" dxfId="236" priority="104">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK53:AL57">
-    <cfRule type="expression" dxfId="235" priority="102">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK50:AL50">
-    <cfRule type="expression" dxfId="234" priority="101">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK63">
-    <cfRule type="expression" dxfId="233" priority="61">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM31:AN31 AM10:AN13 AM15:AN20">
-    <cfRule type="expression" dxfId="232" priority="95">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM24:AN29">
-    <cfRule type="expression" dxfId="231" priority="94">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM21:AN22">
-    <cfRule type="expression" dxfId="230" priority="93">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM33:AN33">
-    <cfRule type="expression" dxfId="229" priority="90">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM34:AN35">
-    <cfRule type="expression" dxfId="228" priority="89">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM32:AN32">
-    <cfRule type="expression" dxfId="227" priority="92">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM42:AN42">
-    <cfRule type="expression" dxfId="226" priority="91">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM43:AN43">
-    <cfRule type="expression" dxfId="225" priority="88">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM23:AN23">
-    <cfRule type="expression" dxfId="224" priority="87">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM52">
-    <cfRule type="expression" dxfId="223" priority="80">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM45:AM51 AM41:AN41">
-    <cfRule type="expression" dxfId="222" priority="85">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM5:AM9 AN8:AN9 AM36:AN40">
-    <cfRule type="expression" dxfId="221" priority="86">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM58 AM46:AM48 AM51">
-    <cfRule type="expression" dxfId="220" priority="84">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM53:AM57">
-    <cfRule type="expression" dxfId="219" priority="82">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM50">
-    <cfRule type="expression" dxfId="218" priority="81">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN5:AN7">
-    <cfRule type="expression" dxfId="217" priority="70">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN45:AN51">
-    <cfRule type="expression" dxfId="216" priority="69">
+    <cfRule type="expression" dxfId="92" priority="154">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH43:AM43">
+    <cfRule type="expression" dxfId="91" priority="152">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI23:AM23">
+    <cfRule type="expression" dxfId="90" priority="150">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL52:AM52">
+    <cfRule type="expression" dxfId="89" priority="139">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM44:AO44">
+    <cfRule type="expression" dxfId="88" priority="102">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK44">
+    <cfRule type="expression" dxfId="87" priority="101">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL41:AM41 AL45:AM51 AL44">
+    <cfRule type="expression" dxfId="86" priority="144">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL5:AM9 AL36:AM40 AM63 AM66">
+    <cfRule type="expression" dxfId="85" priority="145">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL58:AM58 AL46:AM48 AL51:AM51">
+    <cfRule type="expression" dxfId="84" priority="143">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL53:AM57">
+    <cfRule type="expression" dxfId="83" priority="141">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL50:AM50">
+    <cfRule type="expression" dxfId="82" priority="140">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL63">
+    <cfRule type="expression" dxfId="81" priority="100">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN31:AO31 AN10:AO13 AN15:AO20">
+    <cfRule type="expression" dxfId="80" priority="134">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN24:AO29">
+    <cfRule type="expression" dxfId="79" priority="133">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN21:AO22">
+    <cfRule type="expression" dxfId="78" priority="132">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN33:AO33">
+    <cfRule type="expression" dxfId="77" priority="129">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN34:AO35">
+    <cfRule type="expression" dxfId="76" priority="128">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN32:AO32">
+    <cfRule type="expression" dxfId="75" priority="131">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN42:AO42">
+    <cfRule type="expression" dxfId="74" priority="130">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN43:AO43">
+    <cfRule type="expression" dxfId="73" priority="127">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN23:AO23">
+    <cfRule type="expression" dxfId="72" priority="126">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN52">
+    <cfRule type="expression" dxfId="71" priority="119">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN45:AN51 AN41:AO41">
+    <cfRule type="expression" dxfId="70" priority="124">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN5:AN9 AO8:AO9 AN36:AO40">
+    <cfRule type="expression" dxfId="69" priority="125">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN58 AN46:AN48 AN51">
-    <cfRule type="expression" dxfId="215" priority="68">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN52">
-    <cfRule type="expression" dxfId="214" priority="64">
+    <cfRule type="expression" dxfId="68" priority="123">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN53:AN57">
-    <cfRule type="expression" dxfId="213" priority="66">
+    <cfRule type="expression" dxfId="67" priority="121">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN50">
-    <cfRule type="expression" dxfId="212" priority="65">
+    <cfRule type="expression" dxfId="66" priority="120">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO5:AO7">
+    <cfRule type="expression" dxfId="65" priority="109">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO45:AO51">
+    <cfRule type="expression" dxfId="64" priority="108">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO58 AO46:AO48 AO51">
+    <cfRule type="expression" dxfId="63" priority="107">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO52">
+    <cfRule type="expression" dxfId="62" priority="103">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO53:AO57">
+    <cfRule type="expression" dxfId="61" priority="105">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO50">
+    <cfRule type="expression" dxfId="60" priority="104">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="211" priority="59">
+    <cfRule type="expression" dxfId="59" priority="98">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="210" priority="58">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG63">
-    <cfRule type="expression" dxfId="209" priority="57">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG66:AI66">
-    <cfRule type="expression" dxfId="208" priority="56">
+    <cfRule type="expression" dxfId="58" priority="97">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH63">
-    <cfRule type="expression" dxfId="207" priority="55">
+    <cfRule type="expression" dxfId="57" priority="96">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH66:AJ66">
+    <cfRule type="expression" dxfId="56" priority="95">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI63">
-    <cfRule type="expression" dxfId="206" priority="54">
+    <cfRule type="expression" dxfId="55" priority="94">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ63">
+    <cfRule type="expression" dxfId="54" priority="93">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="205" priority="51">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:F60">
-    <cfRule type="expression" dxfId="204" priority="53">
+    <cfRule type="expression" dxfId="53" priority="90">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60 G60">
+    <cfRule type="expression" dxfId="52" priority="92">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="203" priority="52">
+    <cfRule type="expression" dxfId="51" priority="91">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="202" priority="50">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:F59">
-    <cfRule type="expression" dxfId="201" priority="49">
+    <cfRule type="expression" dxfId="50" priority="89">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59 G59">
+    <cfRule type="expression" dxfId="49" priority="88">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="200" priority="48">
+    <cfRule type="expression" dxfId="48" priority="87">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="199" priority="47">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W42:Y42">
-    <cfRule type="expression" dxfId="198" priority="46">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W43:X43">
-    <cfRule type="expression" dxfId="197" priority="45">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W44">
-    <cfRule type="expression" dxfId="196" priority="44">
+    <cfRule type="expression" dxfId="47" priority="86">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X42:Z42">
+    <cfRule type="expression" dxfId="46" priority="85">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X43:Y43">
+    <cfRule type="expression" dxfId="45" priority="84">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X44">
-    <cfRule type="expression" dxfId="195" priority="43">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y43">
-    <cfRule type="expression" dxfId="194" priority="42">
+    <cfRule type="expression" dxfId="44" priority="83">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y44">
-    <cfRule type="expression" dxfId="193" priority="41">
+    <cfRule type="expression" dxfId="43" priority="82">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z43">
+    <cfRule type="expression" dxfId="42" priority="81">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44">
+    <cfRule type="expression" dxfId="41" priority="80">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G79">
+    <cfRule type="expression" dxfId="40" priority="79">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F20 F5 F68:F79">
+    <cfRule type="expression" dxfId="39" priority="39">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F9">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="expression" dxfId="34" priority="24">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F40">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="expression" dxfId="29" priority="28">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F31">
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F35">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
+    <cfRule type="expression" dxfId="21" priority="20">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F37">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:F44">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F22">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:F47">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:F49">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53:F54">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:F56">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:F51">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:F58">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F79">
-    <cfRule type="expression" dxfId="192" priority="40">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
